--- a/war_index.xlsx
+++ b/war_index.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\PhD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B5A492-EFF4-4887-9CDA-34BF58DA2DC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6683212F-28F3-4354-8602-DC7FAAB66422}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{04375B46-837D-49F2-BE8A-ABE006783F6C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>date</t>
   </si>
@@ -173,6 +173,24 @@
   </si>
   <si>
     <t>Ludwig Yorck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">French Revolutionary Wars </t>
+  </si>
+  <si>
+    <t>Italian campaigns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">French Revolutionary Army </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Coalition of Austria, Russia, Piedmont-Sardinia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Coalition </t>
+  </si>
+  <si>
+    <t>1792–1797</t>
   </si>
 </sst>
 </file>
@@ -215,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -224,6 +242,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -541,20 +562,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C1708F5-F567-4565-A221-ECE07B210A7F}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L17:L18"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
     <col min="7" max="7" width="20.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.140625" style="1" customWidth="1"/>
@@ -589,16 +610,16 @@
       <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4" t="s">
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
       <c r="P1" s="1" t="s">
         <v>18</v>
       </c>
@@ -779,60 +800,91 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+    </row>
+    <row r="14" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>19</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I14" s="1">
         <v>20000</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L14" s="1">
         <v>2000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" s="1">
-        <v>18000</v>
-      </c>
-      <c r="L14" s="1">
-        <v>2800</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="1">
+        <v>18000</v>
+      </c>
+      <c r="L15" s="1">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I16" s="1">
         <v>9000</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L16" s="1">
         <v>900</v>
       </c>
     </row>

--- a/war_index.xlsx
+++ b/war_index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6683212F-28F3-4354-8602-DC7FAAB66422}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08207AC1-D220-4224-A61E-CC8C5DA2AAD3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{04375B46-837D-49F2-BE8A-ABE006783F6C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="163">
   <si>
     <t>date</t>
   </si>
@@ -33,15 +33,9 @@
     <t>5 November 1757</t>
   </si>
   <si>
-    <t>campaign</t>
-  </si>
-  <si>
     <t>Seven Years War</t>
   </si>
   <si>
-    <t>part of</t>
-  </si>
-  <si>
     <t>3rd Silesian war</t>
   </si>
   <si>
@@ -54,9 +48,6 @@
     <t>90 min</t>
   </si>
   <si>
-    <t>sides</t>
-  </si>
-  <si>
     <t>Prussia</t>
   </si>
   <si>
@@ -108,10 +99,6 @@
     <t xml:space="preserve">Six Days </t>
   </si>
   <si>
-    <t>War of Sixth Coalition, 
-Napoleonic War</t>
-  </si>
-  <si>
     <t>Leuthen</t>
   </si>
   <si>
@@ -166,38 +153,374 @@
     <t>total</t>
   </si>
   <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>Fabian von Osten-Sacken</t>
-  </si>
-  <si>
-    <t>Ludwig Yorck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">French Revolutionary Wars </t>
-  </si>
-  <si>
-    <t>Italian campaigns</t>
-  </si>
-  <si>
     <t xml:space="preserve">French Revolutionary Army </t>
   </si>
   <si>
-    <t xml:space="preserve"> Coalition of Austria, Russia, Piedmont-Sardinia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Coalition </t>
-  </si>
-  <si>
-    <t>1792–1797</t>
+    <t>sideA</t>
+  </si>
+  <si>
+    <t>sideB</t>
+  </si>
+  <si>
+    <t>commender</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Russia, Prussia</t>
+  </si>
+  <si>
+    <t>Nice, savoy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kingdom of Piedmont-Sardinia</t>
+  </si>
+  <si>
+    <t>reverse of annexation</t>
+  </si>
+  <si>
+    <t>Kingdom of Piedmont-Sardinia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Piedmontese</t>
+  </si>
+  <si>
+    <t>regain of savoy</t>
+  </si>
+  <si>
+    <t>October 1793</t>
+  </si>
+  <si>
+    <t>two-pronged French offensive drove back the Allied force</t>
+  </si>
+  <si>
+    <t>During the political chaos that ensued in the French army, the Allies launched</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Army of Italy launched a counter-offensive and secured supply routes to Genoa following victory at the First Battle of Dego. </t>
+  </si>
+  <si>
+    <t>29 June 1795</t>
+  </si>
+  <si>
+    <t>Austrians</t>
+  </si>
+  <si>
+    <t>French Army of Italy</t>
+  </si>
+  <si>
+    <t>107000, 30000</t>
+  </si>
+  <si>
+    <t>Battle of Loano</t>
+  </si>
+  <si>
+    <t>Austrians launched an attack against the depleted and poorly supplied French Army of Italy.</t>
+  </si>
+  <si>
+    <t>November 1795</t>
+  </si>
+  <si>
+    <t>French army of Italy</t>
+  </si>
+  <si>
+    <t>Austrian and Sardinian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Napoleon, Barthélemy Schérer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battle of Montenotte </t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>Austrian</t>
+  </si>
+  <si>
+    <t>12 April 1796</t>
+  </si>
+  <si>
+    <t>21 April 1796</t>
+  </si>
+  <si>
+    <t>Napoleon Bonaparte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kingdom of Sardinia-Piedmont </t>
+  </si>
+  <si>
+    <t xml:space="preserve">led by Michelangelo Alessandro Colli-Marchi. </t>
+  </si>
+  <si>
+    <t>french</t>
+  </si>
+  <si>
+    <t>Count Eugène-Guillaume Argenteau</t>
+  </si>
+  <si>
+    <t>. The French won the battle,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austrian rear guard </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karl Philipp Sebottendorf </t>
+  </si>
+  <si>
+    <t>The rear guard was defeated, but the main body of Johann Peter Beaulieu's Austrian Army had time to retreat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 May 1796 </t>
+  </si>
+  <si>
+    <t>Battle of Lodi</t>
+  </si>
+  <si>
+    <t>Siege of Mantua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">French </t>
+  </si>
+  <si>
+    <t>surrender of austrians</t>
+  </si>
+  <si>
+    <t>4 July 1796 to 2 February 1797</t>
+  </si>
+  <si>
+    <t>8 September 1796</t>
+  </si>
+  <si>
+    <t>territory of the Republic of Venice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battle of Bassano </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austrian </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papal forces. </t>
+  </si>
+  <si>
+    <t>Fort Urban</t>
+  </si>
+  <si>
+    <t>Invading Grand Duchy of Tuscany and the Papal States</t>
+  </si>
+  <si>
+    <t>division</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battle of Lonato </t>
+  </si>
+  <si>
+    <t>3 and 4 August 1796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">French Army of Italy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">corps-sized Austrian </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lieutenant General Peter Quasdanovich. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battle of Castiglione </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Habsburg Monarchy </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5 August 1796</t>
+  </si>
+  <si>
+    <t>Méribel</t>
+  </si>
+  <si>
+    <t>13 September 1793</t>
+  </si>
+  <si>
+    <t>French Army.</t>
+  </si>
+  <si>
+    <t>Kingdom of Sardinia, combined forces of Savoy, Piedmont and Aosta Valley</t>
+  </si>
+  <si>
+    <t>First Coalition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">French Revolutionary Wars 1792–1797 </t>
+  </si>
+  <si>
+    <t>Annexation of Nice and Savoy</t>
+  </si>
+  <si>
+    <t>Battle of Valmy</t>
+  </si>
+  <si>
+    <t>20 September 1792</t>
+  </si>
+  <si>
+    <t>Duke of Brunswick</t>
+  </si>
+  <si>
+    <t>Generals François Kellermann and Charles Dumouriez</t>
+  </si>
+  <si>
+    <t>tactical draw</t>
+  </si>
+  <si>
+    <t>village of Valmy in Champagne-Ardenne.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battle of Méribel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battle of Neerwinden </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republican French </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charles François Dumouriez </t>
+  </si>
+  <si>
+    <t>Prince Josias of Saxe-Coburg-Saalfeld</t>
+  </si>
+  <si>
+    <t>18 march 1793</t>
+  </si>
+  <si>
+    <t>Neerwinden, Brussels</t>
+  </si>
+  <si>
+    <t>Habsburg, Dutch Rep</t>
+  </si>
+  <si>
+    <t>Battle of Saorgio</t>
+  </si>
+  <si>
+    <t>24-28 April 1794</t>
+  </si>
+  <si>
+    <t>assault on Savona</t>
+  </si>
+  <si>
+    <t>First Battle of Dego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battle of Mondovì </t>
+  </si>
+  <si>
+    <t>Nice, Provence</t>
+  </si>
+  <si>
+    <t>8–12 June 1793</t>
+  </si>
+  <si>
+    <t>French 1st Rep.Army</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P.J.Dumerbion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KoS-P, Habsburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> J.N.Vins</t>
+  </si>
+  <si>
+    <t>SideA</t>
+  </si>
+  <si>
+    <t>Saorge, Nice</t>
+  </si>
+  <si>
+    <t>Battle of Verona</t>
+  </si>
+  <si>
+    <t>18 October 1805</t>
+  </si>
+  <si>
+    <t>Verona</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> André Masséna</t>
+  </si>
+  <si>
+    <t>Archduke Charles</t>
+  </si>
+  <si>
+    <t>War of the 3rd Coalition</t>
+  </si>
+  <si>
+    <t>Part of</t>
+  </si>
+  <si>
+    <t>Campaign</t>
+  </si>
+  <si>
+    <t>battalion</t>
+  </si>
+  <si>
+    <t>323-450</t>
+  </si>
+  <si>
+    <t>battalions</t>
+  </si>
+  <si>
+    <t>squadron</t>
+  </si>
+  <si>
+    <t>Count D.v.Wurmser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feldmarschall D.S.v.Wurmser </t>
+  </si>
+  <si>
+    <t>F.v.Osten-Sacken, L.Yorck</t>
+  </si>
+  <si>
+    <t>1152-1622</t>
+  </si>
+  <si>
+    <t>Compose of</t>
+  </si>
+  <si>
+    <t>lost guns</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Battle_of_Verona_(1805)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Napoleon Bonaparte</t>
+  </si>
+  <si>
+    <t>Massena seized a bridgehead on the east bank of the Adige River, driving back the defending troops under Josef Philipp Vukassovich.</t>
+  </si>
+  <si>
+    <t>Battle of Caldiero</t>
+  </si>
+  <si>
+    <t>29-31 October 1805</t>
+  </si>
+  <si>
+    <t>Austrian Army</t>
+  </si>
+  <si>
+    <t>War of Sixth Coalition</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,8 +529,26 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,8 +561,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -229,27 +576,111 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -562,337 +993,1465 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C1708F5-F567-4565-A221-ECE07B210A7F}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:AE29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19" style="3" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="4.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="9.140625" style="1"/>
+    <col min="7" max="7" width="26.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="9.140625" style="1"/>
+    <col min="17" max="17" width="19" style="2" customWidth="1"/>
+    <col min="18" max="18" width="25.5703125" style="11" customWidth="1"/>
+    <col min="19" max="20" width="12" style="9" customWidth="1"/>
+    <col min="21" max="27" width="9.140625" style="2"/>
+    <col min="28" max="28" width="9.140625" style="9"/>
+    <col min="29" max="29" width="9.140625" style="1"/>
+    <col min="31" max="31" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD1" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="T2" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA2" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB2" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13">
+        <v>11000</v>
+      </c>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13">
+        <v>192</v>
+      </c>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" s="15"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13">
+        <v>30000</v>
+      </c>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13">
+        <v>600</v>
+      </c>
+      <c r="X3" s="13">
+        <v>6500</v>
+      </c>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD3" s="12"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13">
+        <v>22000</v>
+      </c>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13">
+        <v>100</v>
+      </c>
+      <c r="N4" s="13">
+        <v>400</v>
+      </c>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13">
+        <v>420000</v>
+      </c>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13">
+        <v>3500</v>
+      </c>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13">
+        <v>10000</v>
+      </c>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD4" s="12"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="12"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13">
+        <v>33000</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13">
+        <v>1141</v>
+      </c>
+      <c r="N6" s="13">
+        <v>5118</v>
+      </c>
+      <c r="O6" s="13">
+        <v>85</v>
+      </c>
+      <c r="P6" s="13">
+        <v>6344</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13">
+        <v>66000</v>
+      </c>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13">
+        <v>3000</v>
+      </c>
+      <c r="Y6" s="13">
+        <v>7000</v>
+      </c>
+      <c r="Z6" s="13">
+        <v>12000</v>
+      </c>
+      <c r="AA6" s="13">
+        <v>22000</v>
+      </c>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD6" s="12"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1792</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13">
+        <v>30000</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7" s="15"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="12"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="R8" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="R9" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD9" s="12"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="R10" s="15"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13">
+        <v>12000</v>
+      </c>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="R11" s="15"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="12"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="R12" s="15"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD12" s="12"/>
+    </row>
+    <row r="13" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="R13" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24">
+        <v>45000</v>
+      </c>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="24"/>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="24"/>
+      <c r="AC13" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD13" s="23"/>
+      <c r="AE13" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="R16" s="15"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="R17" s="15"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD17" s="12"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="R18" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD18" s="12"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13">
+        <v>6000</v>
+      </c>
+      <c r="Q19" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="R19" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13">
+        <v>25000</v>
+      </c>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD19" s="12"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="R20" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD20" s="12"/>
+    </row>
+    <row r="21" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="R21" s="15"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD21" s="12"/>
+    </row>
+    <row r="22" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="22"/>
+      <c r="E22" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="R22" s="15"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD22" s="12"/>
+    </row>
+    <row r="23" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="R23" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="13"/>
+      <c r="AC23" s="13"/>
+      <c r="AD23" s="12"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="R24" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="13"/>
+      <c r="AC24" s="13"/>
+      <c r="AD24" s="12"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="R25" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="13"/>
+      <c r="AB25" s="13"/>
+      <c r="AC25" s="13"/>
+      <c r="AD25" s="12"/>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="I26" s="13">
+        <v>13</v>
+      </c>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13">
+        <v>15</v>
+      </c>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q26" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="R26" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="S26" s="13">
+        <v>6</v>
+      </c>
+      <c r="T26" s="13">
+        <v>1</v>
+      </c>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13">
+        <v>12</v>
+      </c>
+      <c r="W26" s="13"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="13"/>
+      <c r="Z26" s="13"/>
+      <c r="AA26" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB26" s="13">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="P1" s="1" t="s">
+      <c r="AC26" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD26" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE26" s="28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="R27" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="13"/>
+      <c r="Z27" s="13"/>
+      <c r="AA27" s="13"/>
+      <c r="AB27" s="13"/>
+      <c r="AC27" s="13"/>
+      <c r="AD27" s="26"/>
+      <c r="AE27" s="29"/>
+    </row>
+    <row r="28" spans="1:31" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="1">
-        <v>11000</v>
-      </c>
-      <c r="L3" s="1">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="1">
-        <v>30000</v>
-      </c>
-      <c r="K4" s="1">
-        <v>600</v>
-      </c>
-      <c r="L4" s="1">
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="1">
-        <v>22000</v>
-      </c>
-      <c r="L5" s="1">
-        <v>100</v>
-      </c>
-      <c r="M5" s="1">
-        <v>400</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="1">
-        <v>420000</v>
-      </c>
-      <c r="L6" s="1">
-        <v>3500</v>
-      </c>
-      <c r="N6" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="1">
-        <v>33000</v>
-      </c>
-      <c r="L7" s="1">
-        <v>1141</v>
-      </c>
-      <c r="M7" s="1">
-        <v>5118</v>
-      </c>
-      <c r="N7" s="1">
-        <v>85</v>
-      </c>
-      <c r="O7" s="1">
-        <v>6344</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="1">
-        <v>66000</v>
-      </c>
-      <c r="L8" s="1">
-        <v>3000</v>
-      </c>
-      <c r="M8" s="1">
-        <v>7000</v>
-      </c>
-      <c r="N8" s="1">
-        <v>12000</v>
-      </c>
-      <c r="O8" s="1">
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-    </row>
-    <row r="14" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="1">
+      <c r="I28" s="13"/>
+      <c r="J28" s="13">
         <v>20000</v>
       </c>
-      <c r="L14" s="1">
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13">
         <v>2000</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" s="1" t="s">
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="I15" s="1">
-        <v>18000</v>
-      </c>
-      <c r="L15" s="1">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" s="1">
+      <c r="R28" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13">
         <v>9000</v>
       </c>
-      <c r="L16" s="1">
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13">
         <v>900</v>
       </c>
+      <c r="Y28" s="13"/>
+      <c r="Z28" s="13"/>
+      <c r="AA28" s="13"/>
+      <c r="AB28" s="13"/>
+      <c r="AC28" s="13"/>
+      <c r="AD28" s="12"/>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="13"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="I1:K1"/>
+  <mergeCells count="6">
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="X1:AB1"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="S1:W1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="AD26" r:id="rId1" xr:uid="{AB43767C-640A-454E-8867-6D6B4EA887DD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/war_index.xlsx
+++ b/war_index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08207AC1-D220-4224-A61E-CC8C5DA2AAD3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C0FE06-F74C-48CB-87CB-A2EC654790BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{04375B46-837D-49F2-BE8A-ABE006783F6C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="184">
   <si>
     <t>date</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Charles de Rohan, Prince Joseph</t>
   </si>
   <si>
-    <t>captured</t>
-  </si>
-  <si>
     <t>Victory</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
     <t>Alexander of Lorraine</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>wounded</t>
   </si>
   <si>
@@ -144,9 +138,6 @@
     <t>man</t>
   </si>
   <si>
-    <t>ship</t>
-  </si>
-  <si>
     <t>gun</t>
   </si>
   <si>
@@ -514,6 +505,78 @@
   </si>
   <si>
     <t>War of Sixth Coalition</t>
+  </si>
+  <si>
+    <t>Battle of Trafalgar</t>
+  </si>
+  <si>
+    <t>21 October 1805</t>
+  </si>
+  <si>
+    <t>Off Cape Trafalgar, Atlantic Ocean</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Trafalgar Campaign</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>France, Spain</t>
+  </si>
+  <si>
+    <t>P.Villeneuve, Federico</t>
+  </si>
+  <si>
+    <t>H.Nelson, C.Collingwood</t>
+  </si>
+  <si>
+    <t>Frigate</t>
+  </si>
+  <si>
+    <t>brig</t>
+  </si>
+  <si>
+    <t>frigate</t>
+  </si>
+  <si>
+    <t>scooner</t>
+  </si>
+  <si>
+    <t>cutter</t>
+  </si>
+  <si>
+    <t>captured_man</t>
+  </si>
+  <si>
+    <t>captured_ship</t>
+  </si>
+  <si>
+    <t>killed_man</t>
+  </si>
+  <si>
+    <t>destroyed_ship</t>
+  </si>
+  <si>
+    <t>SideB</t>
+  </si>
+  <si>
+    <t>ship_1stRate</t>
+  </si>
+  <si>
+    <t>ship_2ndRate</t>
+  </si>
+  <si>
+    <t>ship_3rdRate</t>
+  </si>
+  <si>
+    <t>totalShip</t>
+  </si>
+  <si>
+    <t>totalShipsOffLine</t>
+  </si>
+  <si>
+    <t>totalShips</t>
   </si>
 </sst>
 </file>
@@ -548,7 +611,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -567,8 +630,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -600,12 +669,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -643,9 +749,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -677,6 +780,60 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -993,11 +1150,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C1708F5-F567-4565-A221-ECE07B210A7F}">
-  <dimension ref="A1:AE29"/>
+  <dimension ref="A1:AY31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC27" sqref="AC27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,19 +1170,30 @@
     <col min="9" max="9" width="14.42578125" style="9" customWidth="1"/>
     <col min="10" max="10" width="11.140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="4.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="9.140625" style="1"/>
-    <col min="17" max="17" width="19" style="2" customWidth="1"/>
-    <col min="18" max="18" width="25.5703125" style="11" customWidth="1"/>
-    <col min="19" max="20" width="12" style="9" customWidth="1"/>
-    <col min="21" max="27" width="9.140625" style="2"/>
-    <col min="28" max="28" width="9.140625" style="9"/>
-    <col min="29" max="29" width="9.140625" style="1"/>
-    <col min="31" max="31" width="9.140625" style="6"/>
+    <col min="12" max="17" width="7" style="9" customWidth="1"/>
+    <col min="18" max="20" width="6.42578125" style="9" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" style="9" customWidth="1"/>
+    <col min="23" max="24" width="9.140625" style="1"/>
+    <col min="25" max="25" width="9.140625" style="9"/>
+    <col min="26" max="26" width="9.140625" style="1"/>
+    <col min="27" max="27" width="19" style="2" customWidth="1"/>
+    <col min="28" max="28" width="25.5703125" style="11" customWidth="1"/>
+    <col min="29" max="30" width="12" style="9" customWidth="1"/>
+    <col min="31" max="32" width="9.140625" style="2"/>
+    <col min="33" max="38" width="7" style="9" customWidth="1"/>
+    <col min="39" max="41" width="6.42578125" style="9" customWidth="1"/>
+    <col min="42" max="42" width="9.140625" style="2"/>
+    <col min="43" max="43" width="9.140625" style="9"/>
+    <col min="44" max="45" width="9.140625" style="2"/>
+    <col min="46" max="46" width="9.140625" style="9"/>
+    <col min="47" max="47" width="9.140625" style="2"/>
+    <col min="48" max="48" width="9.140625" style="9"/>
+    <col min="49" max="49" width="9.140625" style="1"/>
+    <col min="51" max="51" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -1034,722 +1202,1035 @@
       <c r="F1" s="12"/>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14" t="s">
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="42"/>
+      <c r="AO1" s="43"/>
+      <c r="AP1" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ1" s="30"/>
+      <c r="AR1" s="30"/>
+      <c r="AS1" s="30"/>
+      <c r="AT1" s="30"/>
+      <c r="AU1" s="30"/>
+      <c r="AV1" s="30"/>
+      <c r="AW1" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX1" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16" t="s">
+      <c r="L2" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="U2" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y2" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z2" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA2" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC2" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD2" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE2" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD1" s="17" t="s">
-        <v>46</v>
-      </c>
+      <c r="AG2" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH2" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI2" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ2" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK2" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL2" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="AM2" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN2" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="AO2" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="AP2" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="AQ2" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="AR2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="AS2" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="AT2" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="AU2" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV2" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="AW2" s="29"/>
+      <c r="AX2" s="29"/>
     </row>
-    <row r="2" spans="1:31" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="18" t="s">
+    <row r="3" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="17"/>
+      <c r="AG3" s="17"/>
+      <c r="AH3" s="17"/>
+      <c r="AI3" s="17"/>
+      <c r="AJ3" s="17"/>
+      <c r="AK3" s="17"/>
+      <c r="AL3" s="17"/>
+      <c r="AM3" s="17"/>
+      <c r="AN3" s="17"/>
+      <c r="AO3" s="17"/>
+      <c r="AP3" s="17"/>
+      <c r="AQ3" s="17"/>
+      <c r="AR3" s="17"/>
+      <c r="AS3" s="17"/>
+      <c r="AT3" s="17"/>
+      <c r="AU3" s="17"/>
+      <c r="AV3" s="17"/>
+      <c r="AW3" s="16"/>
+      <c r="AX3" s="16"/>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="D4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q2" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="R2" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="S2" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="T2" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="U2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="V2" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="W2" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="X2" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA2" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB2" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12" t="s">
+      <c r="E4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="F4" s="12"/>
+      <c r="G4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13" t="s">
+      <c r="H4" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13">
-        <v>11000</v>
-      </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13">
-        <v>192</v>
-      </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3" s="15"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13">
-        <v>30000</v>
-      </c>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13">
-        <v>600</v>
-      </c>
-      <c r="X3" s="13">
-        <v>6500</v>
-      </c>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD3" s="12"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>11</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="13">
+        <v>11000</v>
+      </c>
+      <c r="K4" s="13"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="13">
+        <v>192</v>
+      </c>
+      <c r="V4" s="14"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13">
+        <v>30000</v>
+      </c>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="14"/>
+      <c r="AI4" s="14"/>
+      <c r="AJ4" s="14"/>
+      <c r="AK4" s="14"/>
+      <c r="AL4" s="14"/>
+      <c r="AM4" s="14"/>
+      <c r="AN4" s="14"/>
+      <c r="AO4" s="14"/>
+      <c r="AP4" s="13">
+        <v>6500</v>
+      </c>
+      <c r="AQ4" s="14"/>
+      <c r="AR4" s="13"/>
+      <c r="AS4" s="13"/>
+      <c r="AT4" s="14"/>
+      <c r="AU4" s="13"/>
+      <c r="AV4" s="13"/>
+      <c r="AW4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AX4" s="12"/>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13">
         <v>22000</v>
       </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13">
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="13">
         <v>100</v>
       </c>
-      <c r="N4" s="13">
+      <c r="V5" s="14"/>
+      <c r="W5" s="13">
         <v>400</v>
       </c>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13" t="s">
+      <c r="X5" s="13"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="15" t="s">
+      <c r="AB5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13">
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13">
         <v>420000</v>
       </c>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13">
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="14"/>
+      <c r="AI5" s="14"/>
+      <c r="AJ5" s="14"/>
+      <c r="AK5" s="14"/>
+      <c r="AL5" s="14"/>
+      <c r="AM5" s="14"/>
+      <c r="AN5" s="14"/>
+      <c r="AO5" s="14"/>
+      <c r="AP5" s="13">
         <v>3500</v>
       </c>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13">
+      <c r="AQ5" s="14"/>
+      <c r="AR5" s="13"/>
+      <c r="AS5" s="13">
         <v>10000</v>
       </c>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD4" s="12"/>
+      <c r="AT5" s="14"/>
+      <c r="AU5" s="13"/>
+      <c r="AV5" s="13"/>
+      <c r="AW5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AX5" s="12"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="12"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14"/>
+      <c r="AI6" s="14"/>
+      <c r="AJ6" s="14"/>
+      <c r="AK6" s="14"/>
+      <c r="AL6" s="14"/>
+      <c r="AM6" s="14"/>
+      <c r="AN6" s="14"/>
+      <c r="AO6" s="14"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="14"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="14"/>
+      <c r="AU6" s="13"/>
+      <c r="AV6" s="13"/>
+      <c r="AW6" s="13"/>
+      <c r="AX6" s="12"/>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13">
-        <v>33000</v>
-      </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13">
-        <v>1141</v>
-      </c>
-      <c r="N6" s="13">
-        <v>5118</v>
-      </c>
-      <c r="O6" s="13">
-        <v>85</v>
-      </c>
-      <c r="P6" s="13">
-        <v>6344</v>
-      </c>
-      <c r="Q6" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="R6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13">
-        <v>66000</v>
-      </c>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13">
-        <v>3000</v>
-      </c>
-      <c r="Y6" s="13">
-        <v>7000</v>
-      </c>
-      <c r="Z6" s="13">
-        <v>12000</v>
-      </c>
-      <c r="AA6" s="13">
-        <v>22000</v>
-      </c>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD6" s="12"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="13">
-        <v>1792</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>48</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="I7" s="13"/>
       <c r="J7" s="13">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="R7" s="15"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="13">
+        <v>1141</v>
+      </c>
+      <c r="V7" s="14"/>
+      <c r="W7" s="13">
+        <v>5118</v>
+      </c>
+      <c r="X7" s="13">
+        <v>85</v>
+      </c>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="13">
+        <v>6344</v>
+      </c>
+      <c r="AA7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB7" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="AC7" s="13"/>
-      <c r="AD7" s="12"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13">
+        <v>66000</v>
+      </c>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="14"/>
+      <c r="AM7" s="14"/>
+      <c r="AN7" s="14"/>
+      <c r="AO7" s="14"/>
+      <c r="AP7" s="13">
+        <v>3000</v>
+      </c>
+      <c r="AQ7" s="14"/>
+      <c r="AR7" s="13">
+        <v>7000</v>
+      </c>
+      <c r="AS7" s="13">
+        <v>12000</v>
+      </c>
+      <c r="AT7" s="14"/>
+      <c r="AU7" s="13">
+        <v>22000</v>
+      </c>
+      <c r="AV7" s="13"/>
+      <c r="AW7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX7" s="12"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>112</v>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1792</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>114</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="H8" s="13"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+      <c r="J8" s="13">
+        <v>30000</v>
+      </c>
       <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="R8" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
       <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
+      <c r="V8" s="14"/>
       <c r="W8" s="13"/>
       <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
+      <c r="Y8" s="14"/>
       <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
+      <c r="AA8" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB8" s="15"/>
       <c r="AC8" s="13"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="6" t="s">
-        <v>115</v>
-      </c>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="14"/>
+      <c r="AM8" s="14"/>
+      <c r="AN8" s="14"/>
+      <c r="AO8" s="14"/>
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="14"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="13"/>
+      <c r="AT8" s="14"/>
+      <c r="AU8" s="13"/>
+      <c r="AV8" s="13"/>
+      <c r="AW8" s="13"/>
+      <c r="AX8" s="12"/>
     </row>
-    <row r="9" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="21" t="s">
-        <v>118</v>
+      <c r="C9" s="20" t="s">
+        <v>108</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="13" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="R9" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
       <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
+      <c r="V9" s="14"/>
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
+      <c r="Y9" s="14"/>
       <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD9" s="12"/>
+      <c r="AA9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB9" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="14"/>
+      <c r="AJ9" s="14"/>
+      <c r="AK9" s="14"/>
+      <c r="AL9" s="14"/>
+      <c r="AM9" s="14"/>
+      <c r="AN9" s="14"/>
+      <c r="AO9" s="14"/>
+      <c r="AP9" s="13"/>
+      <c r="AQ9" s="14"/>
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="13"/>
+      <c r="AT9" s="14"/>
+      <c r="AU9" s="13"/>
+      <c r="AV9" s="13"/>
+      <c r="AW9" s="13"/>
+      <c r="AX9" s="12"/>
+      <c r="AY9" s="6" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
-      <c r="C10" s="12" t="s">
-        <v>125</v>
+      <c r="C10" s="20" t="s">
+        <v>115</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="13"/>
+        <v>116</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>117</v>
+      </c>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="R10" s="15"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
       <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
+      <c r="V10" s="14"/>
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
+      <c r="Y10" s="14"/>
       <c r="Z10" s="13"/>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="13"/>
+      <c r="AA10" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB10" s="15" t="s">
+        <v>118</v>
+      </c>
       <c r="AC10" s="13"/>
-      <c r="AD10" s="12"/>
-      <c r="AE10" s="7" t="s">
-        <v>50</v>
-      </c>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="14"/>
+      <c r="AK10" s="14"/>
+      <c r="AL10" s="14"/>
+      <c r="AM10" s="14"/>
+      <c r="AN10" s="14"/>
+      <c r="AO10" s="14"/>
+      <c r="AP10" s="13"/>
+      <c r="AQ10" s="14"/>
+      <c r="AR10" s="13"/>
+      <c r="AS10" s="13"/>
+      <c r="AT10" s="14"/>
+      <c r="AU10" s="13"/>
+      <c r="AV10" s="13"/>
+      <c r="AW10" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AX10" s="12"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
-      <c r="C11" s="20"/>
+      <c r="C11" s="12" t="s">
+        <v>122</v>
+      </c>
       <c r="D11" s="13" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
-      <c r="J11" s="13">
-        <v>12000</v>
-      </c>
+      <c r="J11" s="13"/>
       <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="R11" s="15"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
       <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
+      <c r="V11" s="14"/>
       <c r="W11" s="13"/>
       <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
+      <c r="Y11" s="14"/>
       <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
+      <c r="AA11" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB11" s="15"/>
       <c r="AC11" s="13"/>
-      <c r="AD11" s="12"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="14"/>
+      <c r="AJ11" s="14"/>
+      <c r="AK11" s="14"/>
+      <c r="AL11" s="14"/>
+      <c r="AM11" s="14"/>
+      <c r="AN11" s="14"/>
+      <c r="AO11" s="14"/>
+      <c r="AP11" s="13"/>
+      <c r="AQ11" s="14"/>
+      <c r="AR11" s="13"/>
+      <c r="AS11" s="13"/>
+      <c r="AT11" s="14"/>
+      <c r="AU11" s="13"/>
+      <c r="AV11" s="13"/>
+      <c r="AW11" s="13"/>
+      <c r="AX11" s="12"/>
+      <c r="AY11" s="7" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
-      <c r="C12" s="21" t="s">
-        <v>117</v>
-      </c>
+      <c r="C12" s="19"/>
       <c r="D12" s="13" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="13" t="s">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
+      <c r="J12" s="13">
+        <v>12000</v>
+      </c>
       <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="R12" s="15"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
       <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
+      <c r="V12" s="14"/>
       <c r="W12" s="13"/>
       <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
+      <c r="Y12" s="14"/>
       <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD12" s="12"/>
+      <c r="AA12" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="14"/>
+      <c r="AI12" s="14"/>
+      <c r="AJ12" s="14"/>
+      <c r="AK12" s="14"/>
+      <c r="AL12" s="14"/>
+      <c r="AM12" s="14"/>
+      <c r="AN12" s="14"/>
+      <c r="AO12" s="14"/>
+      <c r="AP12" s="13"/>
+      <c r="AQ12" s="14"/>
+      <c r="AR12" s="13"/>
+      <c r="AS12" s="13"/>
+      <c r="AT12" s="14"/>
+      <c r="AU12" s="13"/>
+      <c r="AV12" s="13"/>
+      <c r="AW12" s="13"/>
+      <c r="AX12" s="12"/>
     </row>
-    <row r="13" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="E13" s="23" t="s">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="14"/>
+      <c r="AK13" s="14"/>
+      <c r="AL13" s="14"/>
+      <c r="AM13" s="14"/>
+      <c r="AN13" s="14"/>
+      <c r="AO13" s="14"/>
+      <c r="AP13" s="13"/>
+      <c r="AQ13" s="14"/>
+      <c r="AR13" s="13"/>
+      <c r="AS13" s="13"/>
+      <c r="AT13" s="14"/>
+      <c r="AU13" s="13"/>
+      <c r="AV13" s="13"/>
+      <c r="AW13" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX13" s="12"/>
+    </row>
+    <row r="14" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="H14" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="24" t="s">
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB14" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="AC14" s="23"/>
+      <c r="AD14" s="23"/>
+      <c r="AE14" s="23">
+        <v>45000</v>
+      </c>
+      <c r="AF14" s="23"/>
+      <c r="AG14" s="23"/>
+      <c r="AH14" s="23"/>
+      <c r="AI14" s="23"/>
+      <c r="AJ14" s="23"/>
+      <c r="AK14" s="23"/>
+      <c r="AL14" s="23"/>
+      <c r="AM14" s="23"/>
+      <c r="AN14" s="23"/>
+      <c r="AO14" s="23"/>
+      <c r="AP14" s="23"/>
+      <c r="AQ14" s="23"/>
+      <c r="AR14" s="23"/>
+      <c r="AS14" s="23"/>
+      <c r="AT14" s="23"/>
+      <c r="AU14" s="23"/>
+      <c r="AV14" s="23"/>
+      <c r="AW14" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="R13" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24">
-        <v>45000</v>
-      </c>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="24"/>
-      <c r="AA13" s="24"/>
-      <c r="AB13" s="24"/>
-      <c r="AC13" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD13" s="23"/>
-      <c r="AE13" s="8" t="s">
-        <v>55</v>
+      <c r="AX14" s="22"/>
+      <c r="AY14" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="12"/>
-      <c r="AE14" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="20" t="s">
-        <v>128</v>
+      <c r="C15" s="19" t="s">
+        <v>124</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="12"/>
@@ -1759,697 +2240,1169 @@
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
       <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
+      <c r="V15" s="14"/>
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
+      <c r="Y15" s="14"/>
       <c r="Z15" s="13"/>
       <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
+      <c r="AB15" s="15"/>
       <c r="AC15" s="13"/>
-      <c r="AD15" s="12"/>
-      <c r="AE15" s="5" t="s">
-        <v>57</v>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="14"/>
+      <c r="AH15" s="14"/>
+      <c r="AI15" s="14"/>
+      <c r="AJ15" s="14"/>
+      <c r="AK15" s="14"/>
+      <c r="AL15" s="14"/>
+      <c r="AM15" s="14"/>
+      <c r="AN15" s="14"/>
+      <c r="AO15" s="14"/>
+      <c r="AP15" s="13"/>
+      <c r="AQ15" s="14"/>
+      <c r="AR15" s="13"/>
+      <c r="AS15" s="13"/>
+      <c r="AT15" s="14"/>
+      <c r="AU15" s="13"/>
+      <c r="AV15" s="13"/>
+      <c r="AW15" s="13"/>
+      <c r="AX15" s="12"/>
+      <c r="AY15" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="13" t="s">
-        <v>58</v>
-      </c>
+      <c r="C16" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="13"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
-      <c r="G16" s="13" t="s">
-        <v>59</v>
-      </c>
+      <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="R16" s="15"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="V16" s="13"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="14"/>
       <c r="W16" s="13"/>
       <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
+      <c r="Y16" s="14"/>
       <c r="Z16" s="13"/>
       <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
+      <c r="AB16" s="15"/>
       <c r="AC16" s="13"/>
-      <c r="AD16" s="12"/>
-      <c r="AE16" s="5" t="s">
-        <v>63</v>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="14"/>
+      <c r="AI16" s="14"/>
+      <c r="AJ16" s="14"/>
+      <c r="AK16" s="14"/>
+      <c r="AL16" s="14"/>
+      <c r="AM16" s="14"/>
+      <c r="AN16" s="14"/>
+      <c r="AO16" s="14"/>
+      <c r="AP16" s="13"/>
+      <c r="AQ16" s="14"/>
+      <c r="AR16" s="13"/>
+      <c r="AS16" s="13"/>
+      <c r="AT16" s="14"/>
+      <c r="AU16" s="13"/>
+      <c r="AV16" s="13"/>
+      <c r="AW16" s="13"/>
+      <c r="AX16" s="12"/>
+      <c r="AY16" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
-      <c r="C17" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C17" s="19"/>
       <c r="D17" s="13" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>67</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="R17" s="15"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
       <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
+      <c r="V17" s="14"/>
       <c r="W17" s="13"/>
       <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
+      <c r="Y17" s="14"/>
       <c r="Z17" s="13"/>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD17" s="12"/>
+      <c r="AA17" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="14"/>
+      <c r="AH17" s="14"/>
+      <c r="AI17" s="14"/>
+      <c r="AJ17" s="14"/>
+      <c r="AK17" s="14"/>
+      <c r="AL17" s="14"/>
+      <c r="AM17" s="14"/>
+      <c r="AN17" s="14"/>
+      <c r="AO17" s="14"/>
+      <c r="AP17" s="13"/>
+      <c r="AQ17" s="14"/>
+      <c r="AR17" s="13"/>
+      <c r="AS17" s="13"/>
+      <c r="AT17" s="14"/>
+      <c r="AU17" s="13"/>
+      <c r="AV17" s="13"/>
+      <c r="AW17" s="13"/>
+      <c r="AX17" s="12"/>
+      <c r="AY17" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
-      <c r="C18" s="20" t="s">
-        <v>68</v>
+      <c r="C18" s="19" t="s">
+        <v>59</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="13" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="R18" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
       <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
+      <c r="V18" s="14"/>
       <c r="W18" s="13"/>
       <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
+      <c r="Y18" s="14"/>
       <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD18" s="12"/>
+      <c r="AA18" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="13"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="14"/>
+      <c r="AI18" s="14"/>
+      <c r="AJ18" s="14"/>
+      <c r="AK18" s="14"/>
+      <c r="AL18" s="14"/>
+      <c r="AM18" s="14"/>
+      <c r="AN18" s="14"/>
+      <c r="AO18" s="14"/>
+      <c r="AP18" s="13"/>
+      <c r="AQ18" s="14"/>
+      <c r="AR18" s="13"/>
+      <c r="AS18" s="13"/>
+      <c r="AT18" s="14"/>
+      <c r="AU18" s="13"/>
+      <c r="AV18" s="13"/>
+      <c r="AW18" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AX18" s="12"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
-      <c r="C19" s="20" t="s">
-        <v>129</v>
+      <c r="C19" s="19" t="s">
+        <v>65</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13">
-        <v>6000</v>
-      </c>
-      <c r="Q19" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="R19" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
       <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
+      <c r="V19" s="14"/>
       <c r="W19" s="13"/>
       <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
+      <c r="Y19" s="14"/>
       <c r="Z19" s="13"/>
-      <c r="AA19" s="13">
-        <v>25000</v>
-      </c>
-      <c r="AB19" s="13"/>
-      <c r="AC19" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD19" s="12"/>
+      <c r="AA19" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB19" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="13"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="14"/>
+      <c r="AI19" s="14"/>
+      <c r="AJ19" s="14"/>
+      <c r="AK19" s="14"/>
+      <c r="AL19" s="14"/>
+      <c r="AM19" s="14"/>
+      <c r="AN19" s="14"/>
+      <c r="AO19" s="14"/>
+      <c r="AP19" s="13"/>
+      <c r="AQ19" s="14"/>
+      <c r="AR19" s="13"/>
+      <c r="AS19" s="13"/>
+      <c r="AT19" s="14"/>
+      <c r="AU19" s="13"/>
+      <c r="AV19" s="13"/>
+      <c r="AW19" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX19" s="12"/>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
-      <c r="C20" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>82</v>
+      <c r="C20" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="R20" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
       <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
+      <c r="V20" s="14"/>
       <c r="W20" s="13"/>
       <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="13"/>
-      <c r="AB20" s="13"/>
-      <c r="AC20" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD20" s="12"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="13">
+        <v>6000</v>
+      </c>
+      <c r="AA20" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB20" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="13"/>
+      <c r="AF20" s="13"/>
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="14"/>
+      <c r="AI20" s="14"/>
+      <c r="AJ20" s="14"/>
+      <c r="AK20" s="14"/>
+      <c r="AL20" s="14"/>
+      <c r="AM20" s="14"/>
+      <c r="AN20" s="14"/>
+      <c r="AO20" s="14"/>
+      <c r="AP20" s="13"/>
+      <c r="AQ20" s="14"/>
+      <c r="AR20" s="13"/>
+      <c r="AS20" s="13"/>
+      <c r="AT20" s="14"/>
+      <c r="AU20" s="13">
+        <v>25000</v>
+      </c>
+      <c r="AV20" s="13"/>
+      <c r="AW20" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX20" s="12"/>
     </row>
-    <row r="21" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
-      <c r="C21" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>87</v>
+      <c r="C21" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="13" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="R21" s="15"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
       <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
+      <c r="V21" s="14"/>
       <c r="W21" s="13"/>
       <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
+      <c r="Y21" s="14"/>
       <c r="Z21" s="13"/>
-      <c r="AA21" s="13"/>
-      <c r="AB21" s="13"/>
-      <c r="AC21" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD21" s="12"/>
+      <c r="AA21" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB21" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="14"/>
+      <c r="AI21" s="14"/>
+      <c r="AJ21" s="14"/>
+      <c r="AK21" s="14"/>
+      <c r="AL21" s="14"/>
+      <c r="AM21" s="14"/>
+      <c r="AN21" s="14"/>
+      <c r="AO21" s="14"/>
+      <c r="AP21" s="13"/>
+      <c r="AQ21" s="14"/>
+      <c r="AR21" s="13"/>
+      <c r="AS21" s="13"/>
+      <c r="AT21" s="14"/>
+      <c r="AU21" s="13"/>
+      <c r="AV21" s="13"/>
+      <c r="AX21" s="12"/>
+      <c r="AY21" s="47" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="22" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:51" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
-      <c r="C22" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="12" t="s">
-        <v>93</v>
-      </c>
+      <c r="C22" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="H22" s="13"/>
+        <v>82</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>70</v>
+      </c>
       <c r="I22" s="13"/>
-      <c r="J22" s="13" t="s">
-        <v>95</v>
-      </c>
+      <c r="J22" s="13"/>
       <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="R22" s="15"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
       <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
+      <c r="V22" s="14"/>
       <c r="W22" s="13"/>
       <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
+      <c r="Y22" s="14"/>
       <c r="Z22" s="13"/>
-      <c r="AA22" s="13"/>
-      <c r="AB22" s="13"/>
-      <c r="AC22" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD22" s="12"/>
+      <c r="AA22" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="14"/>
+      <c r="AH22" s="14"/>
+      <c r="AI22" s="14"/>
+      <c r="AJ22" s="14"/>
+      <c r="AK22" s="14"/>
+      <c r="AL22" s="14"/>
+      <c r="AM22" s="14"/>
+      <c r="AN22" s="14"/>
+      <c r="AO22" s="14"/>
+      <c r="AP22" s="13"/>
+      <c r="AQ22" s="14"/>
+      <c r="AR22" s="13"/>
+      <c r="AS22" s="13"/>
+      <c r="AT22" s="14"/>
+      <c r="AU22" s="13"/>
+      <c r="AV22" s="13"/>
+      <c r="AW22" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX22" s="12"/>
     </row>
-    <row r="23" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:51" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
-      <c r="C23" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="E23" s="12"/>
+      <c r="C23" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="12" t="s">
+        <v>90</v>
+      </c>
       <c r="F23" s="12"/>
       <c r="G23" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>73</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="H23" s="13"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
+      <c r="J23" s="13" t="s">
+        <v>92</v>
+      </c>
       <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="R23" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
       <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
+      <c r="V23" s="14"/>
       <c r="W23" s="13"/>
       <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
+      <c r="Y23" s="14"/>
       <c r="Z23" s="13"/>
-      <c r="AA23" s="13"/>
-      <c r="AB23" s="13"/>
+      <c r="AA23" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB23" s="15"/>
       <c r="AC23" s="13"/>
-      <c r="AD23" s="12"/>
+      <c r="AD23" s="13"/>
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="14"/>
+      <c r="AH23" s="14"/>
+      <c r="AI23" s="14"/>
+      <c r="AJ23" s="14"/>
+      <c r="AK23" s="14"/>
+      <c r="AL23" s="14"/>
+      <c r="AM23" s="14"/>
+      <c r="AN23" s="14"/>
+      <c r="AO23" s="14"/>
+      <c r="AP23" s="13"/>
+      <c r="AQ23" s="14"/>
+      <c r="AR23" s="13"/>
+      <c r="AS23" s="13"/>
+      <c r="AT23" s="14"/>
+      <c r="AU23" s="13"/>
+      <c r="AV23" s="13"/>
+      <c r="AW23" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX23" s="12"/>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
-      <c r="C24" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>103</v>
+      <c r="C24" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>94</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="13" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>157</v>
+        <v>70</v>
       </c>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="R24" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
       <c r="U24" s="13"/>
-      <c r="V24" s="13"/>
+      <c r="V24" s="14"/>
       <c r="W24" s="13"/>
       <c r="X24" s="13"/>
-      <c r="Y24" s="13"/>
+      <c r="Y24" s="14"/>
       <c r="Z24" s="13"/>
-      <c r="AA24" s="13"/>
-      <c r="AB24" s="13"/>
+      <c r="AA24" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB24" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="AC24" s="13"/>
-      <c r="AD24" s="12"/>
+      <c r="AD24" s="13"/>
+      <c r="AE24" s="13"/>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="14"/>
+      <c r="AH24" s="14"/>
+      <c r="AI24" s="14"/>
+      <c r="AJ24" s="14"/>
+      <c r="AK24" s="14"/>
+      <c r="AL24" s="14"/>
+      <c r="AM24" s="14"/>
+      <c r="AN24" s="14"/>
+      <c r="AO24" s="14"/>
+      <c r="AP24" s="13"/>
+      <c r="AQ24" s="14"/>
+      <c r="AR24" s="13"/>
+      <c r="AS24" s="13"/>
+      <c r="AT24" s="14"/>
+      <c r="AU24" s="13"/>
+      <c r="AV24" s="13"/>
+      <c r="AW24" s="13"/>
+      <c r="AX24" s="12"/>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>89</v>
-      </c>
+      <c r="C25" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="12"/>
       <c r="F25" s="12"/>
       <c r="G25" s="13" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="R25" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
       <c r="U25" s="13"/>
-      <c r="V25" s="13"/>
+      <c r="V25" s="14"/>
       <c r="W25" s="13"/>
       <c r="X25" s="13"/>
-      <c r="Y25" s="13"/>
+      <c r="Y25" s="14"/>
       <c r="Z25" s="13"/>
-      <c r="AA25" s="13"/>
-      <c r="AB25" s="13"/>
+      <c r="AA25" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB25" s="15" t="s">
+        <v>148</v>
+      </c>
       <c r="AC25" s="13"/>
-      <c r="AD25" s="12"/>
+      <c r="AD25" s="13"/>
+      <c r="AE25" s="13"/>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="14"/>
+      <c r="AI25" s="14"/>
+      <c r="AJ25" s="14"/>
+      <c r="AK25" s="14"/>
+      <c r="AL25" s="14"/>
+      <c r="AM25" s="14"/>
+      <c r="AN25" s="14"/>
+      <c r="AO25" s="14"/>
+      <c r="AP25" s="13"/>
+      <c r="AQ25" s="14"/>
+      <c r="AR25" s="13"/>
+      <c r="AS25" s="13"/>
+      <c r="AT25" s="14"/>
+      <c r="AU25" s="13"/>
+      <c r="AV25" s="13"/>
+      <c r="AW25" s="13"/>
+      <c r="AX25" s="12"/>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
-      <c r="B26" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>139</v>
+      <c r="B26" s="12"/>
+      <c r="C26" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>85</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="13" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="I26" s="13">
-        <v>13</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="I26" s="13"/>
       <c r="J26" s="13"/>
-      <c r="K26" s="13">
-        <v>15</v>
-      </c>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q26" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="R26" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="S26" s="13">
-        <v>6</v>
-      </c>
-      <c r="T26" s="13">
-        <v>1</v>
-      </c>
+      <c r="K26" s="13"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
       <c r="U26" s="13"/>
-      <c r="V26" s="13">
-        <v>12</v>
-      </c>
+      <c r="V26" s="14"/>
       <c r="W26" s="13"/>
       <c r="X26" s="13"/>
-      <c r="Y26" s="13"/>
+      <c r="Y26" s="14"/>
       <c r="Z26" s="13"/>
       <c r="AA26" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB26" s="13">
-        <v>4</v>
-      </c>
-      <c r="AC26" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB26" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC26" s="13"/>
+      <c r="AD26" s="13"/>
+      <c r="AE26" s="13"/>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="14"/>
+      <c r="AH26" s="14"/>
+      <c r="AI26" s="14"/>
+      <c r="AJ26" s="14"/>
+      <c r="AK26" s="14"/>
+      <c r="AL26" s="14"/>
+      <c r="AM26" s="14"/>
+      <c r="AN26" s="14"/>
+      <c r="AO26" s="14"/>
+      <c r="AP26" s="13"/>
+      <c r="AQ26" s="14"/>
+      <c r="AR26" s="13"/>
+      <c r="AS26" s="13"/>
+      <c r="AT26" s="14"/>
+      <c r="AU26" s="13"/>
+      <c r="AV26" s="13"/>
+      <c r="AW26" s="13"/>
+      <c r="AX26" s="12"/>
+    </row>
+    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="AD26" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE26" s="28" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="E27" s="12"/>
+      <c r="E27" s="12" t="s">
+        <v>137</v>
+      </c>
       <c r="F27" s="12"/>
       <c r="G27" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="I27" s="13"/>
+        <v>138</v>
+      </c>
+      <c r="I27" s="13">
+        <v>13</v>
+      </c>
       <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="R27" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
+      <c r="K27" s="13">
+        <v>15</v>
+      </c>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
       <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
+      <c r="V27" s="14"/>
       <c r="W27" s="13"/>
       <c r="X27" s="13"/>
-      <c r="Y27" s="13"/>
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="13"/>
-      <c r="AB27" s="13"/>
-      <c r="AC27" s="13"/>
-      <c r="AD27" s="26"/>
-      <c r="AE27" s="29"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA27" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB27" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC27" s="13">
+        <v>6</v>
+      </c>
+      <c r="AD27" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="13"/>
+      <c r="AF27" s="13">
+        <v>12</v>
+      </c>
+      <c r="AG27" s="14"/>
+      <c r="AH27" s="14"/>
+      <c r="AI27" s="14"/>
+      <c r="AJ27" s="14"/>
+      <c r="AK27" s="14"/>
+      <c r="AL27" s="14"/>
+      <c r="AM27" s="14"/>
+      <c r="AN27" s="14"/>
+      <c r="AO27" s="14"/>
+      <c r="AP27" s="13"/>
+      <c r="AQ27" s="14"/>
+      <c r="AR27" s="13"/>
+      <c r="AS27" s="13"/>
+      <c r="AT27" s="14"/>
+      <c r="AU27" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="AV27" s="13">
+        <v>4</v>
+      </c>
+      <c r="AW27" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="AX27" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="AY27" s="27" t="s">
+        <v>155</v>
+      </c>
     </row>
-    <row r="28" spans="1:31" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="27" t="s">
+    <row r="28" spans="1:51" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="32"/>
+      <c r="B28" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="E28" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="C28" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13">
-        <v>20000</v>
-      </c>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13">
-        <v>2000</v>
-      </c>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="R28" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13">
-        <v>9000</v>
-      </c>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13">
-        <v>900</v>
-      </c>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="13"/>
-      <c r="AA28" s="13"/>
-      <c r="AB28" s="13"/>
-      <c r="AC28" s="13"/>
-      <c r="AD28" s="12"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="H28" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35">
+        <v>4</v>
+      </c>
+      <c r="M28" s="35">
+        <v>0</v>
+      </c>
+      <c r="N28" s="35">
+        <v>29</v>
+      </c>
+      <c r="O28" s="35">
+        <v>33</v>
+      </c>
+      <c r="P28" s="35">
+        <v>5</v>
+      </c>
+      <c r="Q28" s="35">
+        <v>2</v>
+      </c>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="35">
+        <v>40</v>
+      </c>
+      <c r="U28" s="35">
+        <v>4395</v>
+      </c>
+      <c r="V28" s="35">
+        <v>1</v>
+      </c>
+      <c r="W28" s="35">
+        <v>2541</v>
+      </c>
+      <c r="X28" s="35">
+        <v>7500</v>
+      </c>
+      <c r="Y28" s="35">
+        <v>21</v>
+      </c>
+      <c r="Z28" s="35"/>
+      <c r="AA28" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB28" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC28" s="35"/>
+      <c r="AD28" s="35"/>
+      <c r="AE28" s="35"/>
+      <c r="AF28" s="35"/>
+      <c r="AG28" s="35">
+        <v>3</v>
+      </c>
+      <c r="AH28" s="35">
+        <v>4</v>
+      </c>
+      <c r="AI28" s="35">
+        <v>20</v>
+      </c>
+      <c r="AJ28" s="35">
+        <v>27</v>
+      </c>
+      <c r="AK28" s="35">
+        <v>4</v>
+      </c>
+      <c r="AL28" s="35"/>
+      <c r="AM28" s="35">
+        <v>1</v>
+      </c>
+      <c r="AN28" s="35">
+        <v>1</v>
+      </c>
+      <c r="AO28" s="35">
+        <v>33</v>
+      </c>
+      <c r="AP28" s="35">
+        <v>458</v>
+      </c>
+      <c r="AQ28" s="35"/>
+      <c r="AR28" s="35">
+        <v>1208</v>
+      </c>
+      <c r="AS28" s="35"/>
+      <c r="AT28" s="35"/>
+      <c r="AU28" s="35"/>
+      <c r="AV28" s="35"/>
+      <c r="AW28" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="AX28" s="37"/>
+      <c r="AY28" s="38"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="13"/>
+      <c r="C29" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>157</v>
+      </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
+      <c r="G29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>138</v>
+      </c>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
       <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
+      <c r="V29" s="14"/>
       <c r="W29" s="13"/>
       <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
+      <c r="Y29" s="14"/>
       <c r="Z29" s="13"/>
-      <c r="AA29" s="13"/>
-      <c r="AB29" s="13"/>
+      <c r="AA29" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB29" s="15" t="s">
+        <v>139</v>
+      </c>
       <c r="AC29" s="13"/>
-      <c r="AD29" s="12"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="13"/>
+      <c r="AF29" s="13"/>
+      <c r="AG29" s="14"/>
+      <c r="AH29" s="14"/>
+      <c r="AI29" s="14"/>
+      <c r="AJ29" s="14"/>
+      <c r="AK29" s="14"/>
+      <c r="AL29" s="14"/>
+      <c r="AM29" s="14"/>
+      <c r="AN29" s="14"/>
+      <c r="AO29" s="14"/>
+      <c r="AP29" s="13"/>
+      <c r="AQ29" s="14"/>
+      <c r="AR29" s="13"/>
+      <c r="AS29" s="13"/>
+      <c r="AT29" s="14"/>
+      <c r="AU29" s="13"/>
+      <c r="AV29" s="13"/>
+      <c r="AW29" s="13"/>
+      <c r="AX29" s="25"/>
+      <c r="AY29" s="28"/>
+    </row>
+    <row r="30" spans="1:51" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13">
+        <v>20000</v>
+      </c>
+      <c r="K30" s="13"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="13">
+        <v>2000</v>
+      </c>
+      <c r="V30" s="14"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="13"/>
+      <c r="AA30" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB30" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC30" s="13"/>
+      <c r="AD30" s="13"/>
+      <c r="AE30" s="13">
+        <v>9000</v>
+      </c>
+      <c r="AF30" s="13"/>
+      <c r="AG30" s="14"/>
+      <c r="AH30" s="14"/>
+      <c r="AI30" s="14"/>
+      <c r="AJ30" s="14"/>
+      <c r="AK30" s="14"/>
+      <c r="AL30" s="14"/>
+      <c r="AM30" s="14"/>
+      <c r="AN30" s="14"/>
+      <c r="AO30" s="14"/>
+      <c r="AP30" s="13">
+        <v>900</v>
+      </c>
+      <c r="AQ30" s="14"/>
+      <c r="AR30" s="13"/>
+      <c r="AS30" s="13"/>
+      <c r="AT30" s="14"/>
+      <c r="AU30" s="13"/>
+      <c r="AV30" s="13"/>
+      <c r="AW30" s="13"/>
+      <c r="AX30" s="12"/>
+    </row>
+    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="13"/>
+      <c r="AA31" s="13"/>
+      <c r="AB31" s="15"/>
+      <c r="AC31" s="13"/>
+      <c r="AD31" s="13"/>
+      <c r="AE31" s="13"/>
+      <c r="AF31" s="13"/>
+      <c r="AG31" s="14"/>
+      <c r="AH31" s="14"/>
+      <c r="AI31" s="14"/>
+      <c r="AJ31" s="14"/>
+      <c r="AK31" s="14"/>
+      <c r="AL31" s="14"/>
+      <c r="AM31" s="14"/>
+      <c r="AN31" s="14"/>
+      <c r="AO31" s="14"/>
+      <c r="AP31" s="13"/>
+      <c r="AQ31" s="14"/>
+      <c r="AR31" s="13"/>
+      <c r="AS31" s="13"/>
+      <c r="AT31" s="14"/>
+      <c r="AU31" s="13"/>
+      <c r="AV31" s="13"/>
+      <c r="AW31" s="13"/>
+      <c r="AX31" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="X1:AB1"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="AX1:AX2"/>
+    <mergeCell ref="AP1:AV1"/>
+    <mergeCell ref="AW1:AW2"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="AC1:AN1"/>
+    <mergeCell ref="I1:S1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="AD26" r:id="rId1" xr:uid="{AB43767C-640A-454E-8867-6D6B4EA887DD}"/>
+    <hyperlink ref="AX27" r:id="rId1" xr:uid="{AB43767C-640A-454E-8867-6D6B4EA887DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>

--- a/war_index.xlsx
+++ b/war_index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C0FE06-F74C-48CB-87CB-A2EC654790BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD177DE-E83A-415B-B7E3-D2E7AE2C60C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{04375B46-837D-49F2-BE8A-ABE006783F6C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="204">
   <si>
     <t>date</t>
   </si>
@@ -135,12 +135,6 @@
     <t>casulties</t>
   </si>
   <si>
-    <t>man</t>
-  </si>
-  <si>
-    <t>gun</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
@@ -577,6 +571,74 @@
   </si>
   <si>
     <t>totalShips</t>
+  </si>
+  <si>
+    <t>Battle of Waterloo</t>
+  </si>
+  <si>
+    <t>18 June 1815</t>
+  </si>
+  <si>
+    <t>Waterloo, Belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Napoleon Bonaparte
+ Michel Ney</t>
+  </si>
+  <si>
+    <t>infantry</t>
+  </si>
+  <si>
+    <t>Cavalry</t>
+  </si>
+  <si>
+    <t>Artilery and engineers</t>
+  </si>
+  <si>
+    <t>guns</t>
+  </si>
+  <si>
+    <t>UK, Prussia, Hanover, Neth, Duchy of Nassau</t>
+  </si>
+  <si>
+    <t>Duke of Wellington
+Gebhard Leberecht von Blücher</t>
+  </si>
+  <si>
+    <t>UK Army</t>
+  </si>
+  <si>
+    <t>British</t>
+  </si>
+  <si>
+    <t>Kings German Legion</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Hanover</t>
+  </si>
+  <si>
+    <t>Brunswick</t>
+  </si>
+  <si>
+    <t>Nassau</t>
+  </si>
+  <si>
+    <t>Prussian Army</t>
+  </si>
+  <si>
+    <t>UK Army Total</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>Side B</t>
+  </si>
+  <si>
+    <t>Waterloo Campaign</t>
   </si>
 </sst>
 </file>
@@ -711,7 +773,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -782,9 +844,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -808,6 +867,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -817,9 +894,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -830,10 +904,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1150,11 +1221,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C1708F5-F567-4565-A221-ECE07B210A7F}">
-  <dimension ref="A1:AY31"/>
+  <dimension ref="A1:BF40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC27" sqref="AC27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1169,31 +1240,34 @@
     <col min="8" max="8" width="21.140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" style="9" customWidth="1"/>
     <col min="10" max="10" width="11.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5703125" style="1" customWidth="1"/>
-    <col min="12" max="17" width="7" style="9" customWidth="1"/>
-    <col min="18" max="20" width="6.42578125" style="9" customWidth="1"/>
-    <col min="21" max="21" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" style="9" customWidth="1"/>
-    <col min="23" max="24" width="9.140625" style="1"/>
-    <col min="25" max="25" width="9.140625" style="9"/>
-    <col min="26" max="26" width="9.140625" style="1"/>
-    <col min="27" max="27" width="19" style="2" customWidth="1"/>
-    <col min="28" max="28" width="25.5703125" style="11" customWidth="1"/>
-    <col min="29" max="30" width="12" style="9" customWidth="1"/>
-    <col min="31" max="32" width="9.140625" style="2"/>
-    <col min="33" max="38" width="7" style="9" customWidth="1"/>
-    <col min="39" max="41" width="6.42578125" style="9" customWidth="1"/>
-    <col min="42" max="42" width="9.140625" style="2"/>
-    <col min="43" max="43" width="9.140625" style="9"/>
-    <col min="44" max="45" width="9.140625" style="2"/>
-    <col min="46" max="46" width="9.140625" style="9"/>
-    <col min="47" max="47" width="9.140625" style="2"/>
-    <col min="48" max="48" width="9.140625" style="9"/>
-    <col min="49" max="49" width="9.140625" style="1"/>
-    <col min="51" max="51" width="9.140625" style="6"/>
+    <col min="11" max="12" width="11.140625" style="9" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" style="1" customWidth="1"/>
+    <col min="14" max="19" width="7" style="9" customWidth="1"/>
+    <col min="20" max="23" width="6.42578125" style="9" customWidth="1"/>
+    <col min="24" max="24" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.28515625" style="9" customWidth="1"/>
+    <col min="26" max="27" width="9.140625" style="1"/>
+    <col min="28" max="29" width="9.140625" style="9"/>
+    <col min="30" max="30" width="9.140625" style="1"/>
+    <col min="31" max="31" width="19" style="2" customWidth="1"/>
+    <col min="32" max="32" width="25.5703125" style="11" customWidth="1"/>
+    <col min="33" max="34" width="12" style="9" customWidth="1"/>
+    <col min="35" max="35" width="9.140625" style="2"/>
+    <col min="36" max="37" width="9.140625" style="9"/>
+    <col min="38" max="38" width="9.140625" style="2"/>
+    <col min="39" max="44" width="7" style="9" customWidth="1"/>
+    <col min="45" max="47" width="6.42578125" style="9" customWidth="1"/>
+    <col min="48" max="48" width="9.140625" style="2"/>
+    <col min="49" max="49" width="9.140625" style="9"/>
+    <col min="50" max="51" width="9.140625" style="2"/>
+    <col min="52" max="53" width="9.140625" style="9"/>
+    <col min="54" max="54" width="9.140625" style="2"/>
+    <col min="55" max="55" width="9.140625" style="9"/>
+    <col min="56" max="56" width="9.140625" style="1"/>
+    <col min="58" max="58" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -1202,67 +1276,74 @@
       <c r="F1" s="12"/>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="31" t="s">
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="42"/>
-      <c r="AO1" s="43"/>
-      <c r="AP1" s="30" t="s">
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="46"/>
+      <c r="AL1" s="46"/>
+      <c r="AM1" s="46"/>
+      <c r="AN1" s="46"/>
+      <c r="AO1" s="46"/>
+      <c r="AP1" s="46"/>
+      <c r="AQ1" s="46"/>
+      <c r="AR1" s="46"/>
+      <c r="AS1" s="46"/>
+      <c r="AT1" s="47"/>
+      <c r="AU1" s="39"/>
+      <c r="AV1" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="AQ1" s="30"/>
-      <c r="AR1" s="30"/>
-      <c r="AS1" s="30"/>
-      <c r="AT1" s="30"/>
-      <c r="AU1" s="30"/>
-      <c r="AV1" s="30"/>
-      <c r="AW1" s="29" t="s">
+      <c r="AW1" s="43"/>
+      <c r="AX1" s="43"/>
+      <c r="AY1" s="43"/>
+      <c r="AZ1" s="43"/>
+      <c r="BA1" s="43"/>
+      <c r="BB1" s="43"/>
+      <c r="BC1" s="43"/>
+      <c r="BD1" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="AX1" s="29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BE1" s="42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:58" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>20</v>
@@ -1277,55 +1358,55 @@
         <v>5</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J2" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="U2" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="W2" s="29" t="s">
         <v>36</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q2" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="R2" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="S2" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="T2" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="U2" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="V2" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="W2" s="17" t="s">
-        <v>28</v>
       </c>
       <c r="X2" s="17" t="s">
         <v>173</v>
@@ -1334,78 +1415,99 @@
         <v>174</v>
       </c>
       <c r="Z2" s="17" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AA2" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB2" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC2" s="17" t="s">
-        <v>145</v>
+        <v>171</v>
+      </c>
+      <c r="AB2" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC2" s="29" t="s">
+        <v>201</v>
       </c>
       <c r="AD2" s="17" t="s">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="AE2" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF2" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG2" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH2" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI2" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ2" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK2" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="AL2" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="AM2" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN2" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="AO2" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="AP2" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ2" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR2" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="AS2" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="AT2" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="AU2" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="AV2" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="AW2" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="AX2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="AY2" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="AZ2" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="BA2" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="BB2" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="AF2" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="AH2" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="AI2" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="AJ2" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="AK2" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="AL2" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="AM2" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN2" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="AO2" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="AP2" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="AQ2" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="AR2" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS2" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="AT2" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="AU2" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="AV2" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="AW2" s="29"/>
-      <c r="AX2" s="29"/>
-    </row>
-    <row r="3" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC2" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD2" s="42"/>
+      <c r="BE2" s="42"/>
+    </row>
+    <row r="3" spans="1:58" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -1416,8 +1518,8 @@
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
       <c r="M3" s="17"/>
       <c r="N3" s="17"/>
       <c r="O3" s="17"/>
@@ -1428,21 +1530,21 @@
       <c r="T3" s="17"/>
       <c r="U3" s="17"/>
       <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
+      <c r="W3" s="29"/>
       <c r="X3" s="17"/>
       <c r="Y3" s="17"/>
       <c r="Z3" s="17"/>
       <c r="AA3" s="17"/>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="29"/>
       <c r="AD3" s="17"/>
       <c r="AE3" s="17"/>
-      <c r="AF3" s="17"/>
+      <c r="AF3" s="18"/>
       <c r="AG3" s="17"/>
       <c r="AH3" s="17"/>
       <c r="AI3" s="17"/>
-      <c r="AJ3" s="17"/>
-      <c r="AK3" s="17"/>
+      <c r="AJ3" s="29"/>
+      <c r="AK3" s="29"/>
       <c r="AL3" s="17"/>
       <c r="AM3" s="17"/>
       <c r="AN3" s="17"/>
@@ -1454,10 +1556,17 @@
       <c r="AT3" s="17"/>
       <c r="AU3" s="17"/>
       <c r="AV3" s="17"/>
-      <c r="AW3" s="16"/>
-      <c r="AX3" s="16"/>
-    </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AW3" s="17"/>
+      <c r="AX3" s="17"/>
+      <c r="AY3" s="17"/>
+      <c r="AZ3" s="17"/>
+      <c r="BA3" s="29"/>
+      <c r="BB3" s="17"/>
+      <c r="BC3" s="17"/>
+      <c r="BD3" s="16"/>
+      <c r="BE3" s="16"/>
+    </row>
+    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12" t="s">
@@ -1480,9 +1589,9 @@
       <c r="J4" s="13">
         <v>11000</v>
       </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="13"/>
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
@@ -1490,48 +1599,55 @@
       <c r="R4" s="14"/>
       <c r="S4" s="14"/>
       <c r="T4" s="14"/>
-      <c r="U4" s="13">
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="13">
         <v>192</v>
       </c>
-      <c r="V4" s="14"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
       <c r="Y4" s="14"/>
       <c r="Z4" s="13"/>
-      <c r="AA4" s="13" t="s">
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="30"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="AB4" s="15"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13">
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13">
         <v>30000</v>
       </c>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="14"/>
-      <c r="AH4" s="14"/>
-      <c r="AI4" s="14"/>
-      <c r="AJ4" s="14"/>
-      <c r="AK4" s="14"/>
-      <c r="AL4" s="14"/>
+      <c r="AJ4" s="30"/>
+      <c r="AK4" s="30"/>
+      <c r="AL4" s="13"/>
       <c r="AM4" s="14"/>
       <c r="AN4" s="14"/>
       <c r="AO4" s="14"/>
-      <c r="AP4" s="13">
+      <c r="AP4" s="14"/>
+      <c r="AQ4" s="14"/>
+      <c r="AR4" s="14"/>
+      <c r="AS4" s="14"/>
+      <c r="AT4" s="14"/>
+      <c r="AU4" s="14"/>
+      <c r="AV4" s="13">
         <v>6500</v>
       </c>
-      <c r="AQ4" s="14"/>
-      <c r="AR4" s="13"/>
-      <c r="AS4" s="13"/>
-      <c r="AT4" s="14"/>
-      <c r="AU4" s="13"/>
-      <c r="AV4" s="13"/>
-      <c r="AW4" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="AX4" s="12"/>
-    </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AW4" s="14"/>
+      <c r="AX4" s="13"/>
+      <c r="AY4" s="13"/>
+      <c r="AZ4" s="14"/>
+      <c r="BA4" s="30"/>
+      <c r="BB4" s="13"/>
+      <c r="BC4" s="13"/>
+      <c r="BD4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="BE4" s="12"/>
+    </row>
+    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>2</v>
       </c>
@@ -1560,9 +1676,9 @@
       <c r="J5" s="13">
         <v>22000</v>
       </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="13"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
@@ -1570,54 +1686,61 @@
       <c r="R5" s="14"/>
       <c r="S5" s="14"/>
       <c r="T5" s="14"/>
-      <c r="U5" s="13">
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="13">
         <v>100</v>
       </c>
-      <c r="V5" s="14"/>
-      <c r="W5" s="13">
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="13">
         <v>400</v>
       </c>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13" t="s">
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AB5" s="15" t="s">
+      <c r="AF5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13">
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13">
         <v>420000</v>
       </c>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="14"/>
-      <c r="AH5" s="14"/>
-      <c r="AI5" s="14"/>
-      <c r="AJ5" s="14"/>
-      <c r="AK5" s="14"/>
-      <c r="AL5" s="14"/>
+      <c r="AJ5" s="30"/>
+      <c r="AK5" s="30"/>
+      <c r="AL5" s="13"/>
       <c r="AM5" s="14"/>
       <c r="AN5" s="14"/>
       <c r="AO5" s="14"/>
-      <c r="AP5" s="13">
+      <c r="AP5" s="14"/>
+      <c r="AQ5" s="14"/>
+      <c r="AR5" s="14"/>
+      <c r="AS5" s="14"/>
+      <c r="AT5" s="14"/>
+      <c r="AU5" s="14"/>
+      <c r="AV5" s="13">
         <v>3500</v>
       </c>
-      <c r="AQ5" s="14"/>
-      <c r="AR5" s="13"/>
-      <c r="AS5" s="13">
+      <c r="AW5" s="14"/>
+      <c r="AX5" s="13"/>
+      <c r="AY5" s="13">
         <v>10000</v>
       </c>
-      <c r="AT5" s="14"/>
-      <c r="AU5" s="13"/>
-      <c r="AV5" s="13"/>
-      <c r="AW5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="AX5" s="12"/>
-    </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ5" s="14"/>
+      <c r="BA5" s="30"/>
+      <c r="BB5" s="13"/>
+      <c r="BC5" s="13"/>
+      <c r="BD5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="BE5" s="12"/>
+    </row>
+    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -1628,9 +1751,9 @@
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="13"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
@@ -1638,38 +1761,45 @@
       <c r="R6" s="14"/>
       <c r="S6" s="14"/>
       <c r="T6" s="14"/>
-      <c r="U6" s="13"/>
+      <c r="U6" s="14"/>
       <c r="V6" s="14"/>
-      <c r="W6" s="13"/>
+      <c r="W6" s="30"/>
       <c r="X6" s="13"/>
       <c r="Y6" s="14"/>
       <c r="Z6" s="13"/>
       <c r="AA6" s="13"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="13"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="30"/>
       <c r="AD6" s="13"/>
       <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="14"/>
-      <c r="AH6" s="14"/>
-      <c r="AI6" s="14"/>
-      <c r="AJ6" s="14"/>
-      <c r="AK6" s="14"/>
-      <c r="AL6" s="14"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="30"/>
+      <c r="AK6" s="30"/>
+      <c r="AL6" s="13"/>
       <c r="AM6" s="14"/>
       <c r="AN6" s="14"/>
       <c r="AO6" s="14"/>
-      <c r="AP6" s="13"/>
+      <c r="AP6" s="14"/>
       <c r="AQ6" s="14"/>
-      <c r="AR6" s="13"/>
-      <c r="AS6" s="13"/>
+      <c r="AR6" s="14"/>
+      <c r="AS6" s="14"/>
       <c r="AT6" s="14"/>
-      <c r="AU6" s="13"/>
+      <c r="AU6" s="14"/>
       <c r="AV6" s="13"/>
-      <c r="AW6" s="13"/>
-      <c r="AX6" s="12"/>
-    </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AW6" s="14"/>
+      <c r="AX6" s="13"/>
+      <c r="AY6" s="13"/>
+      <c r="AZ6" s="14"/>
+      <c r="BA6" s="30"/>
+      <c r="BB6" s="13"/>
+      <c r="BC6" s="13"/>
+      <c r="BD6" s="13"/>
+      <c r="BE6" s="12"/>
+    </row>
+    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="19" t="s">
@@ -1692,9 +1822,9 @@
       <c r="J7" s="13">
         <v>33000</v>
       </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="13"/>
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
@@ -1702,89 +1832,96 @@
       <c r="R7" s="14"/>
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="13">
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="13">
         <v>1141</v>
-      </c>
-      <c r="V7" s="14"/>
-      <c r="W7" s="13">
-        <v>5118</v>
-      </c>
-      <c r="X7" s="13">
-        <v>85</v>
       </c>
       <c r="Y7" s="14"/>
       <c r="Z7" s="13">
+        <v>5118</v>
+      </c>
+      <c r="AA7" s="13">
+        <v>85</v>
+      </c>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="13">
         <v>6344</v>
       </c>
-      <c r="AA7" s="13" t="s">
+      <c r="AE7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AB7" s="15" t="s">
+      <c r="AF7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="13">
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="13"/>
+      <c r="AI7" s="13">
         <v>66000</v>
       </c>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="14"/>
-      <c r="AH7" s="14"/>
-      <c r="AI7" s="14"/>
-      <c r="AJ7" s="14"/>
-      <c r="AK7" s="14"/>
-      <c r="AL7" s="14"/>
+      <c r="AJ7" s="30"/>
+      <c r="AK7" s="30"/>
+      <c r="AL7" s="13"/>
       <c r="AM7" s="14"/>
       <c r="AN7" s="14"/>
       <c r="AO7" s="14"/>
-      <c r="AP7" s="13">
+      <c r="AP7" s="14"/>
+      <c r="AQ7" s="14"/>
+      <c r="AR7" s="14"/>
+      <c r="AS7" s="14"/>
+      <c r="AT7" s="14"/>
+      <c r="AU7" s="14"/>
+      <c r="AV7" s="13">
         <v>3000</v>
       </c>
-      <c r="AQ7" s="14"/>
-      <c r="AR7" s="13">
+      <c r="AW7" s="14"/>
+      <c r="AX7" s="13">
         <v>7000</v>
       </c>
-      <c r="AS7" s="13">
+      <c r="AY7" s="13">
         <v>12000</v>
       </c>
-      <c r="AT7" s="14"/>
-      <c r="AU7" s="13">
+      <c r="AZ7" s="14"/>
+      <c r="BA7" s="30"/>
+      <c r="BB7" s="13">
         <v>22000</v>
       </c>
-      <c r="AV7" s="13"/>
-      <c r="AW7" s="13" t="s">
+      <c r="BC7" s="13"/>
+      <c r="BD7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AX7" s="12"/>
-    </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="BE7" s="12"/>
+    </row>
+    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>105</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>107</v>
       </c>
       <c r="D8" s="13">
         <v>1792</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13">
         <v>30000</v>
       </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="13"/>
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
@@ -1792,63 +1929,70 @@
       <c r="R8" s="14"/>
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
-      <c r="U8" s="13"/>
+      <c r="U8" s="14"/>
       <c r="V8" s="14"/>
-      <c r="W8" s="13"/>
+      <c r="W8" s="30"/>
       <c r="X8" s="13"/>
       <c r="Y8" s="14"/>
       <c r="Z8" s="13"/>
-      <c r="AA8" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB8" s="15"/>
-      <c r="AC8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="30"/>
       <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="14"/>
-      <c r="AH8" s="14"/>
-      <c r="AI8" s="14"/>
-      <c r="AJ8" s="14"/>
-      <c r="AK8" s="14"/>
-      <c r="AL8" s="14"/>
+      <c r="AE8" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF8" s="15"/>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="30"/>
+      <c r="AK8" s="30"/>
+      <c r="AL8" s="13"/>
       <c r="AM8" s="14"/>
       <c r="AN8" s="14"/>
       <c r="AO8" s="14"/>
-      <c r="AP8" s="13"/>
+      <c r="AP8" s="14"/>
       <c r="AQ8" s="14"/>
-      <c r="AR8" s="13"/>
-      <c r="AS8" s="13"/>
+      <c r="AR8" s="14"/>
+      <c r="AS8" s="14"/>
       <c r="AT8" s="14"/>
-      <c r="AU8" s="13"/>
+      <c r="AU8" s="14"/>
       <c r="AV8" s="13"/>
-      <c r="AW8" s="13"/>
-      <c r="AX8" s="12"/>
-    </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AW8" s="14"/>
+      <c r="AX8" s="13"/>
+      <c r="AY8" s="13"/>
+      <c r="AZ8" s="14"/>
+      <c r="BA8" s="30"/>
+      <c r="BB8" s="13"/>
+      <c r="BC8" s="13"/>
+      <c r="BD8" s="13"/>
+      <c r="BE8" s="12"/>
+    </row>
+    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="13"/>
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
@@ -1856,68 +2000,75 @@
       <c r="R9" s="14"/>
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
-      <c r="U9" s="13"/>
+      <c r="U9" s="14"/>
       <c r="V9" s="14"/>
-      <c r="W9" s="13"/>
+      <c r="W9" s="30"/>
       <c r="X9" s="13"/>
       <c r="Y9" s="14"/>
       <c r="Z9" s="13"/>
-      <c r="AA9" s="13" t="s">
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AB9" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="13"/>
-      <c r="AG9" s="14"/>
-      <c r="AH9" s="14"/>
-      <c r="AI9" s="14"/>
-      <c r="AJ9" s="14"/>
-      <c r="AK9" s="14"/>
-      <c r="AL9" s="14"/>
+      <c r="AF9" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="30"/>
+      <c r="AK9" s="30"/>
+      <c r="AL9" s="13"/>
       <c r="AM9" s="14"/>
       <c r="AN9" s="14"/>
       <c r="AO9" s="14"/>
-      <c r="AP9" s="13"/>
+      <c r="AP9" s="14"/>
       <c r="AQ9" s="14"/>
-      <c r="AR9" s="13"/>
-      <c r="AS9" s="13"/>
+      <c r="AR9" s="14"/>
+      <c r="AS9" s="14"/>
       <c r="AT9" s="14"/>
-      <c r="AU9" s="13"/>
+      <c r="AU9" s="14"/>
       <c r="AV9" s="13"/>
-      <c r="AW9" s="13"/>
-      <c r="AX9" s="12"/>
-      <c r="AY9" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:51" ht="30" x14ac:dyDescent="0.25">
+      <c r="AW9" s="14"/>
+      <c r="AX9" s="13"/>
+      <c r="AY9" s="13"/>
+      <c r="AZ9" s="14"/>
+      <c r="BA9" s="30"/>
+      <c r="BB9" s="13"/>
+      <c r="BC9" s="13"/>
+      <c r="BD9" s="13"/>
+      <c r="BE9" s="12"/>
+      <c r="BF9" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:58" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="13"/>
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
@@ -1925,65 +2076,72 @@
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
-      <c r="U10" s="13"/>
+      <c r="U10" s="14"/>
       <c r="V10" s="14"/>
-      <c r="W10" s="13"/>
+      <c r="W10" s="30"/>
       <c r="X10" s="13"/>
       <c r="Y10" s="14"/>
       <c r="Z10" s="13"/>
-      <c r="AA10" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB10" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="30"/>
       <c r="AD10" s="13"/>
-      <c r="AE10" s="13"/>
-      <c r="AF10" s="13"/>
-      <c r="AG10" s="14"/>
-      <c r="AH10" s="14"/>
-      <c r="AI10" s="14"/>
-      <c r="AJ10" s="14"/>
-      <c r="AK10" s="14"/>
-      <c r="AL10" s="14"/>
+      <c r="AE10" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF10" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="30"/>
+      <c r="AK10" s="30"/>
+      <c r="AL10" s="13"/>
       <c r="AM10" s="14"/>
       <c r="AN10" s="14"/>
       <c r="AO10" s="14"/>
-      <c r="AP10" s="13"/>
+      <c r="AP10" s="14"/>
       <c r="AQ10" s="14"/>
-      <c r="AR10" s="13"/>
-      <c r="AS10" s="13"/>
+      <c r="AR10" s="14"/>
+      <c r="AS10" s="14"/>
       <c r="AT10" s="14"/>
-      <c r="AU10" s="13"/>
+      <c r="AU10" s="14"/>
       <c r="AV10" s="13"/>
-      <c r="AW10" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="AX10" s="12"/>
-    </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AW10" s="14"/>
+      <c r="AX10" s="13"/>
+      <c r="AY10" s="13"/>
+      <c r="AZ10" s="14"/>
+      <c r="BA10" s="30"/>
+      <c r="BB10" s="13"/>
+      <c r="BC10" s="13"/>
+      <c r="BD10" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE10" s="12"/>
+    </row>
+    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="13"/>
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
@@ -1991,64 +2149,71 @@
       <c r="R11" s="14"/>
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
-      <c r="U11" s="13"/>
+      <c r="U11" s="14"/>
       <c r="V11" s="14"/>
-      <c r="W11" s="13"/>
+      <c r="W11" s="30"/>
       <c r="X11" s="13"/>
       <c r="Y11" s="14"/>
       <c r="Z11" s="13"/>
-      <c r="AA11" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="30"/>
       <c r="AD11" s="13"/>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="13"/>
-      <c r="AG11" s="14"/>
-      <c r="AH11" s="14"/>
-      <c r="AI11" s="14"/>
-      <c r="AJ11" s="14"/>
-      <c r="AK11" s="14"/>
-      <c r="AL11" s="14"/>
+      <c r="AE11" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="30"/>
+      <c r="AK11" s="30"/>
+      <c r="AL11" s="13"/>
       <c r="AM11" s="14"/>
       <c r="AN11" s="14"/>
       <c r="AO11" s="14"/>
-      <c r="AP11" s="13"/>
+      <c r="AP11" s="14"/>
       <c r="AQ11" s="14"/>
-      <c r="AR11" s="13"/>
-      <c r="AS11" s="13"/>
+      <c r="AR11" s="14"/>
+      <c r="AS11" s="14"/>
       <c r="AT11" s="14"/>
-      <c r="AU11" s="13"/>
+      <c r="AU11" s="14"/>
       <c r="AV11" s="13"/>
-      <c r="AW11" s="13"/>
-      <c r="AX11" s="12"/>
-      <c r="AY11" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AW11" s="14"/>
+      <c r="AX11" s="13"/>
+      <c r="AY11" s="13"/>
+      <c r="AZ11" s="14"/>
+      <c r="BA11" s="30"/>
+      <c r="BB11" s="13"/>
+      <c r="BC11" s="13"/>
+      <c r="BD11" s="13"/>
+      <c r="BE11" s="12"/>
+      <c r="BF11" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="19"/>
       <c r="D12" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13">
         <v>12000</v>
       </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="13"/>
       <c r="N12" s="14"/>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
@@ -2056,61 +2221,68 @@
       <c r="R12" s="14"/>
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
-      <c r="U12" s="13"/>
+      <c r="U12" s="14"/>
       <c r="V12" s="14"/>
-      <c r="W12" s="13"/>
+      <c r="W12" s="30"/>
       <c r="X12" s="13"/>
       <c r="Y12" s="14"/>
       <c r="Z12" s="13"/>
-      <c r="AA12" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB12" s="15"/>
-      <c r="AC12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="30"/>
       <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="14"/>
-      <c r="AH12" s="14"/>
-      <c r="AI12" s="14"/>
-      <c r="AJ12" s="14"/>
-      <c r="AK12" s="14"/>
-      <c r="AL12" s="14"/>
+      <c r="AE12" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF12" s="15"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="30"/>
+      <c r="AK12" s="30"/>
+      <c r="AL12" s="13"/>
       <c r="AM12" s="14"/>
       <c r="AN12" s="14"/>
       <c r="AO12" s="14"/>
-      <c r="AP12" s="13"/>
+      <c r="AP12" s="14"/>
       <c r="AQ12" s="14"/>
-      <c r="AR12" s="13"/>
-      <c r="AS12" s="13"/>
+      <c r="AR12" s="14"/>
+      <c r="AS12" s="14"/>
       <c r="AT12" s="14"/>
-      <c r="AU12" s="13"/>
+      <c r="AU12" s="14"/>
       <c r="AV12" s="13"/>
-      <c r="AW12" s="13"/>
-      <c r="AX12" s="12"/>
-    </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AW12" s="14"/>
+      <c r="AX12" s="13"/>
+      <c r="AY12" s="13"/>
+      <c r="AZ12" s="14"/>
+      <c r="BA12" s="30"/>
+      <c r="BB12" s="13"/>
+      <c r="BC12" s="13"/>
+      <c r="BD12" s="13"/>
+      <c r="BE12" s="12"/>
+    </row>
+    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="13"/>
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
@@ -2118,59 +2290,66 @@
       <c r="R13" s="14"/>
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
-      <c r="U13" s="13"/>
+      <c r="U13" s="14"/>
       <c r="V13" s="14"/>
-      <c r="W13" s="13"/>
+      <c r="W13" s="30"/>
       <c r="X13" s="13"/>
       <c r="Y13" s="14"/>
       <c r="Z13" s="13"/>
-      <c r="AA13" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="30"/>
       <c r="AD13" s="13"/>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
-      <c r="AG13" s="14"/>
-      <c r="AH13" s="14"/>
-      <c r="AI13" s="14"/>
-      <c r="AJ13" s="14"/>
-      <c r="AK13" s="14"/>
-      <c r="AL13" s="14"/>
+      <c r="AE13" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="30"/>
+      <c r="AK13" s="30"/>
+      <c r="AL13" s="13"/>
       <c r="AM13" s="14"/>
       <c r="AN13" s="14"/>
       <c r="AO13" s="14"/>
-      <c r="AP13" s="13"/>
+      <c r="AP13" s="14"/>
       <c r="AQ13" s="14"/>
-      <c r="AR13" s="13"/>
-      <c r="AS13" s="13"/>
+      <c r="AR13" s="14"/>
+      <c r="AS13" s="14"/>
       <c r="AT13" s="14"/>
-      <c r="AU13" s="13"/>
+      <c r="AU13" s="14"/>
       <c r="AV13" s="13"/>
-      <c r="AW13" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="AX13" s="12"/>
-    </row>
-    <row r="14" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AW13" s="14"/>
+      <c r="AX13" s="13"/>
+      <c r="AY13" s="13"/>
+      <c r="AZ13" s="14"/>
+      <c r="BA13" s="30"/>
+      <c r="BB13" s="13"/>
+      <c r="BC13" s="13"/>
+      <c r="BD13" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="BE13" s="12"/>
+    </row>
+    <row r="14" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
       <c r="B14" s="22"/>
       <c r="C14" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I14" s="23"/>
       <c r="J14" s="23"/>
@@ -2190,21 +2369,21 @@
       <c r="X14" s="23"/>
       <c r="Y14" s="23"/>
       <c r="Z14" s="23"/>
-      <c r="AA14" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB14" s="24" t="s">
-        <v>132</v>
-      </c>
+      <c r="AA14" s="23"/>
+      <c r="AB14" s="23"/>
       <c r="AC14" s="23"/>
       <c r="AD14" s="23"/>
-      <c r="AE14" s="23">
-        <v>45000</v>
-      </c>
-      <c r="AF14" s="23"/>
+      <c r="AE14" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF14" s="24" t="s">
+        <v>130</v>
+      </c>
       <c r="AG14" s="23"/>
       <c r="AH14" s="23"/>
-      <c r="AI14" s="23"/>
+      <c r="AI14" s="23">
+        <v>45000</v>
+      </c>
       <c r="AJ14" s="23"/>
       <c r="AK14" s="23"/>
       <c r="AL14" s="23"/>
@@ -2218,19 +2397,26 @@
       <c r="AT14" s="23"/>
       <c r="AU14" s="23"/>
       <c r="AV14" s="23"/>
-      <c r="AW14" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="AX14" s="22"/>
-      <c r="AY14" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AW14" s="23"/>
+      <c r="AX14" s="23"/>
+      <c r="AY14" s="23"/>
+      <c r="AZ14" s="23"/>
+      <c r="BA14" s="23"/>
+      <c r="BB14" s="23"/>
+      <c r="BC14" s="23"/>
+      <c r="BD14" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="BE14" s="22"/>
+      <c r="BF14" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="12"/>
@@ -2239,9 +2425,9 @@
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="13"/>
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
@@ -2249,45 +2435,52 @@
       <c r="R15" s="14"/>
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="13"/>
+      <c r="U15" s="14"/>
       <c r="V15" s="14"/>
-      <c r="W15" s="13"/>
+      <c r="W15" s="30"/>
       <c r="X15" s="13"/>
       <c r="Y15" s="14"/>
       <c r="Z15" s="13"/>
       <c r="AA15" s="13"/>
-      <c r="AB15" s="15"/>
-      <c r="AC15" s="13"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="30"/>
       <c r="AD15" s="13"/>
       <c r="AE15" s="13"/>
-      <c r="AF15" s="13"/>
-      <c r="AG15" s="14"/>
-      <c r="AH15" s="14"/>
-      <c r="AI15" s="14"/>
-      <c r="AJ15" s="14"/>
-      <c r="AK15" s="14"/>
-      <c r="AL15" s="14"/>
+      <c r="AF15" s="15"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="30"/>
+      <c r="AK15" s="30"/>
+      <c r="AL15" s="13"/>
       <c r="AM15" s="14"/>
       <c r="AN15" s="14"/>
       <c r="AO15" s="14"/>
-      <c r="AP15" s="13"/>
+      <c r="AP15" s="14"/>
       <c r="AQ15" s="14"/>
-      <c r="AR15" s="13"/>
-      <c r="AS15" s="13"/>
+      <c r="AR15" s="14"/>
+      <c r="AS15" s="14"/>
       <c r="AT15" s="14"/>
-      <c r="AU15" s="13"/>
+      <c r="AU15" s="14"/>
       <c r="AV15" s="13"/>
-      <c r="AW15" s="13"/>
-      <c r="AX15" s="12"/>
-      <c r="AY15" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AW15" s="14"/>
+      <c r="AX15" s="13"/>
+      <c r="AY15" s="13"/>
+      <c r="AZ15" s="14"/>
+      <c r="BA15" s="30"/>
+      <c r="BB15" s="13"/>
+      <c r="BC15" s="13"/>
+      <c r="BD15" s="13"/>
+      <c r="BE15" s="12"/>
+      <c r="BF15" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="12"/>
@@ -2296,9 +2489,9 @@
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="13"/>
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
@@ -2306,58 +2499,65 @@
       <c r="R16" s="14"/>
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="13"/>
+      <c r="U16" s="14"/>
       <c r="V16" s="14"/>
-      <c r="W16" s="13"/>
+      <c r="W16" s="30"/>
       <c r="X16" s="13"/>
       <c r="Y16" s="14"/>
       <c r="Z16" s="13"/>
       <c r="AA16" s="13"/>
-      <c r="AB16" s="15"/>
-      <c r="AC16" s="13"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="30"/>
       <c r="AD16" s="13"/>
       <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="14"/>
-      <c r="AH16" s="14"/>
-      <c r="AI16" s="14"/>
-      <c r="AJ16" s="14"/>
-      <c r="AK16" s="14"/>
-      <c r="AL16" s="14"/>
+      <c r="AF16" s="15"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="30"/>
+      <c r="AK16" s="30"/>
+      <c r="AL16" s="13"/>
       <c r="AM16" s="14"/>
       <c r="AN16" s="14"/>
       <c r="AO16" s="14"/>
-      <c r="AP16" s="13"/>
+      <c r="AP16" s="14"/>
       <c r="AQ16" s="14"/>
-      <c r="AR16" s="13"/>
-      <c r="AS16" s="13"/>
+      <c r="AR16" s="14"/>
+      <c r="AS16" s="14"/>
       <c r="AT16" s="14"/>
-      <c r="AU16" s="13"/>
+      <c r="AU16" s="14"/>
       <c r="AV16" s="13"/>
-      <c r="AW16" s="13"/>
-      <c r="AX16" s="12"/>
-      <c r="AY16" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AW16" s="14"/>
+      <c r="AX16" s="13"/>
+      <c r="AY16" s="13"/>
+      <c r="AZ16" s="14"/>
+      <c r="BA16" s="30"/>
+      <c r="BB16" s="13"/>
+      <c r="BC16" s="13"/>
+      <c r="BD16" s="13"/>
+      <c r="BE16" s="12"/>
+      <c r="BF16" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="19"/>
       <c r="D17" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="13"/>
       <c r="N17" s="14"/>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
@@ -2365,66 +2565,73 @@
       <c r="R17" s="14"/>
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="13"/>
+      <c r="U17" s="14"/>
       <c r="V17" s="14"/>
-      <c r="W17" s="13"/>
+      <c r="W17" s="30"/>
       <c r="X17" s="13"/>
       <c r="Y17" s="14"/>
       <c r="Z17" s="13"/>
-      <c r="AA17" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB17" s="15"/>
-      <c r="AC17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="30"/>
       <c r="AD17" s="13"/>
       <c r="AE17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF17" s="13"/>
-      <c r="AG17" s="14"/>
-      <c r="AH17" s="14"/>
-      <c r="AI17" s="14"/>
-      <c r="AJ17" s="14"/>
-      <c r="AK17" s="14"/>
-      <c r="AL17" s="14"/>
+        <v>55</v>
+      </c>
+      <c r="AF17" s="15"/>
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="13"/>
+      <c r="AI17" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ17" s="30"/>
+      <c r="AK17" s="30"/>
+      <c r="AL17" s="13"/>
       <c r="AM17" s="14"/>
       <c r="AN17" s="14"/>
       <c r="AO17" s="14"/>
-      <c r="AP17" s="13"/>
+      <c r="AP17" s="14"/>
       <c r="AQ17" s="14"/>
-      <c r="AR17" s="13"/>
-      <c r="AS17" s="13"/>
+      <c r="AR17" s="14"/>
+      <c r="AS17" s="14"/>
       <c r="AT17" s="14"/>
-      <c r="AU17" s="13"/>
+      <c r="AU17" s="14"/>
       <c r="AV17" s="13"/>
-      <c r="AW17" s="13"/>
-      <c r="AX17" s="12"/>
-      <c r="AY17" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AW17" s="14"/>
+      <c r="AX17" s="13"/>
+      <c r="AY17" s="13"/>
+      <c r="AZ17" s="14"/>
+      <c r="BA17" s="30"/>
+      <c r="BB17" s="13"/>
+      <c r="BC17" s="13"/>
+      <c r="BD17" s="13"/>
+      <c r="BE17" s="12"/>
+      <c r="BF17" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>61</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="13" t="s">
         <v>62</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>64</v>
       </c>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="13"/>
       <c r="N18" s="14"/>
       <c r="O18" s="14"/>
       <c r="P18" s="14"/>
@@ -2432,63 +2639,70 @@
       <c r="R18" s="14"/>
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
-      <c r="U18" s="13"/>
+      <c r="U18" s="14"/>
       <c r="V18" s="14"/>
-      <c r="W18" s="13"/>
+      <c r="W18" s="30"/>
       <c r="X18" s="13"/>
       <c r="Y18" s="14"/>
       <c r="Z18" s="13"/>
-      <c r="AA18" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB18" s="15"/>
-      <c r="AC18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="30"/>
       <c r="AD18" s="13"/>
-      <c r="AE18" s="13"/>
-      <c r="AF18" s="13"/>
-      <c r="AG18" s="14"/>
-      <c r="AH18" s="14"/>
-      <c r="AI18" s="14"/>
-      <c r="AJ18" s="14"/>
-      <c r="AK18" s="14"/>
-      <c r="AL18" s="14"/>
+      <c r="AE18" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF18" s="15"/>
+      <c r="AG18" s="13"/>
+      <c r="AH18" s="13"/>
+      <c r="AI18" s="13"/>
+      <c r="AJ18" s="30"/>
+      <c r="AK18" s="30"/>
+      <c r="AL18" s="13"/>
       <c r="AM18" s="14"/>
       <c r="AN18" s="14"/>
       <c r="AO18" s="14"/>
-      <c r="AP18" s="13"/>
+      <c r="AP18" s="14"/>
       <c r="AQ18" s="14"/>
-      <c r="AR18" s="13"/>
-      <c r="AS18" s="13"/>
+      <c r="AR18" s="14"/>
+      <c r="AS18" s="14"/>
       <c r="AT18" s="14"/>
-      <c r="AU18" s="13"/>
+      <c r="AU18" s="14"/>
       <c r="AV18" s="13"/>
-      <c r="AW18" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="AX18" s="12"/>
-    </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AW18" s="14"/>
+      <c r="AX18" s="13"/>
+      <c r="AY18" s="13"/>
+      <c r="AZ18" s="14"/>
+      <c r="BA18" s="30"/>
+      <c r="BB18" s="13"/>
+      <c r="BC18" s="13"/>
+      <c r="BD18" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="BE18" s="12"/>
+    </row>
+    <row r="19" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="13"/>
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
       <c r="P19" s="14"/>
@@ -2496,65 +2710,72 @@
       <c r="R19" s="14"/>
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="13"/>
+      <c r="U19" s="14"/>
       <c r="V19" s="14"/>
-      <c r="W19" s="13"/>
+      <c r="W19" s="30"/>
       <c r="X19" s="13"/>
       <c r="Y19" s="14"/>
       <c r="Z19" s="13"/>
-      <c r="AA19" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB19" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="30"/>
       <c r="AD19" s="13"/>
-      <c r="AE19" s="13"/>
-      <c r="AF19" s="13"/>
-      <c r="AG19" s="14"/>
-      <c r="AH19" s="14"/>
-      <c r="AI19" s="14"/>
-      <c r="AJ19" s="14"/>
-      <c r="AK19" s="14"/>
-      <c r="AL19" s="14"/>
+      <c r="AE19" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF19" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG19" s="13"/>
+      <c r="AH19" s="13"/>
+      <c r="AI19" s="13"/>
+      <c r="AJ19" s="30"/>
+      <c r="AK19" s="30"/>
+      <c r="AL19" s="13"/>
       <c r="AM19" s="14"/>
       <c r="AN19" s="14"/>
       <c r="AO19" s="14"/>
-      <c r="AP19" s="13"/>
+      <c r="AP19" s="14"/>
       <c r="AQ19" s="14"/>
-      <c r="AR19" s="13"/>
-      <c r="AS19" s="13"/>
+      <c r="AR19" s="14"/>
+      <c r="AS19" s="14"/>
       <c r="AT19" s="14"/>
-      <c r="AU19" s="13"/>
+      <c r="AU19" s="14"/>
       <c r="AV19" s="13"/>
-      <c r="AW19" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX19" s="12"/>
-    </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AW19" s="14"/>
+      <c r="AX19" s="13"/>
+      <c r="AY19" s="13"/>
+      <c r="AZ19" s="14"/>
+      <c r="BA19" s="30"/>
+      <c r="BB19" s="13"/>
+      <c r="BC19" s="13"/>
+      <c r="BD19" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE19" s="12"/>
+    </row>
+    <row r="20" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="13"/>
       <c r="N20" s="14"/>
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
@@ -2562,69 +2783,76 @@
       <c r="R20" s="14"/>
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
-      <c r="U20" s="13"/>
+      <c r="U20" s="14"/>
       <c r="V20" s="14"/>
-      <c r="W20" s="13"/>
+      <c r="W20" s="30"/>
       <c r="X20" s="13"/>
       <c r="Y20" s="14"/>
-      <c r="Z20" s="13">
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="30"/>
+      <c r="AD20" s="13">
         <v>6000</v>
       </c>
-      <c r="AA20" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB20" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC20" s="13"/>
-      <c r="AD20" s="13"/>
-      <c r="AE20" s="13"/>
-      <c r="AF20" s="13"/>
-      <c r="AG20" s="14"/>
-      <c r="AH20" s="14"/>
-      <c r="AI20" s="14"/>
-      <c r="AJ20" s="14"/>
-      <c r="AK20" s="14"/>
-      <c r="AL20" s="14"/>
+      <c r="AE20" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF20" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG20" s="13"/>
+      <c r="AH20" s="13"/>
+      <c r="AI20" s="13"/>
+      <c r="AJ20" s="30"/>
+      <c r="AK20" s="30"/>
+      <c r="AL20" s="13"/>
       <c r="AM20" s="14"/>
       <c r="AN20" s="14"/>
       <c r="AO20" s="14"/>
-      <c r="AP20" s="13"/>
+      <c r="AP20" s="14"/>
       <c r="AQ20" s="14"/>
-      <c r="AR20" s="13"/>
-      <c r="AS20" s="13"/>
+      <c r="AR20" s="14"/>
+      <c r="AS20" s="14"/>
       <c r="AT20" s="14"/>
-      <c r="AU20" s="13">
+      <c r="AU20" s="14"/>
+      <c r="AV20" s="13"/>
+      <c r="AW20" s="14"/>
+      <c r="AX20" s="13"/>
+      <c r="AY20" s="13"/>
+      <c r="AZ20" s="14"/>
+      <c r="BA20" s="30"/>
+      <c r="BB20" s="13">
         <v>25000</v>
       </c>
-      <c r="AV20" s="13"/>
-      <c r="AW20" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="AX20" s="12"/>
-    </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="BC20" s="13"/>
+      <c r="BD20" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="BE20" s="12"/>
+    </row>
+    <row r="21" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="13"/>
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
       <c r="P21" s="14"/>
@@ -2632,65 +2860,72 @@
       <c r="R21" s="14"/>
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
-      <c r="U21" s="13"/>
+      <c r="U21" s="14"/>
       <c r="V21" s="14"/>
-      <c r="W21" s="13"/>
+      <c r="W21" s="30"/>
       <c r="X21" s="13"/>
       <c r="Y21" s="14"/>
       <c r="Z21" s="13"/>
-      <c r="AA21" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB21" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="30"/>
       <c r="AD21" s="13"/>
-      <c r="AE21" s="13"/>
-      <c r="AF21" s="13"/>
-      <c r="AG21" s="14"/>
-      <c r="AH21" s="14"/>
-      <c r="AI21" s="14"/>
-      <c r="AJ21" s="14"/>
-      <c r="AK21" s="14"/>
-      <c r="AL21" s="14"/>
+      <c r="AE21" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF21" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13"/>
+      <c r="AI21" s="13"/>
+      <c r="AJ21" s="30"/>
+      <c r="AK21" s="30"/>
+      <c r="AL21" s="13"/>
       <c r="AM21" s="14"/>
       <c r="AN21" s="14"/>
       <c r="AO21" s="14"/>
-      <c r="AP21" s="13"/>
+      <c r="AP21" s="14"/>
       <c r="AQ21" s="14"/>
-      <c r="AR21" s="13"/>
-      <c r="AS21" s="13"/>
+      <c r="AR21" s="14"/>
+      <c r="AS21" s="14"/>
       <c r="AT21" s="14"/>
-      <c r="AU21" s="13"/>
+      <c r="AU21" s="14"/>
       <c r="AV21" s="13"/>
-      <c r="AX21" s="12"/>
-      <c r="AY21" s="47" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:51" ht="30" x14ac:dyDescent="0.25">
+      <c r="AW21" s="14"/>
+      <c r="AX21" s="13"/>
+      <c r="AY21" s="13"/>
+      <c r="AZ21" s="14"/>
+      <c r="BA21" s="30"/>
+      <c r="BB21" s="13"/>
+      <c r="BC21" s="13"/>
+      <c r="BE21" s="12"/>
+      <c r="BF21" s="40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:58" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="13"/>
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
       <c r="P22" s="14"/>
@@ -2698,63 +2933,70 @@
       <c r="R22" s="14"/>
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
-      <c r="U22" s="13"/>
+      <c r="U22" s="14"/>
       <c r="V22" s="14"/>
-      <c r="W22" s="13"/>
+      <c r="W22" s="30"/>
       <c r="X22" s="13"/>
       <c r="Y22" s="14"/>
       <c r="Z22" s="13"/>
-      <c r="AA22" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB22" s="15"/>
-      <c r="AC22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="30"/>
       <c r="AD22" s="13"/>
-      <c r="AE22" s="13"/>
-      <c r="AF22" s="13"/>
-      <c r="AG22" s="14"/>
-      <c r="AH22" s="14"/>
-      <c r="AI22" s="14"/>
-      <c r="AJ22" s="14"/>
-      <c r="AK22" s="14"/>
-      <c r="AL22" s="14"/>
+      <c r="AE22" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF22" s="15"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="13"/>
+      <c r="AI22" s="13"/>
+      <c r="AJ22" s="30"/>
+      <c r="AK22" s="30"/>
+      <c r="AL22" s="13"/>
       <c r="AM22" s="14"/>
       <c r="AN22" s="14"/>
       <c r="AO22" s="14"/>
-      <c r="AP22" s="13"/>
+      <c r="AP22" s="14"/>
       <c r="AQ22" s="14"/>
-      <c r="AR22" s="13"/>
-      <c r="AS22" s="13"/>
+      <c r="AR22" s="14"/>
+      <c r="AS22" s="14"/>
       <c r="AT22" s="14"/>
-      <c r="AU22" s="13"/>
+      <c r="AU22" s="14"/>
       <c r="AV22" s="13"/>
-      <c r="AW22" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="AX22" s="12"/>
-    </row>
-    <row r="23" spans="1:51" ht="45" x14ac:dyDescent="0.25">
+      <c r="AW22" s="14"/>
+      <c r="AX22" s="13"/>
+      <c r="AY22" s="13"/>
+      <c r="AZ22" s="14"/>
+      <c r="BA22" s="30"/>
+      <c r="BB22" s="13"/>
+      <c r="BC22" s="13"/>
+      <c r="BD22" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE22" s="12"/>
+    </row>
+    <row r="23" spans="1:58" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
       <c r="J23" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="K23" s="13"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
+        <v>90</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="13"/>
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
       <c r="P23" s="14"/>
@@ -2762,63 +3004,70 @@
       <c r="R23" s="14"/>
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
-      <c r="U23" s="13"/>
+      <c r="U23" s="14"/>
       <c r="V23" s="14"/>
-      <c r="W23" s="13"/>
+      <c r="W23" s="30"/>
       <c r="X23" s="13"/>
       <c r="Y23" s="14"/>
       <c r="Z23" s="13"/>
-      <c r="AA23" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB23" s="15"/>
-      <c r="AC23" s="13"/>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="30"/>
       <c r="AD23" s="13"/>
-      <c r="AE23" s="13"/>
-      <c r="AF23" s="13"/>
-      <c r="AG23" s="14"/>
-      <c r="AH23" s="14"/>
-      <c r="AI23" s="14"/>
-      <c r="AJ23" s="14"/>
-      <c r="AK23" s="14"/>
-      <c r="AL23" s="14"/>
+      <c r="AE23" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF23" s="15"/>
+      <c r="AG23" s="13"/>
+      <c r="AH23" s="13"/>
+      <c r="AI23" s="13"/>
+      <c r="AJ23" s="30"/>
+      <c r="AK23" s="30"/>
+      <c r="AL23" s="13"/>
       <c r="AM23" s="14"/>
       <c r="AN23" s="14"/>
       <c r="AO23" s="14"/>
-      <c r="AP23" s="13"/>
+      <c r="AP23" s="14"/>
       <c r="AQ23" s="14"/>
-      <c r="AR23" s="13"/>
-      <c r="AS23" s="13"/>
+      <c r="AR23" s="14"/>
+      <c r="AS23" s="14"/>
       <c r="AT23" s="14"/>
-      <c r="AU23" s="13"/>
+      <c r="AU23" s="14"/>
       <c r="AV23" s="13"/>
-      <c r="AW23" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="AX23" s="12"/>
-    </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AW23" s="14"/>
+      <c r="AX23" s="13"/>
+      <c r="AY23" s="13"/>
+      <c r="AZ23" s="14"/>
+      <c r="BA23" s="30"/>
+      <c r="BB23" s="13"/>
+      <c r="BC23" s="13"/>
+      <c r="BD23" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="BE23" s="12"/>
+    </row>
+    <row r="24" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="13"/>
       <c r="N24" s="14"/>
       <c r="O24" s="14"/>
       <c r="P24" s="14"/>
@@ -2826,63 +3075,70 @@
       <c r="R24" s="14"/>
       <c r="S24" s="14"/>
       <c r="T24" s="14"/>
-      <c r="U24" s="13"/>
+      <c r="U24" s="14"/>
       <c r="V24" s="14"/>
-      <c r="W24" s="13"/>
+      <c r="W24" s="30"/>
       <c r="X24" s="13"/>
       <c r="Y24" s="14"/>
       <c r="Z24" s="13"/>
-      <c r="AA24" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB24" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC24" s="13"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="30"/>
       <c r="AD24" s="13"/>
-      <c r="AE24" s="13"/>
-      <c r="AF24" s="13"/>
-      <c r="AG24" s="14"/>
-      <c r="AH24" s="14"/>
-      <c r="AI24" s="14"/>
-      <c r="AJ24" s="14"/>
-      <c r="AK24" s="14"/>
-      <c r="AL24" s="14"/>
+      <c r="AE24" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF24" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG24" s="13"/>
+      <c r="AH24" s="13"/>
+      <c r="AI24" s="13"/>
+      <c r="AJ24" s="30"/>
+      <c r="AK24" s="30"/>
+      <c r="AL24" s="13"/>
       <c r="AM24" s="14"/>
       <c r="AN24" s="14"/>
       <c r="AO24" s="14"/>
-      <c r="AP24" s="13"/>
+      <c r="AP24" s="14"/>
       <c r="AQ24" s="14"/>
-      <c r="AR24" s="13"/>
-      <c r="AS24" s="13"/>
+      <c r="AR24" s="14"/>
+      <c r="AS24" s="14"/>
       <c r="AT24" s="14"/>
-      <c r="AU24" s="13"/>
+      <c r="AU24" s="14"/>
       <c r="AV24" s="13"/>
-      <c r="AW24" s="13"/>
-      <c r="AX24" s="12"/>
-    </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AW24" s="14"/>
+      <c r="AX24" s="13"/>
+      <c r="AY24" s="13"/>
+      <c r="AZ24" s="14"/>
+      <c r="BA24" s="30"/>
+      <c r="BB24" s="13"/>
+      <c r="BC24" s="13"/>
+      <c r="BD24" s="13"/>
+      <c r="BE24" s="12"/>
+    </row>
+    <row r="25" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="21" t="s">
         <v>98</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>100</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
       <c r="G25" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="13"/>
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
       <c r="P25" s="14"/>
@@ -2890,65 +3146,72 @@
       <c r="R25" s="14"/>
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="13"/>
+      <c r="U25" s="14"/>
       <c r="V25" s="14"/>
-      <c r="W25" s="13"/>
+      <c r="W25" s="30"/>
       <c r="X25" s="13"/>
       <c r="Y25" s="14"/>
       <c r="Z25" s="13"/>
-      <c r="AA25" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB25" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC25" s="13"/>
+      <c r="AA25" s="13"/>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="30"/>
       <c r="AD25" s="13"/>
-      <c r="AE25" s="13"/>
-      <c r="AF25" s="13"/>
-      <c r="AG25" s="14"/>
-      <c r="AH25" s="14"/>
-      <c r="AI25" s="14"/>
-      <c r="AJ25" s="14"/>
-      <c r="AK25" s="14"/>
-      <c r="AL25" s="14"/>
+      <c r="AE25" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF25" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG25" s="13"/>
+      <c r="AH25" s="13"/>
+      <c r="AI25" s="13"/>
+      <c r="AJ25" s="30"/>
+      <c r="AK25" s="30"/>
+      <c r="AL25" s="13"/>
       <c r="AM25" s="14"/>
       <c r="AN25" s="14"/>
       <c r="AO25" s="14"/>
-      <c r="AP25" s="13"/>
+      <c r="AP25" s="14"/>
       <c r="AQ25" s="14"/>
-      <c r="AR25" s="13"/>
-      <c r="AS25" s="13"/>
+      <c r="AR25" s="14"/>
+      <c r="AS25" s="14"/>
       <c r="AT25" s="14"/>
-      <c r="AU25" s="13"/>
+      <c r="AU25" s="14"/>
       <c r="AV25" s="13"/>
-      <c r="AW25" s="13"/>
-      <c r="AX25" s="12"/>
-    </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AW25" s="14"/>
+      <c r="AX25" s="13"/>
+      <c r="AY25" s="13"/>
+      <c r="AZ25" s="14"/>
+      <c r="BA25" s="30"/>
+      <c r="BB25" s="13"/>
+      <c r="BC25" s="13"/>
+      <c r="BD25" s="13"/>
+      <c r="BE25" s="12"/>
+    </row>
+    <row r="26" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="13"/>
       <c r="N26" s="14"/>
       <c r="O26" s="14"/>
       <c r="P26" s="14"/>
@@ -2956,71 +3219,78 @@
       <c r="R26" s="14"/>
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
-      <c r="U26" s="13"/>
+      <c r="U26" s="14"/>
       <c r="V26" s="14"/>
-      <c r="W26" s="13"/>
+      <c r="W26" s="30"/>
       <c r="X26" s="13"/>
       <c r="Y26" s="14"/>
       <c r="Z26" s="13"/>
-      <c r="AA26" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB26" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC26" s="13"/>
+      <c r="AA26" s="13"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="30"/>
       <c r="AD26" s="13"/>
-      <c r="AE26" s="13"/>
-      <c r="AF26" s="13"/>
-      <c r="AG26" s="14"/>
-      <c r="AH26" s="14"/>
-      <c r="AI26" s="14"/>
-      <c r="AJ26" s="14"/>
-      <c r="AK26" s="14"/>
-      <c r="AL26" s="14"/>
+      <c r="AE26" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF26" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG26" s="13"/>
+      <c r="AH26" s="13"/>
+      <c r="AI26" s="13"/>
+      <c r="AJ26" s="30"/>
+      <c r="AK26" s="30"/>
+      <c r="AL26" s="13"/>
       <c r="AM26" s="14"/>
       <c r="AN26" s="14"/>
       <c r="AO26" s="14"/>
-      <c r="AP26" s="13"/>
+      <c r="AP26" s="14"/>
       <c r="AQ26" s="14"/>
-      <c r="AR26" s="13"/>
-      <c r="AS26" s="13"/>
+      <c r="AR26" s="14"/>
+      <c r="AS26" s="14"/>
       <c r="AT26" s="14"/>
-      <c r="AU26" s="13"/>
+      <c r="AU26" s="14"/>
       <c r="AV26" s="13"/>
-      <c r="AW26" s="13"/>
-      <c r="AX26" s="12"/>
-    </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AW26" s="14"/>
+      <c r="AX26" s="13"/>
+      <c r="AY26" s="13"/>
+      <c r="AZ26" s="14"/>
+      <c r="BA26" s="30"/>
+      <c r="BB26" s="13"/>
+      <c r="BC26" s="13"/>
+      <c r="BD26" s="13"/>
+      <c r="BE26" s="12"/>
+    </row>
+    <row r="27" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C27" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="12" t="s">
         <v>135</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>137</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I27" s="13">
         <v>13</v>
       </c>
       <c r="J27" s="13"/>
-      <c r="K27" s="13">
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="13">
         <v>15</v>
       </c>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
       <c r="P27" s="14"/>
@@ -3028,197 +3298,211 @@
       <c r="R27" s="14"/>
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
-      <c r="U27" s="13"/>
+      <c r="U27" s="14"/>
       <c r="V27" s="14"/>
-      <c r="W27" s="13"/>
+      <c r="W27" s="30"/>
       <c r="X27" s="13"/>
       <c r="Y27" s="14"/>
-      <c r="Z27" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA27" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB27" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC27" s="13">
+      <c r="Z27" s="13"/>
+      <c r="AA27" s="13"/>
+      <c r="AB27" s="14"/>
+      <c r="AC27" s="30"/>
+      <c r="AD27" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE27" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF27" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG27" s="13">
         <v>6</v>
       </c>
-      <c r="AD27" s="13">
+      <c r="AH27" s="13">
         <v>1</v>
       </c>
-      <c r="AE27" s="13"/>
-      <c r="AF27" s="13">
+      <c r="AI27" s="13"/>
+      <c r="AJ27" s="30"/>
+      <c r="AK27" s="30"/>
+      <c r="AL27" s="13">
         <v>12</v>
       </c>
-      <c r="AG27" s="14"/>
-      <c r="AH27" s="14"/>
-      <c r="AI27" s="14"/>
-      <c r="AJ27" s="14"/>
-      <c r="AK27" s="14"/>
-      <c r="AL27" s="14"/>
       <c r="AM27" s="14"/>
       <c r="AN27" s="14"/>
       <c r="AO27" s="14"/>
-      <c r="AP27" s="13"/>
+      <c r="AP27" s="14"/>
       <c r="AQ27" s="14"/>
-      <c r="AR27" s="13"/>
-      <c r="AS27" s="13"/>
+      <c r="AR27" s="14"/>
+      <c r="AS27" s="14"/>
       <c r="AT27" s="14"/>
-      <c r="AU27" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="AV27" s="13">
+      <c r="AU27" s="14"/>
+      <c r="AV27" s="13"/>
+      <c r="AW27" s="14"/>
+      <c r="AX27" s="13"/>
+      <c r="AY27" s="13"/>
+      <c r="AZ27" s="14"/>
+      <c r="BA27" s="30"/>
+      <c r="BB27" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="BC27" s="13">
         <v>4</v>
       </c>
-      <c r="AW27" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="AX27" s="25" t="s">
+      <c r="BD27" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="BE27" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="BF27" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="AY27" s="27" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="28" spans="1:51" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32" t="s">
+    </row>
+    <row r="28" spans="1:58" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="31"/>
+      <c r="B28" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" s="31"/>
+      <c r="G28" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="C28" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="E28" s="32" t="s">
+      <c r="H28" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34">
+        <v>4</v>
+      </c>
+      <c r="O28" s="34">
+        <v>0</v>
+      </c>
+      <c r="P28" s="34">
+        <v>29</v>
+      </c>
+      <c r="Q28" s="34">
+        <v>33</v>
+      </c>
+      <c r="R28" s="34">
+        <v>5</v>
+      </c>
+      <c r="S28" s="34">
+        <v>2</v>
+      </c>
+      <c r="T28" s="34"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="34">
+        <v>40</v>
+      </c>
+      <c r="W28" s="34"/>
+      <c r="X28" s="34">
+        <v>4395</v>
+      </c>
+      <c r="Y28" s="34">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="34">
+        <v>2541</v>
+      </c>
+      <c r="AA28" s="34">
+        <v>7500</v>
+      </c>
+      <c r="AB28" s="34">
+        <v>21</v>
+      </c>
+      <c r="AC28" s="34"/>
+      <c r="AD28" s="34"/>
+      <c r="AE28" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="F28" s="32"/>
-      <c r="G28" s="35" t="s">
+      <c r="AF28" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="H28" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35">
+      <c r="AG28" s="34"/>
+      <c r="AH28" s="34"/>
+      <c r="AI28" s="34"/>
+      <c r="AJ28" s="34"/>
+      <c r="AK28" s="34"/>
+      <c r="AL28" s="34"/>
+      <c r="AM28" s="34">
+        <v>3</v>
+      </c>
+      <c r="AN28" s="34">
         <v>4</v>
       </c>
-      <c r="M28" s="35">
-        <v>0</v>
-      </c>
-      <c r="N28" s="35">
-        <v>29</v>
-      </c>
-      <c r="O28" s="35">
+      <c r="AO28" s="34">
+        <v>20</v>
+      </c>
+      <c r="AP28" s="34">
+        <v>27</v>
+      </c>
+      <c r="AQ28" s="34">
+        <v>4</v>
+      </c>
+      <c r="AR28" s="34"/>
+      <c r="AS28" s="34">
+        <v>1</v>
+      </c>
+      <c r="AT28" s="34">
+        <v>1</v>
+      </c>
+      <c r="AU28" s="34">
         <v>33</v>
       </c>
-      <c r="P28" s="35">
-        <v>5</v>
-      </c>
-      <c r="Q28" s="35">
-        <v>2</v>
-      </c>
-      <c r="R28" s="35"/>
-      <c r="S28" s="35"/>
-      <c r="T28" s="35">
-        <v>40</v>
-      </c>
-      <c r="U28" s="35">
-        <v>4395</v>
-      </c>
-      <c r="V28" s="35">
-        <v>1</v>
-      </c>
-      <c r="W28" s="35">
-        <v>2541</v>
-      </c>
-      <c r="X28" s="35">
-        <v>7500</v>
-      </c>
-      <c r="Y28" s="35">
-        <v>21</v>
-      </c>
-      <c r="Z28" s="35"/>
-      <c r="AA28" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="AB28" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="AC28" s="35"/>
-      <c r="AD28" s="35"/>
-      <c r="AE28" s="35"/>
-      <c r="AF28" s="35"/>
-      <c r="AG28" s="35">
-        <v>3</v>
-      </c>
-      <c r="AH28" s="35">
-        <v>4</v>
-      </c>
-      <c r="AI28" s="35">
-        <v>20</v>
-      </c>
-      <c r="AJ28" s="35">
-        <v>27</v>
-      </c>
-      <c r="AK28" s="35">
-        <v>4</v>
-      </c>
-      <c r="AL28" s="35"/>
-      <c r="AM28" s="35">
-        <v>1</v>
-      </c>
-      <c r="AN28" s="35">
-        <v>1</v>
-      </c>
-      <c r="AO28" s="35">
-        <v>33</v>
-      </c>
-      <c r="AP28" s="35">
+      <c r="AV28" s="34">
         <v>458</v>
       </c>
-      <c r="AQ28" s="35"/>
-      <c r="AR28" s="35">
+      <c r="AW28" s="34"/>
+      <c r="AX28" s="34">
         <v>1208</v>
       </c>
-      <c r="AS28" s="35"/>
-      <c r="AT28" s="35"/>
-      <c r="AU28" s="35"/>
-      <c r="AV28" s="35"/>
-      <c r="AW28" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="AX28" s="37"/>
-      <c r="AY28" s="38"/>
-    </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AY28" s="34"/>
+      <c r="AZ28" s="34"/>
+      <c r="BA28" s="34"/>
+      <c r="BB28" s="34"/>
+      <c r="BC28" s="34"/>
+      <c r="BD28" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="BE28" s="36"/>
+      <c r="BF28" s="37"/>
+    </row>
+    <row r="29" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="13"/>
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
       <c r="P29" s="14"/>
@@ -3226,48 +3510,55 @@
       <c r="R29" s="14"/>
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
-      <c r="U29" s="13"/>
+      <c r="U29" s="14"/>
       <c r="V29" s="14"/>
-      <c r="W29" s="13"/>
+      <c r="W29" s="30"/>
       <c r="X29" s="13"/>
       <c r="Y29" s="14"/>
       <c r="Z29" s="13"/>
-      <c r="AA29" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB29" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC29" s="13"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="14"/>
+      <c r="AC29" s="30"/>
       <c r="AD29" s="13"/>
-      <c r="AE29" s="13"/>
-      <c r="AF29" s="13"/>
-      <c r="AG29" s="14"/>
-      <c r="AH29" s="14"/>
-      <c r="AI29" s="14"/>
-      <c r="AJ29" s="14"/>
-      <c r="AK29" s="14"/>
-      <c r="AL29" s="14"/>
+      <c r="AE29" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF29" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG29" s="13"/>
+      <c r="AH29" s="13"/>
+      <c r="AI29" s="13"/>
+      <c r="AJ29" s="30"/>
+      <c r="AK29" s="30"/>
+      <c r="AL29" s="13"/>
       <c r="AM29" s="14"/>
       <c r="AN29" s="14"/>
       <c r="AO29" s="14"/>
-      <c r="AP29" s="13"/>
+      <c r="AP29" s="14"/>
       <c r="AQ29" s="14"/>
-      <c r="AR29" s="13"/>
-      <c r="AS29" s="13"/>
+      <c r="AR29" s="14"/>
+      <c r="AS29" s="14"/>
       <c r="AT29" s="14"/>
-      <c r="AU29" s="13"/>
+      <c r="AU29" s="14"/>
       <c r="AV29" s="13"/>
-      <c r="AW29" s="13"/>
-      <c r="AX29" s="25"/>
-      <c r="AY29" s="28"/>
-    </row>
-    <row r="30" spans="1:51" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AW29" s="14"/>
+      <c r="AX29" s="13"/>
+      <c r="AY29" s="13"/>
+      <c r="AZ29" s="14"/>
+      <c r="BA29" s="30"/>
+      <c r="BB29" s="13"/>
+      <c r="BC29" s="13"/>
+      <c r="BD29" s="13"/>
+      <c r="BE29" s="25"/>
+      <c r="BF29" s="28"/>
+    </row>
+    <row r="30" spans="1:58" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C30" s="19" t="s">
         <v>21</v>
@@ -3289,9 +3580,9 @@
       <c r="J30" s="13">
         <v>20000</v>
       </c>
-      <c r="K30" s="13"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="13"/>
       <c r="N30" s="14"/>
       <c r="O30" s="14"/>
       <c r="P30" s="14"/>
@@ -3299,61 +3590,88 @@
       <c r="R30" s="14"/>
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
-      <c r="U30" s="13">
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="13">
         <v>2000</v>
       </c>
-      <c r="V30" s="14"/>
-      <c r="W30" s="13"/>
-      <c r="X30" s="13"/>
       <c r="Y30" s="14"/>
       <c r="Z30" s="13"/>
-      <c r="AA30" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB30" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="AC30" s="13"/>
+      <c r="AA30" s="13"/>
+      <c r="AB30" s="14"/>
+      <c r="AC30" s="30"/>
       <c r="AD30" s="13"/>
-      <c r="AE30" s="13">
+      <c r="AE30" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF30" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG30" s="13"/>
+      <c r="AH30" s="13"/>
+      <c r="AI30" s="13">
         <v>9000</v>
       </c>
-      <c r="AF30" s="13"/>
-      <c r="AG30" s="14"/>
-      <c r="AH30" s="14"/>
-      <c r="AI30" s="14"/>
-      <c r="AJ30" s="14"/>
-      <c r="AK30" s="14"/>
-      <c r="AL30" s="14"/>
+      <c r="AJ30" s="30"/>
+      <c r="AK30" s="30"/>
+      <c r="AL30" s="13"/>
       <c r="AM30" s="14"/>
       <c r="AN30" s="14"/>
       <c r="AO30" s="14"/>
-      <c r="AP30" s="13">
+      <c r="AP30" s="14"/>
+      <c r="AQ30" s="14"/>
+      <c r="AR30" s="14"/>
+      <c r="AS30" s="14"/>
+      <c r="AT30" s="14"/>
+      <c r="AU30" s="14"/>
+      <c r="AV30" s="13">
         <v>900</v>
       </c>
-      <c r="AQ30" s="14"/>
-      <c r="AR30" s="13"/>
-      <c r="AS30" s="13"/>
-      <c r="AT30" s="14"/>
-      <c r="AU30" s="13"/>
-      <c r="AV30" s="13"/>
-      <c r="AW30" s="13"/>
-      <c r="AX30" s="12"/>
-    </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AW30" s="14"/>
+      <c r="AX30" s="13"/>
+      <c r="AY30" s="13"/>
+      <c r="AZ30" s="14"/>
+      <c r="BA30" s="30"/>
+      <c r="BB30" s="13"/>
+      <c r="BC30" s="13"/>
+      <c r="BD30" s="13"/>
+      <c r="BE30" s="12"/>
+    </row>
+    <row r="31" spans="1:58" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="12"/>
+      <c r="B31" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>184</v>
+      </c>
       <c r="F31" s="12"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
+      <c r="G31" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>185</v>
+      </c>
       <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
+      <c r="J31" s="13">
+        <v>50700</v>
+      </c>
+      <c r="K31" s="30">
+        <v>14390</v>
+      </c>
+      <c r="L31" s="30">
+        <v>8050</v>
+      </c>
+      <c r="M31" s="13">
+        <v>252</v>
+      </c>
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
       <c r="P31" s="14"/>
@@ -3361,48 +3679,174 @@
       <c r="R31" s="14"/>
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
-      <c r="U31" s="13"/>
+      <c r="U31" s="14"/>
       <c r="V31" s="14"/>
-      <c r="W31" s="13"/>
+      <c r="W31" s="30">
+        <v>73000</v>
+      </c>
       <c r="X31" s="13"/>
       <c r="Y31" s="14"/>
       <c r="Z31" s="13"/>
-      <c r="AA31" s="13"/>
-      <c r="AB31" s="15"/>
-      <c r="AC31" s="13"/>
-      <c r="AD31" s="13"/>
-      <c r="AE31" s="13"/>
-      <c r="AF31" s="13"/>
-      <c r="AG31" s="14"/>
-      <c r="AH31" s="14"/>
-      <c r="AI31" s="14"/>
-      <c r="AJ31" s="14"/>
-      <c r="AK31" s="14"/>
-      <c r="AL31" s="14"/>
+      <c r="AA31" s="13">
+        <v>6000</v>
+      </c>
+      <c r="AB31" s="14"/>
+      <c r="AC31" s="30">
+        <v>15000</v>
+      </c>
+      <c r="AD31" s="13">
+        <v>25000</v>
+      </c>
+      <c r="AE31" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF31" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG31" s="13"/>
+      <c r="AH31" s="13"/>
+      <c r="AI31" s="13"/>
+      <c r="AJ31" s="30"/>
+      <c r="AK31" s="30"/>
+      <c r="AL31" s="13"/>
       <c r="AM31" s="14"/>
       <c r="AN31" s="14"/>
       <c r="AO31" s="14"/>
-      <c r="AP31" s="13"/>
+      <c r="AP31" s="14"/>
       <c r="AQ31" s="14"/>
-      <c r="AR31" s="13"/>
-      <c r="AS31" s="13"/>
+      <c r="AR31" s="14"/>
+      <c r="AS31" s="14"/>
       <c r="AT31" s="14"/>
-      <c r="AU31" s="13"/>
+      <c r="AU31" s="14"/>
       <c r="AV31" s="13"/>
-      <c r="AW31" s="13"/>
-      <c r="AX31" s="12"/>
+      <c r="AW31" s="14"/>
+      <c r="AX31" s="13"/>
+      <c r="AY31" s="13"/>
+      <c r="AZ31" s="14"/>
+      <c r="BA31" s="30"/>
+      <c r="BB31" s="13"/>
+      <c r="BC31" s="13"/>
+      <c r="BD31" s="13"/>
+      <c r="BE31" s="12"/>
+    </row>
+    <row r="32" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="AE32" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="4:56" x14ac:dyDescent="0.25">
+      <c r="AE33" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI33" s="2">
+        <v>25000</v>
+      </c>
+      <c r="AV33" s="2">
+        <v>3500</v>
+      </c>
+      <c r="AX33" s="2">
+        <v>10200</v>
+      </c>
+      <c r="BA33" s="9">
+        <v>3300</v>
+      </c>
+      <c r="BD33" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" spans="4:56" x14ac:dyDescent="0.25">
+      <c r="AE34" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI34" s="2">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="35" spans="4:56" x14ac:dyDescent="0.25">
+      <c r="AE35" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI35" s="2">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="36" spans="4:56" x14ac:dyDescent="0.25">
+      <c r="AE36" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI36" s="2">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="37" spans="4:56" x14ac:dyDescent="0.25">
+      <c r="AE37" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI37" s="2">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="38" spans="4:56" x14ac:dyDescent="0.25">
+      <c r="AE38" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="AI38" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="39" spans="4:56" x14ac:dyDescent="0.25">
+      <c r="D39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="X39" s="9"/>
+      <c r="Z39" s="9"/>
+      <c r="AA39" s="9"/>
+      <c r="AD39" s="9"/>
+      <c r="AE39" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI39" s="9">
+        <v>68000</v>
+      </c>
+      <c r="AL39" s="9">
+        <v>156</v>
+      </c>
+      <c r="AV39" s="9"/>
+      <c r="AX39" s="9"/>
+      <c r="AY39" s="9"/>
+      <c r="BB39" s="9"/>
+      <c r="BD39" s="9"/>
+    </row>
+    <row r="40" spans="4:56" x14ac:dyDescent="0.25">
+      <c r="AE40" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="AI40" s="2">
+        <v>50000</v>
+      </c>
+      <c r="AV40" s="2">
+        <v>1200</v>
+      </c>
+      <c r="AX40" s="2">
+        <v>4400</v>
+      </c>
+      <c r="BA40" s="9">
+        <v>1400</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="AX1:AX2"/>
-    <mergeCell ref="AP1:AV1"/>
-    <mergeCell ref="AW1:AW2"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="AC1:AN1"/>
-    <mergeCell ref="I1:S1"/>
+    <mergeCell ref="I1:U1"/>
+    <mergeCell ref="BE1:BE2"/>
+    <mergeCell ref="AV1:BC1"/>
+    <mergeCell ref="BD1:BD2"/>
+    <mergeCell ref="X1:AD1"/>
+    <mergeCell ref="AG1:AT1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="AX27" r:id="rId1" xr:uid="{AB43767C-640A-454E-8867-6D6B4EA887DD}"/>
+    <hyperlink ref="BE27" r:id="rId1" xr:uid="{AB43767C-640A-454E-8867-6D6B4EA887DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>

--- a/war_index.xlsx
+++ b/war_index.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\PhD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD177DE-E83A-415B-B7E3-D2E7AE2C60C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F1B440-00BC-4035-8B8F-7982F3E0185D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{04375B46-837D-49F2-BE8A-ABE006783F6C}"/>
   </bookViews>
@@ -105,9 +105,6 @@
     <t>Austria</t>
   </si>
   <si>
-    <t>Leuthen, Silesia</t>
-  </si>
-  <si>
     <t>Alexander of Lorraine</t>
   </si>
   <si>
@@ -639,6 +636,9 @@
   </si>
   <si>
     <t>Waterloo Campaign</t>
+  </si>
+  <si>
+    <t>Silesia</t>
   </si>
 </sst>
 </file>
@@ -876,6 +876,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -893,18 +905,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1224,8 +1224,8 @@
   <dimension ref="A1:BF40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1276,74 +1276,74 @@
       <c r="F1" s="12"/>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="50"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="45"/>
       <c r="V1" s="41"/>
       <c r="W1" s="41"/>
-      <c r="X1" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
+      <c r="X1" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
       <c r="AE1" s="13"/>
       <c r="AF1" s="15"/>
-      <c r="AG1" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="46"/>
-      <c r="AM1" s="46"/>
-      <c r="AN1" s="46"/>
-      <c r="AO1" s="46"/>
-      <c r="AP1" s="46"/>
-      <c r="AQ1" s="46"/>
-      <c r="AR1" s="46"/>
-      <c r="AS1" s="46"/>
-      <c r="AT1" s="47"/>
+      <c r="AG1" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="50"/>
+      <c r="AO1" s="50"/>
+      <c r="AP1" s="50"/>
+      <c r="AQ1" s="50"/>
+      <c r="AR1" s="50"/>
+      <c r="AS1" s="50"/>
+      <c r="AT1" s="51"/>
       <c r="AU1" s="39"/>
-      <c r="AV1" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="AW1" s="43"/>
-      <c r="AX1" s="43"/>
-      <c r="AY1" s="43"/>
-      <c r="AZ1" s="43"/>
-      <c r="BA1" s="43"/>
-      <c r="BB1" s="43"/>
-      <c r="BC1" s="43"/>
-      <c r="BD1" s="42" t="s">
+      <c r="AV1" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW1" s="47"/>
+      <c r="AX1" s="47"/>
+      <c r="AY1" s="47"/>
+      <c r="AZ1" s="47"/>
+      <c r="BA1" s="47"/>
+      <c r="BB1" s="47"/>
+      <c r="BC1" s="47"/>
+      <c r="BD1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="BE1" s="42" t="s">
-        <v>41</v>
+      <c r="BE1" s="46" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:58" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>20</v>
@@ -1358,154 +1358,154 @@
         <v>5</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J2" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="K2" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="L2" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="M2" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="M2" s="17" t="s">
-        <v>189</v>
-      </c>
       <c r="N2" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="O2" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="P2" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="Q2" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="U2" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="W2" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y2" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA2" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB2" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC2" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD2" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE2" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG2" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH2" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI2" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ2" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="AK2" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL2" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="AM2" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="AN2" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="AO2" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="AP2" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="AQ2" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR2" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS2" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="AT2" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="AU2" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="Q2" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="R2" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="S2" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="T2" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="U2" s="17" t="s">
+      <c r="AV2" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="AW2" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AY2" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="V2" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="W2" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="Y2" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="Z2" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA2" s="17" t="s">
+      <c r="AZ2" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="AB2" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="AC2" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="AD2" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF2" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG2" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="AH2" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="AI2" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="AJ2" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="AK2" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="AL2" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="AM2" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="AN2" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="AO2" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="AP2" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ2" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR2" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="AS2" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="AT2" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="AU2" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="AV2" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="AW2" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="AX2" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="AY2" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="AZ2" s="17" t="s">
-        <v>172</v>
-      </c>
       <c r="BA2" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BB2" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="BC2" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD2" s="42"/>
-      <c r="BE2" s="42"/>
+        <v>149</v>
+      </c>
+      <c r="BD2" s="46"/>
+      <c r="BE2" s="46"/>
     </row>
     <row r="3" spans="1:58" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
@@ -1570,20 +1570,20 @@
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>30</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>31</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="13">
@@ -1612,7 +1612,7 @@
       <c r="AC4" s="30"/>
       <c r="AD4" s="13"/>
       <c r="AE4" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AF4" s="15"/>
       <c r="AG4" s="13"/>
@@ -1643,7 +1643,7 @@
       <c r="BB4" s="13"/>
       <c r="BC4" s="13"/>
       <c r="BD4" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BE4" s="12"/>
     </row>
@@ -1736,7 +1736,7 @@
       <c r="BB5" s="13"/>
       <c r="BC5" s="13"/>
       <c r="BD5" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BE5" s="12"/>
     </row>
@@ -1809,7 +1809,7 @@
         <v>24</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>26</v>
+        <v>203</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="13" t="s">
@@ -1854,7 +1854,7 @@
         <v>25</v>
       </c>
       <c r="AF7" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG7" s="13"/>
       <c r="AH7" s="13"/>
@@ -1896,23 +1896,23 @@
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="C8" s="19" t="s">
         <v>104</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>105</v>
       </c>
       <c r="D8" s="13">
         <v>1792</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -1940,7 +1940,7 @@
       <c r="AC8" s="30"/>
       <c r="AD8" s="13"/>
       <c r="AE8" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF8" s="15"/>
       <c r="AG8" s="13"/>
@@ -1973,20 +1973,20 @@
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>107</v>
-      </c>
       <c r="E9" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
@@ -2014,7 +2014,7 @@
         <v>7</v>
       </c>
       <c r="AF9" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AG9" s="13"/>
       <c r="AH9" s="13"/>
@@ -2042,27 +2042,27 @@
       <c r="BD9" s="13"/>
       <c r="BE9" s="12"/>
       <c r="BF9" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:58" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D10" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>117</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>118</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H10" s="13" t="s">
         <v>114</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>115</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
@@ -2087,10 +2087,10 @@
       <c r="AC10" s="30"/>
       <c r="AD10" s="13"/>
       <c r="AE10" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF10" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AG10" s="13"/>
       <c r="AH10" s="13"/>
@@ -2116,7 +2116,7 @@
       <c r="BB10" s="13"/>
       <c r="BC10" s="13"/>
       <c r="BD10" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="BE10" s="12"/>
     </row>
@@ -2124,17 +2124,17 @@
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
@@ -2160,7 +2160,7 @@
       <c r="AC11" s="30"/>
       <c r="AD11" s="13"/>
       <c r="AE11" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AF11" s="15"/>
       <c r="AG11" s="13"/>
@@ -2189,7 +2189,7 @@
       <c r="BD11" s="13"/>
       <c r="BE11" s="12"/>
       <c r="BF11" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
@@ -2197,14 +2197,14 @@
       <c r="B12" s="12"/>
       <c r="C12" s="19"/>
       <c r="D12" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
@@ -2232,7 +2232,7 @@
       <c r="AC12" s="30"/>
       <c r="AD12" s="13"/>
       <c r="AE12" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AF12" s="15"/>
       <c r="AG12" s="13"/>
@@ -2265,17 +2265,17 @@
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
@@ -2301,7 +2301,7 @@
       <c r="AC13" s="30"/>
       <c r="AD13" s="13"/>
       <c r="AE13" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF13" s="15"/>
       <c r="AG13" s="13"/>
@@ -2328,7 +2328,7 @@
       <c r="BB13" s="13"/>
       <c r="BC13" s="13"/>
       <c r="BD13" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BE13" s="12"/>
     </row>
@@ -2336,20 +2336,20 @@
       <c r="A14" s="22"/>
       <c r="B14" s="22"/>
       <c r="C14" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="23" t="s">
-        <v>121</v>
-      </c>
       <c r="E14" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="H14" s="23" t="s">
         <v>127</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>128</v>
       </c>
       <c r="I14" s="23"/>
       <c r="J14" s="23"/>
@@ -2374,10 +2374,10 @@
       <c r="AC14" s="23"/>
       <c r="AD14" s="23"/>
       <c r="AE14" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF14" s="24" t="s">
         <v>129</v>
-      </c>
-      <c r="AF14" s="24" t="s">
-        <v>130</v>
       </c>
       <c r="AG14" s="23"/>
       <c r="AH14" s="23"/>
@@ -2405,18 +2405,18 @@
       <c r="BB14" s="23"/>
       <c r="BC14" s="23"/>
       <c r="BD14" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BE14" s="22"/>
       <c r="BF14" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="12"/>
@@ -2473,14 +2473,14 @@
       <c r="BD15" s="13"/>
       <c r="BE15" s="12"/>
       <c r="BF15" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="12"/>
@@ -2537,7 +2537,7 @@
       <c r="BD16" s="13"/>
       <c r="BE16" s="12"/>
       <c r="BF16" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.25">
@@ -2545,12 +2545,12 @@
       <c r="B17" s="12"/>
       <c r="C17" s="19"/>
       <c r="D17" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
@@ -2576,13 +2576,13 @@
       <c r="AC17" s="30"/>
       <c r="AD17" s="13"/>
       <c r="AE17" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AF17" s="15"/>
       <c r="AG17" s="13"/>
       <c r="AH17" s="13"/>
       <c r="AI17" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AJ17" s="30"/>
       <c r="AK17" s="30"/>
@@ -2607,25 +2607,25 @@
       <c r="BD17" s="13"/>
       <c r="BE17" s="12"/>
       <c r="BF17" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
@@ -2650,7 +2650,7 @@
       <c r="AC18" s="30"/>
       <c r="AD18" s="13"/>
       <c r="AE18" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AF18" s="15"/>
       <c r="AG18" s="13"/>
@@ -2677,7 +2677,7 @@
       <c r="BB18" s="13"/>
       <c r="BC18" s="13"/>
       <c r="BD18" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BE18" s="12"/>
     </row>
@@ -2685,18 +2685,18 @@
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
@@ -2721,10 +2721,10 @@
       <c r="AC19" s="30"/>
       <c r="AD19" s="13"/>
       <c r="AE19" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF19" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AG19" s="13"/>
       <c r="AH19" s="13"/>
@@ -2750,7 +2750,7 @@
       <c r="BB19" s="13"/>
       <c r="BC19" s="13"/>
       <c r="BD19" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BE19" s="12"/>
     </row>
@@ -2758,18 +2758,18 @@
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
@@ -2796,10 +2796,10 @@
         <v>6000</v>
       </c>
       <c r="AE20" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF20" s="15" t="s">
         <v>69</v>
-      </c>
-      <c r="AF20" s="15" t="s">
-        <v>70</v>
       </c>
       <c r="AG20" s="13"/>
       <c r="AH20" s="13"/>
@@ -2827,7 +2827,7 @@
       </c>
       <c r="BC20" s="13"/>
       <c r="BD20" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BE20" s="12"/>
     </row>
@@ -2835,18 +2835,18 @@
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
@@ -2871,10 +2871,10 @@
       <c r="AC21" s="30"/>
       <c r="AD21" s="13"/>
       <c r="AE21" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF21" s="15" t="s">
         <v>74</v>
-      </c>
-      <c r="AF21" s="15" t="s">
-        <v>75</v>
       </c>
       <c r="AG21" s="13"/>
       <c r="AH21" s="13"/>
@@ -2901,25 +2901,25 @@
       <c r="BC21" s="13"/>
       <c r="BE21" s="12"/>
       <c r="BF21" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:58" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
@@ -2944,7 +2944,7 @@
       <c r="AC22" s="30"/>
       <c r="AD22" s="13"/>
       <c r="AE22" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF22" s="15"/>
       <c r="AG22" s="13"/>
@@ -2971,7 +2971,7 @@
       <c r="BB22" s="13"/>
       <c r="BC22" s="13"/>
       <c r="BD22" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BE22" s="12"/>
     </row>
@@ -2979,20 +2979,20 @@
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
       <c r="J23" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K23" s="30"/>
       <c r="L23" s="30"/>
@@ -3015,7 +3015,7 @@
       <c r="AC23" s="30"/>
       <c r="AD23" s="13"/>
       <c r="AE23" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AF23" s="15"/>
       <c r="AG23" s="13"/>
@@ -3042,7 +3042,7 @@
       <c r="BB23" s="13"/>
       <c r="BC23" s="13"/>
       <c r="BD23" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BE23" s="12"/>
     </row>
@@ -3050,18 +3050,18 @@
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="21" t="s">
         <v>91</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>92</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
@@ -3086,10 +3086,10 @@
       <c r="AC24" s="30"/>
       <c r="AD24" s="13"/>
       <c r="AE24" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF24" s="15" t="s">
         <v>94</v>
-      </c>
-      <c r="AF24" s="15" t="s">
-        <v>95</v>
       </c>
       <c r="AG24" s="13"/>
       <c r="AH24" s="13"/>
@@ -3121,18 +3121,18 @@
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
       <c r="G25" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
@@ -3157,10 +3157,10 @@
       <c r="AC25" s="30"/>
       <c r="AD25" s="13"/>
       <c r="AE25" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF25" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AG25" s="13"/>
       <c r="AH25" s="13"/>
@@ -3192,20 +3192,20 @@
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="12" t="s">
         <v>83</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>84</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
@@ -3230,10 +3230,10 @@
       <c r="AC26" s="30"/>
       <c r="AD26" s="13"/>
       <c r="AE26" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF26" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AG26" s="13"/>
       <c r="AH26" s="13"/>
@@ -3264,23 +3264,23 @@
     <row r="27" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C27" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="E27" s="12" t="s">
         <v>134</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>135</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I27" s="13">
         <v>13</v>
@@ -3308,13 +3308,13 @@
       <c r="AB27" s="14"/>
       <c r="AC27" s="30"/>
       <c r="AD27" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AE27" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF27" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AG27" s="13">
         <v>6</v>
@@ -3344,41 +3344,41 @@
       <c r="AZ27" s="14"/>
       <c r="BA27" s="30"/>
       <c r="BB27" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BC27" s="13">
         <v>4</v>
       </c>
       <c r="BD27" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BE27" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="BF27" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:58" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="31"/>
       <c r="B28" s="31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C28" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="D28" s="33" t="s">
+      <c r="E28" s="31" t="s">
         <v>159</v>
-      </c>
-      <c r="E28" s="31" t="s">
-        <v>160</v>
       </c>
       <c r="F28" s="31"/>
       <c r="G28" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="H28" s="34" t="s">
         <v>163</v>
-      </c>
-      <c r="H28" s="34" t="s">
-        <v>164</v>
       </c>
       <c r="I28" s="34"/>
       <c r="J28" s="34"/>
@@ -3427,10 +3427,10 @@
       <c r="AC28" s="34"/>
       <c r="AD28" s="34"/>
       <c r="AE28" s="34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF28" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AG28" s="34"/>
       <c r="AH28" s="34"/>
@@ -3476,7 +3476,7 @@
       <c r="BB28" s="34"/>
       <c r="BC28" s="34"/>
       <c r="BD28" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BE28" s="36"/>
       <c r="BF28" s="37"/>
@@ -3485,18 +3485,18 @@
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="D29" s="21" t="s">
         <v>154</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>155</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
@@ -3521,10 +3521,10 @@
       <c r="AC29" s="30"/>
       <c r="AD29" s="13"/>
       <c r="AE29" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF29" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AG29" s="13"/>
       <c r="AH29" s="13"/>
@@ -3558,7 +3558,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C30" s="19" t="s">
         <v>21</v>
@@ -3603,10 +3603,10 @@
       <c r="AC30" s="30"/>
       <c r="AD30" s="13"/>
       <c r="AE30" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AF30" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AG30" s="13"/>
       <c r="AH30" s="13"/>
@@ -3641,23 +3641,23 @@
     <row r="31" spans="1:58" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C31" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D31" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="E31" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>184</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="30" t="s">
         <v>16</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I31" s="13"/>
       <c r="J31" s="13">
@@ -3698,10 +3698,10 @@
         <v>25000</v>
       </c>
       <c r="AE31" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="AF31" s="42" t="s">
         <v>190</v>
-      </c>
-      <c r="AF31" s="51" t="s">
-        <v>191</v>
       </c>
       <c r="AG31" s="13"/>
       <c r="AH31" s="13"/>
@@ -3731,12 +3731,12 @@
     </row>
     <row r="32" spans="1:58" x14ac:dyDescent="0.25">
       <c r="AE32" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="4:56" x14ac:dyDescent="0.25">
       <c r="AE33" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AI33" s="2">
         <v>25000</v>
@@ -3751,12 +3751,12 @@
         <v>3300</v>
       </c>
       <c r="BD33" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="4:56" x14ac:dyDescent="0.25">
       <c r="AE34" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AI34" s="2">
         <v>6000</v>
@@ -3764,7 +3764,7 @@
     </row>
     <row r="35" spans="4:56" x14ac:dyDescent="0.25">
       <c r="AE35" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AI35" s="2">
         <v>17000</v>
@@ -3772,7 +3772,7 @@
     </row>
     <row r="36" spans="4:56" x14ac:dyDescent="0.25">
       <c r="AE36" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AI36" s="2">
         <v>11000</v>
@@ -3780,7 +3780,7 @@
     </row>
     <row r="37" spans="4:56" x14ac:dyDescent="0.25">
       <c r="AE37" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AI37" s="2">
         <v>6000</v>
@@ -3788,7 +3788,7 @@
     </row>
     <row r="38" spans="4:56" x14ac:dyDescent="0.25">
       <c r="AE38" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AI38" s="2">
         <v>3000</v>
@@ -3805,7 +3805,7 @@
       <c r="AA39" s="9"/>
       <c r="AD39" s="9"/>
       <c r="AE39" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AI39" s="9">
         <v>68000</v>
@@ -3821,7 +3821,7 @@
     </row>
     <row r="40" spans="4:56" x14ac:dyDescent="0.25">
       <c r="AE40" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AI40" s="2">
         <v>50000</v>

--- a/war_index.xlsx
+++ b/war_index.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\PhD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F1B440-00BC-4035-8B8F-7982F3E0185D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B47AC4-0552-4039-BA7D-13014769FB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{04375B46-837D-49F2-BE8A-ABE006783F6C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="215">
   <si>
     <t>date</t>
   </si>
@@ -639,6 +639,39 @@
   </si>
   <si>
     <t>Silesia</t>
+  </si>
+  <si>
+    <t>Battle of Jena</t>
+  </si>
+  <si>
+    <t>Battle of Auerstedt</t>
+  </si>
+  <si>
+    <t>War of the 4th Coalition</t>
+  </si>
+  <si>
+    <t>December 1805</t>
+  </si>
+  <si>
+    <t>Battle of Austerlitz</t>
+  </si>
+  <si>
+    <t>france</t>
+  </si>
+  <si>
+    <t>total man</t>
+  </si>
+  <si>
+    <t>14 October 1806</t>
+  </si>
+  <si>
+    <t>15 artilery bateries</t>
+  </si>
+  <si>
+    <t>Prince Hohenlohe</t>
+  </si>
+  <si>
+    <t>davout</t>
   </si>
 </sst>
 </file>
@@ -673,7 +706,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -695,6 +728,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,7 +812,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -879,6 +918,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -905,6 +953,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1221,11 +1272,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C1708F5-F567-4565-A221-ECE07B210A7F}">
-  <dimension ref="A1:BF40"/>
+  <dimension ref="A1:BG44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1233,7 +1284,7 @@
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.140625" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" style="1" customWidth="1"/>
@@ -1243,7 +1294,8 @@
     <col min="11" max="12" width="11.140625" style="9" customWidth="1"/>
     <col min="13" max="13" width="4.5703125" style="1" customWidth="1"/>
     <col min="14" max="19" width="7" style="9" customWidth="1"/>
-    <col min="20" max="23" width="6.42578125" style="9" customWidth="1"/>
+    <col min="20" max="22" width="6.42578125" style="9" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="9" customWidth="1"/>
     <col min="24" max="24" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11.28515625" style="9" customWidth="1"/>
     <col min="26" max="27" width="9.140625" style="1"/>
@@ -1257,17 +1309,18 @@
     <col min="38" max="38" width="9.140625" style="2"/>
     <col min="39" max="44" width="7" style="9" customWidth="1"/>
     <col min="45" max="47" width="6.42578125" style="9" customWidth="1"/>
-    <col min="48" max="48" width="9.140625" style="2"/>
-    <col min="49" max="49" width="9.140625" style="9"/>
-    <col min="50" max="51" width="9.140625" style="2"/>
-    <col min="52" max="53" width="9.140625" style="9"/>
-    <col min="54" max="54" width="9.140625" style="2"/>
-    <col min="55" max="55" width="9.140625" style="9"/>
-    <col min="56" max="56" width="9.140625" style="1"/>
-    <col min="58" max="58" width="9.140625" style="6"/>
+    <col min="48" max="48" width="10" style="9" customWidth="1"/>
+    <col min="49" max="49" width="9.140625" style="2"/>
+    <col min="50" max="50" width="9.140625" style="9"/>
+    <col min="51" max="52" width="9.140625" style="2"/>
+    <col min="53" max="54" width="9.140625" style="9"/>
+    <col min="55" max="55" width="9.140625" style="2"/>
+    <col min="56" max="56" width="9.140625" style="9"/>
+    <col min="57" max="57" width="9.140625" style="1"/>
+    <col min="59" max="59" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -1276,69 +1329,70 @@
       <c r="F1" s="12"/>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="45"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="48"/>
       <c r="V1" s="41"/>
       <c r="W1" s="41"/>
-      <c r="X1" s="48" t="s">
+      <c r="X1" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
       <c r="AE1" s="13"/>
       <c r="AF1" s="15"/>
-      <c r="AG1" s="49" t="s">
+      <c r="AG1" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="50"/>
-      <c r="AQ1" s="50"/>
-      <c r="AR1" s="50"/>
-      <c r="AS1" s="50"/>
-      <c r="AT1" s="51"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="53"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="53"/>
+      <c r="AQ1" s="53"/>
+      <c r="AR1" s="53"/>
+      <c r="AS1" s="53"/>
+      <c r="AT1" s="54"/>
       <c r="AU1" s="39"/>
-      <c r="AV1" s="47" t="s">
+      <c r="AV1" s="45"/>
+      <c r="AW1" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="AW1" s="47"/>
-      <c r="AX1" s="47"/>
-      <c r="AY1" s="47"/>
-      <c r="AZ1" s="47"/>
-      <c r="BA1" s="47"/>
-      <c r="BB1" s="47"/>
-      <c r="BC1" s="47"/>
-      <c r="BD1" s="46" t="s">
+      <c r="AX1" s="50"/>
+      <c r="AY1" s="50"/>
+      <c r="AZ1" s="50"/>
+      <c r="BA1" s="50"/>
+      <c r="BB1" s="50"/>
+      <c r="BC1" s="50"/>
+      <c r="BD1" s="50"/>
+      <c r="BE1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="BE1" s="46" t="s">
+      <c r="BF1" s="49" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:58" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>139</v>
       </c>
@@ -1406,7 +1460,7 @@
         <v>180</v>
       </c>
       <c r="W2" s="29" t="s">
-        <v>35</v>
+        <v>210</v>
       </c>
       <c r="X2" s="17" t="s">
         <v>172</v>
@@ -1480,34 +1534,37 @@
       <c r="AU2" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="AV2" s="17" t="s">
+      <c r="AV2" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="AW2" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="AW2" s="17" t="s">
+      <c r="AX2" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="AX2" s="17" t="s">
+      <c r="AY2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AY2" s="17" t="s">
+      <c r="AZ2" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="AZ2" s="17" t="s">
+      <c r="BA2" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="BA2" s="29" t="s">
+      <c r="BB2" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="BB2" s="17" t="s">
+      <c r="BC2" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="BC2" s="17" t="s">
+      <c r="BD2" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="BD2" s="46"/>
-      <c r="BE2" s="46"/>
-    </row>
-    <row r="3" spans="1:58" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BE2" s="49"/>
+      <c r="BF2" s="49"/>
+    </row>
+    <row r="3" spans="1:59" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -1555,18 +1612,19 @@
       <c r="AS3" s="17"/>
       <c r="AT3" s="17"/>
       <c r="AU3" s="17"/>
-      <c r="AV3" s="17"/>
+      <c r="AV3" s="43"/>
       <c r="AW3" s="17"/>
       <c r="AX3" s="17"/>
       <c r="AY3" s="17"/>
       <c r="AZ3" s="17"/>
-      <c r="BA3" s="29"/>
-      <c r="BB3" s="17"/>
+      <c r="BA3" s="17"/>
+      <c r="BB3" s="29"/>
       <c r="BC3" s="17"/>
-      <c r="BD3" s="16"/>
+      <c r="BD3" s="17"/>
       <c r="BE3" s="16"/>
-    </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BF3" s="16"/>
+    </row>
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12" t="s">
@@ -1632,22 +1690,23 @@
       <c r="AS4" s="14"/>
       <c r="AT4" s="14"/>
       <c r="AU4" s="14"/>
-      <c r="AV4" s="13">
+      <c r="AV4" s="44"/>
+      <c r="AW4" s="13">
         <v>6500</v>
       </c>
-      <c r="AW4" s="14"/>
-      <c r="AX4" s="13"/>
+      <c r="AX4" s="14"/>
       <c r="AY4" s="13"/>
-      <c r="AZ4" s="14"/>
-      <c r="BA4" s="30"/>
-      <c r="BB4" s="13"/>
+      <c r="AZ4" s="13"/>
+      <c r="BA4" s="14"/>
+      <c r="BB4" s="30"/>
       <c r="BC4" s="13"/>
-      <c r="BD4" s="13" t="s">
+      <c r="BD4" s="13"/>
+      <c r="BE4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="BE4" s="12"/>
-    </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BF4" s="12"/>
+    </row>
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>2</v>
       </c>
@@ -1723,24 +1782,25 @@
       <c r="AS5" s="14"/>
       <c r="AT5" s="14"/>
       <c r="AU5" s="14"/>
-      <c r="AV5" s="13">
+      <c r="AV5" s="44"/>
+      <c r="AW5" s="13">
         <v>3500</v>
       </c>
-      <c r="AW5" s="14"/>
-      <c r="AX5" s="13"/>
-      <c r="AY5" s="13">
+      <c r="AX5" s="14"/>
+      <c r="AY5" s="13"/>
+      <c r="AZ5" s="13">
         <v>10000</v>
       </c>
-      <c r="AZ5" s="14"/>
-      <c r="BA5" s="30"/>
-      <c r="BB5" s="13"/>
+      <c r="BA5" s="14"/>
+      <c r="BB5" s="30"/>
       <c r="BC5" s="13"/>
-      <c r="BD5" s="13" t="s">
+      <c r="BD5" s="13"/>
+      <c r="BE5" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="BE5" s="12"/>
-    </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BF5" s="12"/>
+    </row>
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -1788,18 +1848,19 @@
       <c r="AS6" s="14"/>
       <c r="AT6" s="14"/>
       <c r="AU6" s="14"/>
-      <c r="AV6" s="13"/>
-      <c r="AW6" s="14"/>
-      <c r="AX6" s="13"/>
+      <c r="AV6" s="44"/>
+      <c r="AW6" s="13"/>
+      <c r="AX6" s="14"/>
       <c r="AY6" s="13"/>
-      <c r="AZ6" s="14"/>
-      <c r="BA6" s="30"/>
-      <c r="BB6" s="13"/>
+      <c r="AZ6" s="13"/>
+      <c r="BA6" s="14"/>
+      <c r="BB6" s="30"/>
       <c r="BC6" s="13"/>
       <c r="BD6" s="13"/>
-      <c r="BE6" s="12"/>
-    </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BE6" s="13"/>
+      <c r="BF6" s="12"/>
+    </row>
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="19" t="s">
@@ -1873,28 +1934,29 @@
       <c r="AS7" s="14"/>
       <c r="AT7" s="14"/>
       <c r="AU7" s="14"/>
-      <c r="AV7" s="13">
+      <c r="AV7" s="44"/>
+      <c r="AW7" s="13">
         <v>3000</v>
       </c>
-      <c r="AW7" s="14"/>
-      <c r="AX7" s="13">
+      <c r="AX7" s="14"/>
+      <c r="AY7" s="13">
         <v>7000</v>
       </c>
-      <c r="AY7" s="13">
+      <c r="AZ7" s="13">
         <v>12000</v>
       </c>
-      <c r="AZ7" s="14"/>
-      <c r="BA7" s="30"/>
-      <c r="BB7" s="13">
+      <c r="BA7" s="14"/>
+      <c r="BB7" s="30"/>
+      <c r="BC7" s="13">
         <v>22000</v>
       </c>
-      <c r="BC7" s="13"/>
-      <c r="BD7" s="13" t="s">
+      <c r="BD7" s="13"/>
+      <c r="BE7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="BE7" s="12"/>
-    </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BF7" s="12"/>
+    </row>
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>102</v>
       </c>
@@ -1958,18 +2020,19 @@
       <c r="AS8" s="14"/>
       <c r="AT8" s="14"/>
       <c r="AU8" s="14"/>
-      <c r="AV8" s="13"/>
-      <c r="AW8" s="14"/>
-      <c r="AX8" s="13"/>
+      <c r="AV8" s="44"/>
+      <c r="AW8" s="13"/>
+      <c r="AX8" s="14"/>
       <c r="AY8" s="13"/>
-      <c r="AZ8" s="14"/>
-      <c r="BA8" s="30"/>
-      <c r="BB8" s="13"/>
+      <c r="AZ8" s="13"/>
+      <c r="BA8" s="14"/>
+      <c r="BB8" s="30"/>
       <c r="BC8" s="13"/>
       <c r="BD8" s="13"/>
-      <c r="BE8" s="12"/>
-    </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BE8" s="13"/>
+      <c r="BF8" s="12"/>
+    </row>
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="20" t="s">
@@ -2031,21 +2094,22 @@
       <c r="AS9" s="14"/>
       <c r="AT9" s="14"/>
       <c r="AU9" s="14"/>
-      <c r="AV9" s="13"/>
-      <c r="AW9" s="14"/>
-      <c r="AX9" s="13"/>
+      <c r="AV9" s="44"/>
+      <c r="AW9" s="13"/>
+      <c r="AX9" s="14"/>
       <c r="AY9" s="13"/>
-      <c r="AZ9" s="14"/>
-      <c r="BA9" s="30"/>
-      <c r="BB9" s="13"/>
+      <c r="AZ9" s="13"/>
+      <c r="BA9" s="14"/>
+      <c r="BB9" s="30"/>
       <c r="BC9" s="13"/>
       <c r="BD9" s="13"/>
-      <c r="BE9" s="12"/>
-      <c r="BF9" s="6" t="s">
+      <c r="BE9" s="13"/>
+      <c r="BF9" s="12"/>
+      <c r="BG9" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:58" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:59" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="20" t="s">
@@ -2107,20 +2171,21 @@
       <c r="AS10" s="14"/>
       <c r="AT10" s="14"/>
       <c r="AU10" s="14"/>
-      <c r="AV10" s="13"/>
-      <c r="AW10" s="14"/>
-      <c r="AX10" s="13"/>
+      <c r="AV10" s="44"/>
+      <c r="AW10" s="13"/>
+      <c r="AX10" s="14"/>
       <c r="AY10" s="13"/>
-      <c r="AZ10" s="14"/>
-      <c r="BA10" s="30"/>
-      <c r="BB10" s="13"/>
+      <c r="AZ10" s="13"/>
+      <c r="BA10" s="14"/>
+      <c r="BB10" s="30"/>
       <c r="BC10" s="13"/>
-      <c r="BD10" s="21" t="s">
+      <c r="BD10" s="13"/>
+      <c r="BE10" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="BE10" s="12"/>
-    </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BF10" s="12"/>
+    </row>
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12" t="s">
@@ -2178,21 +2243,22 @@
       <c r="AS11" s="14"/>
       <c r="AT11" s="14"/>
       <c r="AU11" s="14"/>
-      <c r="AV11" s="13"/>
-      <c r="AW11" s="14"/>
-      <c r="AX11" s="13"/>
+      <c r="AV11" s="44"/>
+      <c r="AW11" s="13"/>
+      <c r="AX11" s="14"/>
       <c r="AY11" s="13"/>
-      <c r="AZ11" s="14"/>
-      <c r="BA11" s="30"/>
-      <c r="BB11" s="13"/>
+      <c r="AZ11" s="13"/>
+      <c r="BA11" s="14"/>
+      <c r="BB11" s="30"/>
       <c r="BC11" s="13"/>
       <c r="BD11" s="13"/>
-      <c r="BE11" s="12"/>
-      <c r="BF11" s="7" t="s">
+      <c r="BE11" s="13"/>
+      <c r="BF11" s="12"/>
+      <c r="BG11" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="19"/>
@@ -2250,18 +2316,19 @@
       <c r="AS12" s="14"/>
       <c r="AT12" s="14"/>
       <c r="AU12" s="14"/>
-      <c r="AV12" s="13"/>
-      <c r="AW12" s="14"/>
-      <c r="AX12" s="13"/>
+      <c r="AV12" s="44"/>
+      <c r="AW12" s="13"/>
+      <c r="AX12" s="14"/>
       <c r="AY12" s="13"/>
-      <c r="AZ12" s="14"/>
-      <c r="BA12" s="30"/>
-      <c r="BB12" s="13"/>
+      <c r="AZ12" s="13"/>
+      <c r="BA12" s="14"/>
+      <c r="BB12" s="30"/>
       <c r="BC12" s="13"/>
       <c r="BD12" s="13"/>
-      <c r="BE12" s="12"/>
-    </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BE12" s="13"/>
+      <c r="BF12" s="12"/>
+    </row>
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="20" t="s">
@@ -2319,20 +2386,21 @@
       <c r="AS13" s="14"/>
       <c r="AT13" s="14"/>
       <c r="AU13" s="14"/>
-      <c r="AV13" s="13"/>
-      <c r="AW13" s="14"/>
-      <c r="AX13" s="13"/>
+      <c r="AV13" s="44"/>
+      <c r="AW13" s="13"/>
+      <c r="AX13" s="14"/>
       <c r="AY13" s="13"/>
-      <c r="AZ13" s="14"/>
-      <c r="BA13" s="30"/>
-      <c r="BB13" s="13"/>
+      <c r="AZ13" s="13"/>
+      <c r="BA13" s="14"/>
+      <c r="BB13" s="30"/>
       <c r="BC13" s="13"/>
-      <c r="BD13" s="13" t="s">
+      <c r="BD13" s="13"/>
+      <c r="BE13" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="BE13" s="12"/>
-    </row>
-    <row r="14" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BF13" s="12"/>
+    </row>
+    <row r="14" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
       <c r="B14" s="22"/>
       <c r="C14" s="22" t="s">
@@ -2404,15 +2472,16 @@
       <c r="BA14" s="23"/>
       <c r="BB14" s="23"/>
       <c r="BC14" s="23"/>
-      <c r="BD14" s="22" t="s">
+      <c r="BD14" s="23"/>
+      <c r="BE14" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="BE14" s="22"/>
-      <c r="BF14" s="8" t="s">
+      <c r="BF14" s="22"/>
+      <c r="BG14" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="19" t="s">
@@ -2462,21 +2531,22 @@
       <c r="AS15" s="14"/>
       <c r="AT15" s="14"/>
       <c r="AU15" s="14"/>
-      <c r="AV15" s="13"/>
-      <c r="AW15" s="14"/>
-      <c r="AX15" s="13"/>
+      <c r="AV15" s="44"/>
+      <c r="AW15" s="13"/>
+      <c r="AX15" s="14"/>
       <c r="AY15" s="13"/>
-      <c r="AZ15" s="14"/>
-      <c r="BA15" s="30"/>
-      <c r="BB15" s="13"/>
+      <c r="AZ15" s="13"/>
+      <c r="BA15" s="14"/>
+      <c r="BB15" s="30"/>
       <c r="BC15" s="13"/>
       <c r="BD15" s="13"/>
-      <c r="BE15" s="12"/>
-      <c r="BF15" s="5" t="s">
+      <c r="BE15" s="13"/>
+      <c r="BF15" s="12"/>
+      <c r="BG15" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="19" t="s">
@@ -2526,21 +2596,22 @@
       <c r="AS16" s="14"/>
       <c r="AT16" s="14"/>
       <c r="AU16" s="14"/>
-      <c r="AV16" s="13"/>
-      <c r="AW16" s="14"/>
-      <c r="AX16" s="13"/>
+      <c r="AV16" s="44"/>
+      <c r="AW16" s="13"/>
+      <c r="AX16" s="14"/>
       <c r="AY16" s="13"/>
-      <c r="AZ16" s="14"/>
-      <c r="BA16" s="30"/>
-      <c r="BB16" s="13"/>
+      <c r="AZ16" s="13"/>
+      <c r="BA16" s="14"/>
+      <c r="BB16" s="30"/>
       <c r="BC16" s="13"/>
       <c r="BD16" s="13"/>
-      <c r="BE16" s="12"/>
-      <c r="BF16" s="5" t="s">
+      <c r="BE16" s="13"/>
+      <c r="BF16" s="12"/>
+      <c r="BG16" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="19"/>
@@ -2596,21 +2667,22 @@
       <c r="AS17" s="14"/>
       <c r="AT17" s="14"/>
       <c r="AU17" s="14"/>
-      <c r="AV17" s="13"/>
-      <c r="AW17" s="14"/>
-      <c r="AX17" s="13"/>
+      <c r="AV17" s="44"/>
+      <c r="AW17" s="13"/>
+      <c r="AX17" s="14"/>
       <c r="AY17" s="13"/>
-      <c r="AZ17" s="14"/>
-      <c r="BA17" s="30"/>
-      <c r="BB17" s="13"/>
+      <c r="AZ17" s="13"/>
+      <c r="BA17" s="14"/>
+      <c r="BB17" s="30"/>
       <c r="BC17" s="13"/>
       <c r="BD17" s="13"/>
-      <c r="BE17" s="12"/>
-      <c r="BF17" s="5" t="s">
+      <c r="BE17" s="13"/>
+      <c r="BF17" s="12"/>
+      <c r="BG17" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="19" t="s">
@@ -2668,20 +2740,21 @@
       <c r="AS18" s="14"/>
       <c r="AT18" s="14"/>
       <c r="AU18" s="14"/>
-      <c r="AV18" s="13"/>
-      <c r="AW18" s="14"/>
-      <c r="AX18" s="13"/>
+      <c r="AV18" s="44"/>
+      <c r="AW18" s="13"/>
+      <c r="AX18" s="14"/>
       <c r="AY18" s="13"/>
-      <c r="AZ18" s="14"/>
-      <c r="BA18" s="30"/>
-      <c r="BB18" s="13"/>
+      <c r="AZ18" s="13"/>
+      <c r="BA18" s="14"/>
+      <c r="BB18" s="30"/>
       <c r="BC18" s="13"/>
-      <c r="BD18" s="13" t="s">
+      <c r="BD18" s="13"/>
+      <c r="BE18" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="BE18" s="12"/>
-    </row>
-    <row r="19" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BF18" s="12"/>
+    </row>
+    <row r="19" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="19" t="s">
@@ -2741,20 +2814,21 @@
       <c r="AS19" s="14"/>
       <c r="AT19" s="14"/>
       <c r="AU19" s="14"/>
-      <c r="AV19" s="13"/>
-      <c r="AW19" s="14"/>
-      <c r="AX19" s="13"/>
+      <c r="AV19" s="44"/>
+      <c r="AW19" s="13"/>
+      <c r="AX19" s="14"/>
       <c r="AY19" s="13"/>
-      <c r="AZ19" s="14"/>
-      <c r="BA19" s="30"/>
-      <c r="BB19" s="13"/>
+      <c r="AZ19" s="13"/>
+      <c r="BA19" s="14"/>
+      <c r="BB19" s="30"/>
       <c r="BC19" s="13"/>
-      <c r="BD19" s="13" t="s">
+      <c r="BD19" s="13"/>
+      <c r="BE19" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="BE19" s="12"/>
-    </row>
-    <row r="20" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BF19" s="12"/>
+    </row>
+    <row r="20" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="19" t="s">
@@ -2816,22 +2890,23 @@
       <c r="AS20" s="14"/>
       <c r="AT20" s="14"/>
       <c r="AU20" s="14"/>
-      <c r="AV20" s="13"/>
-      <c r="AW20" s="14"/>
-      <c r="AX20" s="13"/>
+      <c r="AV20" s="44"/>
+      <c r="AW20" s="13"/>
+      <c r="AX20" s="14"/>
       <c r="AY20" s="13"/>
-      <c r="AZ20" s="14"/>
-      <c r="BA20" s="30"/>
-      <c r="BB20" s="13">
+      <c r="AZ20" s="13"/>
+      <c r="BA20" s="14"/>
+      <c r="BB20" s="30"/>
+      <c r="BC20" s="13">
         <v>25000</v>
       </c>
-      <c r="BC20" s="13"/>
-      <c r="BD20" s="13" t="s">
+      <c r="BD20" s="13"/>
+      <c r="BE20" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="BE20" s="12"/>
-    </row>
-    <row r="21" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BF20" s="12"/>
+    </row>
+    <row r="21" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="20" t="s">
@@ -2891,20 +2966,21 @@
       <c r="AS21" s="14"/>
       <c r="AT21" s="14"/>
       <c r="AU21" s="14"/>
-      <c r="AV21" s="13"/>
-      <c r="AW21" s="14"/>
-      <c r="AX21" s="13"/>
+      <c r="AV21" s="44"/>
+      <c r="AW21" s="13"/>
+      <c r="AX21" s="14"/>
       <c r="AY21" s="13"/>
-      <c r="AZ21" s="14"/>
-      <c r="BA21" s="30"/>
-      <c r="BB21" s="13"/>
+      <c r="AZ21" s="13"/>
+      <c r="BA21" s="14"/>
+      <c r="BB21" s="30"/>
       <c r="BC21" s="13"/>
-      <c r="BE21" s="12"/>
-      <c r="BF21" s="40" t="s">
+      <c r="BD21" s="13"/>
+      <c r="BF21" s="12"/>
+      <c r="BG21" s="40" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:58" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:59" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="20" t="s">
@@ -2962,20 +3038,21 @@
       <c r="AS22" s="14"/>
       <c r="AT22" s="14"/>
       <c r="AU22" s="14"/>
-      <c r="AV22" s="13"/>
-      <c r="AW22" s="14"/>
-      <c r="AX22" s="13"/>
+      <c r="AV22" s="44"/>
+      <c r="AW22" s="13"/>
+      <c r="AX22" s="14"/>
       <c r="AY22" s="13"/>
-      <c r="AZ22" s="14"/>
-      <c r="BA22" s="30"/>
-      <c r="BB22" s="13"/>
+      <c r="AZ22" s="13"/>
+      <c r="BA22" s="14"/>
+      <c r="BB22" s="30"/>
       <c r="BC22" s="13"/>
-      <c r="BD22" s="13" t="s">
+      <c r="BD22" s="13"/>
+      <c r="BE22" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="BE22" s="12"/>
-    </row>
-    <row r="23" spans="1:58" ht="45" x14ac:dyDescent="0.25">
+      <c r="BF22" s="12"/>
+    </row>
+    <row r="23" spans="1:59" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="20" t="s">
@@ -3033,20 +3110,21 @@
       <c r="AS23" s="14"/>
       <c r="AT23" s="14"/>
       <c r="AU23" s="14"/>
-      <c r="AV23" s="13"/>
-      <c r="AW23" s="14"/>
-      <c r="AX23" s="13"/>
+      <c r="AV23" s="44"/>
+      <c r="AW23" s="13"/>
+      <c r="AX23" s="14"/>
       <c r="AY23" s="13"/>
-      <c r="AZ23" s="14"/>
-      <c r="BA23" s="30"/>
-      <c r="BB23" s="13"/>
+      <c r="AZ23" s="13"/>
+      <c r="BA23" s="14"/>
+      <c r="BB23" s="30"/>
       <c r="BC23" s="13"/>
-      <c r="BD23" s="13" t="s">
+      <c r="BD23" s="13"/>
+      <c r="BE23" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="BE23" s="12"/>
-    </row>
-    <row r="24" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BF23" s="12"/>
+    </row>
+    <row r="24" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="20" t="s">
@@ -3106,18 +3184,19 @@
       <c r="AS24" s="14"/>
       <c r="AT24" s="14"/>
       <c r="AU24" s="14"/>
-      <c r="AV24" s="13"/>
-      <c r="AW24" s="14"/>
-      <c r="AX24" s="13"/>
+      <c r="AV24" s="44"/>
+      <c r="AW24" s="13"/>
+      <c r="AX24" s="14"/>
       <c r="AY24" s="13"/>
-      <c r="AZ24" s="14"/>
-      <c r="BA24" s="30"/>
-      <c r="BB24" s="13"/>
+      <c r="AZ24" s="13"/>
+      <c r="BA24" s="14"/>
+      <c r="BB24" s="30"/>
       <c r="BC24" s="13"/>
       <c r="BD24" s="13"/>
-      <c r="BE24" s="12"/>
-    </row>
-    <row r="25" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BE24" s="13"/>
+      <c r="BF24" s="12"/>
+    </row>
+    <row r="25" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="20" t="s">
@@ -3177,18 +3256,19 @@
       <c r="AS25" s="14"/>
       <c r="AT25" s="14"/>
       <c r="AU25" s="14"/>
-      <c r="AV25" s="13"/>
-      <c r="AW25" s="14"/>
-      <c r="AX25" s="13"/>
+      <c r="AV25" s="44"/>
+      <c r="AW25" s="13"/>
+      <c r="AX25" s="14"/>
       <c r="AY25" s="13"/>
-      <c r="AZ25" s="14"/>
-      <c r="BA25" s="30"/>
-      <c r="BB25" s="13"/>
+      <c r="AZ25" s="13"/>
+      <c r="BA25" s="14"/>
+      <c r="BB25" s="30"/>
       <c r="BC25" s="13"/>
       <c r="BD25" s="13"/>
-      <c r="BE25" s="12"/>
-    </row>
-    <row r="26" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BE25" s="13"/>
+      <c r="BF25" s="12"/>
+    </row>
+    <row r="26" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="20" t="s">
@@ -3250,336 +3330,319 @@
       <c r="AS26" s="14"/>
       <c r="AT26" s="14"/>
       <c r="AU26" s="14"/>
-      <c r="AV26" s="13"/>
-      <c r="AW26" s="14"/>
-      <c r="AX26" s="13"/>
+      <c r="AV26" s="44"/>
+      <c r="AW26" s="13"/>
+      <c r="AX26" s="14"/>
       <c r="AY26" s="13"/>
-      <c r="AZ26" s="14"/>
-      <c r="BA26" s="30"/>
-      <c r="BB26" s="13"/>
+      <c r="AZ26" s="13"/>
+      <c r="BA26" s="14"/>
+      <c r="BB26" s="30"/>
       <c r="BC26" s="13"/>
       <c r="BD26" s="13"/>
-      <c r="BE26" s="12"/>
-    </row>
-    <row r="27" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BE26" s="13"/>
+      <c r="BF26" s="12"/>
+    </row>
+    <row r="27" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="12"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="44"/>
+      <c r="Y27" s="44"/>
+      <c r="Z27" s="44"/>
+      <c r="AA27" s="44"/>
+      <c r="AB27" s="44"/>
+      <c r="AC27" s="44"/>
+      <c r="AD27" s="44"/>
+      <c r="AE27" s="44"/>
+      <c r="AF27" s="15"/>
+      <c r="AG27" s="44"/>
+      <c r="AH27" s="44"/>
+      <c r="AI27" s="44"/>
+      <c r="AJ27" s="44"/>
+      <c r="AK27" s="44"/>
+      <c r="AL27" s="44"/>
+      <c r="AM27" s="44"/>
+      <c r="AN27" s="44"/>
+      <c r="AO27" s="44"/>
+      <c r="AP27" s="44"/>
+      <c r="AQ27" s="44"/>
+      <c r="AR27" s="44"/>
+      <c r="AS27" s="44"/>
+      <c r="AT27" s="44"/>
+      <c r="AU27" s="44"/>
+      <c r="AV27" s="44"/>
+      <c r="AW27" s="44"/>
+      <c r="AX27" s="44"/>
+      <c r="AY27" s="44"/>
+      <c r="AZ27" s="44"/>
+      <c r="BA27" s="44"/>
+      <c r="BB27" s="44"/>
+      <c r="BC27" s="44"/>
+      <c r="BD27" s="44"/>
+      <c r="BE27" s="44"/>
+      <c r="BF27" s="12"/>
+    </row>
+    <row r="28" spans="1:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C28" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D28" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E28" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="13" t="s">
+      <c r="F28" s="12"/>
+      <c r="G28" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="H28" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I28" s="13">
         <v>13</v>
       </c>
-      <c r="J27" s="13"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="13">
+      <c r="J28" s="13"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="13">
         <v>15</v>
       </c>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="14"/>
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="13"/>
-      <c r="AB27" s="14"/>
-      <c r="AC27" s="30"/>
-      <c r="AD27" s="13" t="s">
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="13"/>
+      <c r="AA28" s="13"/>
+      <c r="AB28" s="14"/>
+      <c r="AC28" s="30"/>
+      <c r="AD28" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="AE27" s="13" t="s">
+      <c r="AE28" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="AF27" s="15" t="s">
+      <c r="AF28" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="AG27" s="13">
+      <c r="AG28" s="13">
         <v>6</v>
       </c>
-      <c r="AH27" s="13">
+      <c r="AH28" s="13">
         <v>1</v>
       </c>
-      <c r="AI27" s="13"/>
-      <c r="AJ27" s="30"/>
-      <c r="AK27" s="30"/>
-      <c r="AL27" s="13">
+      <c r="AI28" s="13"/>
+      <c r="AJ28" s="30"/>
+      <c r="AK28" s="30"/>
+      <c r="AL28" s="13">
         <v>12</v>
       </c>
-      <c r="AM27" s="14"/>
-      <c r="AN27" s="14"/>
-      <c r="AO27" s="14"/>
-      <c r="AP27" s="14"/>
-      <c r="AQ27" s="14"/>
-      <c r="AR27" s="14"/>
-      <c r="AS27" s="14"/>
-      <c r="AT27" s="14"/>
-      <c r="AU27" s="14"/>
-      <c r="AV27" s="13"/>
-      <c r="AW27" s="14"/>
-      <c r="AX27" s="13"/>
-      <c r="AY27" s="13"/>
-      <c r="AZ27" s="14"/>
-      <c r="BA27" s="30"/>
-      <c r="BB27" s="13" t="s">
+      <c r="AM28" s="14"/>
+      <c r="AN28" s="14"/>
+      <c r="AO28" s="14"/>
+      <c r="AP28" s="14"/>
+      <c r="AQ28" s="14"/>
+      <c r="AR28" s="14"/>
+      <c r="AS28" s="14"/>
+      <c r="AT28" s="14"/>
+      <c r="AU28" s="14"/>
+      <c r="AV28" s="44"/>
+      <c r="AW28" s="13"/>
+      <c r="AX28" s="14"/>
+      <c r="AY28" s="13"/>
+      <c r="AZ28" s="13"/>
+      <c r="BA28" s="14"/>
+      <c r="BB28" s="30"/>
+      <c r="BC28" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="BC27" s="13">
+      <c r="BD28" s="13">
         <v>4</v>
       </c>
-      <c r="BD27" s="13" t="s">
+      <c r="BE28" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="BE27" s="25" t="s">
+      <c r="BF28" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="BF27" s="27" t="s">
+      <c r="BG28" s="27" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:58" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31" t="s">
+    <row r="29" spans="1:59" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="31"/>
+      <c r="B29" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C29" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="D28" s="33" t="s">
+      <c r="D29" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="E28" s="31" t="s">
+      <c r="E29" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="F28" s="31"/>
-      <c r="G28" s="34" t="s">
+      <c r="F29" s="31"/>
+      <c r="G29" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="H28" s="34" t="s">
+      <c r="H29" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34">
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34">
         <v>4</v>
       </c>
-      <c r="O28" s="34">
+      <c r="O29" s="34">
         <v>0</v>
       </c>
-      <c r="P28" s="34">
+      <c r="P29" s="34">
         <v>29</v>
       </c>
-      <c r="Q28" s="34">
+      <c r="Q29" s="34">
         <v>33</v>
       </c>
-      <c r="R28" s="34">
+      <c r="R29" s="34">
         <v>5</v>
       </c>
-      <c r="S28" s="34">
+      <c r="S29" s="34">
         <v>2</v>
       </c>
-      <c r="T28" s="34"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="34">
+      <c r="T29" s="34"/>
+      <c r="U29" s="34"/>
+      <c r="V29" s="34">
         <v>40</v>
       </c>
-      <c r="W28" s="34"/>
-      <c r="X28" s="34">
+      <c r="W29" s="34"/>
+      <c r="X29" s="34">
         <v>4395</v>
       </c>
-      <c r="Y28" s="34">
+      <c r="Y29" s="34">
         <v>1</v>
       </c>
-      <c r="Z28" s="34">
+      <c r="Z29" s="34">
         <v>2541</v>
       </c>
-      <c r="AA28" s="34">
+      <c r="AA29" s="34">
         <v>7500</v>
       </c>
-      <c r="AB28" s="34">
+      <c r="AB29" s="34">
         <v>21</v>
       </c>
-      <c r="AC28" s="34"/>
-      <c r="AD28" s="34"/>
-      <c r="AE28" s="34" t="s">
+      <c r="AC29" s="34"/>
+      <c r="AD29" s="34"/>
+      <c r="AE29" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="AF28" s="35" t="s">
+      <c r="AF29" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="AG28" s="34"/>
-      <c r="AH28" s="34"/>
-      <c r="AI28" s="34"/>
-      <c r="AJ28" s="34"/>
-      <c r="AK28" s="34"/>
-      <c r="AL28" s="34"/>
-      <c r="AM28" s="34">
+      <c r="AG29" s="34"/>
+      <c r="AH29" s="34"/>
+      <c r="AI29" s="34"/>
+      <c r="AJ29" s="34"/>
+      <c r="AK29" s="34"/>
+      <c r="AL29" s="34"/>
+      <c r="AM29" s="34">
         <v>3</v>
       </c>
-      <c r="AN28" s="34">
+      <c r="AN29" s="34">
         <v>4</v>
       </c>
-      <c r="AO28" s="34">
+      <c r="AO29" s="34">
         <v>20</v>
       </c>
-      <c r="AP28" s="34">
+      <c r="AP29" s="34">
         <v>27</v>
       </c>
-      <c r="AQ28" s="34">
+      <c r="AQ29" s="34">
         <v>4</v>
       </c>
-      <c r="AR28" s="34"/>
-      <c r="AS28" s="34">
+      <c r="AR29" s="34"/>
+      <c r="AS29" s="34">
         <v>1</v>
       </c>
-      <c r="AT28" s="34">
+      <c r="AT29" s="34">
         <v>1</v>
       </c>
-      <c r="AU28" s="34">
+      <c r="AU29" s="34">
         <v>33</v>
       </c>
-      <c r="AV28" s="34">
+      <c r="AV29" s="34"/>
+      <c r="AW29" s="34">
         <v>458</v>
       </c>
-      <c r="AW28" s="34"/>
-      <c r="AX28" s="34">
+      <c r="AX29" s="34"/>
+      <c r="AY29" s="34">
         <v>1208</v>
       </c>
-      <c r="AY28" s="34"/>
-      <c r="AZ28" s="34"/>
-      <c r="BA28" s="34"/>
-      <c r="BB28" s="34"/>
-      <c r="BC28" s="34"/>
-      <c r="BD28" s="34" t="s">
+      <c r="AZ29" s="34"/>
+      <c r="BA29" s="34"/>
+      <c r="BB29" s="34"/>
+      <c r="BC29" s="34"/>
+      <c r="BD29" s="34"/>
+      <c r="BE29" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="BE28" s="36"/>
-      <c r="BF28" s="37"/>
-    </row>
-    <row r="29" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="20" t="s">
+      <c r="BF29" s="36"/>
+      <c r="BG29" s="37"/>
+    </row>
+    <row r="30" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D30" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="14"/>
-      <c r="Z29" s="13"/>
-      <c r="AA29" s="13"/>
-      <c r="AB29" s="14"/>
-      <c r="AC29" s="30"/>
-      <c r="AD29" s="13"/>
-      <c r="AE29" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="AF29" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AG29" s="13"/>
-      <c r="AH29" s="13"/>
-      <c r="AI29" s="13"/>
-      <c r="AJ29" s="30"/>
-      <c r="AK29" s="30"/>
-      <c r="AL29" s="13"/>
-      <c r="AM29" s="14"/>
-      <c r="AN29" s="14"/>
-      <c r="AO29" s="14"/>
-      <c r="AP29" s="14"/>
-      <c r="AQ29" s="14"/>
-      <c r="AR29" s="14"/>
-      <c r="AS29" s="14"/>
-      <c r="AT29" s="14"/>
-      <c r="AU29" s="14"/>
-      <c r="AV29" s="13"/>
-      <c r="AW29" s="14"/>
-      <c r="AX29" s="13"/>
-      <c r="AY29" s="13"/>
-      <c r="AZ29" s="14"/>
-      <c r="BA29" s="30"/>
-      <c r="BB29" s="13"/>
-      <c r="BC29" s="13"/>
-      <c r="BD29" s="13"/>
-      <c r="BE29" s="25"/>
-      <c r="BF29" s="28"/>
-    </row>
-    <row r="30" spans="1:58" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>18</v>
-      </c>
+      <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="13" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="I30" s="13"/>
-      <c r="J30" s="13">
-        <v>20000</v>
-      </c>
+      <c r="J30" s="13"/>
       <c r="K30" s="30"/>
       <c r="L30" s="30"/>
       <c r="M30" s="13"/>
@@ -3593,9 +3656,7 @@
       <c r="U30" s="14"/>
       <c r="V30" s="14"/>
       <c r="W30" s="30"/>
-      <c r="X30" s="13">
-        <v>2000</v>
-      </c>
+      <c r="X30" s="13"/>
       <c r="Y30" s="14"/>
       <c r="Z30" s="13"/>
       <c r="AA30" s="13"/>
@@ -3603,16 +3664,14 @@
       <c r="AC30" s="30"/>
       <c r="AD30" s="13"/>
       <c r="AE30" s="13" t="s">
-        <v>41</v>
+        <v>155</v>
       </c>
       <c r="AF30" s="15" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="AG30" s="13"/>
       <c r="AH30" s="13"/>
-      <c r="AI30" s="13">
-        <v>9000</v>
-      </c>
+      <c r="AI30" s="13"/>
       <c r="AJ30" s="30"/>
       <c r="AK30" s="30"/>
       <c r="AL30" s="13"/>
@@ -3625,228 +3684,554 @@
       <c r="AS30" s="14"/>
       <c r="AT30" s="14"/>
       <c r="AU30" s="14"/>
-      <c r="AV30" s="13">
-        <v>900</v>
-      </c>
-      <c r="AW30" s="14"/>
-      <c r="AX30" s="13"/>
+      <c r="AV30" s="44"/>
+      <c r="AW30" s="13"/>
+      <c r="AX30" s="14"/>
       <c r="AY30" s="13"/>
-      <c r="AZ30" s="14"/>
-      <c r="BA30" s="30"/>
-      <c r="BB30" s="13"/>
+      <c r="AZ30" s="13"/>
+      <c r="BA30" s="14"/>
+      <c r="BB30" s="30"/>
       <c r="BC30" s="13"/>
       <c r="BD30" s="13"/>
-      <c r="BE30" s="12"/>
-    </row>
-    <row r="31" spans="1:58" ht="45" x14ac:dyDescent="0.25">
+      <c r="BE30" s="13"/>
+      <c r="BF30" s="25"/>
+      <c r="BG30" s="28"/>
+    </row>
+    <row r="31" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="12"/>
+      <c r="C31" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="44"/>
+      <c r="S31" s="44"/>
+      <c r="T31" s="44"/>
+      <c r="U31" s="44"/>
+      <c r="V31" s="44"/>
+      <c r="W31" s="44"/>
+      <c r="X31" s="44"/>
+      <c r="Y31" s="44"/>
+      <c r="Z31" s="44"/>
+      <c r="AA31" s="44"/>
+      <c r="AB31" s="44"/>
+      <c r="AC31" s="44"/>
+      <c r="AD31" s="44"/>
+      <c r="AE31" s="44"/>
+      <c r="AF31" s="15"/>
+      <c r="AG31" s="44"/>
+      <c r="AH31" s="44"/>
+      <c r="AI31" s="44"/>
+      <c r="AJ31" s="44"/>
+      <c r="AK31" s="44"/>
+      <c r="AL31" s="44"/>
+      <c r="AM31" s="44"/>
+      <c r="AN31" s="44"/>
+      <c r="AO31" s="44"/>
+      <c r="AP31" s="44"/>
+      <c r="AQ31" s="44"/>
+      <c r="AR31" s="44"/>
+      <c r="AS31" s="44"/>
+      <c r="AT31" s="44"/>
+      <c r="AU31" s="44"/>
+      <c r="AV31" s="44"/>
+      <c r="AW31" s="44"/>
+      <c r="AX31" s="44"/>
+      <c r="AY31" s="44"/>
+      <c r="AZ31" s="44"/>
+      <c r="BA31" s="44"/>
+      <c r="BB31" s="44"/>
+      <c r="BC31" s="44"/>
+      <c r="BD31" s="44"/>
+      <c r="BE31" s="44"/>
+      <c r="BF31" s="25"/>
+      <c r="BG31" s="28"/>
+    </row>
+    <row r="32" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C32" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="H32" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="44"/>
+      <c r="J32" s="1">
+        <v>40000</v>
+      </c>
+      <c r="K32" s="44">
+        <v>8000</v>
+      </c>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44">
+        <v>110</v>
+      </c>
+      <c r="N32" s="44"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="44"/>
+      <c r="T32" s="44"/>
+      <c r="U32" s="44"/>
+      <c r="V32" s="44"/>
+      <c r="W32" s="44">
+        <v>200000</v>
+      </c>
+      <c r="X32" s="44"/>
+      <c r="Y32" s="44"/>
+      <c r="Z32" s="44"/>
+      <c r="AA32" s="44"/>
+      <c r="AB32" s="44"/>
+      <c r="AC32" s="44"/>
+      <c r="AD32" s="44">
+        <v>6500</v>
+      </c>
+      <c r="AE32" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF32" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG32" s="44"/>
+      <c r="AH32" s="44"/>
+      <c r="AI32" s="44">
+        <v>34000</v>
+      </c>
+      <c r="AJ32" s="44">
+        <v>12000</v>
+      </c>
+      <c r="AK32" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL32" s="44"/>
+      <c r="AM32" s="44"/>
+      <c r="AN32" s="44"/>
+      <c r="AO32" s="44"/>
+      <c r="AP32" s="44"/>
+      <c r="AQ32" s="44"/>
+      <c r="AR32" s="44"/>
+      <c r="AS32" s="44"/>
+      <c r="AT32" s="44"/>
+      <c r="AU32" s="44"/>
+      <c r="AV32" s="44">
+        <v>200000</v>
+      </c>
+      <c r="AW32" s="44"/>
+      <c r="AX32" s="44"/>
+      <c r="AY32" s="44"/>
+      <c r="AZ32" s="44"/>
+      <c r="BA32" s="44"/>
+      <c r="BB32" s="44"/>
+      <c r="BC32" s="44">
+        <v>25000</v>
+      </c>
+      <c r="BD32" s="44"/>
+      <c r="BE32" s="44"/>
+      <c r="BF32" s="25"/>
+      <c r="BG32" s="28"/>
+    </row>
+    <row r="33" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="55" t="s">
+        <v>205</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="H33" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44">
+        <v>28000</v>
+      </c>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="44"/>
+      <c r="V33" s="44"/>
+      <c r="W33" s="44"/>
+      <c r="X33" s="44">
+        <v>7000</v>
+      </c>
+      <c r="Y33" s="44"/>
+      <c r="Z33" s="44"/>
+      <c r="AA33" s="44"/>
+      <c r="AB33" s="44"/>
+      <c r="AC33" s="44"/>
+      <c r="AD33" s="44"/>
+      <c r="AE33" s="44"/>
+      <c r="AF33" s="15"/>
+      <c r="AG33" s="44"/>
+      <c r="AH33" s="44"/>
+      <c r="AI33" s="44"/>
+      <c r="AJ33" s="44"/>
+      <c r="AK33" s="44"/>
+      <c r="AL33" s="44"/>
+      <c r="AM33" s="44"/>
+      <c r="AN33" s="44"/>
+      <c r="AO33" s="44"/>
+      <c r="AP33" s="44"/>
+      <c r="AQ33" s="44"/>
+      <c r="AR33" s="44"/>
+      <c r="AS33" s="44"/>
+      <c r="AT33" s="44"/>
+      <c r="AU33" s="44"/>
+      <c r="AV33" s="44">
+        <v>52000</v>
+      </c>
+      <c r="AW33" s="44">
+        <v>10000</v>
+      </c>
+      <c r="AX33" s="44"/>
+      <c r="AY33" s="44"/>
+      <c r="AZ33" s="44">
+        <v>3000</v>
+      </c>
+      <c r="BA33" s="44"/>
+      <c r="BB33" s="44"/>
+      <c r="BC33" s="44"/>
+      <c r="BD33" s="44"/>
+      <c r="BE33" s="44"/>
+      <c r="BF33" s="25"/>
+      <c r="BG33" s="28"/>
+    </row>
+    <row r="34" spans="1:59" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13">
+        <v>20000</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="30"/>
+      <c r="X34" s="13">
+        <v>2000</v>
+      </c>
+      <c r="Y34" s="14"/>
+      <c r="Z34" s="13"/>
+      <c r="AA34" s="13"/>
+      <c r="AB34" s="14"/>
+      <c r="AC34" s="30"/>
+      <c r="AD34" s="13"/>
+      <c r="AE34" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF34" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG34" s="13"/>
+      <c r="AH34" s="13"/>
+      <c r="AI34" s="13">
+        <v>9000</v>
+      </c>
+      <c r="AJ34" s="30"/>
+      <c r="AK34" s="30"/>
+      <c r="AL34" s="13"/>
+      <c r="AM34" s="14"/>
+      <c r="AN34" s="14"/>
+      <c r="AO34" s="14"/>
+      <c r="AP34" s="14"/>
+      <c r="AQ34" s="14"/>
+      <c r="AR34" s="14"/>
+      <c r="AS34" s="14"/>
+      <c r="AT34" s="14"/>
+      <c r="AU34" s="14"/>
+      <c r="AV34" s="44"/>
+      <c r="AW34" s="13">
+        <v>900</v>
+      </c>
+      <c r="AX34" s="14"/>
+      <c r="AY34" s="13"/>
+      <c r="AZ34" s="13"/>
+      <c r="BA34" s="14"/>
+      <c r="BB34" s="30"/>
+      <c r="BC34" s="13"/>
+      <c r="BD34" s="13"/>
+      <c r="BE34" s="13"/>
+      <c r="BF34" s="12"/>
+    </row>
+    <row r="35" spans="1:59" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C35" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D35" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E35" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="30" t="s">
+      <c r="F35" s="12"/>
+      <c r="G35" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="H31" s="21" t="s">
+      <c r="H35" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13">
+      <c r="I35" s="13"/>
+      <c r="J35" s="13">
         <v>50700</v>
       </c>
-      <c r="K31" s="30">
+      <c r="K35" s="30">
         <v>14390</v>
       </c>
-      <c r="L31" s="30">
+      <c r="L35" s="30">
         <v>8050</v>
       </c>
-      <c r="M31" s="13">
+      <c r="M35" s="13">
         <v>252</v>
       </c>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="30">
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="30">
         <v>73000</v>
       </c>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="14"/>
-      <c r="Z31" s="13"/>
-      <c r="AA31" s="13">
+      <c r="X35" s="13"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="13"/>
+      <c r="AA35" s="13">
         <v>6000</v>
       </c>
-      <c r="AB31" s="14"/>
-      <c r="AC31" s="30">
+      <c r="AB35" s="14"/>
+      <c r="AC35" s="30">
         <v>15000</v>
       </c>
-      <c r="AD31" s="13">
+      <c r="AD35" s="13">
         <v>25000</v>
       </c>
-      <c r="AE31" s="40" t="s">
+      <c r="AE35" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="AF31" s="42" t="s">
+      <c r="AF35" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="AG31" s="13"/>
-      <c r="AH31" s="13"/>
-      <c r="AI31" s="13"/>
-      <c r="AJ31" s="30"/>
-      <c r="AK31" s="30"/>
-      <c r="AL31" s="13"/>
-      <c r="AM31" s="14"/>
-      <c r="AN31" s="14"/>
-      <c r="AO31" s="14"/>
-      <c r="AP31" s="14"/>
-      <c r="AQ31" s="14"/>
-      <c r="AR31" s="14"/>
-      <c r="AS31" s="14"/>
-      <c r="AT31" s="14"/>
-      <c r="AU31" s="14"/>
-      <c r="AV31" s="13"/>
-      <c r="AW31" s="14"/>
-      <c r="AX31" s="13"/>
-      <c r="AY31" s="13"/>
-      <c r="AZ31" s="14"/>
-      <c r="BA31" s="30"/>
-      <c r="BB31" s="13"/>
-      <c r="BC31" s="13"/>
-      <c r="BD31" s="13"/>
-      <c r="BE31" s="12"/>
-    </row>
-    <row r="32" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="AE32" s="2" t="s">
+      <c r="AG35" s="13"/>
+      <c r="AH35" s="13"/>
+      <c r="AI35" s="13"/>
+      <c r="AJ35" s="30"/>
+      <c r="AK35" s="30"/>
+      <c r="AL35" s="13"/>
+      <c r="AM35" s="14"/>
+      <c r="AN35" s="14"/>
+      <c r="AO35" s="14"/>
+      <c r="AP35" s="14"/>
+      <c r="AQ35" s="14"/>
+      <c r="AR35" s="14"/>
+      <c r="AS35" s="14"/>
+      <c r="AT35" s="14"/>
+      <c r="AU35" s="14"/>
+      <c r="AV35" s="44"/>
+      <c r="AW35" s="13"/>
+      <c r="AX35" s="14"/>
+      <c r="AY35" s="13"/>
+      <c r="AZ35" s="13"/>
+      <c r="BA35" s="14"/>
+      <c r="BB35" s="30"/>
+      <c r="BC35" s="13"/>
+      <c r="BD35" s="13"/>
+      <c r="BE35" s="13"/>
+      <c r="BF35" s="12"/>
+    </row>
+    <row r="36" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="AE36" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="33" spans="4:56" x14ac:dyDescent="0.25">
-      <c r="AE33" s="2" t="s">
+    <row r="37" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="AE37" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="AI33" s="2">
+      <c r="AI37" s="2">
         <v>25000</v>
       </c>
-      <c r="AV33" s="2">
+      <c r="AW37" s="2">
         <v>3500</v>
       </c>
-      <c r="AX33" s="2">
+      <c r="AY37" s="2">
         <v>10200</v>
       </c>
-      <c r="BA33" s="9">
+      <c r="BB37" s="9">
         <v>3300</v>
       </c>
-      <c r="BD33" s="1" t="s">
+      <c r="BE37" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="4:56" x14ac:dyDescent="0.25">
-      <c r="AE34" s="2" t="s">
+    <row r="38" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="AE38" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="AI34" s="2">
+      <c r="AI38" s="2">
         <v>6000</v>
       </c>
     </row>
-    <row r="35" spans="4:56" x14ac:dyDescent="0.25">
-      <c r="AE35" s="2" t="s">
+    <row r="39" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="AE39" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="AI35" s="2">
+      <c r="AI39" s="2">
         <v>17000</v>
       </c>
     </row>
-    <row r="36" spans="4:56" x14ac:dyDescent="0.25">
-      <c r="AE36" s="2" t="s">
+    <row r="40" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="AE40" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="AI36" s="2">
+      <c r="AI40" s="2">
         <v>11000</v>
       </c>
     </row>
-    <row r="37" spans="4:56" x14ac:dyDescent="0.25">
-      <c r="AE37" s="2" t="s">
+    <row r="41" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="AE41" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="AI37" s="2">
+      <c r="AI41" s="2">
         <v>6000</v>
       </c>
     </row>
-    <row r="38" spans="4:56" x14ac:dyDescent="0.25">
-      <c r="AE38" s="2" t="s">
+    <row r="42" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="AE42" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="AI38" s="2">
+      <c r="AI42" s="2">
         <v>3000</v>
       </c>
     </row>
-    <row r="39" spans="4:56" x14ac:dyDescent="0.25">
-      <c r="D39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="X39" s="9"/>
-      <c r="Z39" s="9"/>
-      <c r="AA39" s="9"/>
-      <c r="AD39" s="9"/>
-      <c r="AE39" s="9" t="s">
+    <row r="43" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="D43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="X43" s="9"/>
+      <c r="Z43" s="9"/>
+      <c r="AA43" s="9"/>
+      <c r="AD43" s="9"/>
+      <c r="AE43" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="AI39" s="9">
+      <c r="AI43" s="9">
         <v>68000</v>
       </c>
-      <c r="AL39" s="9">
+      <c r="AL43" s="9">
         <v>156</v>
       </c>
-      <c r="AV39" s="9"/>
-      <c r="AX39" s="9"/>
-      <c r="AY39" s="9"/>
-      <c r="BB39" s="9"/>
-      <c r="BD39" s="9"/>
-    </row>
-    <row r="40" spans="4:56" x14ac:dyDescent="0.25">
-      <c r="AE40" s="2" t="s">
+      <c r="AW43" s="9"/>
+      <c r="AY43" s="9"/>
+      <c r="AZ43" s="9"/>
+      <c r="BC43" s="9"/>
+      <c r="BE43" s="9"/>
+    </row>
+    <row r="44" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="AE44" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="AI40" s="2">
+      <c r="AI44" s="2">
         <v>50000</v>
       </c>
-      <c r="AV40" s="2">
+      <c r="AW44" s="2">
         <v>1200</v>
       </c>
-      <c r="AX40" s="2">
+      <c r="AY44" s="2">
         <v>4400</v>
       </c>
-      <c r="BA40" s="9">
+      <c r="BB44" s="9">
         <v>1400</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="I1:U1"/>
+    <mergeCell ref="BF1:BF2"/>
+    <mergeCell ref="AW1:BD1"/>
     <mergeCell ref="BE1:BE2"/>
-    <mergeCell ref="AV1:BC1"/>
-    <mergeCell ref="BD1:BD2"/>
     <mergeCell ref="X1:AD1"/>
     <mergeCell ref="AG1:AT1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="BE27" r:id="rId1" xr:uid="{AB43767C-640A-454E-8867-6D6B4EA887DD}"/>
+    <hyperlink ref="BF28" r:id="rId1" xr:uid="{AB43767C-640A-454E-8867-6D6B4EA887DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>

--- a/war_index.xlsx
+++ b/war_index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B47AC4-0552-4039-BA7D-13014769FB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF10FE51-5650-4F62-93A2-0D58E259129B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{04375B46-837D-49F2-BE8A-ABE006783F6C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="228">
   <si>
     <t>date</t>
   </si>
@@ -672,6 +672,46 @@
   </si>
   <si>
     <t>davout</t>
+  </si>
+  <si>
+    <t>38K french: 38k austrians, 25k piedmontes</t>
+  </si>
+  <si>
+    <t>isolate austrian from piedmotese</t>
+  </si>
+  <si>
+    <t>26 april 1796 piedmont surrendered</t>
+  </si>
+  <si>
+    <t>insistedşly attack, inspire, courage of man</t>
+  </si>
+  <si>
+    <t>Montenotte Campaign
+2-26 April 1796</t>
+  </si>
+  <si>
+    <t>40m franks back to paris</t>
+  </si>
+  <si>
+    <t>Dagobert von Wurmser</t>
+  </si>
+  <si>
+    <t>Battle of Tagliamento</t>
+  </si>
+  <si>
+    <t>16 March 1797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battle of Tarvis </t>
+  </si>
+  <si>
+    <t>21-23 March 1797</t>
+  </si>
+  <si>
+    <t>In March Bonaparte launched an offensive designed to break through the Austrian army's defenses. At Valvasone, the French encountered part of their opponents' army and drove it back. For the loss of 500 men, the French inflicted 700 casualties on the Austrians and captured six guns.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">French divisions directed by André Masséna, Jean Joseph Guieu, and Jean-Mathieu-Philibert Sérurier succeeded in blocking the Tarvis Pass and capturing 3,500 Austrians led by Adam Bajalics von Bajahaza. </t>
   </si>
 </sst>
 </file>
@@ -706,7 +746,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -737,8 +777,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -807,12 +853,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -927,6 +999,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -953,9 +1049,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1272,18 +1365,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C1708F5-F567-4565-A221-ECE07B210A7F}">
-  <dimension ref="A1:BG44"/>
+  <dimension ref="A1:BM46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
@@ -1329,66 +1422,66 @@
       <c r="F1" s="12"/>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="48"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="56"/>
       <c r="V1" s="41"/>
       <c r="W1" s="41"/>
-      <c r="X1" s="51" t="s">
+      <c r="X1" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
       <c r="AE1" s="13"/>
       <c r="AF1" s="15"/>
-      <c r="AG1" s="52" t="s">
+      <c r="AG1" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="53"/>
-      <c r="AO1" s="53"/>
-      <c r="AP1" s="53"/>
-      <c r="AQ1" s="53"/>
-      <c r="AR1" s="53"/>
-      <c r="AS1" s="53"/>
-      <c r="AT1" s="54"/>
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="61"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="61"/>
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="61"/>
+      <c r="AN1" s="61"/>
+      <c r="AO1" s="61"/>
+      <c r="AP1" s="61"/>
+      <c r="AQ1" s="61"/>
+      <c r="AR1" s="61"/>
+      <c r="AS1" s="61"/>
+      <c r="AT1" s="62"/>
       <c r="AU1" s="39"/>
       <c r="AV1" s="45"/>
-      <c r="AW1" s="50" t="s">
+      <c r="AW1" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="AX1" s="50"/>
-      <c r="AY1" s="50"/>
-      <c r="AZ1" s="50"/>
-      <c r="BA1" s="50"/>
-      <c r="BB1" s="50"/>
-      <c r="BC1" s="50"/>
-      <c r="BD1" s="50"/>
-      <c r="BE1" s="49" t="s">
+      <c r="AX1" s="58"/>
+      <c r="AY1" s="58"/>
+      <c r="AZ1" s="58"/>
+      <c r="BA1" s="58"/>
+      <c r="BB1" s="58"/>
+      <c r="BC1" s="58"/>
+      <c r="BD1" s="58"/>
+      <c r="BE1" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="BF1" s="49" t="s">
+      <c r="BF1" s="57" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1561,8 +1654,8 @@
       <c r="BD2" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="BE2" s="49"/>
-      <c r="BF2" s="49"/>
+      <c r="BE2" s="57"/>
+      <c r="BF2" s="57"/>
     </row>
     <row r="3" spans="1:59" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
@@ -2611,7 +2704,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="19"/>
@@ -2682,7 +2775,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="19" t="s">
@@ -2754,19 +2847,23 @@
       </c>
       <c r="BF18" s="12"/>
     </row>
-    <row r="19" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
+      <c r="B19" s="52" t="s">
+        <v>219</v>
+      </c>
       <c r="C19" s="19" t="s">
         <v>62</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="12"/>
+      <c r="E19" s="12" t="s">
+        <v>215</v>
+      </c>
       <c r="F19" s="12"/>
-      <c r="G19" s="13" t="s">
-        <v>63</v>
+      <c r="G19" s="46" t="s">
+        <v>92</v>
       </c>
       <c r="H19" s="13" t="s">
         <v>67</v>
@@ -2827,10 +2924,16 @@
         <v>72</v>
       </c>
       <c r="BF19" s="12"/>
-    </row>
-    <row r="20" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG19" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="BH19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="19" t="s">
         <v>123</v>
       </c>
@@ -2906,10 +3009,10 @@
       </c>
       <c r="BF20" s="12"/>
     </row>
-    <row r="21" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="50" t="s">
         <v>77</v>
       </c>
       <c r="D21" s="21" t="s">
@@ -2917,8 +3020,8 @@
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
-      <c r="G21" s="13" t="s">
-        <v>63</v>
+      <c r="G21" s="46" t="s">
+        <v>92</v>
       </c>
       <c r="H21" s="13" t="s">
         <v>67</v>
@@ -2951,12 +3054,16 @@
       <c r="AF21" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="AG21" s="13"/>
+      <c r="AG21" s="13">
+        <v>3</v>
+      </c>
       <c r="AH21" s="13"/>
       <c r="AI21" s="13"/>
       <c r="AJ21" s="30"/>
       <c r="AK21" s="30"/>
-      <c r="AL21" s="13"/>
+      <c r="AL21" s="13">
+        <v>14</v>
+      </c>
       <c r="AM21" s="14"/>
       <c r="AN21" s="14"/>
       <c r="AO21" s="14"/>
@@ -2979,11 +3086,17 @@
       <c r="BG21" s="40" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="22" spans="1:59" ht="30" x14ac:dyDescent="0.25">
+      <c r="BH21" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="BM21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:65" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="51" t="s">
         <v>78</v>
       </c>
       <c r="D22" s="21" t="s">
@@ -3022,7 +3135,9 @@
       <c r="AE22" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AF22" s="15"/>
+      <c r="AF22" s="15" t="s">
+        <v>221</v>
+      </c>
       <c r="AG22" s="13"/>
       <c r="AH22" s="13"/>
       <c r="AI22" s="13"/>
@@ -3052,169 +3167,167 @@
       </c>
       <c r="BF22" s="12"/>
     </row>
-    <row r="23" spans="1:59" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
-      <c r="C23" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="12" t="s">
-        <v>87</v>
-      </c>
+      <c r="C23" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E23" s="12"/>
       <c r="F23" s="12"/>
-      <c r="G23" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="14"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="13"/>
-      <c r="AB23" s="14"/>
-      <c r="AC23" s="30"/>
-      <c r="AD23" s="13"/>
-      <c r="AE23" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF23" s="15"/>
-      <c r="AG23" s="13"/>
-      <c r="AH23" s="13"/>
-      <c r="AI23" s="13"/>
-      <c r="AJ23" s="30"/>
-      <c r="AK23" s="30"/>
-      <c r="AL23" s="13"/>
-      <c r="AM23" s="14"/>
-      <c r="AN23" s="14"/>
-      <c r="AO23" s="14"/>
-      <c r="AP23" s="14"/>
-      <c r="AQ23" s="14"/>
-      <c r="AR23" s="14"/>
-      <c r="AS23" s="14"/>
-      <c r="AT23" s="14"/>
-      <c r="AU23" s="14"/>
-      <c r="AV23" s="44"/>
-      <c r="AW23" s="13"/>
-      <c r="AX23" s="14"/>
-      <c r="AY23" s="13"/>
-      <c r="AZ23" s="13"/>
-      <c r="BA23" s="14"/>
-      <c r="BB23" s="30"/>
-      <c r="BC23" s="13"/>
-      <c r="BD23" s="13"/>
-      <c r="BE23" s="13" t="s">
-        <v>70</v>
-      </c>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="49"/>
+      <c r="U23" s="49"/>
+      <c r="V23" s="49"/>
+      <c r="W23" s="49"/>
+      <c r="X23" s="49"/>
+      <c r="Y23" s="49"/>
+      <c r="Z23" s="49"/>
+      <c r="AA23" s="49"/>
+      <c r="AB23" s="49"/>
+      <c r="AC23" s="49"/>
+      <c r="AD23" s="49"/>
+      <c r="AE23" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF23" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG23" s="49"/>
+      <c r="AH23" s="49"/>
+      <c r="AI23" s="49"/>
+      <c r="AJ23" s="49"/>
+      <c r="AK23" s="49"/>
+      <c r="AL23" s="49"/>
+      <c r="AM23" s="49"/>
+      <c r="AN23" s="49"/>
+      <c r="AO23" s="49"/>
+      <c r="AP23" s="49"/>
+      <c r="AQ23" s="49"/>
+      <c r="AR23" s="49"/>
+      <c r="AS23" s="49"/>
+      <c r="AT23" s="49"/>
+      <c r="AU23" s="49"/>
+      <c r="AV23" s="49"/>
+      <c r="AW23" s="49"/>
+      <c r="AX23" s="49"/>
+      <c r="AY23" s="49"/>
+      <c r="AZ23" s="49"/>
+      <c r="BA23" s="49"/>
+      <c r="BB23" s="49"/>
+      <c r="BC23" s="49"/>
+      <c r="BD23" s="49"/>
+      <c r="BE23" s="49"/>
       <c r="BF23" s="12"/>
     </row>
-    <row r="24" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
-      <c r="C24" s="20" t="s">
-        <v>90</v>
+      <c r="C24" s="51" t="s">
+        <v>224</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>91</v>
+        <v>225</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="H24" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="13"/>
-      <c r="Y24" s="14"/>
-      <c r="Z24" s="13"/>
-      <c r="AA24" s="13"/>
-      <c r="AB24" s="14"/>
-      <c r="AC24" s="30"/>
-      <c r="AD24" s="13"/>
-      <c r="AE24" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF24" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG24" s="13"/>
-      <c r="AH24" s="13"/>
-      <c r="AI24" s="13"/>
-      <c r="AJ24" s="30"/>
-      <c r="AK24" s="30"/>
-      <c r="AL24" s="13"/>
-      <c r="AM24" s="14"/>
-      <c r="AN24" s="14"/>
-      <c r="AO24" s="14"/>
-      <c r="AP24" s="14"/>
-      <c r="AQ24" s="14"/>
-      <c r="AR24" s="14"/>
-      <c r="AS24" s="14"/>
-      <c r="AT24" s="14"/>
-      <c r="AU24" s="14"/>
-      <c r="AV24" s="44"/>
-      <c r="AW24" s="13"/>
-      <c r="AX24" s="14"/>
-      <c r="AY24" s="13"/>
-      <c r="AZ24" s="13"/>
-      <c r="BA24" s="14"/>
-      <c r="BB24" s="30"/>
-      <c r="BC24" s="13"/>
-      <c r="BD24" s="13"/>
-      <c r="BE24" s="13"/>
+      <c r="I24" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
+      <c r="U24" s="49"/>
+      <c r="V24" s="49"/>
+      <c r="W24" s="49"/>
+      <c r="X24" s="49"/>
+      <c r="Y24" s="49"/>
+      <c r="Z24" s="49"/>
+      <c r="AA24" s="49"/>
+      <c r="AB24" s="49"/>
+      <c r="AC24" s="49"/>
+      <c r="AD24" s="49"/>
+      <c r="AE24" s="49"/>
+      <c r="AF24" s="15"/>
+      <c r="AG24" s="49"/>
+      <c r="AH24" s="49"/>
+      <c r="AI24" s="49"/>
+      <c r="AJ24" s="49"/>
+      <c r="AK24" s="49"/>
+      <c r="AL24" s="49"/>
+      <c r="AM24" s="49"/>
+      <c r="AN24" s="49"/>
+      <c r="AO24" s="49"/>
+      <c r="AP24" s="49"/>
+      <c r="AQ24" s="49"/>
+      <c r="AR24" s="49"/>
+      <c r="AS24" s="49"/>
+      <c r="AT24" s="49"/>
+      <c r="AU24" s="49"/>
+      <c r="AV24" s="49"/>
+      <c r="AW24" s="49"/>
+      <c r="AX24" s="49"/>
+      <c r="AY24" s="49"/>
+      <c r="AZ24" s="49"/>
+      <c r="BA24" s="49"/>
+      <c r="BB24" s="49"/>
+      <c r="BC24" s="49"/>
+      <c r="BD24" s="49"/>
+      <c r="BE24" s="49"/>
       <c r="BF24" s="12"/>
     </row>
-    <row r="25" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:65" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" s="12"/>
+        <v>88</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="F25" s="12"/>
       <c r="G25" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>151</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="H25" s="13"/>
       <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
+      <c r="J25" s="13" t="s">
+        <v>89</v>
+      </c>
       <c r="K25" s="30"/>
       <c r="L25" s="30"/>
       <c r="M25" s="13"/>
@@ -3236,11 +3349,9 @@
       <c r="AC25" s="30"/>
       <c r="AD25" s="13"/>
       <c r="AE25" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF25" s="15" t="s">
-        <v>145</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="AF25" s="15"/>
       <c r="AG25" s="13"/>
       <c r="AH25" s="13"/>
       <c r="AI25" s="13"/>
@@ -3265,24 +3376,24 @@
       <c r="BB25" s="30"/>
       <c r="BC25" s="13"/>
       <c r="BD25" s="13"/>
-      <c r="BE25" s="13"/>
+      <c r="BE25" s="13" t="s">
+        <v>70</v>
+      </c>
       <c r="BF25" s="12"/>
     </row>
-    <row r="26" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="20" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>83</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="E26" s="12"/>
       <c r="F26" s="12"/>
       <c r="G26" s="13" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="H26" s="13" t="s">
         <v>67</v>
@@ -3310,10 +3421,10 @@
       <c r="AC26" s="30"/>
       <c r="AD26" s="13"/>
       <c r="AE26" s="13" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="AF26" s="15" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="AG26" s="13"/>
       <c r="AH26" s="13"/>
@@ -3342,96 +3453,102 @@
       <c r="BE26" s="13"/>
       <c r="BF26" s="12"/>
     </row>
-    <row r="27" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="21"/>
+      <c r="C27" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>97</v>
+      </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="44"/>
-      <c r="S27" s="44"/>
-      <c r="T27" s="44"/>
-      <c r="U27" s="44"/>
-      <c r="V27" s="44"/>
-      <c r="W27" s="44"/>
-      <c r="X27" s="44"/>
-      <c r="Y27" s="44"/>
-      <c r="Z27" s="44"/>
-      <c r="AA27" s="44"/>
-      <c r="AB27" s="44"/>
-      <c r="AC27" s="44"/>
-      <c r="AD27" s="44"/>
-      <c r="AE27" s="44"/>
-      <c r="AF27" s="15"/>
-      <c r="AG27" s="44"/>
-      <c r="AH27" s="44"/>
-      <c r="AI27" s="44"/>
-      <c r="AJ27" s="44"/>
-      <c r="AK27" s="44"/>
-      <c r="AL27" s="44"/>
-      <c r="AM27" s="44"/>
-      <c r="AN27" s="44"/>
-      <c r="AO27" s="44"/>
-      <c r="AP27" s="44"/>
-      <c r="AQ27" s="44"/>
-      <c r="AR27" s="44"/>
-      <c r="AS27" s="44"/>
-      <c r="AT27" s="44"/>
-      <c r="AU27" s="44"/>
+      <c r="G27" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="13"/>
+      <c r="AA27" s="13"/>
+      <c r="AB27" s="14"/>
+      <c r="AC27" s="30"/>
+      <c r="AD27" s="13"/>
+      <c r="AE27" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF27" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG27" s="13"/>
+      <c r="AH27" s="13"/>
+      <c r="AI27" s="13"/>
+      <c r="AJ27" s="30"/>
+      <c r="AK27" s="30"/>
+      <c r="AL27" s="13"/>
+      <c r="AM27" s="14"/>
+      <c r="AN27" s="14"/>
+      <c r="AO27" s="14"/>
+      <c r="AP27" s="14"/>
+      <c r="AQ27" s="14"/>
+      <c r="AR27" s="14"/>
+      <c r="AS27" s="14"/>
+      <c r="AT27" s="14"/>
+      <c r="AU27" s="14"/>
       <c r="AV27" s="44"/>
-      <c r="AW27" s="44"/>
-      <c r="AX27" s="44"/>
-      <c r="AY27" s="44"/>
-      <c r="AZ27" s="44"/>
-      <c r="BA27" s="44"/>
-      <c r="BB27" s="44"/>
-      <c r="BC27" s="44"/>
-      <c r="BD27" s="44"/>
-      <c r="BE27" s="44"/>
+      <c r="AW27" s="13"/>
+      <c r="AX27" s="14"/>
+      <c r="AY27" s="13"/>
+      <c r="AZ27" s="13"/>
+      <c r="BA27" s="14"/>
+      <c r="BB27" s="30"/>
+      <c r="BC27" s="13"/>
+      <c r="BD27" s="13"/>
+      <c r="BE27" s="13"/>
       <c r="BF27" s="12"/>
     </row>
-    <row r="28" spans="1:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
-      <c r="B28" s="12" t="s">
-        <v>137</v>
-      </c>
+      <c r="B28" s="12"/>
       <c r="C28" s="20" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="13" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="I28" s="13">
-        <v>13</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="I28" s="13"/>
       <c r="J28" s="13"/>
       <c r="K28" s="30"/>
       <c r="L28" s="30"/>
-      <c r="M28" s="13">
-        <v>15</v>
-      </c>
+      <c r="M28" s="13"/>
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>
       <c r="P28" s="14"/>
@@ -3448,27 +3565,19 @@
       <c r="AA28" s="13"/>
       <c r="AB28" s="14"/>
       <c r="AC28" s="30"/>
-      <c r="AD28" s="13" t="s">
-        <v>141</v>
-      </c>
+      <c r="AD28" s="13"/>
       <c r="AE28" s="13" t="s">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="AF28" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AG28" s="13">
-        <v>6</v>
-      </c>
-      <c r="AH28" s="13">
-        <v>1</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="AG28" s="13"/>
+      <c r="AH28" s="13"/>
       <c r="AI28" s="13"/>
       <c r="AJ28" s="30"/>
       <c r="AK28" s="30"/>
-      <c r="AL28" s="13">
-        <v>12</v>
-      </c>
+      <c r="AL28" s="13"/>
       <c r="AM28" s="14"/>
       <c r="AN28" s="14"/>
       <c r="AO28" s="14"/>
@@ -3485,155 +3594,85 @@
       <c r="AZ28" s="13"/>
       <c r="BA28" s="14"/>
       <c r="BB28" s="30"/>
-      <c r="BC28" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="BD28" s="13">
-        <v>4</v>
-      </c>
-      <c r="BE28" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="BF28" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="BG28" s="27" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="29" spans="1:59" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="E29" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="F29" s="31"/>
-      <c r="G29" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="H29" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34">
-        <v>4</v>
-      </c>
-      <c r="O29" s="34">
-        <v>0</v>
-      </c>
-      <c r="P29" s="34">
-        <v>29</v>
-      </c>
-      <c r="Q29" s="34">
-        <v>33</v>
-      </c>
-      <c r="R29" s="34">
-        <v>5</v>
-      </c>
-      <c r="S29" s="34">
-        <v>2</v>
-      </c>
-      <c r="T29" s="34"/>
-      <c r="U29" s="34"/>
-      <c r="V29" s="34">
-        <v>40</v>
-      </c>
-      <c r="W29" s="34"/>
-      <c r="X29" s="34">
-        <v>4395</v>
-      </c>
-      <c r="Y29" s="34">
-        <v>1</v>
-      </c>
-      <c r="Z29" s="34">
-        <v>2541</v>
-      </c>
-      <c r="AA29" s="34">
-        <v>7500</v>
-      </c>
-      <c r="AB29" s="34">
-        <v>21</v>
-      </c>
-      <c r="AC29" s="34"/>
-      <c r="AD29" s="34"/>
-      <c r="AE29" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="AF29" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="AG29" s="34"/>
-      <c r="AH29" s="34"/>
-      <c r="AI29" s="34"/>
-      <c r="AJ29" s="34"/>
-      <c r="AK29" s="34"/>
-      <c r="AL29" s="34"/>
-      <c r="AM29" s="34">
-        <v>3</v>
-      </c>
-      <c r="AN29" s="34">
-        <v>4</v>
-      </c>
-      <c r="AO29" s="34">
-        <v>20</v>
-      </c>
-      <c r="AP29" s="34">
-        <v>27</v>
-      </c>
-      <c r="AQ29" s="34">
-        <v>4</v>
-      </c>
-      <c r="AR29" s="34"/>
-      <c r="AS29" s="34">
-        <v>1</v>
-      </c>
-      <c r="AT29" s="34">
-        <v>1</v>
-      </c>
-      <c r="AU29" s="34">
-        <v>33</v>
-      </c>
-      <c r="AV29" s="34"/>
-      <c r="AW29" s="34">
-        <v>458</v>
-      </c>
-      <c r="AX29" s="34"/>
-      <c r="AY29" s="34">
-        <v>1208</v>
-      </c>
-      <c r="AZ29" s="34"/>
-      <c r="BA29" s="34"/>
-      <c r="BB29" s="34"/>
-      <c r="BC29" s="34"/>
-      <c r="BD29" s="34"/>
-      <c r="BE29" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="BF29" s="36"/>
-      <c r="BG29" s="37"/>
-    </row>
-    <row r="30" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BC28" s="13"/>
+      <c r="BD28" s="13"/>
+      <c r="BE28" s="13"/>
+      <c r="BF28" s="12"/>
+    </row>
+    <row r="29" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="44"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="44"/>
+      <c r="W29" s="44"/>
+      <c r="X29" s="44"/>
+      <c r="Y29" s="44"/>
+      <c r="Z29" s="44"/>
+      <c r="AA29" s="44"/>
+      <c r="AB29" s="44"/>
+      <c r="AC29" s="44"/>
+      <c r="AD29" s="44"/>
+      <c r="AE29" s="44"/>
+      <c r="AF29" s="15"/>
+      <c r="AG29" s="44"/>
+      <c r="AH29" s="44"/>
+      <c r="AI29" s="44"/>
+      <c r="AJ29" s="44"/>
+      <c r="AK29" s="44"/>
+      <c r="AL29" s="44"/>
+      <c r="AM29" s="44"/>
+      <c r="AN29" s="44"/>
+      <c r="AO29" s="44"/>
+      <c r="AP29" s="44"/>
+      <c r="AQ29" s="44"/>
+      <c r="AR29" s="44"/>
+      <c r="AS29" s="44"/>
+      <c r="AT29" s="44"/>
+      <c r="AU29" s="44"/>
+      <c r="AV29" s="44"/>
+      <c r="AW29" s="44"/>
+      <c r="AX29" s="44"/>
+      <c r="AY29" s="44"/>
+      <c r="AZ29" s="44"/>
+      <c r="BA29" s="44"/>
+      <c r="BB29" s="44"/>
+      <c r="BC29" s="44"/>
+      <c r="BD29" s="44"/>
+      <c r="BE29" s="44"/>
+      <c r="BF29" s="12"/>
+    </row>
+    <row r="30" spans="1:65" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
+      <c r="B30" s="12" t="s">
+        <v>137</v>
+      </c>
       <c r="C30" s="20" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="E30" s="12"/>
+        <v>133</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>134</v>
+      </c>
       <c r="F30" s="12"/>
       <c r="G30" s="13" t="s">
         <v>54</v>
@@ -3641,11 +3680,15 @@
       <c r="H30" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="I30" s="13"/>
+      <c r="I30" s="13">
+        <v>13</v>
+      </c>
       <c r="J30" s="13"/>
       <c r="K30" s="30"/>
       <c r="L30" s="30"/>
-      <c r="M30" s="13"/>
+      <c r="M30" s="13">
+        <v>15</v>
+      </c>
       <c r="N30" s="14"/>
       <c r="O30" s="14"/>
       <c r="P30" s="14"/>
@@ -3662,19 +3705,27 @@
       <c r="AA30" s="13"/>
       <c r="AB30" s="14"/>
       <c r="AC30" s="30"/>
-      <c r="AD30" s="13"/>
+      <c r="AD30" s="13" t="s">
+        <v>141</v>
+      </c>
       <c r="AE30" s="13" t="s">
         <v>155</v>
       </c>
       <c r="AF30" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="AG30" s="13"/>
-      <c r="AH30" s="13"/>
+      <c r="AG30" s="13">
+        <v>6</v>
+      </c>
+      <c r="AH30" s="13">
+        <v>1</v>
+      </c>
       <c r="AI30" s="13"/>
       <c r="AJ30" s="30"/>
       <c r="AK30" s="30"/>
-      <c r="AL30" s="13"/>
+      <c r="AL30" s="13">
+        <v>12</v>
+      </c>
       <c r="AM30" s="14"/>
       <c r="AN30" s="14"/>
       <c r="AO30" s="14"/>
@@ -3691,193 +3742,233 @@
       <c r="AZ30" s="13"/>
       <c r="BA30" s="14"/>
       <c r="BB30" s="30"/>
-      <c r="BC30" s="13"/>
-      <c r="BD30" s="13"/>
-      <c r="BE30" s="13"/>
-      <c r="BF30" s="25"/>
-      <c r="BG30" s="28"/>
-    </row>
-    <row r="31" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="44"/>
-      <c r="O31" s="44"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="44"/>
-      <c r="R31" s="44"/>
-      <c r="S31" s="44"/>
-      <c r="T31" s="44"/>
-      <c r="U31" s="44"/>
-      <c r="V31" s="44"/>
-      <c r="W31" s="44"/>
-      <c r="X31" s="44"/>
-      <c r="Y31" s="44"/>
-      <c r="Z31" s="44"/>
-      <c r="AA31" s="44"/>
-      <c r="AB31" s="44"/>
-      <c r="AC31" s="44"/>
-      <c r="AD31" s="44"/>
-      <c r="AE31" s="44"/>
-      <c r="AF31" s="15"/>
-      <c r="AG31" s="44"/>
-      <c r="AH31" s="44"/>
-      <c r="AI31" s="44"/>
-      <c r="AJ31" s="44"/>
-      <c r="AK31" s="44"/>
-      <c r="AL31" s="44"/>
-      <c r="AM31" s="44"/>
-      <c r="AN31" s="44"/>
-      <c r="AO31" s="44"/>
-      <c r="AP31" s="44"/>
-      <c r="AQ31" s="44"/>
-      <c r="AR31" s="44"/>
-      <c r="AS31" s="44"/>
-      <c r="AT31" s="44"/>
-      <c r="AU31" s="44"/>
-      <c r="AV31" s="44"/>
-      <c r="AW31" s="44"/>
-      <c r="AX31" s="44"/>
-      <c r="AY31" s="44"/>
-      <c r="AZ31" s="44"/>
-      <c r="BA31" s="44"/>
-      <c r="BB31" s="44"/>
-      <c r="BC31" s="44"/>
-      <c r="BD31" s="44"/>
-      <c r="BE31" s="44"/>
-      <c r="BF31" s="25"/>
-      <c r="BG31" s="28"/>
-    </row>
-    <row r="32" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BC30" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="BD30" s="13">
+        <v>4</v>
+      </c>
+      <c r="BE30" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="BF30" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="BG30" s="27" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:65" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="31"/>
+      <c r="B31" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="F31" s="31"/>
+      <c r="G31" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="H31" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34">
+        <v>4</v>
+      </c>
+      <c r="O31" s="34">
+        <v>0</v>
+      </c>
+      <c r="P31" s="34">
+        <v>29</v>
+      </c>
+      <c r="Q31" s="34">
+        <v>33</v>
+      </c>
+      <c r="R31" s="34">
+        <v>5</v>
+      </c>
+      <c r="S31" s="34">
+        <v>2</v>
+      </c>
+      <c r="T31" s="34"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="34">
+        <v>40</v>
+      </c>
+      <c r="W31" s="34"/>
+      <c r="X31" s="34">
+        <v>4395</v>
+      </c>
+      <c r="Y31" s="34">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="34">
+        <v>2541</v>
+      </c>
+      <c r="AA31" s="34">
+        <v>7500</v>
+      </c>
+      <c r="AB31" s="34">
+        <v>21</v>
+      </c>
+      <c r="AC31" s="34"/>
+      <c r="AD31" s="34"/>
+      <c r="AE31" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF31" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="AG31" s="34"/>
+      <c r="AH31" s="34"/>
+      <c r="AI31" s="34"/>
+      <c r="AJ31" s="34"/>
+      <c r="AK31" s="34"/>
+      <c r="AL31" s="34"/>
+      <c r="AM31" s="34">
+        <v>3</v>
+      </c>
+      <c r="AN31" s="34">
+        <v>4</v>
+      </c>
+      <c r="AO31" s="34">
+        <v>20</v>
+      </c>
+      <c r="AP31" s="34">
+        <v>27</v>
+      </c>
+      <c r="AQ31" s="34">
+        <v>4</v>
+      </c>
+      <c r="AR31" s="34"/>
+      <c r="AS31" s="34">
+        <v>1</v>
+      </c>
+      <c r="AT31" s="34">
+        <v>1</v>
+      </c>
+      <c r="AU31" s="34">
+        <v>33</v>
+      </c>
+      <c r="AV31" s="34"/>
+      <c r="AW31" s="34">
+        <v>458</v>
+      </c>
+      <c r="AX31" s="34"/>
+      <c r="AY31" s="34">
+        <v>1208</v>
+      </c>
+      <c r="AZ31" s="34"/>
+      <c r="BA31" s="34"/>
+      <c r="BB31" s="34"/>
+      <c r="BC31" s="34"/>
+      <c r="BD31" s="34"/>
+      <c r="BE31" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="BF31" s="36"/>
+      <c r="BG31" s="37"/>
+    </row>
+    <row r="32" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
-      <c r="B32" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="C32" s="55" t="s">
-        <v>204</v>
+      <c r="B32" s="12"/>
+      <c r="C32" s="20" t="s">
+        <v>153</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
-      <c r="G32" s="44" t="s">
-        <v>209</v>
-      </c>
-      <c r="H32" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="44"/>
-      <c r="J32" s="1">
-        <v>40000</v>
-      </c>
-      <c r="K32" s="44">
-        <v>8000</v>
-      </c>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44">
-        <v>110</v>
-      </c>
-      <c r="N32" s="44"/>
-      <c r="O32" s="44"/>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="44"/>
-      <c r="R32" s="44"/>
-      <c r="S32" s="44"/>
-      <c r="T32" s="44"/>
-      <c r="U32" s="44"/>
-      <c r="V32" s="44"/>
-      <c r="W32" s="44">
-        <v>200000</v>
-      </c>
-      <c r="X32" s="44"/>
-      <c r="Y32" s="44"/>
-      <c r="Z32" s="44"/>
-      <c r="AA32" s="44"/>
-      <c r="AB32" s="44"/>
-      <c r="AC32" s="44"/>
-      <c r="AD32" s="44">
-        <v>6500</v>
-      </c>
-      <c r="AE32" s="44" t="s">
-        <v>7</v>
+      <c r="G32" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="30"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="13"/>
+      <c r="AA32" s="13"/>
+      <c r="AB32" s="14"/>
+      <c r="AC32" s="30"/>
+      <c r="AD32" s="13"/>
+      <c r="AE32" s="13" t="s">
+        <v>155</v>
       </c>
       <c r="AF32" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG32" s="44"/>
-      <c r="AH32" s="44"/>
-      <c r="AI32" s="44">
-        <v>34000</v>
-      </c>
-      <c r="AJ32" s="44">
-        <v>12000</v>
-      </c>
-      <c r="AK32" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="AL32" s="44"/>
-      <c r="AM32" s="44"/>
-      <c r="AN32" s="44"/>
-      <c r="AO32" s="44"/>
-      <c r="AP32" s="44"/>
-      <c r="AQ32" s="44"/>
-      <c r="AR32" s="44"/>
-      <c r="AS32" s="44"/>
-      <c r="AT32" s="44"/>
-      <c r="AU32" s="44"/>
-      <c r="AV32" s="44">
-        <v>200000</v>
-      </c>
-      <c r="AW32" s="44"/>
-      <c r="AX32" s="44"/>
-      <c r="AY32" s="44"/>
-      <c r="AZ32" s="44"/>
-      <c r="BA32" s="44"/>
-      <c r="BB32" s="44"/>
-      <c r="BC32" s="44">
-        <v>25000</v>
-      </c>
-      <c r="BD32" s="44"/>
-      <c r="BE32" s="44"/>
+        <v>136</v>
+      </c>
+      <c r="AG32" s="13"/>
+      <c r="AH32" s="13"/>
+      <c r="AI32" s="13"/>
+      <c r="AJ32" s="30"/>
+      <c r="AK32" s="30"/>
+      <c r="AL32" s="13"/>
+      <c r="AM32" s="14"/>
+      <c r="AN32" s="14"/>
+      <c r="AO32" s="14"/>
+      <c r="AP32" s="14"/>
+      <c r="AQ32" s="14"/>
+      <c r="AR32" s="14"/>
+      <c r="AS32" s="14"/>
+      <c r="AT32" s="14"/>
+      <c r="AU32" s="14"/>
+      <c r="AV32" s="44"/>
+      <c r="AW32" s="13"/>
+      <c r="AX32" s="14"/>
+      <c r="AY32" s="13"/>
+      <c r="AZ32" s="13"/>
+      <c r="BA32" s="14"/>
+      <c r="BB32" s="30"/>
+      <c r="BC32" s="13"/>
+      <c r="BD32" s="13"/>
+      <c r="BE32" s="13"/>
       <c r="BF32" s="25"/>
       <c r="BG32" s="28"/>
     </row>
     <row r="33" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
-      <c r="C33" s="55" t="s">
-        <v>205</v>
+      <c r="C33" s="20" t="s">
+        <v>208</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
-      <c r="G33" s="44" t="s">
-        <v>209</v>
-      </c>
-      <c r="H33" s="44" t="s">
-        <v>214</v>
-      </c>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
       <c r="I33" s="44"/>
-      <c r="J33" s="44">
-        <v>28000</v>
-      </c>
+      <c r="J33" s="44"/>
       <c r="K33" s="44"/>
       <c r="L33" s="44"/>
       <c r="M33" s="44"/>
@@ -3891,9 +3982,7 @@
       <c r="U33" s="44"/>
       <c r="V33" s="44"/>
       <c r="W33" s="44"/>
-      <c r="X33" s="44">
-        <v>7000</v>
-      </c>
+      <c r="X33" s="44"/>
       <c r="Y33" s="44"/>
       <c r="Z33" s="44"/>
       <c r="AA33" s="44"/>
@@ -3917,17 +4006,11 @@
       <c r="AS33" s="44"/>
       <c r="AT33" s="44"/>
       <c r="AU33" s="44"/>
-      <c r="AV33" s="44">
-        <v>52000</v>
-      </c>
-      <c r="AW33" s="44">
-        <v>10000</v>
-      </c>
+      <c r="AV33" s="44"/>
+      <c r="AW33" s="44"/>
       <c r="AX33" s="44"/>
       <c r="AY33" s="44"/>
-      <c r="AZ33" s="44">
-        <v>3000</v>
-      </c>
+      <c r="AZ33" s="44"/>
       <c r="BA33" s="44"/>
       <c r="BB33" s="44"/>
       <c r="BC33" s="44"/>
@@ -3936,293 +4019,468 @@
       <c r="BF33" s="25"/>
       <c r="BG33" s="28"/>
     </row>
-    <row r="34" spans="1:59" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+    <row r="34" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C34" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="H34" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="44"/>
+      <c r="J34" s="1">
+        <v>40000</v>
+      </c>
+      <c r="K34" s="44">
+        <v>8000</v>
+      </c>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44">
+        <v>110</v>
+      </c>
+      <c r="N34" s="44"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="44"/>
+      <c r="R34" s="44"/>
+      <c r="S34" s="44"/>
+      <c r="T34" s="44"/>
+      <c r="U34" s="44"/>
+      <c r="V34" s="44"/>
+      <c r="W34" s="44">
+        <v>200000</v>
+      </c>
+      <c r="X34" s="44"/>
+      <c r="Y34" s="44"/>
+      <c r="Z34" s="44"/>
+      <c r="AA34" s="44"/>
+      <c r="AB34" s="44"/>
+      <c r="AC34" s="44"/>
+      <c r="AD34" s="44">
+        <v>6500</v>
+      </c>
+      <c r="AE34" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF34" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG34" s="44"/>
+      <c r="AH34" s="44"/>
+      <c r="AI34" s="44">
+        <v>34000</v>
+      </c>
+      <c r="AJ34" s="44">
+        <v>12000</v>
+      </c>
+      <c r="AK34" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL34" s="44"/>
+      <c r="AM34" s="44"/>
+      <c r="AN34" s="44"/>
+      <c r="AO34" s="44"/>
+      <c r="AP34" s="44"/>
+      <c r="AQ34" s="44"/>
+      <c r="AR34" s="44"/>
+      <c r="AS34" s="44"/>
+      <c r="AT34" s="44"/>
+      <c r="AU34" s="44"/>
+      <c r="AV34" s="44">
+        <v>200000</v>
+      </c>
+      <c r="AW34" s="44"/>
+      <c r="AX34" s="44"/>
+      <c r="AY34" s="44"/>
+      <c r="AZ34" s="44"/>
+      <c r="BA34" s="44"/>
+      <c r="BB34" s="44"/>
+      <c r="BC34" s="44">
+        <v>25000</v>
+      </c>
+      <c r="BD34" s="44"/>
+      <c r="BE34" s="44"/>
+      <c r="BF34" s="25"/>
+      <c r="BG34" s="28"/>
+    </row>
+    <row r="35" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="H35" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44">
+        <v>28000</v>
+      </c>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="44"/>
+      <c r="Q35" s="44"/>
+      <c r="R35" s="44"/>
+      <c r="S35" s="44"/>
+      <c r="T35" s="44"/>
+      <c r="U35" s="44"/>
+      <c r="V35" s="44"/>
+      <c r="W35" s="44"/>
+      <c r="X35" s="44">
+        <v>7000</v>
+      </c>
+      <c r="Y35" s="44"/>
+      <c r="Z35" s="44"/>
+      <c r="AA35" s="44"/>
+      <c r="AB35" s="44"/>
+      <c r="AC35" s="44"/>
+      <c r="AD35" s="44"/>
+      <c r="AE35" s="44"/>
+      <c r="AF35" s="15"/>
+      <c r="AG35" s="44"/>
+      <c r="AH35" s="44"/>
+      <c r="AI35" s="44"/>
+      <c r="AJ35" s="44"/>
+      <c r="AK35" s="44"/>
+      <c r="AL35" s="44"/>
+      <c r="AM35" s="44"/>
+      <c r="AN35" s="44"/>
+      <c r="AO35" s="44"/>
+      <c r="AP35" s="44"/>
+      <c r="AQ35" s="44"/>
+      <c r="AR35" s="44"/>
+      <c r="AS35" s="44"/>
+      <c r="AT35" s="44"/>
+      <c r="AU35" s="44"/>
+      <c r="AV35" s="44">
+        <v>52000</v>
+      </c>
+      <c r="AW35" s="44">
+        <v>10000</v>
+      </c>
+      <c r="AX35" s="44"/>
+      <c r="AY35" s="44"/>
+      <c r="AZ35" s="44">
+        <v>3000</v>
+      </c>
+      <c r="BA35" s="44"/>
+      <c r="BB35" s="44"/>
+      <c r="BC35" s="44"/>
+      <c r="BD35" s="44"/>
+      <c r="BE35" s="44"/>
+      <c r="BF35" s="25"/>
+      <c r="BG35" s="28"/>
+    </row>
+    <row r="36" spans="1:59" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B36" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C36" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E36" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F34" s="12"/>
-      <c r="G34" s="13" t="s">
+      <c r="F36" s="12"/>
+      <c r="G36" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H34" s="13" t="s">
+      <c r="H36" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13">
+      <c r="I36" s="13"/>
+      <c r="J36" s="13">
         <v>20000</v>
       </c>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="14"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="14"/>
-      <c r="V34" s="14"/>
-      <c r="W34" s="30"/>
-      <c r="X34" s="13">
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="30"/>
+      <c r="X36" s="13">
         <v>2000</v>
       </c>
-      <c r="Y34" s="14"/>
-      <c r="Z34" s="13"/>
-      <c r="AA34" s="13"/>
-      <c r="AB34" s="14"/>
-      <c r="AC34" s="30"/>
-      <c r="AD34" s="13"/>
-      <c r="AE34" s="13" t="s">
+      <c r="Y36" s="14"/>
+      <c r="Z36" s="13"/>
+      <c r="AA36" s="13"/>
+      <c r="AB36" s="14"/>
+      <c r="AC36" s="30"/>
+      <c r="AD36" s="13"/>
+      <c r="AE36" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AF34" s="15" t="s">
+      <c r="AF36" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="AG34" s="13"/>
-      <c r="AH34" s="13"/>
-      <c r="AI34" s="13">
+      <c r="AG36" s="13"/>
+      <c r="AH36" s="13"/>
+      <c r="AI36" s="13">
         <v>9000</v>
       </c>
-      <c r="AJ34" s="30"/>
-      <c r="AK34" s="30"/>
-      <c r="AL34" s="13"/>
-      <c r="AM34" s="14"/>
-      <c r="AN34" s="14"/>
-      <c r="AO34" s="14"/>
-      <c r="AP34" s="14"/>
-      <c r="AQ34" s="14"/>
-      <c r="AR34" s="14"/>
-      <c r="AS34" s="14"/>
-      <c r="AT34" s="14"/>
-      <c r="AU34" s="14"/>
-      <c r="AV34" s="44"/>
-      <c r="AW34" s="13">
+      <c r="AJ36" s="30"/>
+      <c r="AK36" s="30"/>
+      <c r="AL36" s="13"/>
+      <c r="AM36" s="14"/>
+      <c r="AN36" s="14"/>
+      <c r="AO36" s="14"/>
+      <c r="AP36" s="14"/>
+      <c r="AQ36" s="14"/>
+      <c r="AR36" s="14"/>
+      <c r="AS36" s="14"/>
+      <c r="AT36" s="14"/>
+      <c r="AU36" s="14"/>
+      <c r="AV36" s="44"/>
+      <c r="AW36" s="13">
         <v>900</v>
       </c>
-      <c r="AX34" s="14"/>
-      <c r="AY34" s="13"/>
-      <c r="AZ34" s="13"/>
-      <c r="BA34" s="14"/>
-      <c r="BB34" s="30"/>
-      <c r="BC34" s="13"/>
-      <c r="BD34" s="13"/>
-      <c r="BE34" s="13"/>
-      <c r="BF34" s="12"/>
-    </row>
-    <row r="35" spans="1:59" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12" t="s">
+      <c r="AX36" s="14"/>
+      <c r="AY36" s="13"/>
+      <c r="AZ36" s="13"/>
+      <c r="BA36" s="14"/>
+      <c r="BB36" s="30"/>
+      <c r="BC36" s="13"/>
+      <c r="BD36" s="13"/>
+      <c r="BE36" s="13"/>
+      <c r="BF36" s="12"/>
+    </row>
+    <row r="37" spans="1:59" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C37" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D37" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E37" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="F35" s="12"/>
-      <c r="G35" s="30" t="s">
+      <c r="F37" s="12"/>
+      <c r="G37" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="H35" s="21" t="s">
+      <c r="H37" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13">
+      <c r="I37" s="13"/>
+      <c r="J37" s="13">
         <v>50700</v>
       </c>
-      <c r="K35" s="30">
+      <c r="K37" s="30">
         <v>14390</v>
       </c>
-      <c r="L35" s="30">
+      <c r="L37" s="30">
         <v>8050</v>
       </c>
-      <c r="M35" s="13">
+      <c r="M37" s="13">
         <v>252</v>
       </c>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="14"/>
-      <c r="S35" s="14"/>
-      <c r="T35" s="14"/>
-      <c r="U35" s="14"/>
-      <c r="V35" s="14"/>
-      <c r="W35" s="30">
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="30">
         <v>73000</v>
       </c>
-      <c r="X35" s="13"/>
-      <c r="Y35" s="14"/>
-      <c r="Z35" s="13"/>
-      <c r="AA35" s="13">
+      <c r="X37" s="13"/>
+      <c r="Y37" s="14"/>
+      <c r="Z37" s="13"/>
+      <c r="AA37" s="13">
         <v>6000</v>
       </c>
-      <c r="AB35" s="14"/>
-      <c r="AC35" s="30">
+      <c r="AB37" s="14"/>
+      <c r="AC37" s="30">
         <v>15000</v>
       </c>
-      <c r="AD35" s="13">
+      <c r="AD37" s="13">
         <v>25000</v>
       </c>
-      <c r="AE35" s="40" t="s">
+      <c r="AE37" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="AF35" s="42" t="s">
+      <c r="AF37" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="AG35" s="13"/>
-      <c r="AH35" s="13"/>
-      <c r="AI35" s="13"/>
-      <c r="AJ35" s="30"/>
-      <c r="AK35" s="30"/>
-      <c r="AL35" s="13"/>
-      <c r="AM35" s="14"/>
-      <c r="AN35" s="14"/>
-      <c r="AO35" s="14"/>
-      <c r="AP35" s="14"/>
-      <c r="AQ35" s="14"/>
-      <c r="AR35" s="14"/>
-      <c r="AS35" s="14"/>
-      <c r="AT35" s="14"/>
-      <c r="AU35" s="14"/>
-      <c r="AV35" s="44"/>
-      <c r="AW35" s="13"/>
-      <c r="AX35" s="14"/>
-      <c r="AY35" s="13"/>
-      <c r="AZ35" s="13"/>
-      <c r="BA35" s="14"/>
-      <c r="BB35" s="30"/>
-      <c r="BC35" s="13"/>
-      <c r="BD35" s="13"/>
-      <c r="BE35" s="13"/>
-      <c r="BF35" s="12"/>
-    </row>
-    <row r="36" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="AE36" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="37" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="AE37" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="AI37" s="2">
-        <v>25000</v>
-      </c>
-      <c r="AW37" s="2">
-        <v>3500</v>
-      </c>
-      <c r="AY37" s="2">
-        <v>10200</v>
-      </c>
-      <c r="BB37" s="9">
-        <v>3300</v>
-      </c>
-      <c r="BE37" s="1" t="s">
-        <v>201</v>
-      </c>
+      <c r="AG37" s="13"/>
+      <c r="AH37" s="13"/>
+      <c r="AI37" s="13"/>
+      <c r="AJ37" s="30"/>
+      <c r="AK37" s="30"/>
+      <c r="AL37" s="13"/>
+      <c r="AM37" s="14"/>
+      <c r="AN37" s="14"/>
+      <c r="AO37" s="14"/>
+      <c r="AP37" s="14"/>
+      <c r="AQ37" s="14"/>
+      <c r="AR37" s="14"/>
+      <c r="AS37" s="14"/>
+      <c r="AT37" s="14"/>
+      <c r="AU37" s="14"/>
+      <c r="AV37" s="44"/>
+      <c r="AW37" s="13"/>
+      <c r="AX37" s="14"/>
+      <c r="AY37" s="13"/>
+      <c r="AZ37" s="13"/>
+      <c r="BA37" s="14"/>
+      <c r="BB37" s="30"/>
+      <c r="BC37" s="13"/>
+      <c r="BD37" s="13"/>
+      <c r="BE37" s="13"/>
+      <c r="BF37" s="12"/>
     </row>
     <row r="38" spans="1:59" x14ac:dyDescent="0.25">
       <c r="AE38" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="AI38" s="2">
-        <v>6000</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:59" x14ac:dyDescent="0.25">
       <c r="AE39" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AI39" s="2">
-        <v>17000</v>
+        <v>25000</v>
+      </c>
+      <c r="AW39" s="2">
+        <v>3500</v>
+      </c>
+      <c r="AY39" s="2">
+        <v>10200</v>
+      </c>
+      <c r="BB39" s="9">
+        <v>3300</v>
+      </c>
+      <c r="BE39" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:59" x14ac:dyDescent="0.25">
       <c r="AE40" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AI40" s="2">
-        <v>11000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="41" spans="1:59" x14ac:dyDescent="0.25">
       <c r="AE41" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AI41" s="2">
-        <v>6000</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="42" spans="1:59" x14ac:dyDescent="0.25">
       <c r="AE42" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AI42" s="2">
-        <v>3000</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="43" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="D43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="X43" s="9"/>
-      <c r="Z43" s="9"/>
-      <c r="AA43" s="9"/>
-      <c r="AD43" s="9"/>
-      <c r="AE43" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI43" s="9">
-        <v>68000</v>
-      </c>
-      <c r="AL43" s="9">
-        <v>156</v>
-      </c>
-      <c r="AW43" s="9"/>
-      <c r="AY43" s="9"/>
-      <c r="AZ43" s="9"/>
-      <c r="BC43" s="9"/>
-      <c r="BE43" s="9"/>
+      <c r="AE43" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI43" s="2">
+        <v>6000</v>
+      </c>
     </row>
     <row r="44" spans="1:59" x14ac:dyDescent="0.25">
       <c r="AE44" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI44" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="D45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="X45" s="9"/>
+      <c r="Z45" s="9"/>
+      <c r="AA45" s="9"/>
+      <c r="AD45" s="9"/>
+      <c r="AE45" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="AI45" s="9">
+        <v>68000</v>
+      </c>
+      <c r="AL45" s="9">
+        <v>156</v>
+      </c>
+      <c r="AW45" s="9"/>
+      <c r="AY45" s="9"/>
+      <c r="AZ45" s="9"/>
+      <c r="BC45" s="9"/>
+      <c r="BE45" s="9"/>
+    </row>
+    <row r="46" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="AE46" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="AI44" s="2">
+      <c r="AI46" s="2">
         <v>50000</v>
       </c>
-      <c r="AW44" s="2">
+      <c r="AW46" s="2">
         <v>1200</v>
       </c>
-      <c r="AY44" s="2">
+      <c r="AY46" s="2">
         <v>4400</v>
       </c>
-      <c r="BB44" s="9">
+      <c r="BB46" s="9">
         <v>1400</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="I1:U1"/>
     <mergeCell ref="BF1:BF2"/>
     <mergeCell ref="AW1:BD1"/>
@@ -4231,7 +4489,7 @@
     <mergeCell ref="AG1:AT1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="BF28" r:id="rId1" xr:uid="{AB43767C-640A-454E-8867-6D6B4EA887DD}"/>
+    <hyperlink ref="BF30" r:id="rId1" xr:uid="{AB43767C-640A-454E-8867-6D6B4EA887DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>

--- a/war_index.xlsx
+++ b/war_index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF10FE51-5650-4F62-93A2-0D58E259129B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B9C251-0C74-4863-9F08-29DD2DFD4682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{04375B46-837D-49F2-BE8A-ABE006783F6C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="235">
   <si>
     <t>date</t>
   </si>
@@ -712,6 +712,27 @@
   </si>
   <si>
     <t xml:space="preserve">French divisions directed by André Masséna, Jean Joseph Guieu, and Jean-Mathieu-Philibert Sérurier succeeded in blocking the Tarvis Pass and capturing 3,500 Austrians led by Adam Bajalics von Bajahaza. </t>
+  </si>
+  <si>
+    <t>French campaign in Egypt and Syria</t>
+  </si>
+  <si>
+    <t>1 July 1798 – 2 September 1801</t>
+  </si>
+  <si>
+    <t>Mediterrenean campaign of 1798</t>
+  </si>
+  <si>
+    <t>War of the second coalition</t>
+  </si>
+  <si>
+    <t>Battle of Embabeh (Pyramids)</t>
+  </si>
+  <si>
+    <t>21 July 1798</t>
+  </si>
+  <si>
+    <t>Napoleon employed the divisional square tactic to great effect. The deployment of the French brigades into these massive rectangular formations repeatedly threw back multiple cavalry charges by the Mamluks.</t>
   </si>
 </sst>
 </file>
@@ -884,7 +905,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1016,6 +1037,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1365,11 +1389,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C1708F5-F567-4565-A221-ECE07B210A7F}">
-  <dimension ref="A1:BM46"/>
+  <dimension ref="A1:BM48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1422,66 +1446,66 @@
       <c r="F1" s="12"/>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
-      <c r="I1" s="54" t="s">
+      <c r="I1" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="57"/>
       <c r="V1" s="41"/>
       <c r="W1" s="41"/>
-      <c r="X1" s="59" t="s">
+      <c r="X1" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
       <c r="AE1" s="13"/>
       <c r="AF1" s="15"/>
-      <c r="AG1" s="60" t="s">
+      <c r="AG1" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="61"/>
-      <c r="AM1" s="61"/>
-      <c r="AN1" s="61"/>
-      <c r="AO1" s="61"/>
-      <c r="AP1" s="61"/>
-      <c r="AQ1" s="61"/>
-      <c r="AR1" s="61"/>
-      <c r="AS1" s="61"/>
-      <c r="AT1" s="62"/>
+      <c r="AH1" s="62"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="62"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="62"/>
+      <c r="AT1" s="63"/>
       <c r="AU1" s="39"/>
       <c r="AV1" s="45"/>
-      <c r="AW1" s="58" t="s">
+      <c r="AW1" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="AX1" s="58"/>
-      <c r="AY1" s="58"/>
-      <c r="AZ1" s="58"/>
-      <c r="BA1" s="58"/>
-      <c r="BB1" s="58"/>
-      <c r="BC1" s="58"/>
-      <c r="BD1" s="58"/>
-      <c r="BE1" s="57" t="s">
+      <c r="AX1" s="59"/>
+      <c r="AY1" s="59"/>
+      <c r="AZ1" s="59"/>
+      <c r="BA1" s="59"/>
+      <c r="BB1" s="59"/>
+      <c r="BC1" s="59"/>
+      <c r="BD1" s="59"/>
+      <c r="BE1" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="BF1" s="57" t="s">
+      <c r="BF1" s="58" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1654,8 +1678,8 @@
       <c r="BD2" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="BE2" s="57"/>
-      <c r="BF2" s="57"/>
+      <c r="BE2" s="58"/>
+      <c r="BF2" s="58"/>
     </row>
     <row r="3" spans="1:59" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
@@ -2849,7 +2873,7 @@
     </row>
     <row r="19" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="53" t="s">
         <v>219</v>
       </c>
       <c r="C19" s="19" t="s">
@@ -2933,7 +2957,7 @@
     </row>
     <row r="20" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
-      <c r="B20" s="53"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="19" t="s">
         <v>123</v>
       </c>
@@ -3659,238 +3683,160 @@
       <c r="BE29" s="44"/>
       <c r="BF29" s="12"/>
     </row>
-    <row r="30" spans="1:65" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
+    <row r="30" spans="1:65" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="B30" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="52"/>
+      <c r="T30" s="52"/>
+      <c r="U30" s="52"/>
+      <c r="V30" s="52"/>
+      <c r="W30" s="52"/>
+      <c r="X30" s="52"/>
+      <c r="Y30" s="52"/>
+      <c r="Z30" s="52"/>
+      <c r="AA30" s="52"/>
+      <c r="AB30" s="52"/>
+      <c r="AC30" s="52"/>
+      <c r="AD30" s="52"/>
+      <c r="AE30" s="52"/>
+      <c r="AF30" s="15"/>
+      <c r="AG30" s="52"/>
+      <c r="AH30" s="52"/>
+      <c r="AI30" s="52"/>
+      <c r="AJ30" s="52"/>
+      <c r="AK30" s="52"/>
+      <c r="AL30" s="52"/>
+      <c r="AM30" s="52"/>
+      <c r="AN30" s="52"/>
+      <c r="AO30" s="52"/>
+      <c r="AP30" s="52"/>
+      <c r="AQ30" s="52"/>
+      <c r="AR30" s="52"/>
+      <c r="AS30" s="52"/>
+      <c r="AT30" s="52"/>
+      <c r="AU30" s="52"/>
+      <c r="AV30" s="52"/>
+      <c r="AW30" s="52"/>
+      <c r="AX30" s="52"/>
+      <c r="AY30" s="52"/>
+      <c r="AZ30" s="52"/>
+      <c r="BA30" s="52"/>
+      <c r="BB30" s="52"/>
+      <c r="BC30" s="52"/>
+      <c r="BD30" s="52"/>
+      <c r="BE30" s="52"/>
+      <c r="BF30" s="12"/>
+    </row>
+    <row r="31" spans="1:65" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52">
+        <v>17000</v>
+      </c>
+      <c r="K31" s="52">
+        <v>3000</v>
+      </c>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="52"/>
+      <c r="T31" s="52"/>
+      <c r="U31" s="52"/>
+      <c r="V31" s="52"/>
+      <c r="W31" s="52"/>
+      <c r="X31" s="52"/>
+      <c r="Y31" s="52"/>
+      <c r="Z31" s="52"/>
+      <c r="AA31" s="52"/>
+      <c r="AB31" s="52"/>
+      <c r="AC31" s="52"/>
+      <c r="AD31" s="52"/>
+      <c r="AE31" s="52"/>
+      <c r="AF31" s="15"/>
+      <c r="AG31" s="52"/>
+      <c r="AH31" s="52"/>
+      <c r="AI31" s="52"/>
+      <c r="AJ31" s="52"/>
+      <c r="AK31" s="52"/>
+      <c r="AL31" s="52"/>
+      <c r="AM31" s="52"/>
+      <c r="AN31" s="52"/>
+      <c r="AO31" s="52"/>
+      <c r="AP31" s="52"/>
+      <c r="AQ31" s="52"/>
+      <c r="AR31" s="52"/>
+      <c r="AS31" s="52"/>
+      <c r="AT31" s="52"/>
+      <c r="AU31" s="52"/>
+      <c r="AV31" s="52"/>
+      <c r="AW31" s="52"/>
+      <c r="AX31" s="52"/>
+      <c r="AY31" s="52"/>
+      <c r="AZ31" s="52"/>
+      <c r="BA31" s="52"/>
+      <c r="BB31" s="52"/>
+      <c r="BC31" s="52"/>
+      <c r="BD31" s="52"/>
+      <c r="BE31" s="52"/>
+      <c r="BF31" s="12"/>
+    </row>
+    <row r="32" spans="1:65" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C32" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D32" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E32" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="I30" s="13">
-        <v>13</v>
-      </c>
-      <c r="J30" s="13"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="13">
-        <v>15</v>
-      </c>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="13"/>
-      <c r="Y30" s="14"/>
-      <c r="Z30" s="13"/>
-      <c r="AA30" s="13"/>
-      <c r="AB30" s="14"/>
-      <c r="AC30" s="30"/>
-      <c r="AD30" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE30" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="AF30" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AG30" s="13">
-        <v>6</v>
-      </c>
-      <c r="AH30" s="13">
-        <v>1</v>
-      </c>
-      <c r="AI30" s="13"/>
-      <c r="AJ30" s="30"/>
-      <c r="AK30" s="30"/>
-      <c r="AL30" s="13">
-        <v>12</v>
-      </c>
-      <c r="AM30" s="14"/>
-      <c r="AN30" s="14"/>
-      <c r="AO30" s="14"/>
-      <c r="AP30" s="14"/>
-      <c r="AQ30" s="14"/>
-      <c r="AR30" s="14"/>
-      <c r="AS30" s="14"/>
-      <c r="AT30" s="14"/>
-      <c r="AU30" s="14"/>
-      <c r="AV30" s="44"/>
-      <c r="AW30" s="13"/>
-      <c r="AX30" s="14"/>
-      <c r="AY30" s="13"/>
-      <c r="AZ30" s="13"/>
-      <c r="BA30" s="14"/>
-      <c r="BB30" s="30"/>
-      <c r="BC30" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="BD30" s="13">
-        <v>4</v>
-      </c>
-      <c r="BE30" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="BF30" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="BG30" s="27" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="31" spans="1:65" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="E31" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="F31" s="31"/>
-      <c r="G31" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="H31" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34">
-        <v>4</v>
-      </c>
-      <c r="O31" s="34">
-        <v>0</v>
-      </c>
-      <c r="P31" s="34">
-        <v>29</v>
-      </c>
-      <c r="Q31" s="34">
-        <v>33</v>
-      </c>
-      <c r="R31" s="34">
-        <v>5</v>
-      </c>
-      <c r="S31" s="34">
-        <v>2</v>
-      </c>
-      <c r="T31" s="34"/>
-      <c r="U31" s="34"/>
-      <c r="V31" s="34">
-        <v>40</v>
-      </c>
-      <c r="W31" s="34"/>
-      <c r="X31" s="34">
-        <v>4395</v>
-      </c>
-      <c r="Y31" s="34">
-        <v>1</v>
-      </c>
-      <c r="Z31" s="34">
-        <v>2541</v>
-      </c>
-      <c r="AA31" s="34">
-        <v>7500</v>
-      </c>
-      <c r="AB31" s="34">
-        <v>21</v>
-      </c>
-      <c r="AC31" s="34"/>
-      <c r="AD31" s="34"/>
-      <c r="AE31" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="AF31" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="AG31" s="34"/>
-      <c r="AH31" s="34"/>
-      <c r="AI31" s="34"/>
-      <c r="AJ31" s="34"/>
-      <c r="AK31" s="34"/>
-      <c r="AL31" s="34"/>
-      <c r="AM31" s="34">
-        <v>3</v>
-      </c>
-      <c r="AN31" s="34">
-        <v>4</v>
-      </c>
-      <c r="AO31" s="34">
-        <v>20</v>
-      </c>
-      <c r="AP31" s="34">
-        <v>27</v>
-      </c>
-      <c r="AQ31" s="34">
-        <v>4</v>
-      </c>
-      <c r="AR31" s="34"/>
-      <c r="AS31" s="34">
-        <v>1</v>
-      </c>
-      <c r="AT31" s="34">
-        <v>1</v>
-      </c>
-      <c r="AU31" s="34">
-        <v>33</v>
-      </c>
-      <c r="AV31" s="34"/>
-      <c r="AW31" s="34">
-        <v>458</v>
-      </c>
-      <c r="AX31" s="34"/>
-      <c r="AY31" s="34">
-        <v>1208</v>
-      </c>
-      <c r="AZ31" s="34"/>
-      <c r="BA31" s="34"/>
-      <c r="BB31" s="34"/>
-      <c r="BC31" s="34"/>
-      <c r="BD31" s="34"/>
-      <c r="BE31" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="BF31" s="36"/>
-      <c r="BG31" s="37"/>
-    </row>
-    <row r="32" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="E32" s="12"/>
       <c r="F32" s="12"/>
       <c r="G32" s="13" t="s">
         <v>54</v>
@@ -3898,11 +3844,15 @@
       <c r="H32" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="I32" s="13"/>
+      <c r="I32" s="13">
+        <v>13</v>
+      </c>
       <c r="J32" s="13"/>
       <c r="K32" s="30"/>
       <c r="L32" s="30"/>
-      <c r="M32" s="13"/>
+      <c r="M32" s="13">
+        <v>15</v>
+      </c>
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
       <c r="P32" s="14"/>
@@ -3919,19 +3869,27 @@
       <c r="AA32" s="13"/>
       <c r="AB32" s="14"/>
       <c r="AC32" s="30"/>
-      <c r="AD32" s="13"/>
+      <c r="AD32" s="13" t="s">
+        <v>141</v>
+      </c>
       <c r="AE32" s="13" t="s">
         <v>155</v>
       </c>
       <c r="AF32" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="AG32" s="13"/>
-      <c r="AH32" s="13"/>
+      <c r="AG32" s="13">
+        <v>6</v>
+      </c>
+      <c r="AH32" s="13">
+        <v>1</v>
+      </c>
       <c r="AI32" s="13"/>
       <c r="AJ32" s="30"/>
       <c r="AK32" s="30"/>
-      <c r="AL32" s="13"/>
+      <c r="AL32" s="13">
+        <v>12</v>
+      </c>
       <c r="AM32" s="14"/>
       <c r="AN32" s="14"/>
       <c r="AO32" s="14"/>
@@ -3948,193 +3906,233 @@
       <c r="AZ32" s="13"/>
       <c r="BA32" s="14"/>
       <c r="BB32" s="30"/>
-      <c r="BC32" s="13"/>
-      <c r="BD32" s="13"/>
-      <c r="BE32" s="13"/>
-      <c r="BF32" s="25"/>
-      <c r="BG32" s="28"/>
-    </row>
-    <row r="33" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="44"/>
-      <c r="O33" s="44"/>
-      <c r="P33" s="44"/>
-      <c r="Q33" s="44"/>
-      <c r="R33" s="44"/>
-      <c r="S33" s="44"/>
-      <c r="T33" s="44"/>
-      <c r="U33" s="44"/>
-      <c r="V33" s="44"/>
-      <c r="W33" s="44"/>
-      <c r="X33" s="44"/>
-      <c r="Y33" s="44"/>
-      <c r="Z33" s="44"/>
-      <c r="AA33" s="44"/>
-      <c r="AB33" s="44"/>
-      <c r="AC33" s="44"/>
-      <c r="AD33" s="44"/>
-      <c r="AE33" s="44"/>
-      <c r="AF33" s="15"/>
-      <c r="AG33" s="44"/>
-      <c r="AH33" s="44"/>
-      <c r="AI33" s="44"/>
-      <c r="AJ33" s="44"/>
-      <c r="AK33" s="44"/>
-      <c r="AL33" s="44"/>
-      <c r="AM33" s="44"/>
-      <c r="AN33" s="44"/>
-      <c r="AO33" s="44"/>
-      <c r="AP33" s="44"/>
-      <c r="AQ33" s="44"/>
-      <c r="AR33" s="44"/>
-      <c r="AS33" s="44"/>
-      <c r="AT33" s="44"/>
-      <c r="AU33" s="44"/>
-      <c r="AV33" s="44"/>
-      <c r="AW33" s="44"/>
-      <c r="AX33" s="44"/>
-      <c r="AY33" s="44"/>
-      <c r="AZ33" s="44"/>
-      <c r="BA33" s="44"/>
-      <c r="BB33" s="44"/>
-      <c r="BC33" s="44"/>
-      <c r="BD33" s="44"/>
-      <c r="BE33" s="44"/>
-      <c r="BF33" s="25"/>
-      <c r="BG33" s="28"/>
-    </row>
-    <row r="34" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BC32" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="BD32" s="13">
+        <v>4</v>
+      </c>
+      <c r="BE32" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="BF32" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="BG32" s="27" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:59" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="31"/>
+      <c r="B33" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="F33" s="31"/>
+      <c r="G33" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="H33" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34">
+        <v>4</v>
+      </c>
+      <c r="O33" s="34">
+        <v>0</v>
+      </c>
+      <c r="P33" s="34">
+        <v>29</v>
+      </c>
+      <c r="Q33" s="34">
+        <v>33</v>
+      </c>
+      <c r="R33" s="34">
+        <v>5</v>
+      </c>
+      <c r="S33" s="34">
+        <v>2</v>
+      </c>
+      <c r="T33" s="34"/>
+      <c r="U33" s="34"/>
+      <c r="V33" s="34">
+        <v>40</v>
+      </c>
+      <c r="W33" s="34"/>
+      <c r="X33" s="34">
+        <v>4395</v>
+      </c>
+      <c r="Y33" s="34">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="34">
+        <v>2541</v>
+      </c>
+      <c r="AA33" s="34">
+        <v>7500</v>
+      </c>
+      <c r="AB33" s="34">
+        <v>21</v>
+      </c>
+      <c r="AC33" s="34"/>
+      <c r="AD33" s="34"/>
+      <c r="AE33" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF33" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="AG33" s="34"/>
+      <c r="AH33" s="34"/>
+      <c r="AI33" s="34"/>
+      <c r="AJ33" s="34"/>
+      <c r="AK33" s="34"/>
+      <c r="AL33" s="34"/>
+      <c r="AM33" s="34">
+        <v>3</v>
+      </c>
+      <c r="AN33" s="34">
+        <v>4</v>
+      </c>
+      <c r="AO33" s="34">
+        <v>20</v>
+      </c>
+      <c r="AP33" s="34">
+        <v>27</v>
+      </c>
+      <c r="AQ33" s="34">
+        <v>4</v>
+      </c>
+      <c r="AR33" s="34"/>
+      <c r="AS33" s="34">
+        <v>1</v>
+      </c>
+      <c r="AT33" s="34">
+        <v>1</v>
+      </c>
+      <c r="AU33" s="34">
+        <v>33</v>
+      </c>
+      <c r="AV33" s="34"/>
+      <c r="AW33" s="34">
+        <v>458</v>
+      </c>
+      <c r="AX33" s="34"/>
+      <c r="AY33" s="34">
+        <v>1208</v>
+      </c>
+      <c r="AZ33" s="34"/>
+      <c r="BA33" s="34"/>
+      <c r="BB33" s="34"/>
+      <c r="BC33" s="34"/>
+      <c r="BD33" s="34"/>
+      <c r="BE33" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="BF33" s="36"/>
+      <c r="BG33" s="37"/>
+    </row>
+    <row r="34" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
-      <c r="B34" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="C34" s="47" t="s">
-        <v>204</v>
+      <c r="B34" s="12"/>
+      <c r="C34" s="20" t="s">
+        <v>153</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
-      <c r="G34" s="44" t="s">
-        <v>209</v>
-      </c>
-      <c r="H34" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" s="44"/>
-      <c r="J34" s="1">
-        <v>40000</v>
-      </c>
-      <c r="K34" s="44">
-        <v>8000</v>
-      </c>
-      <c r="L34" s="44"/>
-      <c r="M34" s="44">
-        <v>110</v>
-      </c>
-      <c r="N34" s="44"/>
-      <c r="O34" s="44"/>
-      <c r="P34" s="44"/>
-      <c r="Q34" s="44"/>
-      <c r="R34" s="44"/>
-      <c r="S34" s="44"/>
-      <c r="T34" s="44"/>
-      <c r="U34" s="44"/>
-      <c r="V34" s="44"/>
-      <c r="W34" s="44">
-        <v>200000</v>
-      </c>
-      <c r="X34" s="44"/>
-      <c r="Y34" s="44"/>
-      <c r="Z34" s="44"/>
-      <c r="AA34" s="44"/>
-      <c r="AB34" s="44"/>
-      <c r="AC34" s="44"/>
-      <c r="AD34" s="44">
-        <v>6500</v>
-      </c>
-      <c r="AE34" s="44" t="s">
-        <v>7</v>
+      <c r="G34" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="30"/>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="14"/>
+      <c r="Z34" s="13"/>
+      <c r="AA34" s="13"/>
+      <c r="AB34" s="14"/>
+      <c r="AC34" s="30"/>
+      <c r="AD34" s="13"/>
+      <c r="AE34" s="13" t="s">
+        <v>155</v>
       </c>
       <c r="AF34" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG34" s="44"/>
-      <c r="AH34" s="44"/>
-      <c r="AI34" s="44">
-        <v>34000</v>
-      </c>
-      <c r="AJ34" s="44">
-        <v>12000</v>
-      </c>
-      <c r="AK34" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="AL34" s="44"/>
-      <c r="AM34" s="44"/>
-      <c r="AN34" s="44"/>
-      <c r="AO34" s="44"/>
-      <c r="AP34" s="44"/>
-      <c r="AQ34" s="44"/>
-      <c r="AR34" s="44"/>
-      <c r="AS34" s="44"/>
-      <c r="AT34" s="44"/>
-      <c r="AU34" s="44"/>
-      <c r="AV34" s="44">
-        <v>200000</v>
-      </c>
-      <c r="AW34" s="44"/>
-      <c r="AX34" s="44"/>
-      <c r="AY34" s="44"/>
-      <c r="AZ34" s="44"/>
-      <c r="BA34" s="44"/>
-      <c r="BB34" s="44"/>
-      <c r="BC34" s="44">
-        <v>25000</v>
-      </c>
-      <c r="BD34" s="44"/>
-      <c r="BE34" s="44"/>
+        <v>136</v>
+      </c>
+      <c r="AG34" s="13"/>
+      <c r="AH34" s="13"/>
+      <c r="AI34" s="13"/>
+      <c r="AJ34" s="30"/>
+      <c r="AK34" s="30"/>
+      <c r="AL34" s="13"/>
+      <c r="AM34" s="14"/>
+      <c r="AN34" s="14"/>
+      <c r="AO34" s="14"/>
+      <c r="AP34" s="14"/>
+      <c r="AQ34" s="14"/>
+      <c r="AR34" s="14"/>
+      <c r="AS34" s="14"/>
+      <c r="AT34" s="14"/>
+      <c r="AU34" s="14"/>
+      <c r="AV34" s="44"/>
+      <c r="AW34" s="13"/>
+      <c r="AX34" s="14"/>
+      <c r="AY34" s="13"/>
+      <c r="AZ34" s="13"/>
+      <c r="BA34" s="14"/>
+      <c r="BB34" s="30"/>
+      <c r="BC34" s="13"/>
+      <c r="BD34" s="13"/>
+      <c r="BE34" s="13"/>
       <c r="BF34" s="25"/>
       <c r="BG34" s="28"/>
     </row>
     <row r="35" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
-      <c r="C35" s="47" t="s">
-        <v>205</v>
+      <c r="C35" s="20" t="s">
+        <v>208</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
-      <c r="G35" s="44" t="s">
-        <v>209</v>
-      </c>
-      <c r="H35" s="44" t="s">
-        <v>214</v>
-      </c>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
       <c r="I35" s="44"/>
-      <c r="J35" s="44">
-        <v>28000</v>
-      </c>
+      <c r="J35" s="44"/>
       <c r="K35" s="44"/>
       <c r="L35" s="44"/>
       <c r="M35" s="44"/>
@@ -4148,9 +4146,7 @@
       <c r="U35" s="44"/>
       <c r="V35" s="44"/>
       <c r="W35" s="44"/>
-      <c r="X35" s="44">
-        <v>7000</v>
-      </c>
+      <c r="X35" s="44"/>
       <c r="Y35" s="44"/>
       <c r="Z35" s="44"/>
       <c r="AA35" s="44"/>
@@ -4174,17 +4170,11 @@
       <c r="AS35" s="44"/>
       <c r="AT35" s="44"/>
       <c r="AU35" s="44"/>
-      <c r="AV35" s="44">
-        <v>52000</v>
-      </c>
-      <c r="AW35" s="44">
-        <v>10000</v>
-      </c>
+      <c r="AV35" s="44"/>
+      <c r="AW35" s="44"/>
       <c r="AX35" s="44"/>
       <c r="AY35" s="44"/>
-      <c r="AZ35" s="44">
-        <v>3000</v>
-      </c>
+      <c r="AZ35" s="44"/>
       <c r="BA35" s="44"/>
       <c r="BB35" s="44"/>
       <c r="BC35" s="44"/>
@@ -4193,288 +4183,462 @@
       <c r="BF35" s="25"/>
       <c r="BG35" s="28"/>
     </row>
-    <row r="36" spans="1:59" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+    <row r="36" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C36" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="H36" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="44"/>
+      <c r="J36" s="1">
+        <v>40000</v>
+      </c>
+      <c r="K36" s="44">
+        <v>8000</v>
+      </c>
+      <c r="L36" s="44"/>
+      <c r="M36" s="44">
+        <v>110</v>
+      </c>
+      <c r="N36" s="44"/>
+      <c r="O36" s="44"/>
+      <c r="P36" s="44"/>
+      <c r="Q36" s="44"/>
+      <c r="R36" s="44"/>
+      <c r="S36" s="44"/>
+      <c r="T36" s="44"/>
+      <c r="U36" s="44"/>
+      <c r="V36" s="44"/>
+      <c r="W36" s="44">
+        <v>200000</v>
+      </c>
+      <c r="X36" s="44"/>
+      <c r="Y36" s="44"/>
+      <c r="Z36" s="44"/>
+      <c r="AA36" s="44"/>
+      <c r="AB36" s="44"/>
+      <c r="AC36" s="44"/>
+      <c r="AD36" s="44">
+        <v>6500</v>
+      </c>
+      <c r="AE36" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF36" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG36" s="44"/>
+      <c r="AH36" s="44"/>
+      <c r="AI36" s="44">
+        <v>34000</v>
+      </c>
+      <c r="AJ36" s="44">
+        <v>12000</v>
+      </c>
+      <c r="AK36" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL36" s="44"/>
+      <c r="AM36" s="44"/>
+      <c r="AN36" s="44"/>
+      <c r="AO36" s="44"/>
+      <c r="AP36" s="44"/>
+      <c r="AQ36" s="44"/>
+      <c r="AR36" s="44"/>
+      <c r="AS36" s="44"/>
+      <c r="AT36" s="44"/>
+      <c r="AU36" s="44"/>
+      <c r="AV36" s="44">
+        <v>200000</v>
+      </c>
+      <c r="AW36" s="44"/>
+      <c r="AX36" s="44"/>
+      <c r="AY36" s="44"/>
+      <c r="AZ36" s="44"/>
+      <c r="BA36" s="44"/>
+      <c r="BB36" s="44"/>
+      <c r="BC36" s="44">
+        <v>25000</v>
+      </c>
+      <c r="BD36" s="44"/>
+      <c r="BE36" s="44"/>
+      <c r="BF36" s="25"/>
+      <c r="BG36" s="28"/>
+    </row>
+    <row r="37" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="H37" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44">
+        <v>28000</v>
+      </c>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
+      <c r="O37" s="44"/>
+      <c r="P37" s="44"/>
+      <c r="Q37" s="44"/>
+      <c r="R37" s="44"/>
+      <c r="S37" s="44"/>
+      <c r="T37" s="44"/>
+      <c r="U37" s="44"/>
+      <c r="V37" s="44"/>
+      <c r="W37" s="44"/>
+      <c r="X37" s="44">
+        <v>7000</v>
+      </c>
+      <c r="Y37" s="44"/>
+      <c r="Z37" s="44"/>
+      <c r="AA37" s="44"/>
+      <c r="AB37" s="44"/>
+      <c r="AC37" s="44"/>
+      <c r="AD37" s="44"/>
+      <c r="AE37" s="44"/>
+      <c r="AF37" s="15"/>
+      <c r="AG37" s="44"/>
+      <c r="AH37" s="44"/>
+      <c r="AI37" s="44"/>
+      <c r="AJ37" s="44"/>
+      <c r="AK37" s="44"/>
+      <c r="AL37" s="44"/>
+      <c r="AM37" s="44"/>
+      <c r="AN37" s="44"/>
+      <c r="AO37" s="44"/>
+      <c r="AP37" s="44"/>
+      <c r="AQ37" s="44"/>
+      <c r="AR37" s="44"/>
+      <c r="AS37" s="44"/>
+      <c r="AT37" s="44"/>
+      <c r="AU37" s="44"/>
+      <c r="AV37" s="44">
+        <v>52000</v>
+      </c>
+      <c r="AW37" s="44">
+        <v>10000</v>
+      </c>
+      <c r="AX37" s="44"/>
+      <c r="AY37" s="44"/>
+      <c r="AZ37" s="44">
+        <v>3000</v>
+      </c>
+      <c r="BA37" s="44"/>
+      <c r="BB37" s="44"/>
+      <c r="BC37" s="44"/>
+      <c r="BD37" s="44"/>
+      <c r="BE37" s="44"/>
+      <c r="BF37" s="25"/>
+      <c r="BG37" s="28"/>
+    </row>
+    <row r="38" spans="1:59" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B38" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C38" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D38" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E38" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F36" s="12"/>
-      <c r="G36" s="13" t="s">
+      <c r="F38" s="12"/>
+      <c r="G38" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H36" s="13" t="s">
+      <c r="H38" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13">
+      <c r="I38" s="13"/>
+      <c r="J38" s="13">
         <v>20000</v>
       </c>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="14"/>
-      <c r="T36" s="14"/>
-      <c r="U36" s="14"/>
-      <c r="V36" s="14"/>
-      <c r="W36" s="30"/>
-      <c r="X36" s="13">
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="14"/>
+      <c r="W38" s="30"/>
+      <c r="X38" s="13">
         <v>2000</v>
       </c>
-      <c r="Y36" s="14"/>
-      <c r="Z36" s="13"/>
-      <c r="AA36" s="13"/>
-      <c r="AB36" s="14"/>
-      <c r="AC36" s="30"/>
-      <c r="AD36" s="13"/>
-      <c r="AE36" s="13" t="s">
+      <c r="Y38" s="14"/>
+      <c r="Z38" s="13"/>
+      <c r="AA38" s="13"/>
+      <c r="AB38" s="14"/>
+      <c r="AC38" s="30"/>
+      <c r="AD38" s="13"/>
+      <c r="AE38" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AF36" s="15" t="s">
+      <c r="AF38" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="AG36" s="13"/>
-      <c r="AH36" s="13"/>
-      <c r="AI36" s="13">
+      <c r="AG38" s="13"/>
+      <c r="AH38" s="13"/>
+      <c r="AI38" s="13">
         <v>9000</v>
       </c>
-      <c r="AJ36" s="30"/>
-      <c r="AK36" s="30"/>
-      <c r="AL36" s="13"/>
-      <c r="AM36" s="14"/>
-      <c r="AN36" s="14"/>
-      <c r="AO36" s="14"/>
-      <c r="AP36" s="14"/>
-      <c r="AQ36" s="14"/>
-      <c r="AR36" s="14"/>
-      <c r="AS36" s="14"/>
-      <c r="AT36" s="14"/>
-      <c r="AU36" s="14"/>
-      <c r="AV36" s="44"/>
-      <c r="AW36" s="13">
+      <c r="AJ38" s="30"/>
+      <c r="AK38" s="30"/>
+      <c r="AL38" s="13"/>
+      <c r="AM38" s="14"/>
+      <c r="AN38" s="14"/>
+      <c r="AO38" s="14"/>
+      <c r="AP38" s="14"/>
+      <c r="AQ38" s="14"/>
+      <c r="AR38" s="14"/>
+      <c r="AS38" s="14"/>
+      <c r="AT38" s="14"/>
+      <c r="AU38" s="14"/>
+      <c r="AV38" s="44"/>
+      <c r="AW38" s="13">
         <v>900</v>
       </c>
-      <c r="AX36" s="14"/>
-      <c r="AY36" s="13"/>
-      <c r="AZ36" s="13"/>
-      <c r="BA36" s="14"/>
-      <c r="BB36" s="30"/>
-      <c r="BC36" s="13"/>
-      <c r="BD36" s="13"/>
-      <c r="BE36" s="13"/>
-      <c r="BF36" s="12"/>
-    </row>
-    <row r="37" spans="1:59" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12" t="s">
+      <c r="AX38" s="14"/>
+      <c r="AY38" s="13"/>
+      <c r="AZ38" s="13"/>
+      <c r="BA38" s="14"/>
+      <c r="BB38" s="30"/>
+      <c r="BC38" s="13"/>
+      <c r="BD38" s="13"/>
+      <c r="BE38" s="13"/>
+      <c r="BF38" s="12"/>
+    </row>
+    <row r="39" spans="1:59" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C39" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D39" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E39" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="30" t="s">
+      <c r="F39" s="12"/>
+      <c r="G39" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="H37" s="21" t="s">
+      <c r="H39" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13">
+      <c r="I39" s="13"/>
+      <c r="J39" s="13">
         <v>50700</v>
       </c>
-      <c r="K37" s="30">
+      <c r="K39" s="30">
         <v>14390</v>
       </c>
-      <c r="L37" s="30">
+      <c r="L39" s="30">
         <v>8050</v>
       </c>
-      <c r="M37" s="13">
+      <c r="M39" s="13">
         <v>252</v>
       </c>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="14"/>
-      <c r="S37" s="14"/>
-      <c r="T37" s="14"/>
-      <c r="U37" s="14"/>
-      <c r="V37" s="14"/>
-      <c r="W37" s="30">
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="14"/>
+      <c r="W39" s="30">
         <v>73000</v>
       </c>
-      <c r="X37" s="13"/>
-      <c r="Y37" s="14"/>
-      <c r="Z37" s="13"/>
-      <c r="AA37" s="13">
+      <c r="X39" s="13"/>
+      <c r="Y39" s="14"/>
+      <c r="Z39" s="13"/>
+      <c r="AA39" s="13">
         <v>6000</v>
       </c>
-      <c r="AB37" s="14"/>
-      <c r="AC37" s="30">
+      <c r="AB39" s="14"/>
+      <c r="AC39" s="30">
         <v>15000</v>
       </c>
-      <c r="AD37" s="13">
+      <c r="AD39" s="13">
         <v>25000</v>
       </c>
-      <c r="AE37" s="40" t="s">
+      <c r="AE39" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="AF37" s="42" t="s">
+      <c r="AF39" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="AG37" s="13"/>
-      <c r="AH37" s="13"/>
-      <c r="AI37" s="13"/>
-      <c r="AJ37" s="30"/>
-      <c r="AK37" s="30"/>
-      <c r="AL37" s="13"/>
-      <c r="AM37" s="14"/>
-      <c r="AN37" s="14"/>
-      <c r="AO37" s="14"/>
-      <c r="AP37" s="14"/>
-      <c r="AQ37" s="14"/>
-      <c r="AR37" s="14"/>
-      <c r="AS37" s="14"/>
-      <c r="AT37" s="14"/>
-      <c r="AU37" s="14"/>
-      <c r="AV37" s="44"/>
-      <c r="AW37" s="13"/>
-      <c r="AX37" s="14"/>
-      <c r="AY37" s="13"/>
-      <c r="AZ37" s="13"/>
-      <c r="BA37" s="14"/>
-      <c r="BB37" s="30"/>
-      <c r="BC37" s="13"/>
-      <c r="BD37" s="13"/>
-      <c r="BE37" s="13"/>
-      <c r="BF37" s="12"/>
-    </row>
-    <row r="38" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="AE38" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="39" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="AE39" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="AI39" s="2">
-        <v>25000</v>
-      </c>
-      <c r="AW39" s="2">
-        <v>3500</v>
-      </c>
-      <c r="AY39" s="2">
-        <v>10200</v>
-      </c>
-      <c r="BB39" s="9">
-        <v>3300</v>
-      </c>
-      <c r="BE39" s="1" t="s">
-        <v>201</v>
-      </c>
+      <c r="AG39" s="13"/>
+      <c r="AH39" s="13"/>
+      <c r="AI39" s="13"/>
+      <c r="AJ39" s="30"/>
+      <c r="AK39" s="30"/>
+      <c r="AL39" s="13"/>
+      <c r="AM39" s="14"/>
+      <c r="AN39" s="14"/>
+      <c r="AO39" s="14"/>
+      <c r="AP39" s="14"/>
+      <c r="AQ39" s="14"/>
+      <c r="AR39" s="14"/>
+      <c r="AS39" s="14"/>
+      <c r="AT39" s="14"/>
+      <c r="AU39" s="14"/>
+      <c r="AV39" s="44"/>
+      <c r="AW39" s="13"/>
+      <c r="AX39" s="14"/>
+      <c r="AY39" s="13"/>
+      <c r="AZ39" s="13"/>
+      <c r="BA39" s="14"/>
+      <c r="BB39" s="30"/>
+      <c r="BC39" s="13"/>
+      <c r="BD39" s="13"/>
+      <c r="BE39" s="13"/>
+      <c r="BF39" s="12"/>
     </row>
     <row r="40" spans="1:59" x14ac:dyDescent="0.25">
       <c r="AE40" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="AI40" s="2">
-        <v>6000</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:59" x14ac:dyDescent="0.25">
       <c r="AE41" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AI41" s="2">
-        <v>17000</v>
+        <v>25000</v>
+      </c>
+      <c r="AW41" s="2">
+        <v>3500</v>
+      </c>
+      <c r="AY41" s="2">
+        <v>10200</v>
+      </c>
+      <c r="BB41" s="9">
+        <v>3300</v>
+      </c>
+      <c r="BE41" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:59" x14ac:dyDescent="0.25">
       <c r="AE42" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AI42" s="2">
-        <v>11000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="43" spans="1:59" x14ac:dyDescent="0.25">
       <c r="AE43" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AI43" s="2">
-        <v>6000</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="44" spans="1:59" x14ac:dyDescent="0.25">
       <c r="AE44" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AI44" s="2">
-        <v>3000</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="45" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="D45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="X45" s="9"/>
-      <c r="Z45" s="9"/>
-      <c r="AA45" s="9"/>
-      <c r="AD45" s="9"/>
-      <c r="AE45" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI45" s="9">
-        <v>68000</v>
-      </c>
-      <c r="AL45" s="9">
-        <v>156</v>
-      </c>
-      <c r="AW45" s="9"/>
-      <c r="AY45" s="9"/>
-      <c r="AZ45" s="9"/>
-      <c r="BC45" s="9"/>
-      <c r="BE45" s="9"/>
+      <c r="AE45" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI45" s="2">
+        <v>6000</v>
+      </c>
     </row>
     <row r="46" spans="1:59" x14ac:dyDescent="0.25">
       <c r="AE46" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI46" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="D47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="X47" s="9"/>
+      <c r="Z47" s="9"/>
+      <c r="AA47" s="9"/>
+      <c r="AD47" s="9"/>
+      <c r="AE47" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="AI47" s="9">
+        <v>68000</v>
+      </c>
+      <c r="AL47" s="9">
+        <v>156</v>
+      </c>
+      <c r="AW47" s="9"/>
+      <c r="AY47" s="9"/>
+      <c r="AZ47" s="9"/>
+      <c r="BC47" s="9"/>
+      <c r="BE47" s="9"/>
+    </row>
+    <row r="48" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="AE48" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="AI46" s="2">
+      <c r="AI48" s="2">
         <v>50000</v>
       </c>
-      <c r="AW46" s="2">
+      <c r="AW48" s="2">
         <v>1200</v>
       </c>
-      <c r="AY46" s="2">
+      <c r="AY48" s="2">
         <v>4400</v>
       </c>
-      <c r="BB46" s="9">
+      <c r="BB48" s="9">
         <v>1400</v>
       </c>
     </row>
@@ -4489,7 +4653,7 @@
     <mergeCell ref="AG1:AT1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="BF30" r:id="rId1" xr:uid="{AB43767C-640A-454E-8867-6D6B4EA887DD}"/>
+    <hyperlink ref="BF32" r:id="rId1" xr:uid="{AB43767C-640A-454E-8867-6D6B4EA887DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>

--- a/war_index.xlsx
+++ b/war_index.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3434835-EDFE-414F-9A2E-87537ED77C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DD97C9-5AF0-4E84-BA30-6F1F55A5D387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{04375B46-837D-49F2-BE8A-ABE006783F6C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{04375B46-837D-49F2-BE8A-ABE006783F6C}"/>
   </bookViews>
   <sheets>
     <sheet name="BC" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="348">
   <si>
     <t>date</t>
   </si>
@@ -53,15 +53,9 @@
     <t>Prussia</t>
   </si>
   <si>
-    <t>France&amp;Holy Roman Empire</t>
-  </si>
-  <si>
     <t>commander</t>
   </si>
   <si>
-    <t>frederick the great</t>
-  </si>
-  <si>
     <t>Rossbach, Saxony</t>
   </si>
   <si>
@@ -80,9 +74,6 @@
     <t>Montmirail, France</t>
   </si>
   <si>
-    <t>Rossbach</t>
-  </si>
-  <si>
     <t>Battle</t>
   </si>
   <si>
@@ -92,16 +83,10 @@
     <t xml:space="preserve">Six Days </t>
   </si>
   <si>
-    <t>Leuthen</t>
-  </si>
-  <si>
     <t>5 December 1757</t>
   </si>
   <si>
     <t>Austria</t>
-  </si>
-  <si>
-    <t>Alexander of Lorraine</t>
   </si>
   <si>
     <t>wounded</t>
@@ -938,13 +923,166 @@
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Battle_of_Narva_(1700)</t>
+  </si>
+  <si>
+    <t>1st Silesian War</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battle of Mollwitz </t>
+  </si>
+  <si>
+    <t>10 April 1741</t>
+  </si>
+  <si>
+    <t>15 August 1744</t>
+  </si>
+  <si>
+    <t>2nd Silesian War</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 August 1756 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Battle of Prague</t>
+  </si>
+  <si>
+    <t>6 May 1757</t>
+  </si>
+  <si>
+    <t>Battle of Kolín</t>
+  </si>
+  <si>
+    <t>18 June 1757</t>
+  </si>
+  <si>
+    <t>Battle of Domstadtl</t>
+  </si>
+  <si>
+    <t>30 June 1758</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Battle of Zorndorf</t>
+  </si>
+  <si>
+    <t>25 August 1758</t>
+  </si>
+  <si>
+    <t>Battle of Kunersdorf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battle of Liegnitz </t>
+  </si>
+  <si>
+    <t>15 August 1760</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Battle of Torgau</t>
+  </si>
+  <si>
+    <t>3 November 1760</t>
+  </si>
+  <si>
+    <t>Lower Silesia</t>
+  </si>
+  <si>
+    <t>the battle ended in a solid Prussian victory, disrupting the Austrians' advance and restoring Prussian control of Lower Silesia</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Silesian_Wars</t>
+  </si>
+  <si>
+    <t>12 August 1759</t>
+  </si>
+  <si>
+    <t>Austria and Russia</t>
+  </si>
+  <si>
+    <t>culminated in a major Prussian defeat </t>
+  </si>
+  <si>
+    <t>a narrow Prussian victory that proved costly for both sides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ernst von Laudon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frederick Great won this battle because during the night he moved from a position that he had only just occupied. Laudon was taken completely by surpriseand lost 70 cannon and 10.000 men. On War, 2000. </t>
+  </si>
+  <si>
+    <t>Eastern Brandenburg</t>
+  </si>
+  <si>
+    <t>War of the Second Coalition</t>
+  </si>
+  <si>
+    <t>Battle of Montebello</t>
+  </si>
+  <si>
+    <t>9 June 1800</t>
+  </si>
+  <si>
+    <t>Lombardy</t>
+  </si>
+  <si>
+    <t>Vangard of French Army</t>
+  </si>
+  <si>
+    <t>Jean Lannes</t>
+  </si>
+  <si>
+    <t>Peter Ott</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Battle_of_Montebello_(1800)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the vanguard of the French army in Italy engaged and defeated an Austrian force in a "glorious victory"</t>
+  </si>
+  <si>
+    <t>Battle of Marengo</t>
+  </si>
+  <si>
+    <t>14 June 1800</t>
+  </si>
+  <si>
+    <t>First Consul Napoleon Bonaparte</t>
+  </si>
+  <si>
+    <t>French Republic</t>
+  </si>
+  <si>
+    <t>Habsburg Monarchy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Michael von Melas</t>
+  </si>
+  <si>
+    <t>French overcame Gen. Michael von Melas's surprise attack, driving the Austrians out of Italy and consolidating Napoleon's political position in Paris as First Consul of France in the wake of his coup d’état the previous November</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Battle_of_Marengo</t>
+  </si>
+  <si>
+    <t>Napoleon Crossing the Alps</t>
+  </si>
+  <si>
+    <t>Saint-Bernard Pass</t>
+  </si>
+  <si>
+    <t>May 1800</t>
+  </si>
+  <si>
+    <t>Alessandria, Piedmont</t>
+  </si>
+  <si>
+    <t>Higher realms of strategy provides same examples of momentous surprises. This is one example of this. On War, 200.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -971,8 +1109,15 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1009,8 +1154,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1068,12 +1219,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1209,19 +1371,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1232,6 +1385,28 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1589,7 +1764,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B1" s="40" t="s">
         <v>0</v>
@@ -1601,121 +1776,121 @@
         <v>5</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H1" s="48" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="I1" s="40" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="J1" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="K1" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="L1" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="N1" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="O1" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="P1" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q1" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="R1" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="S1" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="T1" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="U1" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="V1" s="40" t="s">
+        <v>246</v>
+      </c>
+      <c r="W1" s="40" t="s">
+        <v>247</v>
+      </c>
+      <c r="X1" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y1" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="Z1" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA1" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="AB1" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="AD1" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE1" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="AF1" s="51" t="s">
         <v>260</v>
       </c>
-      <c r="K1" s="40" t="s">
-        <v>240</v>
-      </c>
-      <c r="L1" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="M1" s="40" t="s">
-        <v>242</v>
-      </c>
-      <c r="N1" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="O1" s="40" t="s">
-        <v>244</v>
-      </c>
-      <c r="P1" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q1" s="40" t="s">
-        <v>246</v>
-      </c>
-      <c r="R1" s="40" t="s">
-        <v>247</v>
-      </c>
-      <c r="S1" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="T1" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="U1" s="40" t="s">
-        <v>250</v>
-      </c>
-      <c r="V1" s="40" t="s">
-        <v>251</v>
-      </c>
-      <c r="W1" s="40" t="s">
-        <v>252</v>
-      </c>
-      <c r="X1" s="40" t="s">
-        <v>253</v>
-      </c>
-      <c r="Y1" s="40" t="s">
-        <v>254</v>
-      </c>
-      <c r="Z1" s="40" t="s">
-        <v>255</v>
-      </c>
-      <c r="AA1" s="40" t="s">
-        <v>256</v>
-      </c>
-      <c r="AB1" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="AD1" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="AE1" s="48" t="s">
-        <v>222</v>
-      </c>
-      <c r="AF1" s="51" t="s">
-        <v>265</v>
-      </c>
       <c r="AG1" s="10" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D2" s="47"/>
       <c r="E2" s="47" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F2" s="47" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G2" s="47" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H2" s="49" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="I2" s="47" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="J2" s="49" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="K2" s="47" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="L2" s="47">
         <v>25000</v>
@@ -1733,7 +1908,7 @@
         <v>600</v>
       </c>
       <c r="Q2" s="47" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="R2" s="47">
         <v>6400</v>
@@ -1752,13 +1927,13 @@
       <c r="Z2" s="47"/>
       <c r="AA2" s="47"/>
       <c r="AD2" s="47" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="AE2" s="47" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="AF2" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -1772,11 +1947,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E47DB03-95DF-4FF7-A62E-6006248C7808}">
-  <dimension ref="A1:AJ20"/>
+  <dimension ref="A1:AK25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA9" sqref="AA9"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1797,170 +1972,166 @@
     <col min="14" max="16" width="11.140625" style="9" customWidth="1"/>
     <col min="17" max="17" width="20" style="9" customWidth="1"/>
     <col min="18" max="18" width="11.140625" style="9" customWidth="1"/>
-    <col min="19" max="19" width="11.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" style="9" customWidth="1"/>
-    <col min="21" max="21" width="15.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.42578125" style="9" customWidth="1"/>
-    <col min="23" max="23" width="11.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.140625" style="9" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="14.5703125" style="9" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="30" max="33" width="9.140625" style="9"/>
+    <col min="19" max="20" width="11.28515625" style="9" customWidth="1"/>
+    <col min="21" max="22" width="15.42578125" style="9" customWidth="1"/>
+    <col min="23" max="24" width="11.140625" style="9" customWidth="1"/>
+    <col min="25" max="28" width="14.5703125" style="9" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="9" customWidth="1"/>
+    <col min="30" max="33" width="9.140625" style="9" customWidth="1"/>
     <col min="34" max="34" width="13.7109375" style="9" customWidth="1"/>
-    <col min="35" max="35" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="48.7109375" customWidth="1"/>
     <col min="36" max="36" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="I1" s="40" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="J1" s="40" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="K1" s="40" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L1" s="48" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="M1" s="40" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="N1" s="40" t="s">
+        <v>266</v>
+      </c>
+      <c r="O1" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="P1" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q1" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="R1" s="40" t="s">
         <v>271</v>
       </c>
-      <c r="O1" s="40" t="s">
-        <v>242</v>
-      </c>
-      <c r="P1" s="40" t="s">
+      <c r="S1" s="40" t="s">
+        <v>263</v>
+      </c>
+      <c r="T1" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="U1" s="40" t="s">
         <v>243</v>
       </c>
-      <c r="Q1" s="40" t="s">
-        <v>275</v>
-      </c>
-      <c r="R1" s="40" t="s">
-        <v>276</v>
-      </c>
-      <c r="S1" s="40" t="s">
-        <v>268</v>
-      </c>
-      <c r="T1" s="40" t="s">
+      <c r="V1" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="W1" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="X1" s="40" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y1" s="40" t="s">
+        <v>247</v>
+      </c>
+      <c r="Z1" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="AA1" s="40" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB1" s="40" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC1" s="40" t="s">
+        <v>264</v>
+      </c>
+      <c r="AD1" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="AE1" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="AF1" s="40" t="s">
         <v>272</v>
       </c>
-      <c r="U1" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="V1" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="W1" s="40" t="s">
-        <v>250</v>
-      </c>
-      <c r="X1" s="40" t="s">
-        <v>251</v>
-      </c>
-      <c r="Y1" s="40" t="s">
-        <v>252</v>
-      </c>
-      <c r="Z1" s="40" t="s">
-        <v>253</v>
-      </c>
-      <c r="AA1" s="40" t="s">
-        <v>278</v>
-      </c>
-      <c r="AB1" s="40" t="s">
-        <v>279</v>
-      </c>
-      <c r="AC1" s="40" t="s">
-        <v>269</v>
-      </c>
-      <c r="AD1" s="40" t="s">
-        <v>254</v>
-      </c>
-      <c r="AE1" s="40" t="s">
-        <v>270</v>
-      </c>
-      <c r="AF1" s="40" t="s">
-        <v>277</v>
-      </c>
       <c r="AG1" s="48" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="AH1" s="48" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="AI1" s="51" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="AJ1" s="10" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" s="56" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" s="54" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="49"/>
       <c r="B2" s="49" t="s">
-        <v>292</v>
-      </c>
-      <c r="C2" s="57" t="s">
-        <v>290</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>291</v>
-      </c>
-      <c r="E2" s="49" t="s">
-        <v>293</v>
+        <v>287</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>285</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>288</v>
       </c>
       <c r="F2" s="49"/>
       <c r="G2" s="49" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H2" s="49" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="I2" s="49"/>
       <c r="J2" s="49" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="K2" s="49" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="L2" s="49"/>
-      <c r="M2" s="55" t="s">
-        <v>298</v>
+      <c r="M2" s="53" t="s">
+        <v>293</v>
       </c>
       <c r="N2" s="49">
         <v>37000</v>
       </c>
       <c r="O2" s="49"/>
       <c r="P2" s="49"/>
-      <c r="Q2" s="55" t="s">
-        <v>299</v>
+      <c r="Q2" s="53" t="s">
+        <v>294</v>
       </c>
       <c r="R2" s="49">
         <v>195</v>
@@ -1969,7 +2140,7 @@
         <v>667</v>
       </c>
       <c r="T2" s="49" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="U2" s="49"/>
       <c r="V2" s="49"/>
@@ -1988,269 +2159,593 @@
         <v>18000</v>
       </c>
       <c r="AG2" s="49" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="AH2" s="49" t="s">
-        <v>223</v>
-      </c>
-      <c r="AI2" s="59" t="s">
-        <v>301</v>
+        <v>218</v>
+      </c>
+      <c r="AI2" s="56" t="s">
+        <v>296</v>
       </c>
       <c r="AJ2" s="49"/>
     </row>
-    <row r="3" spans="1:36" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
-        <v>2</v>
-      </c>
+    <row r="3" spans="1:37" s="54" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="49"/>
       <c r="B3" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="57" t="s">
-        <v>283</v>
-      </c>
-      <c r="D3" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="49" t="s">
-        <v>273</v>
-      </c>
-      <c r="I3" s="49" t="s">
-        <v>264</v>
-      </c>
-      <c r="J3" s="49" t="s">
-        <v>284</v>
-      </c>
-      <c r="K3" s="49" t="s">
-        <v>12</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="C3" s="63" t="s">
+        <v>298</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
       <c r="L3" s="49"/>
-      <c r="M3" s="49">
-        <v>22000</v>
-      </c>
-      <c r="N3" s="49">
-        <v>41110</v>
-      </c>
+      <c r="M3" s="53"/>
+      <c r="N3" s="49"/>
       <c r="O3" s="49"/>
       <c r="P3" s="49"/>
-      <c r="Q3" s="49">
-        <v>79</v>
-      </c>
-      <c r="R3" s="49">
-        <v>114</v>
-      </c>
-      <c r="S3" s="49">
-        <v>169</v>
-      </c>
-      <c r="T3" s="49">
-        <v>5000</v>
-      </c>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
       <c r="U3" s="49"/>
       <c r="V3" s="49"/>
-      <c r="W3" s="49">
-        <v>379</v>
-      </c>
+      <c r="W3" s="49"/>
       <c r="X3" s="49"/>
       <c r="Y3" s="49"/>
-      <c r="Z3" s="49">
-        <v>5000</v>
-      </c>
+      <c r="Z3" s="49"/>
       <c r="AA3" s="49"/>
       <c r="AB3" s="49"/>
       <c r="AC3" s="49"/>
       <c r="AD3" s="49"/>
       <c r="AE3" s="49"/>
       <c r="AF3" s="49"/>
-      <c r="AG3" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH3" s="49" t="s">
-        <v>223</v>
-      </c>
-      <c r="AI3" s="60" t="s">
-        <v>285</v>
-      </c>
-      <c r="AJ3" s="58" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
-        <v>2</v>
-      </c>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="57"/>
+      <c r="AJ3" s="60"/>
+    </row>
+    <row r="4" spans="1:37" s="54" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="49"/>
       <c r="B4" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="57" t="s">
-        <v>267</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="49" t="s">
-        <v>192</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="C4" s="63"/>
+      <c r="D4" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="E4" s="15"/>
       <c r="F4" s="49"/>
-      <c r="G4" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="49" t="s">
-        <v>273</v>
-      </c>
-      <c r="I4" s="49" t="s">
-        <v>264</v>
-      </c>
-      <c r="J4" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="49" t="s">
-        <v>274</v>
-      </c>
-      <c r="L4" s="49" t="s">
-        <v>263</v>
-      </c>
-      <c r="M4" s="49">
-        <v>33000</v>
-      </c>
-      <c r="N4" s="49">
-        <v>66000</v>
-      </c>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="49"/>
       <c r="O4" s="49"/>
       <c r="P4" s="49"/>
-      <c r="Q4" s="49">
-        <v>0</v>
-      </c>
-      <c r="R4" s="49">
-        <v>250</v>
-      </c>
-      <c r="S4" s="49">
-        <v>1141</v>
-      </c>
-      <c r="T4" s="49">
-        <v>3000</v>
-      </c>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
       <c r="U4" s="49"/>
       <c r="V4" s="49"/>
-      <c r="W4" s="49">
-        <v>5118</v>
-      </c>
-      <c r="X4" s="49">
-        <v>7000</v>
-      </c>
-      <c r="Y4" s="49">
-        <v>85</v>
-      </c>
-      <c r="Z4" s="49">
-        <v>12000</v>
-      </c>
-      <c r="AA4" s="49">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="49">
-        <v>116</v>
-      </c>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="49"/>
       <c r="AC4" s="49"/>
       <c r="AD4" s="49"/>
-      <c r="AE4" s="49">
+      <c r="AE4" s="49"/>
+      <c r="AF4" s="49"/>
+      <c r="AG4" s="49"/>
+      <c r="AH4" s="49"/>
+      <c r="AI4" s="57"/>
+      <c r="AJ4" s="60"/>
+    </row>
+    <row r="5" spans="1:37" s="54" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="49"/>
+      <c r="B5" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="63"/>
+      <c r="D5" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="49"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="49"/>
+      <c r="AB5" s="49"/>
+      <c r="AC5" s="49"/>
+      <c r="AD5" s="49"/>
+      <c r="AE5" s="49"/>
+      <c r="AF5" s="49"/>
+      <c r="AG5" s="49"/>
+      <c r="AH5" s="49"/>
+      <c r="AI5" s="57"/>
+      <c r="AJ5" s="60"/>
+    </row>
+    <row r="6" spans="1:37" s="54" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="49"/>
+      <c r="B6" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>303</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="49"/>
+      <c r="AB6" s="49"/>
+      <c r="AC6" s="49"/>
+      <c r="AD6" s="49"/>
+      <c r="AE6" s="49"/>
+      <c r="AF6" s="49"/>
+      <c r="AG6" s="49"/>
+      <c r="AH6" s="49"/>
+      <c r="AI6" s="57"/>
+      <c r="AJ6" s="60"/>
+    </row>
+    <row r="7" spans="1:37" s="54" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="49"/>
+      <c r="B7" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>305</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="49"/>
+      <c r="AC7" s="49"/>
+      <c r="AD7" s="49"/>
+      <c r="AE7" s="49"/>
+      <c r="AF7" s="49"/>
+      <c r="AG7" s="49"/>
+      <c r="AH7" s="49"/>
+      <c r="AI7" s="57"/>
+      <c r="AJ7" s="60"/>
+    </row>
+    <row r="8" spans="1:37" s="50" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>278</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="I8" s="49" t="s">
+        <v>259</v>
+      </c>
+      <c r="J8" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="K8" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49">
+        <v>22000</v>
+      </c>
+      <c r="N8" s="49">
+        <v>41110</v>
+      </c>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49">
+        <v>79</v>
+      </c>
+      <c r="R8" s="49">
+        <v>114</v>
+      </c>
+      <c r="S8" s="49">
+        <v>169</v>
+      </c>
+      <c r="T8" s="49">
+        <v>5000</v>
+      </c>
+      <c r="U8" s="49"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="49">
+        <v>379</v>
+      </c>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="49">
+        <v>5000</v>
+      </c>
+      <c r="AA8" s="49"/>
+      <c r="AB8" s="49"/>
+      <c r="AC8" s="49"/>
+      <c r="AD8" s="49"/>
+      <c r="AE8" s="49"/>
+      <c r="AF8" s="49"/>
+      <c r="AG8" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH8" s="49" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI8" s="57" t="s">
+        <v>280</v>
+      </c>
+      <c r="AJ8" s="55" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>262</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="I9" s="49" t="s">
+        <v>259</v>
+      </c>
+      <c r="J9" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="49" t="s">
+        <v>269</v>
+      </c>
+      <c r="L9" s="49" t="s">
+        <v>258</v>
+      </c>
+      <c r="M9" s="49">
+        <v>33000</v>
+      </c>
+      <c r="N9" s="49">
+        <v>66000</v>
+      </c>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49">
+        <v>0</v>
+      </c>
+      <c r="R9" s="49">
+        <v>250</v>
+      </c>
+      <c r="S9" s="49">
+        <v>1141</v>
+      </c>
+      <c r="T9" s="49">
+        <v>3000</v>
+      </c>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49">
+        <v>5118</v>
+      </c>
+      <c r="X9" s="49">
+        <v>7000</v>
+      </c>
+      <c r="Y9" s="49">
+        <v>85</v>
+      </c>
+      <c r="Z9" s="49">
+        <v>12000</v>
+      </c>
+      <c r="AA9" s="49">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="49">
+        <v>116</v>
+      </c>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="49">
         <v>6344</v>
       </c>
-      <c r="AF4" s="49">
+      <c r="AF9" s="49">
         <v>22000</v>
       </c>
-      <c r="AG4" s="49" t="s">
+      <c r="AG9" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AH4" s="49" t="s">
-        <v>223</v>
-      </c>
-      <c r="AI4" s="60" t="s">
-        <v>282</v>
-      </c>
-      <c r="AJ4" s="58" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="AI5" s="5"/>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="AI6" s="5"/>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="AI7" s="5"/>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="AI8" s="5"/>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="AI9" s="5"/>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AH9" s="49" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI9" s="57" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ9" s="55" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B10" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E10" s="5"/>
       <c r="AI10" s="5"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B11" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>309</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E11" s="5"/>
       <c r="AI11" s="5"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="AI12" s="5"/>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="AI13" s="5"/>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B12" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="64" t="s">
+        <v>311</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="AI12" s="61" t="s">
+        <v>318</v>
+      </c>
+      <c r="AJ12" s="62" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B13" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="64" t="s">
+        <v>312</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="AI13" s="61" t="s">
+        <v>318</v>
+      </c>
+      <c r="AJ13" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B14" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="64" t="s">
+        <v>314</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="G14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="AI14" s="5"/>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ14" s="62" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
       <c r="AI15" s="5"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
       <c r="AI16" s="5"/>
     </row>
-    <row r="17" spans="35:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
       <c r="AI17" s="5"/>
     </row>
-    <row r="18" spans="35:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
       <c r="AI18" s="5"/>
     </row>
-    <row r="19" spans="35:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
       <c r="AI19" s="5"/>
     </row>
-    <row r="20" spans="35:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
       <c r="AI20" s="5"/>
+    </row>
+    <row r="21" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="AI21" s="5"/>
+    </row>
+    <row r="22" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="AI22" s="5"/>
+    </row>
+    <row r="23" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="AI23" s="5"/>
+    </row>
+    <row r="24" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="AI24" s="5"/>
+    </row>
+    <row r="25" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="AI25" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AI4" r:id="rId1" xr:uid="{AFC4FBD9-B976-494A-B03A-AB1EAB18B51B}"/>
-    <hyperlink ref="AI3" r:id="rId2" xr:uid="{D7F4DE6A-482F-4B61-B516-C25DB346BD3B}"/>
+    <hyperlink ref="AI9" r:id="rId1" xr:uid="{AFC4FBD9-B976-494A-B03A-AB1EAB18B51B}"/>
+    <hyperlink ref="AI8" r:id="rId2" xr:uid="{D7F4DE6A-482F-4B61-B516-C25DB346BD3B}"/>
     <hyperlink ref="AI2" r:id="rId3" xr:uid="{0B74F9FB-031F-42F1-9C5F-A5A7655A5574}"/>
+    <hyperlink ref="AI13" r:id="rId4" xr:uid="{74647CF7-F191-47A1-BC6E-3E81582314C1}"/>
+    <hyperlink ref="AI12" r:id="rId5" xr:uid="{BBD6FBC9-7169-4E92-BAA1-BF361BDDDD4A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C1708F5-F567-4565-A221-ECE07B210A7F}">
-  <dimension ref="A1:BM47"/>
+  <dimension ref="A1:BN44"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BG23" sqref="BG23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
@@ -2292,13 +2787,13 @@
   <sheetData>
     <row r="1" spans="1:65" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>0</v>
@@ -2310,219 +2805,211 @@
         <v>5</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="L1" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="O1" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="P1" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q1" s="40" t="s">
         <v>232</v>
       </c>
-      <c r="M1" s="40" t="s">
-        <v>233</v>
-      </c>
-      <c r="N1" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="O1" s="40" t="s">
-        <v>235</v>
-      </c>
-      <c r="P1" s="40" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q1" s="40" t="s">
-        <v>237</v>
-      </c>
       <c r="R1" s="28" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="S1" s="16" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="T1" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y1" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z1" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA1" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB1" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="U1" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="V1" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="W1" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="X1" s="16" t="s">
+      <c r="AC1" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD1" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="AE1" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF1" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG1" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH1" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="Z1" s="16" t="s">
+      <c r="AI1" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ1" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM1" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="AN1" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO1" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP1" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="AQ1" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="AR1" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="AS1" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="AT1" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="AU1" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="AV1" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="AW1" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="AX1" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="AY1" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="AZ1" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="BA1" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="BB1" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="BC1" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="BD1" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="AA1" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB1" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="AC1" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD1" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="AE1" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="AF1" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG1" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="AH1" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="AI1" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="AJ1" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="AM1" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="AN1" s="16" t="s">
+      <c r="BE1" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF1" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="BG1" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="BH1" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI1" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="BJ1" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="AO1" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="AP1" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="AQ1" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="AR1" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="AS1" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="AT1" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="AU1" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="AV1" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="AW1" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="AX1" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="AY1" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="AZ1" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="BA1" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="BB1" s="40" t="s">
-        <v>199</v>
-      </c>
-      <c r="BC1" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="BD1" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="BE1" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="BF1" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="BG1" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="BH1" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="BI1" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="BJ1" s="16" t="s">
-        <v>138</v>
-      </c>
       <c r="BK1" s="48" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="BL1" s="48" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="BM1" s="10" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>26</v>
+      <c r="A2" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="13">
+        <v>1792</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>227</v>
+        <v>28</v>
       </c>
       <c r="F2" s="12"/>
       <c r="G2" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>228</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="H2" s="13"/>
       <c r="I2" s="13" t="s">
-        <v>229</v>
+        <v>29</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13">
-        <v>11000</v>
-      </c>
-      <c r="M2" s="47">
-        <v>25000</v>
-      </c>
-      <c r="N2" s="29">
-        <v>0</v>
-      </c>
-      <c r="O2" s="47">
-        <v>1000</v>
-      </c>
-      <c r="P2" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="47">
-        <v>600</v>
-      </c>
+        <v>30000</v>
+      </c>
+      <c r="M2" s="47"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
       <c r="R2" s="29"/>
       <c r="S2" s="13"/>
       <c r="T2" s="14"/>
@@ -2535,9 +3022,7 @@
       <c r="AA2" s="14"/>
       <c r="AB2" s="14"/>
       <c r="AC2" s="29"/>
-      <c r="AD2" s="13">
-        <v>192</v>
-      </c>
+      <c r="AD2" s="13"/>
       <c r="AE2" s="14"/>
       <c r="AF2" s="13"/>
       <c r="AG2" s="13"/>
@@ -2560,9 +3045,7 @@
       <c r="AZ2" s="14"/>
       <c r="BA2" s="14"/>
       <c r="BB2" s="41"/>
-      <c r="BC2" s="13">
-        <v>6500</v>
-      </c>
+      <c r="BC2" s="13"/>
       <c r="BD2" s="14"/>
       <c r="BE2" s="13"/>
       <c r="BF2" s="13"/>
@@ -2570,112 +3053,117 @@
       <c r="BH2" s="29"/>
       <c r="BI2" s="13"/>
       <c r="BJ2" s="13"/>
-      <c r="BK2" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="BL2" s="12" t="s">
-        <v>223</v>
-      </c>
+      <c r="BK2" s="13"/>
+      <c r="BL2" s="12"/>
     </row>
     <row r="3" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="12"/>
+      <c r="C3" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>95</v>
+      </c>
       <c r="F3" s="12"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
+      <c r="G3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
       <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
+      <c r="N3" s="29"/>
       <c r="O3" s="47"/>
       <c r="P3" s="47"/>
       <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="47"/>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="47"/>
-      <c r="AJ3" s="47"/>
-      <c r="AM3" s="47"/>
-      <c r="AN3" s="47"/>
-      <c r="AO3" s="47"/>
-      <c r="AP3" s="47"/>
-      <c r="AQ3" s="47"/>
-      <c r="AR3" s="47"/>
-      <c r="AS3" s="47"/>
-      <c r="AT3" s="47"/>
-      <c r="AU3" s="47"/>
-      <c r="AV3" s="47"/>
-      <c r="AW3" s="47"/>
-      <c r="AX3" s="47"/>
-      <c r="AY3" s="47"/>
-      <c r="AZ3" s="47"/>
-      <c r="BA3" s="47"/>
-      <c r="BB3" s="47"/>
-      <c r="BC3" s="47"/>
-      <c r="BD3" s="47"/>
-      <c r="BE3" s="47"/>
-      <c r="BF3" s="47"/>
-      <c r="BG3" s="47"/>
-      <c r="BH3" s="47"/>
-      <c r="BI3" s="47"/>
-      <c r="BJ3" s="47"/>
-      <c r="BK3" s="47"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="14"/>
+      <c r="AI3" s="29"/>
+      <c r="AJ3" s="13"/>
+      <c r="AM3" s="13"/>
+      <c r="AN3" s="13"/>
+      <c r="AO3" s="13"/>
+      <c r="AP3" s="29"/>
+      <c r="AQ3" s="29"/>
+      <c r="AR3" s="13"/>
+      <c r="AS3" s="14"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="14"/>
+      <c r="AV3" s="14"/>
+      <c r="AW3" s="14"/>
+      <c r="AX3" s="14"/>
+      <c r="AY3" s="14"/>
+      <c r="AZ3" s="14"/>
+      <c r="BA3" s="14"/>
+      <c r="BB3" s="41"/>
+      <c r="BC3" s="13"/>
+      <c r="BD3" s="14"/>
+      <c r="BE3" s="13"/>
+      <c r="BF3" s="13"/>
+      <c r="BG3" s="14"/>
+      <c r="BH3" s="29"/>
+      <c r="BI3" s="13"/>
+      <c r="BJ3" s="13"/>
+      <c r="BK3" s="13"/>
       <c r="BL3" s="12"/>
-    </row>
-    <row r="4" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>17</v>
+      <c r="BM3" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:65" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>6</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="F4" s="12"/>
       <c r="G4" s="13" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>8</v>
+        <v>99</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>103</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="K4" s="13"/>
-      <c r="L4" s="13">
-        <v>22000</v>
-      </c>
+      <c r="L4" s="13"/>
       <c r="M4" s="47"/>
       <c r="N4" s="29"/>
       <c r="O4" s="47"/>
@@ -2693,22 +3181,16 @@
       <c r="AA4" s="14"/>
       <c r="AB4" s="14"/>
       <c r="AC4" s="29"/>
-      <c r="AD4" s="13">
-        <v>100</v>
-      </c>
+      <c r="AD4" s="13"/>
       <c r="AE4" s="14"/>
-      <c r="AF4" s="13">
-        <v>400</v>
-      </c>
+      <c r="AF4" s="13"/>
       <c r="AG4" s="13"/>
       <c r="AH4" s="14"/>
       <c r="AI4" s="29"/>
       <c r="AJ4" s="13"/>
       <c r="AM4" s="13"/>
       <c r="AN4" s="13"/>
-      <c r="AO4" s="13">
-        <v>420000</v>
-      </c>
+      <c r="AO4" s="13"/>
       <c r="AP4" s="29"/>
       <c r="AQ4" s="29"/>
       <c r="AR4" s="13"/>
@@ -2722,33 +3204,39 @@
       <c r="AZ4" s="14"/>
       <c r="BA4" s="14"/>
       <c r="BB4" s="41"/>
-      <c r="BC4" s="13">
-        <v>3500</v>
-      </c>
+      <c r="BC4" s="13"/>
       <c r="BD4" s="14"/>
       <c r="BE4" s="13"/>
-      <c r="BF4" s="13">
-        <v>10000</v>
-      </c>
+      <c r="BF4" s="13"/>
       <c r="BG4" s="14"/>
       <c r="BH4" s="29"/>
       <c r="BI4" s="13"/>
       <c r="BJ4" s="13"/>
-      <c r="BK4" s="13" t="s">
-        <v>29</v>
+      <c r="BK4" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="BL4" s="12"/>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="12"/>
+      <c r="C5" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>116</v>
+      </c>
       <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
+      <c r="G5" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
+      <c r="I5" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="J5" s="15"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
@@ -2802,35 +3290,32 @@
       <c r="BJ5" s="13"/>
       <c r="BK5" s="13"/>
       <c r="BL5" s="12"/>
+      <c r="BM5" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
-      <c r="C6" s="18" t="s">
-        <v>21</v>
-      </c>
+      <c r="C6" s="18"/>
       <c r="D6" s="13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>192</v>
+        <v>33</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>10</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="H6" s="13"/>
       <c r="I6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>24</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="J6" s="15"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13">
-        <v>33000</v>
+        <v>12000</v>
       </c>
       <c r="M6" s="47"/>
       <c r="N6" s="29"/>
@@ -2849,26 +3334,16 @@
       <c r="AA6" s="14"/>
       <c r="AB6" s="14"/>
       <c r="AC6" s="29"/>
-      <c r="AD6" s="13">
-        <v>1141</v>
-      </c>
+      <c r="AD6" s="13"/>
       <c r="AE6" s="14"/>
-      <c r="AF6" s="13">
-        <v>5118</v>
-      </c>
-      <c r="AG6" s="13">
-        <v>85</v>
-      </c>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
       <c r="AH6" s="14"/>
       <c r="AI6" s="29"/>
-      <c r="AJ6" s="13">
-        <v>6344</v>
-      </c>
+      <c r="AJ6" s="13"/>
       <c r="AM6" s="13"/>
       <c r="AN6" s="13"/>
-      <c r="AO6" s="13">
-        <v>66000</v>
-      </c>
+      <c r="AO6" s="13"/>
       <c r="AP6" s="29"/>
       <c r="AQ6" s="29"/>
       <c r="AR6" s="13"/>
@@ -2882,56 +3357,40 @@
       <c r="AZ6" s="14"/>
       <c r="BA6" s="14"/>
       <c r="BB6" s="41"/>
-      <c r="BC6" s="13">
-        <v>3000</v>
-      </c>
+      <c r="BC6" s="13"/>
       <c r="BD6" s="14"/>
-      <c r="BE6" s="13">
-        <v>7000</v>
-      </c>
-      <c r="BF6" s="13">
-        <v>12000</v>
-      </c>
+      <c r="BE6" s="13"/>
+      <c r="BF6" s="13"/>
       <c r="BG6" s="14"/>
       <c r="BH6" s="29"/>
-      <c r="BI6" s="13">
-        <v>22000</v>
-      </c>
+      <c r="BI6" s="13"/>
       <c r="BJ6" s="13"/>
-      <c r="BK6" s="13" t="s">
-        <v>7</v>
-      </c>
+      <c r="BK6" s="13"/>
       <c r="BL6" s="12"/>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="13">
-        <v>1792</v>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="13" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="J7" s="15"/>
       <c r="K7" s="13"/>
-      <c r="L7" s="13">
-        <v>30000</v>
-      </c>
+      <c r="L7" s="13"/>
       <c r="M7" s="47"/>
       <c r="N7" s="29"/>
       <c r="O7" s="47"/>
@@ -2980,115 +3439,109 @@
       <c r="BH7" s="29"/>
       <c r="BI7" s="13"/>
       <c r="BJ7" s="13"/>
-      <c r="BK7" s="13"/>
+      <c r="BK7" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="BL7" s="12"/>
     </row>
-    <row r="8" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="29"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="14"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="13"/>
-      <c r="AH8" s="14"/>
-      <c r="AI8" s="29"/>
-      <c r="AJ8" s="13"/>
-      <c r="AM8" s="13"/>
-      <c r="AN8" s="13"/>
-      <c r="AO8" s="13"/>
-      <c r="AP8" s="29"/>
-      <c r="AQ8" s="29"/>
-      <c r="AR8" s="13"/>
-      <c r="AS8" s="14"/>
-      <c r="AT8" s="14"/>
-      <c r="AU8" s="14"/>
-      <c r="AV8" s="14"/>
-      <c r="AW8" s="14"/>
-      <c r="AX8" s="14"/>
-      <c r="AY8" s="14"/>
-      <c r="AZ8" s="14"/>
-      <c r="BA8" s="14"/>
-      <c r="BB8" s="41"/>
-      <c r="BC8" s="13"/>
-      <c r="BD8" s="14"/>
-      <c r="BE8" s="13"/>
-      <c r="BF8" s="13"/>
-      <c r="BG8" s="14"/>
-      <c r="BH8" s="29"/>
-      <c r="BI8" s="13"/>
-      <c r="BJ8" s="13"/>
-      <c r="BK8" s="13"/>
-      <c r="BL8" s="12"/>
-      <c r="BM8" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:65" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:65" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="22"/>
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="22"/>
+      <c r="AM8" s="22"/>
+      <c r="AN8" s="22"/>
+      <c r="AO8" s="22">
+        <v>45000</v>
+      </c>
+      <c r="AP8" s="22"/>
+      <c r="AQ8" s="22"/>
+      <c r="AR8" s="22"/>
+      <c r="AS8" s="22"/>
+      <c r="AT8" s="22"/>
+      <c r="AU8" s="22"/>
+      <c r="AV8" s="22"/>
+      <c r="AW8" s="22"/>
+      <c r="AX8" s="22"/>
+      <c r="AY8" s="22"/>
+      <c r="AZ8" s="22"/>
+      <c r="BA8" s="22"/>
+      <c r="BB8" s="22"/>
+      <c r="BC8" s="22"/>
+      <c r="BD8" s="22"/>
+      <c r="BE8" s="22"/>
+      <c r="BF8" s="22"/>
+      <c r="BG8" s="22"/>
+      <c r="BH8" s="22"/>
+      <c r="BI8" s="22"/>
+      <c r="BJ8" s="22"/>
+      <c r="BK8" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="BL8" s="21"/>
+      <c r="BM8" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="C9" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>107</v>
-      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="12"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>105</v>
-      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="15"/>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="47"/>
@@ -3139,31 +3592,24 @@
       <c r="BH9" s="29"/>
       <c r="BI9" s="13"/>
       <c r="BJ9" s="13"/>
-      <c r="BK9" s="20" t="s">
-        <v>30</v>
-      </c>
+      <c r="BK9" s="13"/>
       <c r="BL9" s="12"/>
+      <c r="BM9" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
-      <c r="C10" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>121</v>
-      </c>
+      <c r="C10" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="G10" s="13"/>
       <c r="H10" s="13"/>
-      <c r="I10" s="13" t="s">
-        <v>36</v>
-      </c>
+      <c r="I10" s="13"/>
       <c r="J10" s="15"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
@@ -3217,8 +3663,8 @@
       <c r="BJ10" s="13"/>
       <c r="BK10" s="13"/>
       <c r="BL10" s="12"/>
-      <c r="BM10" s="7" t="s">
-        <v>35</v>
+      <c r="BM10" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:65" x14ac:dyDescent="0.25">
@@ -3226,24 +3672,20 @@
       <c r="B11" s="12"/>
       <c r="C11" s="18"/>
       <c r="D11" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="12" t="s">
         <v>38</v>
       </c>
+      <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="13" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J11" s="15"/>
       <c r="K11" s="13"/>
-      <c r="L11" s="13">
-        <v>12000</v>
-      </c>
+      <c r="L11" s="13"/>
       <c r="M11" s="47"/>
       <c r="N11" s="29"/>
       <c r="O11" s="47"/>
@@ -3270,7 +3712,9 @@
       <c r="AJ11" s="13"/>
       <c r="AM11" s="13"/>
       <c r="AN11" s="13"/>
-      <c r="AO11" s="13"/>
+      <c r="AO11" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="AP11" s="29"/>
       <c r="AQ11" s="29"/>
       <c r="AR11" s="13"/>
@@ -3294,26 +3738,29 @@
       <c r="BJ11" s="13"/>
       <c r="BK11" s="13"/>
       <c r="BL11" s="12"/>
+      <c r="BM11" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="12" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
-      <c r="C12" s="19" t="s">
-        <v>101</v>
+      <c r="C12" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>88</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="H12" s="13"/>
+        <v>45</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="I12" s="13" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="J12" s="15"/>
       <c r="K12" s="13"/>
@@ -3367,108 +3814,118 @@
       <c r="BI12" s="13"/>
       <c r="BJ12" s="13"/>
       <c r="BK12" s="13" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="BL12" s="12"/>
     </row>
-    <row r="13" spans="1:65" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="22"/>
-      <c r="AA13" s="22"/>
-      <c r="AB13" s="22"/>
-      <c r="AC13" s="22"/>
-      <c r="AD13" s="22"/>
-      <c r="AE13" s="22"/>
-      <c r="AF13" s="22"/>
-      <c r="AG13" s="22"/>
-      <c r="AH13" s="22"/>
-      <c r="AI13" s="22"/>
-      <c r="AJ13" s="22"/>
-      <c r="AM13" s="22"/>
-      <c r="AN13" s="22"/>
-      <c r="AO13" s="22">
-        <v>45000</v>
-      </c>
-      <c r="AP13" s="22"/>
-      <c r="AQ13" s="22"/>
-      <c r="AR13" s="22"/>
-      <c r="AS13" s="22"/>
-      <c r="AT13" s="22"/>
-      <c r="AU13" s="22"/>
-      <c r="AV13" s="22"/>
-      <c r="AW13" s="22"/>
-      <c r="AX13" s="22"/>
-      <c r="AY13" s="22"/>
-      <c r="AZ13" s="22"/>
-      <c r="BA13" s="22"/>
-      <c r="BB13" s="22"/>
-      <c r="BC13" s="22"/>
-      <c r="BD13" s="22"/>
-      <c r="BE13" s="22"/>
-      <c r="BF13" s="22"/>
-      <c r="BG13" s="22"/>
-      <c r="BH13" s="22"/>
-      <c r="BI13" s="22"/>
-      <c r="BJ13" s="22"/>
-      <c r="BK13" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="BL13" s="21"/>
-      <c r="BM13" s="8" t="s">
-        <v>40</v>
+    <row r="13" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="58" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="29"/>
+      <c r="AJ13" s="13"/>
+      <c r="AM13" s="13"/>
+      <c r="AN13" s="13"/>
+      <c r="AO13" s="13"/>
+      <c r="AP13" s="29"/>
+      <c r="AQ13" s="29"/>
+      <c r="AR13" s="13"/>
+      <c r="AS13" s="14"/>
+      <c r="AT13" s="14"/>
+      <c r="AU13" s="14"/>
+      <c r="AV13" s="14"/>
+      <c r="AW13" s="14"/>
+      <c r="AX13" s="14"/>
+      <c r="AY13" s="14"/>
+      <c r="AZ13" s="14"/>
+      <c r="BA13" s="14"/>
+      <c r="BB13" s="41"/>
+      <c r="BC13" s="13"/>
+      <c r="BD13" s="14"/>
+      <c r="BE13" s="13"/>
+      <c r="BF13" s="13"/>
+      <c r="BG13" s="14"/>
+      <c r="BH13" s="29"/>
+      <c r="BI13" s="13"/>
+      <c r="BJ13" s="13"/>
+      <c r="BK13" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BL13" s="12"/>
+      <c r="BM13" s="38" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
+      <c r="B14" s="59"/>
       <c r="C14" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" s="13"/>
+        <v>108</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="15"/>
+      <c r="G14" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>55</v>
+      </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
       <c r="M14" s="47"/>
@@ -3494,7 +3951,9 @@
       <c r="AG14" s="13"/>
       <c r="AH14" s="14"/>
       <c r="AI14" s="29"/>
-      <c r="AJ14" s="13"/>
+      <c r="AJ14" s="13">
+        <v>6000</v>
+      </c>
       <c r="AM14" s="13"/>
       <c r="AN14" s="13"/>
       <c r="AO14" s="13"/>
@@ -3517,27 +3976,38 @@
       <c r="BF14" s="13"/>
       <c r="BG14" s="14"/>
       <c r="BH14" s="29"/>
-      <c r="BI14" s="13"/>
+      <c r="BI14" s="13">
+        <v>25000</v>
+      </c>
       <c r="BJ14" s="13"/>
-      <c r="BK14" s="13"/>
+      <c r="BK14" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="BL14" s="12"/>
-      <c r="BM14" s="5" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="15" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" s="13"/>
+      <c r="C15" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="15"/>
+      <c r="G15" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
       <c r="M15" s="47"/>
@@ -3564,12 +4034,16 @@
       <c r="AH15" s="14"/>
       <c r="AI15" s="29"/>
       <c r="AJ15" s="13"/>
-      <c r="AM15" s="13"/>
+      <c r="AM15" s="13">
+        <v>3</v>
+      </c>
       <c r="AN15" s="13"/>
       <c r="AO15" s="13"/>
       <c r="AP15" s="29"/>
       <c r="AQ15" s="29"/>
-      <c r="AR15" s="13"/>
+      <c r="AR15" s="13">
+        <v>14</v>
+      </c>
       <c r="AS15" s="14"/>
       <c r="AT15" s="14"/>
       <c r="AU15" s="14"/>
@@ -3588,29 +4062,34 @@
       <c r="BH15" s="29"/>
       <c r="BI15" s="13"/>
       <c r="BJ15" s="13"/>
-      <c r="BK15" s="13"/>
       <c r="BL15" s="12"/>
-      <c r="BM15" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BM15" s="38" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:65" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="13" t="s">
-        <v>43</v>
+      <c r="C16" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>66</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" s="13"/>
+        <v>64</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="I16" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J16" s="15"/>
+        <v>50</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>201</v>
+      </c>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
       <c r="M16" s="47"/>
@@ -3639,9 +4118,7 @@
       <c r="AJ16" s="13"/>
       <c r="AM16" s="13"/>
       <c r="AN16" s="13"/>
-      <c r="AO16" s="13" t="s">
-        <v>46</v>
-      </c>
+      <c r="AO16" s="13"/>
       <c r="AP16" s="29"/>
       <c r="AQ16" s="29"/>
       <c r="AR16" s="13"/>
@@ -3663,198 +4140,184 @@
       <c r="BH16" s="29"/>
       <c r="BI16" s="13"/>
       <c r="BJ16" s="13"/>
-      <c r="BK16" s="13"/>
+      <c r="BK16" s="13" t="s">
+        <v>65</v>
+      </c>
       <c r="BL16" s="12"/>
-      <c r="BM16" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:65" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
-      <c r="C17" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>49</v>
+      <c r="C17" s="46" t="s">
+        <v>202</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>203</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
-      <c r="G17" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="J17" s="15"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="K17" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="L17" s="44"/>
       <c r="M17" s="47"/>
-      <c r="N17" s="29"/>
+      <c r="N17" s="44"/>
       <c r="O17" s="47"/>
       <c r="P17" s="47"/>
       <c r="Q17" s="47"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="14"/>
-      <c r="AC17" s="29"/>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="14"/>
-      <c r="AF17" s="13"/>
-      <c r="AG17" s="13"/>
-      <c r="AH17" s="14"/>
-      <c r="AI17" s="29"/>
-      <c r="AJ17" s="13"/>
-      <c r="AM17" s="13"/>
-      <c r="AN17" s="13"/>
-      <c r="AO17" s="13"/>
-      <c r="AP17" s="29"/>
-      <c r="AQ17" s="29"/>
-      <c r="AR17" s="13"/>
-      <c r="AS17" s="14"/>
-      <c r="AT17" s="14"/>
-      <c r="AU17" s="14"/>
-      <c r="AV17" s="14"/>
-      <c r="AW17" s="14"/>
-      <c r="AX17" s="14"/>
-      <c r="AY17" s="14"/>
-      <c r="AZ17" s="14"/>
-      <c r="BA17" s="14"/>
-      <c r="BB17" s="41"/>
-      <c r="BC17" s="13"/>
-      <c r="BD17" s="14"/>
-      <c r="BE17" s="13"/>
-      <c r="BF17" s="13"/>
-      <c r="BG17" s="14"/>
-      <c r="BH17" s="29"/>
-      <c r="BI17" s="13"/>
-      <c r="BJ17" s="13"/>
-      <c r="BK17" s="13" t="s">
-        <v>29</v>
-      </c>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="44"/>
+      <c r="X17" s="44"/>
+      <c r="Y17" s="44"/>
+      <c r="Z17" s="44"/>
+      <c r="AA17" s="44"/>
+      <c r="AB17" s="44"/>
+      <c r="AC17" s="44"/>
+      <c r="AD17" s="44"/>
+      <c r="AE17" s="44"/>
+      <c r="AF17" s="44"/>
+      <c r="AG17" s="44"/>
+      <c r="AH17" s="44"/>
+      <c r="AI17" s="44"/>
+      <c r="AJ17" s="44"/>
+      <c r="AM17" s="44"/>
+      <c r="AN17" s="44"/>
+      <c r="AO17" s="44"/>
+      <c r="AP17" s="44"/>
+      <c r="AQ17" s="44"/>
+      <c r="AR17" s="44"/>
+      <c r="AS17" s="44"/>
+      <c r="AT17" s="44"/>
+      <c r="AU17" s="44"/>
+      <c r="AV17" s="44"/>
+      <c r="AW17" s="44"/>
+      <c r="AX17" s="44"/>
+      <c r="AY17" s="44"/>
+      <c r="AZ17" s="44"/>
+      <c r="BA17" s="44"/>
+      <c r="BB17" s="44"/>
+      <c r="BC17" s="44"/>
+      <c r="BD17" s="44"/>
+      <c r="BE17" s="44"/>
+      <c r="BF17" s="44"/>
+      <c r="BG17" s="44"/>
+      <c r="BH17" s="44"/>
+      <c r="BI17" s="44"/>
+      <c r="BJ17" s="44"/>
+      <c r="BK17" s="44"/>
       <c r="BL17" s="12"/>
     </row>
-    <row r="18" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="D18" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="L18" s="44"/>
       <c r="M18" s="47"/>
-      <c r="N18" s="29"/>
+      <c r="N18" s="44"/>
       <c r="O18" s="47"/>
       <c r="P18" s="47"/>
       <c r="Q18" s="47"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="14"/>
-      <c r="Z18" s="14"/>
-      <c r="AA18" s="14"/>
-      <c r="AB18" s="14"/>
-      <c r="AC18" s="29"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="14"/>
-      <c r="AF18" s="13"/>
-      <c r="AG18" s="13"/>
-      <c r="AH18" s="14"/>
-      <c r="AI18" s="29"/>
-      <c r="AJ18" s="13"/>
-      <c r="AM18" s="13"/>
-      <c r="AN18" s="13"/>
-      <c r="AO18" s="13"/>
-      <c r="AP18" s="29"/>
-      <c r="AQ18" s="29"/>
-      <c r="AR18" s="13"/>
-      <c r="AS18" s="14"/>
-      <c r="AT18" s="14"/>
-      <c r="AU18" s="14"/>
-      <c r="AV18" s="14"/>
-      <c r="AW18" s="14"/>
-      <c r="AX18" s="14"/>
-      <c r="AY18" s="14"/>
-      <c r="AZ18" s="14"/>
-      <c r="BA18" s="14"/>
-      <c r="BB18" s="41"/>
-      <c r="BC18" s="13"/>
-      <c r="BD18" s="14"/>
-      <c r="BE18" s="13"/>
-      <c r="BF18" s="13"/>
-      <c r="BG18" s="14"/>
-      <c r="BH18" s="29"/>
-      <c r="BI18" s="13"/>
-      <c r="BJ18" s="13"/>
-      <c r="BK18" s="13" t="s">
-        <v>63</v>
-      </c>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="44"/>
+      <c r="Y18" s="44"/>
+      <c r="Z18" s="44"/>
+      <c r="AA18" s="44"/>
+      <c r="AB18" s="44"/>
+      <c r="AC18" s="44"/>
+      <c r="AD18" s="44"/>
+      <c r="AE18" s="44"/>
+      <c r="AF18" s="44"/>
+      <c r="AG18" s="44"/>
+      <c r="AH18" s="44"/>
+      <c r="AI18" s="44"/>
+      <c r="AJ18" s="44"/>
+      <c r="AM18" s="44"/>
+      <c r="AN18" s="44"/>
+      <c r="AO18" s="44"/>
+      <c r="AP18" s="44"/>
+      <c r="AQ18" s="44"/>
+      <c r="AR18" s="44"/>
+      <c r="AS18" s="44"/>
+      <c r="AT18" s="44"/>
+      <c r="AU18" s="44"/>
+      <c r="AV18" s="44"/>
+      <c r="AW18" s="44"/>
+      <c r="AX18" s="44"/>
+      <c r="AY18" s="44"/>
+      <c r="AZ18" s="44"/>
+      <c r="BA18" s="44"/>
+      <c r="BB18" s="44"/>
+      <c r="BC18" s="44"/>
+      <c r="BD18" s="44"/>
+      <c r="BE18" s="44"/>
+      <c r="BF18" s="44"/>
+      <c r="BG18" s="44"/>
+      <c r="BH18" s="44"/>
+      <c r="BI18" s="44"/>
+      <c r="BJ18" s="44"/>
+      <c r="BK18" s="44"/>
       <c r="BL18" s="12"/>
-      <c r="BM18" s="38" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="19" spans="1:65" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:66" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="12" t="s">
+        <v>72</v>
+      </c>
       <c r="F19" s="12"/>
       <c r="G19" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>58</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="H19" s="13"/>
       <c r="I19" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>60</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="J19" s="15"/>
       <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
+      <c r="L19" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="M19" s="47"/>
       <c r="N19" s="29"/>
       <c r="O19" s="47"/>
@@ -3878,9 +4341,7 @@
       <c r="AG19" s="13"/>
       <c r="AH19" s="14"/>
       <c r="AI19" s="29"/>
-      <c r="AJ19" s="13">
-        <v>6000</v>
-      </c>
+      <c r="AJ19" s="13"/>
       <c r="AM19" s="13"/>
       <c r="AN19" s="13"/>
       <c r="AO19" s="13"/>
@@ -3903,37 +4364,35 @@
       <c r="BF19" s="13"/>
       <c r="BG19" s="14"/>
       <c r="BH19" s="29"/>
-      <c r="BI19" s="13">
-        <v>25000</v>
-      </c>
+      <c r="BI19" s="13"/>
       <c r="BJ19" s="13"/>
       <c r="BK19" s="13" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="BL19" s="12"/>
     </row>
-    <row r="20" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
-      <c r="C20" s="45" t="s">
-        <v>67</v>
+      <c r="C20" s="19" t="s">
+        <v>75</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
-      <c r="G20" s="42" t="s">
-        <v>82</v>
+      <c r="G20" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
@@ -3961,16 +4420,12 @@
       <c r="AH20" s="14"/>
       <c r="AI20" s="29"/>
       <c r="AJ20" s="13"/>
-      <c r="AM20" s="13">
-        <v>3</v>
-      </c>
+      <c r="AM20" s="13"/>
       <c r="AN20" s="13"/>
       <c r="AO20" s="13"/>
       <c r="AP20" s="29"/>
       <c r="AQ20" s="29"/>
-      <c r="AR20" s="13">
-        <v>14</v>
-      </c>
+      <c r="AR20" s="13"/>
       <c r="AS20" s="14"/>
       <c r="AT20" s="14"/>
       <c r="AU20" s="14"/>
@@ -3989,33 +4444,31 @@
       <c r="BH20" s="29"/>
       <c r="BI20" s="13"/>
       <c r="BJ20" s="13"/>
+      <c r="BK20" s="13"/>
       <c r="BL20" s="12"/>
-      <c r="BM20" s="38" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="21" spans="1:65" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
-      <c r="C21" s="46" t="s">
-        <v>68</v>
+      <c r="C21" s="19" t="s">
+        <v>80</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="13" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>206</v>
+        <v>130</v>
       </c>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
@@ -4067,1450 +4520,1273 @@
       <c r="BH21" s="29"/>
       <c r="BI21" s="13"/>
       <c r="BJ21" s="13"/>
-      <c r="BK21" s="13" t="s">
-        <v>70</v>
-      </c>
+      <c r="BK21" s="13"/>
       <c r="BL21" s="12"/>
     </row>
-    <row r="22" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
-      <c r="C22" s="46" t="s">
-        <v>207</v>
+      <c r="C22" s="19" t="s">
+        <v>69</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="E22" s="12"/>
+        <v>67</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>68</v>
+      </c>
       <c r="F22" s="12"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="I22" s="44" t="s">
-        <v>23</v>
+      <c r="G22" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="K22" s="44" t="s">
-        <v>211</v>
-      </c>
-      <c r="L22" s="44"/>
+        <v>129</v>
+      </c>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
       <c r="M22" s="47"/>
-      <c r="N22" s="44"/>
+      <c r="N22" s="29"/>
       <c r="O22" s="47"/>
       <c r="P22" s="47"/>
       <c r="Q22" s="47"/>
-      <c r="R22" s="44"/>
-      <c r="S22" s="44"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="44"/>
-      <c r="V22" s="44"/>
-      <c r="W22" s="44"/>
-      <c r="X22" s="44"/>
-      <c r="Y22" s="44"/>
-      <c r="Z22" s="44"/>
-      <c r="AA22" s="44"/>
-      <c r="AB22" s="44"/>
-      <c r="AC22" s="44"/>
-      <c r="AD22" s="44"/>
-      <c r="AE22" s="44"/>
-      <c r="AF22" s="44"/>
-      <c r="AG22" s="44"/>
-      <c r="AH22" s="44"/>
-      <c r="AI22" s="44"/>
-      <c r="AJ22" s="44"/>
-      <c r="AM22" s="44"/>
-      <c r="AN22" s="44"/>
-      <c r="AO22" s="44"/>
-      <c r="AP22" s="44"/>
-      <c r="AQ22" s="44"/>
-      <c r="AR22" s="44"/>
-      <c r="AS22" s="44"/>
-      <c r="AT22" s="44"/>
-      <c r="AU22" s="44"/>
-      <c r="AV22" s="44"/>
-      <c r="AW22" s="44"/>
-      <c r="AX22" s="44"/>
-      <c r="AY22" s="44"/>
-      <c r="AZ22" s="44"/>
-      <c r="BA22" s="44"/>
-      <c r="BB22" s="44"/>
-      <c r="BC22" s="44"/>
-      <c r="BD22" s="44"/>
-      <c r="BE22" s="44"/>
-      <c r="BF22" s="44"/>
-      <c r="BG22" s="44"/>
-      <c r="BH22" s="44"/>
-      <c r="BI22" s="44"/>
-      <c r="BJ22" s="44"/>
-      <c r="BK22" s="44"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="14"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="14"/>
+      <c r="AI22" s="29"/>
+      <c r="AJ22" s="13"/>
+      <c r="AM22" s="13"/>
+      <c r="AN22" s="13"/>
+      <c r="AO22" s="13"/>
+      <c r="AP22" s="29"/>
+      <c r="AQ22" s="29"/>
+      <c r="AR22" s="13"/>
+      <c r="AS22" s="14"/>
+      <c r="AT22" s="14"/>
+      <c r="AU22" s="14"/>
+      <c r="AV22" s="14"/>
+      <c r="AW22" s="14"/>
+      <c r="AX22" s="14"/>
+      <c r="AY22" s="14"/>
+      <c r="AZ22" s="14"/>
+      <c r="BA22" s="14"/>
+      <c r="BB22" s="41"/>
+      <c r="BC22" s="13"/>
+      <c r="BD22" s="14"/>
+      <c r="BE22" s="13"/>
+      <c r="BF22" s="13"/>
+      <c r="BG22" s="14"/>
+      <c r="BH22" s="29"/>
+      <c r="BI22" s="13"/>
+      <c r="BJ22" s="13"/>
+      <c r="BK22" s="13"/>
       <c r="BL22" s="12"/>
     </row>
-    <row r="23" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
-      <c r="C23" s="46" t="s">
-        <v>209</v>
+      <c r="C23" s="65" t="s">
+        <v>343</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="E23" s="12"/>
+        <v>345</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>344</v>
+      </c>
       <c r="F23" s="12"/>
-      <c r="G23" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="H23" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="I23" s="44"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
       <c r="J23" s="15"/>
-      <c r="K23" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="L23" s="44"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
       <c r="M23" s="47"/>
-      <c r="N23" s="44"/>
+      <c r="N23" s="47"/>
       <c r="O23" s="47"/>
       <c r="P23" s="47"/>
       <c r="Q23" s="47"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="44"/>
-      <c r="U23" s="44"/>
-      <c r="V23" s="44"/>
-      <c r="W23" s="44"/>
-      <c r="X23" s="44"/>
-      <c r="Y23" s="44"/>
-      <c r="Z23" s="44"/>
-      <c r="AA23" s="44"/>
-      <c r="AB23" s="44"/>
-      <c r="AC23" s="44"/>
-      <c r="AD23" s="44"/>
-      <c r="AE23" s="44"/>
-      <c r="AF23" s="44"/>
-      <c r="AG23" s="44"/>
-      <c r="AH23" s="44"/>
-      <c r="AI23" s="44"/>
-      <c r="AJ23" s="44"/>
-      <c r="AM23" s="44"/>
-      <c r="AN23" s="44"/>
-      <c r="AO23" s="44"/>
-      <c r="AP23" s="44"/>
-      <c r="AQ23" s="44"/>
-      <c r="AR23" s="44"/>
-      <c r="AS23" s="44"/>
-      <c r="AT23" s="44"/>
-      <c r="AU23" s="44"/>
-      <c r="AV23" s="44"/>
-      <c r="AW23" s="44"/>
-      <c r="AX23" s="44"/>
-      <c r="AY23" s="44"/>
-      <c r="AZ23" s="44"/>
-      <c r="BA23" s="44"/>
-      <c r="BB23" s="44"/>
-      <c r="BC23" s="44"/>
-      <c r="BD23" s="44"/>
-      <c r="BE23" s="44"/>
-      <c r="BF23" s="44"/>
-      <c r="BG23" s="44"/>
-      <c r="BH23" s="44"/>
-      <c r="BI23" s="44"/>
-      <c r="BJ23" s="44"/>
-      <c r="BK23" s="44"/>
+      <c r="R23" s="47"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="47"/>
+      <c r="V23" s="47"/>
+      <c r="W23" s="47"/>
+      <c r="X23" s="47"/>
+      <c r="Y23" s="47"/>
+      <c r="Z23" s="47"/>
+      <c r="AA23" s="47"/>
+      <c r="AB23" s="47"/>
+      <c r="AC23" s="47"/>
+      <c r="AD23" s="47"/>
+      <c r="AE23" s="47"/>
+      <c r="AF23" s="47"/>
+      <c r="AG23" s="47"/>
+      <c r="AH23" s="47"/>
+      <c r="AI23" s="47"/>
+      <c r="AJ23" s="47"/>
+      <c r="AM23" s="47"/>
+      <c r="AN23" s="47"/>
+      <c r="AO23" s="47"/>
+      <c r="AP23" s="47"/>
+      <c r="AQ23" s="47"/>
+      <c r="AR23" s="47"/>
+      <c r="AS23" s="47"/>
+      <c r="AT23" s="47"/>
+      <c r="AU23" s="47"/>
+      <c r="AV23" s="47"/>
+      <c r="AW23" s="47"/>
+      <c r="AX23" s="47"/>
+      <c r="AY23" s="47"/>
+      <c r="AZ23" s="47"/>
+      <c r="BA23" s="47"/>
+      <c r="BB23" s="47"/>
+      <c r="BC23" s="47"/>
+      <c r="BD23" s="47"/>
+      <c r="BE23" s="47"/>
+      <c r="BF23" s="47"/>
+      <c r="BG23" s="47"/>
+      <c r="BH23" s="47"/>
+      <c r="BI23" s="47"/>
+      <c r="BJ23" s="47"/>
+      <c r="BK23" s="47"/>
       <c r="BL23" s="12"/>
-    </row>
-    <row r="24" spans="1:65" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
+      <c r="BN23" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="24" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>326</v>
+      </c>
       <c r="B24" s="12"/>
       <c r="C24" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="20"/>
+        <v>327</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>328</v>
+      </c>
       <c r="E24" s="12" t="s">
-        <v>77</v>
+        <v>329</v>
       </c>
       <c r="F24" s="12"/>
-      <c r="G24" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="J24" s="15"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13" t="s">
-        <v>79</v>
-      </c>
+      <c r="G24" s="41" t="s">
+        <v>330</v>
+      </c>
+      <c r="H24" s="41" t="s">
+        <v>331</v>
+      </c>
+      <c r="I24" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
       <c r="M24" s="47"/>
-      <c r="N24" s="29"/>
+      <c r="N24" s="41"/>
       <c r="O24" s="47"/>
       <c r="P24" s="47"/>
       <c r="Q24" s="47"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="14"/>
-      <c r="Z24" s="14"/>
-      <c r="AA24" s="14"/>
-      <c r="AB24" s="14"/>
-      <c r="AC24" s="29"/>
-      <c r="AD24" s="13"/>
-      <c r="AE24" s="14"/>
-      <c r="AF24" s="13"/>
-      <c r="AG24" s="13"/>
-      <c r="AH24" s="14"/>
-      <c r="AI24" s="29"/>
-      <c r="AJ24" s="13"/>
-      <c r="AM24" s="13"/>
-      <c r="AN24" s="13"/>
-      <c r="AO24" s="13"/>
-      <c r="AP24" s="29"/>
-      <c r="AQ24" s="29"/>
-      <c r="AR24" s="13"/>
-      <c r="AS24" s="14"/>
-      <c r="AT24" s="14"/>
-      <c r="AU24" s="14"/>
-      <c r="AV24" s="14"/>
-      <c r="AW24" s="14"/>
-      <c r="AX24" s="14"/>
-      <c r="AY24" s="14"/>
-      <c r="AZ24" s="14"/>
-      <c r="BA24" s="14"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="41"/>
+      <c r="X24" s="41"/>
+      <c r="Y24" s="41"/>
+      <c r="Z24" s="41"/>
+      <c r="AA24" s="41"/>
+      <c r="AB24" s="41"/>
+      <c r="AC24" s="41"/>
+      <c r="AD24" s="41"/>
+      <c r="AE24" s="41"/>
+      <c r="AF24" s="41"/>
+      <c r="AG24" s="41"/>
+      <c r="AH24" s="41"/>
+      <c r="AI24" s="41"/>
+      <c r="AJ24" s="41"/>
+      <c r="AM24" s="41"/>
+      <c r="AN24" s="41"/>
+      <c r="AO24" s="41"/>
+      <c r="AP24" s="41"/>
+      <c r="AQ24" s="41"/>
+      <c r="AR24" s="41"/>
+      <c r="AS24" s="41"/>
+      <c r="AT24" s="41"/>
+      <c r="AU24" s="41"/>
+      <c r="AV24" s="41"/>
+      <c r="AW24" s="41"/>
+      <c r="AX24" s="41"/>
+      <c r="AY24" s="41"/>
+      <c r="AZ24" s="41"/>
+      <c r="BA24" s="41"/>
       <c r="BB24" s="41"/>
-      <c r="BC24" s="13"/>
-      <c r="BD24" s="14"/>
-      <c r="BE24" s="13"/>
-      <c r="BF24" s="13"/>
-      <c r="BG24" s="14"/>
-      <c r="BH24" s="29"/>
-      <c r="BI24" s="13"/>
-      <c r="BJ24" s="13"/>
-      <c r="BK24" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL24" s="12"/>
-    </row>
-    <row r="25" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
+      <c r="BC24" s="41"/>
+      <c r="BD24" s="41"/>
+      <c r="BE24" s="41"/>
+      <c r="BF24" s="41"/>
+      <c r="BG24" s="41"/>
+      <c r="BH24" s="41"/>
+      <c r="BI24" s="41"/>
+      <c r="BJ24" s="41"/>
+      <c r="BK24" s="41"/>
+      <c r="BL24" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="BM24" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="25" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>326</v>
+      </c>
       <c r="B25" s="12"/>
       <c r="C25" s="19" t="s">
-        <v>80</v>
+        <v>335</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" s="12"/>
+        <v>336</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>346</v>
+      </c>
       <c r="F25" s="12"/>
-      <c r="G25" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>83</v>
+      <c r="G25" s="47" t="s">
+        <v>338</v>
+      </c>
+      <c r="H25" s="47" t="s">
+        <v>337</v>
+      </c>
+      <c r="I25" s="47" t="s">
+        <v>339</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
+        <v>340</v>
+      </c>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
       <c r="M25" s="47"/>
-      <c r="N25" s="29"/>
+      <c r="N25" s="47"/>
       <c r="O25" s="47"/>
       <c r="P25" s="47"/>
       <c r="Q25" s="47"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="14"/>
-      <c r="Z25" s="14"/>
-      <c r="AA25" s="14"/>
-      <c r="AB25" s="14"/>
-      <c r="AC25" s="29"/>
-      <c r="AD25" s="13"/>
-      <c r="AE25" s="14"/>
-      <c r="AF25" s="13"/>
-      <c r="AG25" s="13"/>
-      <c r="AH25" s="14"/>
-      <c r="AI25" s="29"/>
-      <c r="AJ25" s="13"/>
-      <c r="AM25" s="13"/>
-      <c r="AN25" s="13"/>
-      <c r="AO25" s="13"/>
-      <c r="AP25" s="29"/>
-      <c r="AQ25" s="29"/>
-      <c r="AR25" s="13"/>
-      <c r="AS25" s="14"/>
-      <c r="AT25" s="14"/>
-      <c r="AU25" s="14"/>
-      <c r="AV25" s="14"/>
-      <c r="AW25" s="14"/>
-      <c r="AX25" s="14"/>
-      <c r="AY25" s="14"/>
-      <c r="AZ25" s="14"/>
-      <c r="BA25" s="14"/>
-      <c r="BB25" s="41"/>
-      <c r="BC25" s="13"/>
-      <c r="BD25" s="14"/>
-      <c r="BE25" s="13"/>
-      <c r="BF25" s="13"/>
-      <c r="BG25" s="14"/>
-      <c r="BH25" s="29"/>
-      <c r="BI25" s="13"/>
-      <c r="BJ25" s="13"/>
-      <c r="BK25" s="13"/>
-      <c r="BL25" s="12"/>
-    </row>
-    <row r="26" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
+      <c r="R25" s="47"/>
+      <c r="S25" s="47"/>
+      <c r="T25" s="47"/>
+      <c r="U25" s="47"/>
+      <c r="V25" s="47"/>
+      <c r="W25" s="47"/>
+      <c r="X25" s="47"/>
+      <c r="Y25" s="47"/>
+      <c r="Z25" s="47"/>
+      <c r="AA25" s="47"/>
+      <c r="AB25" s="47"/>
+      <c r="AC25" s="47"/>
+      <c r="AD25" s="47"/>
+      <c r="AE25" s="47"/>
+      <c r="AF25" s="47"/>
+      <c r="AG25" s="47"/>
+      <c r="AH25" s="47"/>
+      <c r="AI25" s="47"/>
+      <c r="AJ25" s="47"/>
+      <c r="AM25" s="47"/>
+      <c r="AN25" s="47"/>
+      <c r="AO25" s="47"/>
+      <c r="AP25" s="47"/>
+      <c r="AQ25" s="47"/>
+      <c r="AR25" s="47"/>
+      <c r="AS25" s="47"/>
+      <c r="AT25" s="47"/>
+      <c r="AU25" s="47"/>
+      <c r="AV25" s="47"/>
+      <c r="AW25" s="47"/>
+      <c r="AX25" s="47"/>
+      <c r="AY25" s="47"/>
+      <c r="AZ25" s="47"/>
+      <c r="BA25" s="47"/>
+      <c r="BB25" s="47"/>
+      <c r="BC25" s="47"/>
+      <c r="BD25" s="47"/>
+      <c r="BE25" s="47"/>
+      <c r="BF25" s="47"/>
+      <c r="BG25" s="47"/>
+      <c r="BH25" s="47"/>
+      <c r="BI25" s="47"/>
+      <c r="BJ25" s="47"/>
+      <c r="BK25" s="47"/>
+      <c r="BL25" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="BM25" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="26" spans="1:66" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>210</v>
+      </c>
       <c r="C26" s="19" t="s">
-        <v>85</v>
+        <v>208</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>87</v>
+        <v>209</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
-      <c r="G26" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
       <c r="M26" s="47"/>
-      <c r="N26" s="29"/>
+      <c r="N26" s="47"/>
       <c r="O26" s="47"/>
       <c r="P26" s="47"/>
       <c r="Q26" s="47"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="14"/>
-      <c r="Z26" s="14"/>
-      <c r="AA26" s="14"/>
-      <c r="AB26" s="14"/>
-      <c r="AC26" s="29"/>
-      <c r="AD26" s="13"/>
-      <c r="AE26" s="14"/>
-      <c r="AF26" s="13"/>
-      <c r="AG26" s="13"/>
-      <c r="AH26" s="14"/>
-      <c r="AI26" s="29"/>
-      <c r="AJ26" s="13"/>
-      <c r="AM26" s="13"/>
-      <c r="AN26" s="13"/>
-      <c r="AO26" s="13"/>
-      <c r="AP26" s="29"/>
-      <c r="AQ26" s="29"/>
-      <c r="AR26" s="13"/>
-      <c r="AS26" s="14"/>
-      <c r="AT26" s="14"/>
-      <c r="AU26" s="14"/>
-      <c r="AV26" s="14"/>
-      <c r="AW26" s="14"/>
-      <c r="AX26" s="14"/>
-      <c r="AY26" s="14"/>
-      <c r="AZ26" s="14"/>
-      <c r="BA26" s="14"/>
-      <c r="BB26" s="41"/>
-      <c r="BC26" s="13"/>
-      <c r="BD26" s="14"/>
-      <c r="BE26" s="13"/>
-      <c r="BF26" s="13"/>
-      <c r="BG26" s="14"/>
-      <c r="BH26" s="29"/>
-      <c r="BI26" s="13"/>
-      <c r="BJ26" s="13"/>
-      <c r="BK26" s="13"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="47"/>
+      <c r="V26" s="47"/>
+      <c r="W26" s="47"/>
+      <c r="X26" s="47"/>
+      <c r="Y26" s="47"/>
+      <c r="Z26" s="47"/>
+      <c r="AA26" s="47"/>
+      <c r="AB26" s="47"/>
+      <c r="AC26" s="47"/>
+      <c r="AD26" s="47"/>
+      <c r="AE26" s="47"/>
+      <c r="AF26" s="47"/>
+      <c r="AG26" s="47"/>
+      <c r="AH26" s="47"/>
+      <c r="AI26" s="47"/>
+      <c r="AJ26" s="47"/>
+      <c r="AM26" s="47"/>
+      <c r="AN26" s="47"/>
+      <c r="AO26" s="47"/>
+      <c r="AP26" s="47"/>
+      <c r="AQ26" s="47"/>
+      <c r="AR26" s="47"/>
+      <c r="AS26" s="47"/>
+      <c r="AT26" s="47"/>
+      <c r="AU26" s="47"/>
+      <c r="AV26" s="47"/>
+      <c r="AW26" s="47"/>
+      <c r="AX26" s="47"/>
+      <c r="AY26" s="47"/>
+      <c r="AZ26" s="47"/>
+      <c r="BA26" s="47"/>
+      <c r="BB26" s="47"/>
+      <c r="BC26" s="47"/>
+      <c r="BD26" s="47"/>
+      <c r="BE26" s="47"/>
+      <c r="BF26" s="47"/>
+      <c r="BG26" s="47"/>
+      <c r="BH26" s="47"/>
+      <c r="BI26" s="47"/>
+      <c r="BJ26" s="47"/>
+      <c r="BK26" s="47"/>
       <c r="BL26" s="12"/>
     </row>
-    <row r="27" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:66" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="19" t="s">
-        <v>74</v>
+        <v>212</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>72</v>
+        <v>213</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="F27" s="12"/>
-      <c r="G27" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="I27" s="47"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47">
+        <v>17000</v>
+      </c>
       <c r="M27" s="47"/>
-      <c r="N27" s="29"/>
+      <c r="N27" s="47">
+        <v>3000</v>
+      </c>
       <c r="O27" s="47"/>
       <c r="P27" s="47"/>
       <c r="Q27" s="47"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="14"/>
-      <c r="Y27" s="14"/>
-      <c r="Z27" s="14"/>
-      <c r="AA27" s="14"/>
-      <c r="AB27" s="14"/>
-      <c r="AC27" s="29"/>
-      <c r="AD27" s="13"/>
-      <c r="AE27" s="14"/>
-      <c r="AF27" s="13"/>
-      <c r="AG27" s="13"/>
-      <c r="AH27" s="14"/>
-      <c r="AI27" s="29"/>
-      <c r="AJ27" s="13"/>
-      <c r="AM27" s="13"/>
-      <c r="AN27" s="13"/>
-      <c r="AO27" s="13"/>
-      <c r="AP27" s="29"/>
-      <c r="AQ27" s="29"/>
-      <c r="AR27" s="13"/>
-      <c r="AS27" s="14"/>
-      <c r="AT27" s="14"/>
-      <c r="AU27" s="14"/>
-      <c r="AV27" s="14"/>
-      <c r="AW27" s="14"/>
-      <c r="AX27" s="14"/>
-      <c r="AY27" s="14"/>
-      <c r="AZ27" s="14"/>
-      <c r="BA27" s="14"/>
-      <c r="BB27" s="41"/>
-      <c r="BC27" s="13"/>
-      <c r="BD27" s="14"/>
-      <c r="BE27" s="13"/>
-      <c r="BF27" s="13"/>
-      <c r="BG27" s="14"/>
-      <c r="BH27" s="29"/>
-      <c r="BI27" s="13"/>
-      <c r="BJ27" s="13"/>
-      <c r="BK27" s="13"/>
+      <c r="R27" s="47"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="47"/>
+      <c r="U27" s="47"/>
+      <c r="V27" s="47"/>
+      <c r="W27" s="47"/>
+      <c r="X27" s="47"/>
+      <c r="Y27" s="47"/>
+      <c r="Z27" s="47"/>
+      <c r="AA27" s="47"/>
+      <c r="AB27" s="47"/>
+      <c r="AC27" s="47"/>
+      <c r="AD27" s="47"/>
+      <c r="AE27" s="47"/>
+      <c r="AF27" s="47"/>
+      <c r="AG27" s="47"/>
+      <c r="AH27" s="47"/>
+      <c r="AI27" s="47"/>
+      <c r="AJ27" s="47"/>
+      <c r="AM27" s="47"/>
+      <c r="AN27" s="47"/>
+      <c r="AO27" s="47"/>
+      <c r="AP27" s="47"/>
+      <c r="AQ27" s="47"/>
+      <c r="AR27" s="47"/>
+      <c r="AS27" s="47"/>
+      <c r="AT27" s="47"/>
+      <c r="AU27" s="47"/>
+      <c r="AV27" s="47"/>
+      <c r="AW27" s="47"/>
+      <c r="AX27" s="47"/>
+      <c r="AY27" s="47"/>
+      <c r="AZ27" s="47"/>
+      <c r="BA27" s="47"/>
+      <c r="BB27" s="47"/>
+      <c r="BC27" s="47"/>
+      <c r="BD27" s="47"/>
+      <c r="BE27" s="47"/>
+      <c r="BF27" s="47"/>
+      <c r="BG27" s="47"/>
+      <c r="BH27" s="47"/>
+      <c r="BI27" s="47"/>
+      <c r="BJ27" s="47"/>
+      <c r="BK27" s="47"/>
       <c r="BL27" s="12"/>
     </row>
-    <row r="28" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:66" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="12"/>
+      <c r="B28" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>119</v>
+      </c>
       <c r="F28" s="12"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
+      <c r="G28" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="K28" s="13">
+        <v>13</v>
+      </c>
+      <c r="L28" s="13"/>
       <c r="M28" s="47"/>
-      <c r="N28" s="41"/>
+      <c r="N28" s="29"/>
       <c r="O28" s="47"/>
       <c r="P28" s="47"/>
       <c r="Q28" s="47"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="41"/>
-      <c r="T28" s="41"/>
-      <c r="U28" s="41"/>
-      <c r="V28" s="41"/>
-      <c r="W28" s="41"/>
-      <c r="X28" s="41"/>
-      <c r="Y28" s="41"/>
-      <c r="Z28" s="41"/>
-      <c r="AA28" s="41"/>
-      <c r="AB28" s="41"/>
-      <c r="AC28" s="41"/>
-      <c r="AD28" s="41"/>
-      <c r="AE28" s="41"/>
-      <c r="AF28" s="41"/>
-      <c r="AG28" s="41"/>
-      <c r="AH28" s="41"/>
-      <c r="AI28" s="41"/>
-      <c r="AJ28" s="41"/>
-      <c r="AM28" s="41"/>
-      <c r="AN28" s="41"/>
-      <c r="AO28" s="41"/>
-      <c r="AP28" s="41"/>
-      <c r="AQ28" s="41"/>
-      <c r="AR28" s="41"/>
-      <c r="AS28" s="41"/>
-      <c r="AT28" s="41"/>
-      <c r="AU28" s="41"/>
-      <c r="AV28" s="41"/>
-      <c r="AW28" s="41"/>
-      <c r="AX28" s="41"/>
-      <c r="AY28" s="41"/>
-      <c r="AZ28" s="41"/>
-      <c r="BA28" s="41"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="13">
+        <v>15</v>
+      </c>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="14"/>
+      <c r="AC28" s="29"/>
+      <c r="AD28" s="13"/>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="13"/>
+      <c r="AH28" s="14"/>
+      <c r="AI28" s="29"/>
+      <c r="AJ28" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM28" s="13">
+        <v>6</v>
+      </c>
+      <c r="AN28" s="13">
+        <v>1</v>
+      </c>
+      <c r="AO28" s="13"/>
+      <c r="AP28" s="29"/>
+      <c r="AQ28" s="29"/>
+      <c r="AR28" s="13">
+        <v>12</v>
+      </c>
+      <c r="AS28" s="14"/>
+      <c r="AT28" s="14"/>
+      <c r="AU28" s="14"/>
+      <c r="AV28" s="14"/>
+      <c r="AW28" s="14"/>
+      <c r="AX28" s="14"/>
+      <c r="AY28" s="14"/>
+      <c r="AZ28" s="14"/>
+      <c r="BA28" s="14"/>
       <c r="BB28" s="41"/>
-      <c r="BC28" s="41"/>
-      <c r="BD28" s="41"/>
-      <c r="BE28" s="41"/>
-      <c r="BF28" s="41"/>
-      <c r="BG28" s="41"/>
-      <c r="BH28" s="41"/>
-      <c r="BI28" s="41"/>
-      <c r="BJ28" s="41"/>
-      <c r="BK28" s="41"/>
-      <c r="BL28" s="12"/>
-    </row>
-    <row r="29" spans="1:65" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="47"/>
-      <c r="R29" s="47"/>
-      <c r="S29" s="47"/>
-      <c r="T29" s="47"/>
-      <c r="U29" s="47"/>
-      <c r="V29" s="47"/>
-      <c r="W29" s="47"/>
-      <c r="X29" s="47"/>
-      <c r="Y29" s="47"/>
-      <c r="Z29" s="47"/>
-      <c r="AA29" s="47"/>
-      <c r="AB29" s="47"/>
-      <c r="AC29" s="47"/>
-      <c r="AD29" s="47"/>
-      <c r="AE29" s="47"/>
-      <c r="AF29" s="47"/>
-      <c r="AG29" s="47"/>
-      <c r="AH29" s="47"/>
-      <c r="AI29" s="47"/>
-      <c r="AJ29" s="47"/>
-      <c r="AM29" s="47"/>
-      <c r="AN29" s="47"/>
-      <c r="AO29" s="47"/>
-      <c r="AP29" s="47"/>
-      <c r="AQ29" s="47"/>
-      <c r="AR29" s="47"/>
-      <c r="AS29" s="47"/>
-      <c r="AT29" s="47"/>
-      <c r="AU29" s="47"/>
-      <c r="AV29" s="47"/>
-      <c r="AW29" s="47"/>
-      <c r="AX29" s="47"/>
-      <c r="AY29" s="47"/>
-      <c r="AZ29" s="47"/>
-      <c r="BA29" s="47"/>
-      <c r="BB29" s="47"/>
-      <c r="BC29" s="47"/>
-      <c r="BD29" s="47"/>
-      <c r="BE29" s="47"/>
-      <c r="BF29" s="47"/>
-      <c r="BG29" s="47"/>
-      <c r="BH29" s="47"/>
-      <c r="BI29" s="47"/>
-      <c r="BJ29" s="47"/>
-      <c r="BK29" s="47"/>
-      <c r="BL29" s="12"/>
-    </row>
-    <row r="30" spans="1:65" ht="30" x14ac:dyDescent="0.25">
+      <c r="BC28" s="13"/>
+      <c r="BD28" s="14"/>
+      <c r="BE28" s="13"/>
+      <c r="BF28" s="13"/>
+      <c r="BG28" s="14"/>
+      <c r="BH28" s="29"/>
+      <c r="BI28" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="BJ28" s="13">
+        <v>4</v>
+      </c>
+      <c r="BK28" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="BL28" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="BM28" s="26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:66" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="30"/>
+      <c r="B29" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" s="30"/>
+      <c r="G29" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="H29" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="I29" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="J29" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="33">
+        <v>4</v>
+      </c>
+      <c r="U29" s="33">
+        <v>0</v>
+      </c>
+      <c r="V29" s="33">
+        <v>29</v>
+      </c>
+      <c r="W29" s="33">
+        <v>33</v>
+      </c>
+      <c r="X29" s="33">
+        <v>5</v>
+      </c>
+      <c r="Y29" s="33">
+        <v>2</v>
+      </c>
+      <c r="Z29" s="33"/>
+      <c r="AA29" s="33"/>
+      <c r="AB29" s="33">
+        <v>40</v>
+      </c>
+      <c r="AC29" s="33"/>
+      <c r="AD29" s="33">
+        <v>4395</v>
+      </c>
+      <c r="AE29" s="33">
+        <v>1</v>
+      </c>
+      <c r="AF29" s="33">
+        <v>2541</v>
+      </c>
+      <c r="AG29" s="33">
+        <v>7500</v>
+      </c>
+      <c r="AH29" s="33">
+        <v>21</v>
+      </c>
+      <c r="AI29" s="33"/>
+      <c r="AJ29" s="33"/>
+      <c r="AM29" s="33"/>
+      <c r="AN29" s="33"/>
+      <c r="AO29" s="33"/>
+      <c r="AP29" s="33"/>
+      <c r="AQ29" s="33"/>
+      <c r="AR29" s="33"/>
+      <c r="AS29" s="33">
+        <v>3</v>
+      </c>
+      <c r="AT29" s="33">
+        <v>4</v>
+      </c>
+      <c r="AU29" s="33">
+        <v>20</v>
+      </c>
+      <c r="AV29" s="33">
+        <v>27</v>
+      </c>
+      <c r="AW29" s="33">
+        <v>4</v>
+      </c>
+      <c r="AX29" s="33"/>
+      <c r="AY29" s="33">
+        <v>1</v>
+      </c>
+      <c r="AZ29" s="33">
+        <v>1</v>
+      </c>
+      <c r="BA29" s="33">
+        <v>33</v>
+      </c>
+      <c r="BB29" s="33"/>
+      <c r="BC29" s="33">
+        <v>458</v>
+      </c>
+      <c r="BD29" s="33"/>
+      <c r="BE29" s="33">
+        <v>1208</v>
+      </c>
+      <c r="BF29" s="33"/>
+      <c r="BG29" s="33"/>
+      <c r="BH29" s="33"/>
+      <c r="BI29" s="33"/>
+      <c r="BJ29" s="33"/>
+      <c r="BK29" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="BL29" s="35"/>
+      <c r="BM29" s="36"/>
+    </row>
+    <row r="30" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="19" t="s">
-        <v>217</v>
+        <v>137</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>219</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="E30" s="12"/>
       <c r="F30" s="12"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="I30" s="47"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47">
-        <v>17000</v>
-      </c>
+      <c r="G30" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
       <c r="M30" s="47"/>
-      <c r="N30" s="47">
-        <v>3000</v>
-      </c>
+      <c r="N30" s="29"/>
       <c r="O30" s="47"/>
       <c r="P30" s="47"/>
       <c r="Q30" s="47"/>
-      <c r="R30" s="47"/>
-      <c r="S30" s="47"/>
-      <c r="T30" s="47"/>
-      <c r="U30" s="47"/>
-      <c r="V30" s="47"/>
-      <c r="W30" s="47"/>
-      <c r="X30" s="47"/>
-      <c r="Y30" s="47"/>
-      <c r="Z30" s="47"/>
-      <c r="AA30" s="47"/>
-      <c r="AB30" s="47"/>
-      <c r="AC30" s="47"/>
-      <c r="AD30" s="47"/>
-      <c r="AE30" s="47"/>
-      <c r="AF30" s="47"/>
-      <c r="AG30" s="47"/>
-      <c r="AH30" s="47"/>
-      <c r="AI30" s="47"/>
-      <c r="AJ30" s="47"/>
-      <c r="AM30" s="47"/>
-      <c r="AN30" s="47"/>
-      <c r="AO30" s="47"/>
-      <c r="AP30" s="47"/>
-      <c r="AQ30" s="47"/>
-      <c r="AR30" s="47"/>
-      <c r="AS30" s="47"/>
-      <c r="AT30" s="47"/>
-      <c r="AU30" s="47"/>
-      <c r="AV30" s="47"/>
-      <c r="AW30" s="47"/>
-      <c r="AX30" s="47"/>
-      <c r="AY30" s="47"/>
-      <c r="AZ30" s="47"/>
-      <c r="BA30" s="47"/>
-      <c r="BB30" s="47"/>
-      <c r="BC30" s="47"/>
-      <c r="BD30" s="47"/>
-      <c r="BE30" s="47"/>
-      <c r="BF30" s="47"/>
-      <c r="BG30" s="47"/>
-      <c r="BH30" s="47"/>
-      <c r="BI30" s="47"/>
-      <c r="BJ30" s="47"/>
-      <c r="BK30" s="47"/>
-      <c r="BL30" s="12"/>
-    </row>
-    <row r="31" spans="1:65" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R30" s="29"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="14"/>
+      <c r="AC30" s="29"/>
+      <c r="AD30" s="13"/>
+      <c r="AE30" s="14"/>
+      <c r="AF30" s="13"/>
+      <c r="AG30" s="13"/>
+      <c r="AH30" s="14"/>
+      <c r="AI30" s="29"/>
+      <c r="AJ30" s="13"/>
+      <c r="AM30" s="13"/>
+      <c r="AN30" s="13"/>
+      <c r="AO30" s="13"/>
+      <c r="AP30" s="29"/>
+      <c r="AQ30" s="29"/>
+      <c r="AR30" s="13"/>
+      <c r="AS30" s="14"/>
+      <c r="AT30" s="14"/>
+      <c r="AU30" s="14"/>
+      <c r="AV30" s="14"/>
+      <c r="AW30" s="14"/>
+      <c r="AX30" s="14"/>
+      <c r="AY30" s="14"/>
+      <c r="AZ30" s="14"/>
+      <c r="BA30" s="14"/>
+      <c r="BB30" s="41"/>
+      <c r="BC30" s="13"/>
+      <c r="BD30" s="14"/>
+      <c r="BE30" s="13"/>
+      <c r="BF30" s="13"/>
+      <c r="BG30" s="14"/>
+      <c r="BH30" s="29"/>
+      <c r="BI30" s="13"/>
+      <c r="BJ30" s="13"/>
+      <c r="BK30" s="13"/>
+      <c r="BL30" s="24"/>
+      <c r="BM30" s="27"/>
+    </row>
+    <row r="31" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
-      <c r="B31" s="12" t="s">
-        <v>127</v>
-      </c>
+      <c r="B31" s="12"/>
       <c r="C31" s="19" t="s">
-        <v>122</v>
+        <v>192</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>124</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="E31" s="12"/>
       <c r="F31" s="12"/>
-      <c r="G31" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="J31" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="K31" s="13">
-        <v>13</v>
-      </c>
-      <c r="L31" s="13"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
       <c r="M31" s="47"/>
-      <c r="N31" s="29"/>
+      <c r="N31" s="41"/>
       <c r="O31" s="47"/>
       <c r="P31" s="47"/>
       <c r="Q31" s="47"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="13">
-        <v>15</v>
-      </c>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="14"/>
-      <c r="X31" s="14"/>
-      <c r="Y31" s="14"/>
-      <c r="Z31" s="14"/>
-      <c r="AA31" s="14"/>
-      <c r="AB31" s="14"/>
-      <c r="AC31" s="29"/>
-      <c r="AD31" s="13"/>
-      <c r="AE31" s="14"/>
-      <c r="AF31" s="13"/>
-      <c r="AG31" s="13"/>
-      <c r="AH31" s="14"/>
-      <c r="AI31" s="29"/>
-      <c r="AJ31" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="AM31" s="13">
-        <v>6</v>
-      </c>
-      <c r="AN31" s="13">
-        <v>1</v>
-      </c>
-      <c r="AO31" s="13"/>
-      <c r="AP31" s="29"/>
-      <c r="AQ31" s="29"/>
-      <c r="AR31" s="13">
-        <v>12</v>
-      </c>
-      <c r="AS31" s="14"/>
-      <c r="AT31" s="14"/>
-      <c r="AU31" s="14"/>
-      <c r="AV31" s="14"/>
-      <c r="AW31" s="14"/>
-      <c r="AX31" s="14"/>
-      <c r="AY31" s="14"/>
-      <c r="AZ31" s="14"/>
-      <c r="BA31" s="14"/>
+      <c r="R31" s="41"/>
+      <c r="S31" s="41"/>
+      <c r="T31" s="41"/>
+      <c r="U31" s="41"/>
+      <c r="V31" s="41"/>
+      <c r="W31" s="41"/>
+      <c r="X31" s="41"/>
+      <c r="Y31" s="41"/>
+      <c r="Z31" s="41"/>
+      <c r="AA31" s="41"/>
+      <c r="AB31" s="41"/>
+      <c r="AC31" s="41"/>
+      <c r="AD31" s="41"/>
+      <c r="AE31" s="41"/>
+      <c r="AF31" s="41"/>
+      <c r="AG31" s="41"/>
+      <c r="AH31" s="41"/>
+      <c r="AI31" s="41"/>
+      <c r="AJ31" s="41"/>
+      <c r="AM31" s="41"/>
+      <c r="AN31" s="41"/>
+      <c r="AO31" s="41"/>
+      <c r="AP31" s="41"/>
+      <c r="AQ31" s="41"/>
+      <c r="AR31" s="41"/>
+      <c r="AS31" s="41"/>
+      <c r="AT31" s="41"/>
+      <c r="AU31" s="41"/>
+      <c r="AV31" s="41"/>
+      <c r="AW31" s="41"/>
+      <c r="AX31" s="41"/>
+      <c r="AY31" s="41"/>
+      <c r="AZ31" s="41"/>
+      <c r="BA31" s="41"/>
       <c r="BB31" s="41"/>
-      <c r="BC31" s="13"/>
-      <c r="BD31" s="14"/>
-      <c r="BE31" s="13"/>
-      <c r="BF31" s="13"/>
-      <c r="BG31" s="14"/>
-      <c r="BH31" s="29"/>
-      <c r="BI31" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="BJ31" s="13">
-        <v>4</v>
-      </c>
-      <c r="BK31" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="BL31" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="BM31" s="26" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="32" spans="1:65" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="D32" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="F32" s="30"/>
-      <c r="G32" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="H32" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="I32" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="J32" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33"/>
-      <c r="S32" s="33"/>
-      <c r="T32" s="33">
-        <v>4</v>
-      </c>
-      <c r="U32" s="33">
-        <v>0</v>
-      </c>
-      <c r="V32" s="33">
-        <v>29</v>
-      </c>
-      <c r="W32" s="33">
-        <v>33</v>
-      </c>
-      <c r="X32" s="33">
-        <v>5</v>
-      </c>
-      <c r="Y32" s="33">
-        <v>2</v>
-      </c>
-      <c r="Z32" s="33"/>
-      <c r="AA32" s="33"/>
-      <c r="AB32" s="33">
-        <v>40</v>
-      </c>
-      <c r="AC32" s="33"/>
-      <c r="AD32" s="33">
-        <v>4395</v>
-      </c>
-      <c r="AE32" s="33">
-        <v>1</v>
-      </c>
-      <c r="AF32" s="33">
-        <v>2541</v>
-      </c>
-      <c r="AG32" s="33">
-        <v>7500</v>
-      </c>
-      <c r="AH32" s="33">
-        <v>21</v>
-      </c>
-      <c r="AI32" s="33"/>
-      <c r="AJ32" s="33"/>
-      <c r="AM32" s="33"/>
-      <c r="AN32" s="33"/>
-      <c r="AO32" s="33"/>
-      <c r="AP32" s="33"/>
-      <c r="AQ32" s="33"/>
-      <c r="AR32" s="33"/>
-      <c r="AS32" s="33">
-        <v>3</v>
-      </c>
-      <c r="AT32" s="33">
-        <v>4</v>
-      </c>
-      <c r="AU32" s="33">
-        <v>20</v>
-      </c>
-      <c r="AV32" s="33">
-        <v>27</v>
-      </c>
-      <c r="AW32" s="33">
-        <v>4</v>
-      </c>
-      <c r="AX32" s="33"/>
-      <c r="AY32" s="33">
-        <v>1</v>
-      </c>
-      <c r="AZ32" s="33">
-        <v>1</v>
-      </c>
-      <c r="BA32" s="33">
-        <v>33</v>
-      </c>
-      <c r="BB32" s="33"/>
-      <c r="BC32" s="33">
-        <v>458</v>
-      </c>
-      <c r="BD32" s="33"/>
-      <c r="BE32" s="33">
-        <v>1208</v>
-      </c>
-      <c r="BF32" s="33"/>
-      <c r="BG32" s="33"/>
-      <c r="BH32" s="33"/>
-      <c r="BI32" s="33"/>
-      <c r="BJ32" s="33"/>
-      <c r="BK32" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="BL32" s="35"/>
-      <c r="BM32" s="36"/>
+      <c r="BC31" s="41"/>
+      <c r="BD31" s="41"/>
+      <c r="BE31" s="41"/>
+      <c r="BF31" s="41"/>
+      <c r="BG31" s="41"/>
+      <c r="BH31" s="41"/>
+      <c r="BI31" s="41"/>
+      <c r="BJ31" s="41"/>
+      <c r="BK31" s="41"/>
+      <c r="BL31" s="24"/>
+      <c r="BM31" s="27"/>
+    </row>
+    <row r="32" spans="1:66" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="H32" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="K32" s="41"/>
+      <c r="L32" s="1">
+        <v>40000</v>
+      </c>
+      <c r="N32" s="41">
+        <v>8000</v>
+      </c>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="41">
+        <v>110</v>
+      </c>
+      <c r="T32" s="41"/>
+      <c r="U32" s="41"/>
+      <c r="V32" s="41"/>
+      <c r="W32" s="41"/>
+      <c r="X32" s="41"/>
+      <c r="Y32" s="41"/>
+      <c r="Z32" s="41"/>
+      <c r="AA32" s="41"/>
+      <c r="AB32" s="41"/>
+      <c r="AC32" s="41">
+        <v>200000</v>
+      </c>
+      <c r="AD32" s="41"/>
+      <c r="AE32" s="41"/>
+      <c r="AF32" s="41"/>
+      <c r="AG32" s="41"/>
+      <c r="AH32" s="41"/>
+      <c r="AI32" s="41"/>
+      <c r="AJ32" s="41">
+        <v>6500</v>
+      </c>
+      <c r="AM32" s="41"/>
+      <c r="AN32" s="41"/>
+      <c r="AO32" s="41">
+        <v>34000</v>
+      </c>
+      <c r="AP32" s="41">
+        <v>12000</v>
+      </c>
+      <c r="AQ32" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="AR32" s="41"/>
+      <c r="AS32" s="41"/>
+      <c r="AT32" s="41"/>
+      <c r="AU32" s="41"/>
+      <c r="AV32" s="41"/>
+      <c r="AW32" s="41"/>
+      <c r="AX32" s="41"/>
+      <c r="AY32" s="41"/>
+      <c r="AZ32" s="41"/>
+      <c r="BA32" s="41"/>
+      <c r="BB32" s="41">
+        <v>200000</v>
+      </c>
+      <c r="BC32" s="41"/>
+      <c r="BD32" s="41"/>
+      <c r="BE32" s="41"/>
+      <c r="BF32" s="41"/>
+      <c r="BG32" s="41"/>
+      <c r="BH32" s="41"/>
+      <c r="BI32" s="41">
+        <v>25000</v>
+      </c>
+      <c r="BJ32" s="41"/>
+      <c r="BK32" s="41"/>
+      <c r="BL32" s="24"/>
+      <c r="BM32" s="27"/>
     </row>
     <row r="33" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
-      <c r="C33" s="19" t="s">
-        <v>142</v>
+      <c r="C33" s="43" t="s">
+        <v>189</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>143</v>
+        <v>195</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
-      <c r="G33" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="I33" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="J33" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
+      <c r="G33" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="H33" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="I33" s="41"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41">
+        <v>28000</v>
+      </c>
       <c r="M33" s="47"/>
-      <c r="N33" s="29"/>
+      <c r="N33" s="41"/>
       <c r="O33" s="47"/>
       <c r="P33" s="47"/>
       <c r="Q33" s="47"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="13"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="14"/>
-      <c r="V33" s="14"/>
-      <c r="W33" s="14"/>
-      <c r="X33" s="14"/>
-      <c r="Y33" s="14"/>
-      <c r="Z33" s="14"/>
-      <c r="AA33" s="14"/>
-      <c r="AB33" s="14"/>
-      <c r="AC33" s="29"/>
-      <c r="AD33" s="13"/>
-      <c r="AE33" s="14"/>
-      <c r="AF33" s="13"/>
-      <c r="AG33" s="13"/>
-      <c r="AH33" s="14"/>
-      <c r="AI33" s="29"/>
-      <c r="AJ33" s="13"/>
-      <c r="AM33" s="13"/>
-      <c r="AN33" s="13"/>
-      <c r="AO33" s="13"/>
-      <c r="AP33" s="29"/>
-      <c r="AQ33" s="29"/>
-      <c r="AR33" s="13"/>
-      <c r="AS33" s="14"/>
-      <c r="AT33" s="14"/>
-      <c r="AU33" s="14"/>
-      <c r="AV33" s="14"/>
-      <c r="AW33" s="14"/>
-      <c r="AX33" s="14"/>
-      <c r="AY33" s="14"/>
-      <c r="AZ33" s="14"/>
-      <c r="BA33" s="14"/>
-      <c r="BB33" s="41"/>
-      <c r="BC33" s="13"/>
-      <c r="BD33" s="14"/>
-      <c r="BE33" s="13"/>
-      <c r="BF33" s="13"/>
-      <c r="BG33" s="14"/>
-      <c r="BH33" s="29"/>
-      <c r="BI33" s="13"/>
-      <c r="BJ33" s="13"/>
-      <c r="BK33" s="13"/>
+      <c r="R33" s="41"/>
+      <c r="S33" s="41"/>
+      <c r="T33" s="41"/>
+      <c r="U33" s="41"/>
+      <c r="V33" s="41"/>
+      <c r="W33" s="41"/>
+      <c r="X33" s="41"/>
+      <c r="Y33" s="41"/>
+      <c r="Z33" s="41"/>
+      <c r="AA33" s="41"/>
+      <c r="AB33" s="41"/>
+      <c r="AC33" s="41"/>
+      <c r="AD33" s="41">
+        <v>7000</v>
+      </c>
+      <c r="AE33" s="41"/>
+      <c r="AF33" s="41"/>
+      <c r="AG33" s="41"/>
+      <c r="AH33" s="41"/>
+      <c r="AI33" s="41"/>
+      <c r="AJ33" s="41"/>
+      <c r="AM33" s="41"/>
+      <c r="AN33" s="41"/>
+      <c r="AO33" s="41"/>
+      <c r="AP33" s="41"/>
+      <c r="AQ33" s="41"/>
+      <c r="AR33" s="41"/>
+      <c r="AS33" s="41"/>
+      <c r="AT33" s="41"/>
+      <c r="AU33" s="41"/>
+      <c r="AV33" s="41"/>
+      <c r="AW33" s="41"/>
+      <c r="AX33" s="41"/>
+      <c r="AY33" s="41"/>
+      <c r="AZ33" s="41"/>
+      <c r="BA33" s="41"/>
+      <c r="BB33" s="41">
+        <v>52000</v>
+      </c>
+      <c r="BC33" s="41">
+        <v>10000</v>
+      </c>
+      <c r="BD33" s="41"/>
+      <c r="BE33" s="41"/>
+      <c r="BF33" s="41">
+        <v>3000</v>
+      </c>
+      <c r="BG33" s="41"/>
+      <c r="BH33" s="41"/>
+      <c r="BI33" s="41"/>
+      <c r="BJ33" s="41"/>
+      <c r="BK33" s="41"/>
       <c r="BL33" s="24"/>
       <c r="BM33" s="27"/>
     </row>
-    <row r="34" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="E34" s="12"/>
+    <row r="34" spans="1:65" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="F34" s="12"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
+      <c r="G34" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13">
+        <v>20000</v>
+      </c>
       <c r="M34" s="47"/>
-      <c r="N34" s="41"/>
+      <c r="N34" s="29"/>
       <c r="O34" s="47"/>
       <c r="P34" s="47"/>
       <c r="Q34" s="47"/>
-      <c r="R34" s="41"/>
-      <c r="S34" s="41"/>
-      <c r="T34" s="41"/>
-      <c r="U34" s="41"/>
-      <c r="V34" s="41"/>
-      <c r="W34" s="41"/>
-      <c r="X34" s="41"/>
-      <c r="Y34" s="41"/>
-      <c r="Z34" s="41"/>
-      <c r="AA34" s="41"/>
-      <c r="AB34" s="41"/>
-      <c r="AC34" s="41"/>
-      <c r="AD34" s="41"/>
-      <c r="AE34" s="41"/>
-      <c r="AF34" s="41"/>
-      <c r="AG34" s="41"/>
-      <c r="AH34" s="41"/>
-      <c r="AI34" s="41"/>
-      <c r="AJ34" s="41"/>
-      <c r="AM34" s="41"/>
-      <c r="AN34" s="41"/>
-      <c r="AO34" s="41"/>
-      <c r="AP34" s="41"/>
-      <c r="AQ34" s="41"/>
-      <c r="AR34" s="41"/>
-      <c r="AS34" s="41"/>
-      <c r="AT34" s="41"/>
-      <c r="AU34" s="41"/>
-      <c r="AV34" s="41"/>
-      <c r="AW34" s="41"/>
-      <c r="AX34" s="41"/>
-      <c r="AY34" s="41"/>
-      <c r="AZ34" s="41"/>
-      <c r="BA34" s="41"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="14"/>
+      <c r="X34" s="14"/>
+      <c r="Y34" s="14"/>
+      <c r="Z34" s="14"/>
+      <c r="AA34" s="14"/>
+      <c r="AB34" s="14"/>
+      <c r="AC34" s="29"/>
+      <c r="AD34" s="13">
+        <v>2000</v>
+      </c>
+      <c r="AE34" s="14"/>
+      <c r="AF34" s="13"/>
+      <c r="AG34" s="13"/>
+      <c r="AH34" s="14"/>
+      <c r="AI34" s="29"/>
+      <c r="AJ34" s="13"/>
+      <c r="AM34" s="13"/>
+      <c r="AN34" s="13"/>
+      <c r="AO34" s="13">
+        <v>9000</v>
+      </c>
+      <c r="AP34" s="29"/>
+      <c r="AQ34" s="29"/>
+      <c r="AR34" s="13"/>
+      <c r="AS34" s="14"/>
+      <c r="AT34" s="14"/>
+      <c r="AU34" s="14"/>
+      <c r="AV34" s="14"/>
+      <c r="AW34" s="14"/>
+      <c r="AX34" s="14"/>
+      <c r="AY34" s="14"/>
+      <c r="AZ34" s="14"/>
+      <c r="BA34" s="14"/>
       <c r="BB34" s="41"/>
-      <c r="BC34" s="41"/>
-      <c r="BD34" s="41"/>
-      <c r="BE34" s="41"/>
-      <c r="BF34" s="41"/>
-      <c r="BG34" s="41"/>
-      <c r="BH34" s="41"/>
-      <c r="BI34" s="41"/>
-      <c r="BJ34" s="41"/>
-      <c r="BK34" s="41"/>
-      <c r="BL34" s="24"/>
-      <c r="BM34" s="27"/>
-    </row>
-    <row r="35" spans="1:65" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BC34" s="13">
+        <v>900</v>
+      </c>
+      <c r="BD34" s="14"/>
+      <c r="BE34" s="13"/>
+      <c r="BF34" s="13"/>
+      <c r="BG34" s="14"/>
+      <c r="BH34" s="29"/>
+      <c r="BI34" s="13"/>
+      <c r="BJ34" s="13"/>
+      <c r="BK34" s="13"/>
+      <c r="BL34" s="12"/>
+    </row>
+    <row r="35" spans="1:65" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C35" s="43" t="s">
-        <v>193</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="E35" s="12"/>
+        <v>186</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>167</v>
+      </c>
       <c r="F35" s="12"/>
-      <c r="G35" s="41" t="s">
-        <v>198</v>
-      </c>
-      <c r="H35" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="I35" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="J35" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="K35" s="41"/>
-      <c r="L35" s="1">
-        <v>40000</v>
-      </c>
-      <c r="N35" s="41">
-        <v>8000</v>
+      <c r="G35" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="I35" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="J35" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13">
+        <v>50700</v>
+      </c>
+      <c r="M35" s="47"/>
+      <c r="N35" s="29">
+        <v>14390</v>
       </c>
       <c r="O35" s="47"/>
       <c r="P35" s="47"/>
       <c r="Q35" s="47"/>
-      <c r="R35" s="41"/>
-      <c r="S35" s="41">
-        <v>110</v>
-      </c>
-      <c r="T35" s="41"/>
-      <c r="U35" s="41"/>
-      <c r="V35" s="41"/>
-      <c r="W35" s="41"/>
-      <c r="X35" s="41"/>
-      <c r="Y35" s="41"/>
-      <c r="Z35" s="41"/>
-      <c r="AA35" s="41"/>
-      <c r="AB35" s="41"/>
-      <c r="AC35" s="41">
-        <v>200000</v>
-      </c>
-      <c r="AD35" s="41"/>
-      <c r="AE35" s="41"/>
-      <c r="AF35" s="41"/>
-      <c r="AG35" s="41"/>
-      <c r="AH35" s="41"/>
-      <c r="AI35" s="41"/>
-      <c r="AJ35" s="41">
-        <v>6500</v>
-      </c>
-      <c r="AM35" s="41"/>
-      <c r="AN35" s="41"/>
-      <c r="AO35" s="41">
-        <v>34000</v>
-      </c>
-      <c r="AP35" s="41">
-        <v>12000</v>
-      </c>
-      <c r="AQ35" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="AR35" s="41"/>
-      <c r="AS35" s="41"/>
-      <c r="AT35" s="41"/>
-      <c r="AU35" s="41"/>
-      <c r="AV35" s="41"/>
-      <c r="AW35" s="41"/>
-      <c r="AX35" s="41"/>
-      <c r="AY35" s="41"/>
-      <c r="AZ35" s="41"/>
-      <c r="BA35" s="41"/>
-      <c r="BB35" s="41">
-        <v>200000</v>
-      </c>
-      <c r="BC35" s="41"/>
-      <c r="BD35" s="41"/>
-      <c r="BE35" s="41"/>
-      <c r="BF35" s="41"/>
-      <c r="BG35" s="41"/>
-      <c r="BH35" s="41"/>
-      <c r="BI35" s="41">
+      <c r="R35" s="29">
+        <v>8050</v>
+      </c>
+      <c r="S35" s="13">
+        <v>252</v>
+      </c>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="14"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="14"/>
+      <c r="AA35" s="14"/>
+      <c r="AB35" s="14"/>
+      <c r="AC35" s="29">
+        <v>73000</v>
+      </c>
+      <c r="AD35" s="13"/>
+      <c r="AE35" s="14"/>
+      <c r="AF35" s="13"/>
+      <c r="AG35" s="13">
+        <v>6000</v>
+      </c>
+      <c r="AH35" s="14"/>
+      <c r="AI35" s="29">
+        <v>15000</v>
+      </c>
+      <c r="AJ35" s="13">
         <v>25000</v>
       </c>
-      <c r="BJ35" s="41"/>
-      <c r="BK35" s="41"/>
-      <c r="BL35" s="24"/>
-      <c r="BM35" s="27"/>
+      <c r="AM35" s="13"/>
+      <c r="AN35" s="13"/>
+      <c r="AO35" s="13"/>
+      <c r="AP35" s="29"/>
+      <c r="AQ35" s="29"/>
+      <c r="AR35" s="13"/>
+      <c r="AS35" s="14"/>
+      <c r="AT35" s="14"/>
+      <c r="AU35" s="14"/>
+      <c r="AV35" s="14"/>
+      <c r="AW35" s="14"/>
+      <c r="AX35" s="14"/>
+      <c r="AY35" s="14"/>
+      <c r="AZ35" s="14"/>
+      <c r="BA35" s="14"/>
+      <c r="BB35" s="41"/>
+      <c r="BC35" s="13"/>
+      <c r="BD35" s="14"/>
+      <c r="BE35" s="13"/>
+      <c r="BF35" s="13"/>
+      <c r="BG35" s="14"/>
+      <c r="BH35" s="29"/>
+      <c r="BI35" s="13"/>
+      <c r="BJ35" s="13"/>
+      <c r="BK35" s="13"/>
+      <c r="BL35" s="12"/>
     </row>
     <row r="36" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="41" t="s">
-        <v>198</v>
-      </c>
-      <c r="H36" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="I36" s="41"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41">
-        <v>28000</v>
-      </c>
-      <c r="M36" s="47"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="47"/>
-      <c r="P36" s="47"/>
-      <c r="Q36" s="47"/>
-      <c r="R36" s="41"/>
-      <c r="S36" s="41"/>
-      <c r="T36" s="41"/>
-      <c r="U36" s="41"/>
-      <c r="V36" s="41"/>
-      <c r="W36" s="41"/>
-      <c r="X36" s="41"/>
-      <c r="Y36" s="41"/>
-      <c r="Z36" s="41"/>
-      <c r="AA36" s="41"/>
-      <c r="AB36" s="41"/>
-      <c r="AC36" s="41"/>
-      <c r="AD36" s="41">
-        <v>7000</v>
-      </c>
-      <c r="AE36" s="41"/>
-      <c r="AF36" s="41"/>
-      <c r="AG36" s="41"/>
-      <c r="AH36" s="41"/>
-      <c r="AI36" s="41"/>
-      <c r="AJ36" s="41"/>
-      <c r="AM36" s="41"/>
-      <c r="AN36" s="41"/>
-      <c r="AO36" s="41"/>
-      <c r="AP36" s="41"/>
-      <c r="AQ36" s="41"/>
-      <c r="AR36" s="41"/>
-      <c r="AS36" s="41"/>
-      <c r="AT36" s="41"/>
-      <c r="AU36" s="41"/>
-      <c r="AV36" s="41"/>
-      <c r="AW36" s="41"/>
-      <c r="AX36" s="41"/>
-      <c r="AY36" s="41"/>
-      <c r="AZ36" s="41"/>
-      <c r="BA36" s="41"/>
-      <c r="BB36" s="41">
-        <v>52000</v>
-      </c>
-      <c r="BC36" s="41">
-        <v>10000</v>
-      </c>
-      <c r="BD36" s="41"/>
-      <c r="BE36" s="41"/>
-      <c r="BF36" s="41">
-        <v>3000</v>
-      </c>
-      <c r="BG36" s="41"/>
-      <c r="BH36" s="41"/>
-      <c r="BI36" s="41"/>
-      <c r="BJ36" s="41"/>
-      <c r="BK36" s="41"/>
-      <c r="BL36" s="24"/>
-      <c r="BM36" s="27"/>
-    </row>
-    <row r="37" spans="1:65" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I37" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="J37" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13">
-        <v>20000</v>
-      </c>
-      <c r="M37" s="47"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="47"/>
-      <c r="P37" s="47"/>
-      <c r="Q37" s="47"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="13"/>
-      <c r="T37" s="14"/>
-      <c r="U37" s="14"/>
-      <c r="V37" s="14"/>
-      <c r="W37" s="14"/>
-      <c r="X37" s="14"/>
-      <c r="Y37" s="14"/>
-      <c r="Z37" s="14"/>
-      <c r="AA37" s="14"/>
-      <c r="AB37" s="14"/>
-      <c r="AC37" s="29"/>
-      <c r="AD37" s="13">
-        <v>2000</v>
-      </c>
-      <c r="AE37" s="14"/>
-      <c r="AF37" s="13"/>
-      <c r="AG37" s="13"/>
-      <c r="AH37" s="14"/>
-      <c r="AI37" s="29"/>
-      <c r="AJ37" s="13"/>
-      <c r="AM37" s="13"/>
-      <c r="AN37" s="13"/>
-      <c r="AO37" s="13">
-        <v>9000</v>
-      </c>
-      <c r="AP37" s="29"/>
-      <c r="AQ37" s="29"/>
-      <c r="AR37" s="13"/>
-      <c r="AS37" s="14"/>
-      <c r="AT37" s="14"/>
-      <c r="AU37" s="14"/>
-      <c r="AV37" s="14"/>
-      <c r="AW37" s="14"/>
-      <c r="AX37" s="14"/>
-      <c r="AY37" s="14"/>
-      <c r="AZ37" s="14"/>
-      <c r="BA37" s="14"/>
-      <c r="BB37" s="41"/>
-      <c r="BC37" s="13">
-        <v>900</v>
-      </c>
-      <c r="BD37" s="14"/>
-      <c r="BE37" s="13"/>
-      <c r="BF37" s="13"/>
-      <c r="BG37" s="14"/>
-      <c r="BH37" s="29"/>
-      <c r="BI37" s="13"/>
-      <c r="BJ37" s="13"/>
-      <c r="BK37" s="13"/>
-      <c r="BL37" s="12"/>
-    </row>
-    <row r="38" spans="1:65" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="F38" s="12"/>
-      <c r="G38" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="H38" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="I38" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="J38" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13">
-        <v>50700</v>
-      </c>
-      <c r="M38" s="47"/>
-      <c r="N38" s="29">
-        <v>14390</v>
-      </c>
-      <c r="O38" s="47"/>
-      <c r="P38" s="47"/>
-      <c r="Q38" s="47"/>
-      <c r="R38" s="29">
-        <v>8050</v>
-      </c>
-      <c r="S38" s="13">
-        <v>252</v>
-      </c>
-      <c r="T38" s="14"/>
-      <c r="U38" s="14"/>
-      <c r="V38" s="14"/>
-      <c r="W38" s="14"/>
-      <c r="X38" s="14"/>
-      <c r="Y38" s="14"/>
-      <c r="Z38" s="14"/>
-      <c r="AA38" s="14"/>
-      <c r="AB38" s="14"/>
-      <c r="AC38" s="29">
-        <v>73000</v>
-      </c>
-      <c r="AD38" s="13"/>
-      <c r="AE38" s="14"/>
-      <c r="AF38" s="13"/>
-      <c r="AG38" s="13">
+      <c r="I36" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="I37" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AO37" s="2">
+        <v>25000</v>
+      </c>
+      <c r="BC37" s="2">
+        <v>3500</v>
+      </c>
+      <c r="BE37" s="2">
+        <v>10200</v>
+      </c>
+      <c r="BH37" s="9">
+        <v>3300</v>
+      </c>
+      <c r="BK37" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="I38" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AO38" s="2">
         <v>6000</v>
       </c>
-      <c r="AH38" s="14"/>
-      <c r="AI38" s="29">
-        <v>15000</v>
-      </c>
-      <c r="AJ38" s="13">
-        <v>25000</v>
-      </c>
-      <c r="AM38" s="13"/>
-      <c r="AN38" s="13"/>
-      <c r="AO38" s="13"/>
-      <c r="AP38" s="29"/>
-      <c r="AQ38" s="29"/>
-      <c r="AR38" s="13"/>
-      <c r="AS38" s="14"/>
-      <c r="AT38" s="14"/>
-      <c r="AU38" s="14"/>
-      <c r="AV38" s="14"/>
-      <c r="AW38" s="14"/>
-      <c r="AX38" s="14"/>
-      <c r="AY38" s="14"/>
-      <c r="AZ38" s="14"/>
-      <c r="BA38" s="14"/>
-      <c r="BB38" s="41"/>
-      <c r="BC38" s="13"/>
-      <c r="BD38" s="14"/>
-      <c r="BE38" s="13"/>
-      <c r="BF38" s="13"/>
-      <c r="BG38" s="14"/>
-      <c r="BH38" s="29"/>
-      <c r="BI38" s="13"/>
-      <c r="BJ38" s="13"/>
-      <c r="BK38" s="13"/>
-      <c r="BL38" s="12"/>
     </row>
     <row r="39" spans="1:65" x14ac:dyDescent="0.25">
       <c r="I39" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
+      </c>
+      <c r="AO39" s="2">
+        <v>17000</v>
       </c>
     </row>
     <row r="40" spans="1:65" x14ac:dyDescent="0.25">
       <c r="I40" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AO40" s="2">
-        <v>25000</v>
-      </c>
-      <c r="BC40" s="2">
-        <v>3500</v>
-      </c>
-      <c r="BE40" s="2">
-        <v>10200</v>
-      </c>
-      <c r="BH40" s="9">
-        <v>3300</v>
-      </c>
-      <c r="BK40" s="1" t="s">
-        <v>190</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="41" spans="1:65" x14ac:dyDescent="0.25">
       <c r="I41" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AO41" s="2">
         <v>6000</v>
@@ -5518,86 +5794,64 @@
     </row>
     <row r="42" spans="1:65" x14ac:dyDescent="0.25">
       <c r="I42" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AO42" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="D43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="AO42" s="2">
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="I43" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="AO43" s="2">
-        <v>11000</v>
-      </c>
+      <c r="L43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="AD43" s="9"/>
+      <c r="AF43" s="9"/>
+      <c r="AG43" s="9"/>
+      <c r="AJ43" s="9"/>
+      <c r="AO43" s="9">
+        <v>68000</v>
+      </c>
+      <c r="AR43" s="9">
+        <v>156</v>
+      </c>
+      <c r="BC43" s="9"/>
+      <c r="BE43" s="9"/>
+      <c r="BF43" s="9"/>
+      <c r="BI43" s="9"/>
+      <c r="BK43" s="9"/>
     </row>
     <row r="44" spans="1:65" x14ac:dyDescent="0.25">
       <c r="I44" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="AO44" s="2">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="I45" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="AO45" s="2">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="D46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="L46" s="9"/>
-      <c r="S46" s="9"/>
-      <c r="AD46" s="9"/>
-      <c r="AF46" s="9"/>
-      <c r="AG46" s="9"/>
-      <c r="AJ46" s="9"/>
-      <c r="AO46" s="9">
-        <v>68000</v>
-      </c>
-      <c r="AR46" s="9">
-        <v>156</v>
-      </c>
-      <c r="BC46" s="9"/>
-      <c r="BE46" s="9"/>
-      <c r="BF46" s="9"/>
-      <c r="BI46" s="9"/>
-      <c r="BK46" s="9"/>
-    </row>
-    <row r="47" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="I47" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="AO47" s="2">
         <v>50000</v>
       </c>
-      <c r="BC47" s="2">
+      <c r="BC44" s="2">
         <v>1200</v>
       </c>
-      <c r="BE47" s="2">
+      <c r="BE44" s="2">
         <v>4400</v>
       </c>
-      <c r="BH47" s="9">
+      <c r="BH44" s="9">
         <v>1400</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="BL31" r:id="rId1" xr:uid="{AB43767C-640A-454E-8867-6D6B4EA887DD}"/>
+    <hyperlink ref="BL28" r:id="rId1" xr:uid="{AB43767C-640A-454E-8867-6D6B4EA887DD}"/>
+    <hyperlink ref="BL24" r:id="rId2" xr:uid="{50B6654F-C5A2-470C-9C72-0FB47B53C39C}"/>
+    <hyperlink ref="BL25" r:id="rId3" xr:uid="{226ECD63-E987-486F-B62A-CB3E93330EC9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
--- a/war_index.xlsx
+++ b/war_index.xlsx
@@ -1,33 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1800728-4F7A-4D25-9A71-20040073D2F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9849BC8-CAB6-4859-A310-31F68B2E1F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{04375B46-837D-49F2-BE8A-ABE006783F6C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{04375B46-837D-49F2-BE8A-ABE006783F6C}"/>
   </bookViews>
   <sheets>
     <sheet name="BC" sheetId="2" r:id="rId1"/>
     <sheet name="PreNap" sheetId="3" r:id="rId2"/>
     <sheet name="NapoleonicWars" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="370">
   <si>
     <t>date</t>
   </si>
@@ -59,9 +69,6 @@
     <t>Rossbach, Saxony</t>
   </si>
   <si>
-    <t>Charles de Rohan, Prince Joseph</t>
-  </si>
-  <si>
     <t>11 February 1814</t>
   </si>
   <si>
@@ -464,13 +471,7 @@
     <t>cutter</t>
   </si>
   <si>
-    <t>captured_man</t>
-  </si>
-  <si>
     <t>captured_ship</t>
-  </si>
-  <si>
-    <t>killed_man</t>
   </si>
   <si>
     <t>destroyed_ship</t>
@@ -571,16 +572,7 @@
     <t>france</t>
   </si>
   <si>
-    <t>total man</t>
-  </si>
-  <si>
     <t>14 October 1806</t>
-  </si>
-  <si>
-    <t>Prince Hohenlohe</t>
-  </si>
-  <si>
-    <t>davout</t>
   </si>
   <si>
     <t>Montenotte Campaign
@@ -818,9 +810,6 @@
     <t>Battle of Rossbach</t>
   </si>
   <si>
-    <t xml:space="preserve">France, Austrian </t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Battle_of_Rossbach</t>
   </si>
   <si>
@@ -943,9 +932,6 @@
     <t>12 August 1759</t>
   </si>
   <si>
-    <t>Austria and Russia</t>
-  </si>
-  <si>
     <t>culminated in a major Prussian defeat </t>
   </si>
   <si>
@@ -1031,9 +1017,6 @@
 50000, Cla Lecture</t>
   </si>
   <si>
-    <t>These are the only examples of victories won over an opponent two or even nearly three times as strong. On War, p.195, To understand Clausewitz, it is important to mention some types of warfare in which he engaged or influenced him. Many battles fought in a day, within an area of few square miles, with no modern communications. Principles of manouver and formations are rigid. This battle is example of this. Excellent example of an attempted envelopment by foot troops in broad daylight where surprise was not achieved.  Clausewitz lecture, US Naval War College</t>
-  </si>
-  <si>
     <t>Johann Beaulieu</t>
   </si>
   <si>
@@ -1086,6 +1069,92 @@
   </si>
   <si>
     <t>lostGunsB</t>
+  </si>
+  <si>
+    <t>Prince Hohenlohe, Ernst von Rüchel</t>
+  </si>
+  <si>
+    <t>Prussia, Saxony</t>
+  </si>
+  <si>
+    <t>Davout</t>
+  </si>
+  <si>
+    <t>Duke of Brunswick, Friedrich von Schmettau, Frederick William III, Gebhard von Blücher</t>
+  </si>
+  <si>
+    <t>killed_manA</t>
+  </si>
+  <si>
+    <t>killed_manB</t>
+  </si>
+  <si>
+    <t>prisinoersA</t>
+  </si>
+  <si>
+    <t>prisinoersB</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Battle_of_Jena%E2%80%93Auerstedt</t>
+  </si>
+  <si>
+    <t>New troops are often vainly sacrificed in an engagement that is past retrieving. Example Jena in 1806 Prince Hohenlohei with 35.000 men, accepted battle against Bonaparte's 60 to 70.00. He lost so badly that his whole force was virtually annihilated. At that pointi General Rüchel, with about 12.000 men, decided to reopen the action, with the result that his force too was demolished on the spot. On Wr, p.240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chance of reversing a decision is often missed while it could still be done. The same day at Auerstadt saw 25,000 men fight until noon against Davout's 28,000. Admittedly the force was not successful, but neither was it in a state of dissolution, and suffered no greater losses than the enemy, who had no cavalry. General Kalckreuth's reserve, 18,000 men strong, was not used to turn the tide of battle; if it had been, a Prussian defeat would have been impossible. </t>
+  </si>
+  <si>
+    <t>Ernst Gideon von Laudon</t>
+  </si>
+  <si>
+    <t>Pyotr Saltykov</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Allied Army</t>
+  </si>
+  <si>
+    <t>Frederick the Great overran the Russians' left wing at the first assault and captured seventy guns. By the time the battle ended, both gains had been lost again, and the whole result of the first attack had vanished from the record. Had the King been able to stand on his first success and delay the second round until the following day, the
+first day's gains would still have been a cornpensation even if he had lost the second part of the battle.On war, p.243</t>
+  </si>
+  <si>
+    <t>At Liegnitz in 1760, Field Marshal Daun tried to go to General Laudon's help while the latter was still in action; but after the battle had been lost
+he did not attempt to attack Frederick, though that was well within his powers. On war p.243</t>
+  </si>
+  <si>
+    <t>11 August 1796</t>
+  </si>
+  <si>
+    <t>Battle of Neresheim</t>
+  </si>
+  <si>
+    <t>Rhine campaign of 1796</t>
+  </si>
+  <si>
+    <t>War of the First Coalition</t>
+  </si>
+  <si>
+    <t>Habsburg monarchy</t>
+  </si>
+  <si>
+    <t>Jean Moreau, Laurent Saint-Cyr, Louis Desaix</t>
+  </si>
+  <si>
+    <t>Archduke Charles, Count Latour</t>
+  </si>
+  <si>
+    <t>Allied forces</t>
+  </si>
+  <si>
+    <t>Charles de Rohan</t>
+  </si>
+  <si>
+    <t>Prince Joseph</t>
+  </si>
+  <si>
+    <t>These are the only examples of victories won over an opponent two or even nearly three times as strong. On War, p.195, To understand Clausewitz, it is important to mention some types of warfare in which he engaged or influenced him. Many battles fought in a day, within an area of few square miles, with no modern communications. Principles of manouver and formations are rigid. This battle is example of this. Excellent example of an attempted envelopment by foot troops in broad daylight where surprise was not achieved.  Clausewitz lecture, US Naval War College, This is another example (modern times defense side cannot avoid atack, there is no expression like he did not accept the battle, he can retreat for other purposes) , if indeed the commander of allied armies never really intended to attack Frederick the Great. On war p. 246</t>
   </si>
 </sst>
 </file>
@@ -1219,7 +1288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1403,6 +1472,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1760,7 +1851,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="39" t="s">
         <v>0</v>
@@ -1772,121 +1863,121 @@
         <v>5</v>
       </c>
       <c r="E1" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="G1" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="G1" s="39" t="s">
-        <v>24</v>
-      </c>
       <c r="H1" s="47" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="I1" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="J1" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="K1" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="L1" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="M1" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="N1" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="O1" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="P1" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q1" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="R1" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="S1" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="T1" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="U1" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="V1" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="W1" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="X1" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y1" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z1" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA1" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB1" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="AD1" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE1" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF1" s="50" t="s">
         <v>237</v>
       </c>
-      <c r="J1" s="47" t="s">
-        <v>238</v>
-      </c>
-      <c r="K1" s="39" t="s">
-        <v>218</v>
-      </c>
-      <c r="L1" s="39" t="s">
-        <v>219</v>
-      </c>
-      <c r="M1" s="39" t="s">
-        <v>220</v>
-      </c>
-      <c r="N1" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="O1" s="39" t="s">
-        <v>222</v>
-      </c>
-      <c r="P1" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q1" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="R1" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="S1" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="T1" s="39" t="s">
-        <v>227</v>
-      </c>
-      <c r="U1" s="39" t="s">
-        <v>228</v>
-      </c>
-      <c r="V1" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="W1" s="39" t="s">
-        <v>230</v>
-      </c>
-      <c r="X1" s="39" t="s">
-        <v>231</v>
-      </c>
-      <c r="Y1" s="39" t="s">
-        <v>232</v>
-      </c>
-      <c r="Z1" s="39" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA1" s="39" t="s">
-        <v>234</v>
-      </c>
-      <c r="AB1" s="39" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD1" s="47" t="s">
-        <v>199</v>
-      </c>
-      <c r="AE1" s="47" t="s">
-        <v>200</v>
-      </c>
-      <c r="AF1" s="50" t="s">
-        <v>243</v>
-      </c>
       <c r="AG1" s="9" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D2" s="46"/>
       <c r="E2" s="46" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F2" s="46" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="G2" s="46" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="H2" s="48" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="I2" s="46" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="J2" s="48" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="K2" s="46" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="L2" s="46">
         <v>25000</v>
@@ -1904,7 +1995,7 @@
         <v>600</v>
       </c>
       <c r="Q2" s="46" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="R2" s="46">
         <v>6400</v>
@@ -1923,13 +2014,13 @@
       <c r="Z2" s="46"/>
       <c r="AA2" s="46"/>
       <c r="AD2" s="46" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="AE2" s="46" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AF2" s="51" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -1943,11 +2034,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E47DB03-95DF-4FF7-A62E-6006248C7808}">
-  <dimension ref="A1:AL25"/>
+  <dimension ref="A1:AL29"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomLeft" activeCell="AH3" sqref="AH3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1981,145 +2072,145 @@
   <sheetData>
     <row r="1" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E1" s="39" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F1" s="39" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="J1" s="39" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K1" s="39" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="L1" s="47" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="M1" s="39" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="N1" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="O1" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="P1" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q1" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="R1" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="S1" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="T1" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="U1" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="V1" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="W1" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="X1" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y1" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z1" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA1" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB1" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="AC1" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="AD1" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE1" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="AF1" s="39" t="s">
         <v>249</v>
       </c>
-      <c r="O1" s="39" t="s">
-        <v>220</v>
-      </c>
-      <c r="P1" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q1" s="39" t="s">
-        <v>253</v>
-      </c>
-      <c r="R1" s="39" t="s">
-        <v>254</v>
-      </c>
-      <c r="S1" s="39" t="s">
-        <v>246</v>
-      </c>
-      <c r="T1" s="39" t="s">
-        <v>250</v>
-      </c>
-      <c r="U1" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="V1" s="39" t="s">
-        <v>227</v>
-      </c>
-      <c r="W1" s="39" t="s">
-        <v>228</v>
-      </c>
-      <c r="X1" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="Y1" s="39" t="s">
-        <v>230</v>
-      </c>
-      <c r="Z1" s="39" t="s">
-        <v>231</v>
-      </c>
-      <c r="AA1" s="39" t="s">
-        <v>256</v>
-      </c>
-      <c r="AB1" s="39" t="s">
-        <v>257</v>
-      </c>
-      <c r="AC1" s="39" t="s">
-        <v>247</v>
-      </c>
-      <c r="AD1" s="39" t="s">
-        <v>232</v>
-      </c>
-      <c r="AE1" s="39" t="s">
-        <v>248</v>
-      </c>
-      <c r="AF1" s="39" t="s">
-        <v>255</v>
-      </c>
       <c r="AG1" s="47" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="AH1" s="47" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="AI1" s="50" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="AJ1" s="9" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:37" s="53" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="48"/>
       <c r="B2" s="48" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F2" s="48"/>
       <c r="G2" s="48" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="H2" s="48" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="I2" s="48"/>
       <c r="J2" s="48" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="K2" s="48" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="L2" s="48"/>
       <c r="M2" s="52" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="N2" s="48">
         <v>37000</v>
@@ -2127,7 +2218,7 @@
       <c r="O2" s="48"/>
       <c r="P2" s="48"/>
       <c r="Q2" s="52" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="R2" s="48">
         <v>195</v>
@@ -2136,7 +2227,7 @@
         <v>667</v>
       </c>
       <c r="T2" s="48" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="U2" s="48"/>
       <c r="V2" s="48"/>
@@ -2155,26 +2246,26 @@
         <v>18000</v>
       </c>
       <c r="AG2" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="AH2" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI2" s="54" t="s">
         <v>272</v>
-      </c>
-      <c r="AH2" s="48" t="s">
-        <v>201</v>
-      </c>
-      <c r="AI2" s="54" t="s">
-        <v>279</v>
       </c>
       <c r="AJ2" s="48"/>
     </row>
     <row r="3" spans="1:37" s="53" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="48"/>
       <c r="B3" s="48" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="48"/>
@@ -2212,11 +2303,11 @@
     <row r="4" spans="1:37" s="53" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="48"/>
       <c r="B4" s="48" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C4" s="59"/>
       <c r="D4" s="14" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="48"/>
@@ -2258,7 +2349,7 @@
       </c>
       <c r="C5" s="59"/>
       <c r="D5" s="14" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="48"/>
@@ -2299,10 +2390,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="48"/>
@@ -2343,10 +2434,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="48"/>
@@ -2389,7 +2480,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>1</v>
@@ -2404,25 +2495,23 @@
         <v>7</v>
       </c>
       <c r="H8" s="48" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="I8" s="48" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="J8" s="48" t="s">
-        <v>262</v>
-      </c>
-      <c r="K8" s="48" t="s">
-        <v>10</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="K8" s="48"/>
       <c r="L8" s="48" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="M8" s="48">
         <v>22000</v>
       </c>
       <c r="N8" s="52" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="O8" s="48"/>
       <c r="P8" s="48"/>
@@ -2458,273 +2547,424 @@
         <v>7</v>
       </c>
       <c r="AH8" s="48" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AI8" s="55" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="AJ8" s="62" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="59" t="s">
-        <v>245</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="48"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
       <c r="F9" s="48"/>
-      <c r="G9" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="I9" s="48" t="s">
-        <v>242</v>
-      </c>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
       <c r="J9" s="48" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K9" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="L9" s="48" t="s">
-        <v>241</v>
-      </c>
-      <c r="M9" s="48">
-        <v>33000</v>
-      </c>
-      <c r="N9" s="48">
-        <v>66000</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="52"/>
       <c r="O9" s="48"/>
       <c r="P9" s="48"/>
-      <c r="Q9" s="48">
-        <v>0</v>
-      </c>
-      <c r="R9" s="48">
-        <v>250</v>
-      </c>
-      <c r="S9" s="48">
-        <v>1141</v>
-      </c>
-      <c r="T9" s="48">
-        <v>3000</v>
-      </c>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48"/>
       <c r="U9" s="48"/>
       <c r="V9" s="48"/>
-      <c r="W9" s="48">
-        <v>5118</v>
-      </c>
-      <c r="X9" s="48">
-        <v>7000</v>
-      </c>
-      <c r="Y9" s="48">
-        <v>85</v>
-      </c>
-      <c r="Z9" s="48">
-        <v>12000</v>
-      </c>
-      <c r="AA9" s="48">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="48">
-        <v>116</v>
-      </c>
+      <c r="W9" s="48"/>
+      <c r="X9" s="48"/>
+      <c r="Y9" s="48"/>
+      <c r="Z9" s="48"/>
+      <c r="AA9" s="48"/>
+      <c r="AB9" s="48"/>
       <c r="AC9" s="48"/>
       <c r="AD9" s="48"/>
-      <c r="AE9" s="48">
-        <v>6344</v>
-      </c>
-      <c r="AF9" s="48">
-        <v>22000</v>
-      </c>
-      <c r="AG9" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH9" s="48" t="s">
-        <v>201</v>
-      </c>
-      <c r="AI9" s="55" t="s">
-        <v>260</v>
-      </c>
-      <c r="AJ9" s="62" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B10" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="60" t="s">
-        <v>290</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="AI10" s="4"/>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AE9" s="48"/>
+      <c r="AF9" s="48"/>
+      <c r="AG9" s="48"/>
+      <c r="AH9" s="48"/>
+      <c r="AI9" s="55"/>
+      <c r="AJ9" s="62"/>
+    </row>
+    <row r="10" spans="1:37" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="48"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="48" t="s">
+        <v>368</v>
+      </c>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="48"/>
+      <c r="X10" s="48"/>
+      <c r="Y10" s="48"/>
+      <c r="Z10" s="48"/>
+      <c r="AA10" s="48"/>
+      <c r="AB10" s="48"/>
+      <c r="AC10" s="48"/>
+      <c r="AD10" s="48"/>
+      <c r="AE10" s="48"/>
+      <c r="AF10" s="48"/>
+      <c r="AG10" s="48"/>
+      <c r="AH10" s="48"/>
+      <c r="AI10" s="55"/>
+      <c r="AJ10" s="62"/>
+    </row>
+    <row r="11" spans="1:37" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="48" t="s">
+        <v>2</v>
+      </c>
       <c r="B11" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="60" t="s">
-        <v>292</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="AI11" s="4"/>
+      <c r="C11" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="48" t="s">
+        <v>245</v>
+      </c>
+      <c r="I11" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="J11" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="L11" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="M11" s="48">
+        <v>33000</v>
+      </c>
+      <c r="N11" s="48">
+        <v>66000</v>
+      </c>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48">
+        <v>0</v>
+      </c>
+      <c r="R11" s="48">
+        <v>250</v>
+      </c>
+      <c r="S11" s="48">
+        <v>1141</v>
+      </c>
+      <c r="T11" s="48">
+        <v>3000</v>
+      </c>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="48">
+        <v>5118</v>
+      </c>
+      <c r="X11" s="48">
+        <v>7000</v>
+      </c>
+      <c r="Y11" s="48">
+        <v>85</v>
+      </c>
+      <c r="Z11" s="48">
+        <v>12000</v>
+      </c>
+      <c r="AA11" s="48">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="48">
+        <v>116</v>
+      </c>
+      <c r="AC11" s="48"/>
+      <c r="AD11" s="48"/>
+      <c r="AE11" s="48">
+        <v>6344</v>
+      </c>
+      <c r="AF11" s="48">
+        <v>22000</v>
+      </c>
+      <c r="AG11" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH11" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI11" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="AJ11" s="62" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B12" s="48" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="AI12" s="57" t="s">
-        <v>301</v>
-      </c>
-      <c r="AJ12" s="58" t="s">
-        <v>304</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="AI12" s="4"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B13" s="48" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="60" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="AI13" s="57" t="s">
-        <v>301</v>
-      </c>
-      <c r="AJ13" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>307</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="AI13" s="4"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A14" s="48" t="s">
+        <v>2</v>
+      </c>
       <c r="B14" s="48" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="E14" s="4"/>
+        <v>295</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>300</v>
+      </c>
       <c r="G14" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="H14" s="48" t="s">
+        <v>245</v>
+      </c>
       <c r="J14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI14" s="4"/>
+        <v>356</v>
+      </c>
+      <c r="M14" s="70">
+        <v>50900</v>
+      </c>
+      <c r="N14" s="70">
+        <f>N15+N16</f>
+        <v>51500</v>
+      </c>
+      <c r="AI14" s="57" t="s">
+        <v>294</v>
+      </c>
       <c r="AJ14" s="58" t="s">
-        <v>305</v>
+        <v>296</v>
+      </c>
+      <c r="AK14" s="62" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="C15" s="4"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="60"/>
       <c r="D15" s="4"/>
-      <c r="AI15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="H15" s="48"/>
+      <c r="J15" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="K15" s="74" t="s">
+        <v>354</v>
+      </c>
+      <c r="L15" s="75"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="77">
+        <v>33000</v>
+      </c>
+      <c r="O15" s="76"/>
+      <c r="P15" s="76">
+        <v>8000</v>
+      </c>
+      <c r="AI15" s="57"/>
+      <c r="AJ15" s="58"/>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="C16" s="4"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="60"/>
       <c r="D16" s="4"/>
-      <c r="AI16" s="4"/>
-    </row>
-    <row r="17" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="AI17" s="4"/>
-    </row>
-    <row r="18" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="H16" s="48"/>
+      <c r="J16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="74" t="s">
+        <v>353</v>
+      </c>
+      <c r="L16" s="75"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="77">
+        <v>18500</v>
+      </c>
+      <c r="O16" s="76"/>
+      <c r="P16" s="76"/>
+      <c r="AI16" s="57"/>
+      <c r="AJ16" s="58"/>
+    </row>
+    <row r="17" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B17" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="60" t="s">
+        <v>288</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="48" t="s">
+        <v>245</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="AI17" s="57" t="s">
+        <v>294</v>
+      </c>
+      <c r="AJ17" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>299</v>
+      </c>
+      <c r="AL17" s="62" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="18" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B18" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="G18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="AI18" s="4"/>
-    </row>
-    <row r="19" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="AJ18" s="58" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="19" spans="2:38" x14ac:dyDescent="0.25">
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="AI19" s="4"/>
-      <c r="AL19" s="63"/>
-    </row>
-    <row r="20" spans="3:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:38" x14ac:dyDescent="0.25">
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="AI20" s="4"/>
     </row>
-    <row r="21" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
       <c r="AI21" s="4"/>
     </row>
-    <row r="22" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
       <c r="AI22" s="4"/>
     </row>
-    <row r="23" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
       <c r="AI23" s="4"/>
-    </row>
-    <row r="24" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="AL23" s="63"/>
+    </row>
+    <row r="24" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
       <c r="AI24" s="4"/>
     </row>
-    <row r="25" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:38" x14ac:dyDescent="0.25">
       <c r="AI25" s="4"/>
+    </row>
+    <row r="26" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AI26" s="4"/>
+    </row>
+    <row r="27" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AI27" s="4"/>
+    </row>
+    <row r="28" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AI28" s="4"/>
+    </row>
+    <row r="29" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AI29" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AI9" r:id="rId1" xr:uid="{AFC4FBD9-B976-494A-B03A-AB1EAB18B51B}"/>
+    <hyperlink ref="AI11" r:id="rId1" xr:uid="{AFC4FBD9-B976-494A-B03A-AB1EAB18B51B}"/>
     <hyperlink ref="AI8" r:id="rId2" xr:uid="{D7F4DE6A-482F-4B61-B516-C25DB346BD3B}"/>
     <hyperlink ref="AI2" r:id="rId3" xr:uid="{0B74F9FB-031F-42F1-9C5F-A5A7655A5574}"/>
-    <hyperlink ref="AI13" r:id="rId4" xr:uid="{74647CF7-F191-47A1-BC6E-3E81582314C1}"/>
-    <hyperlink ref="AI12" r:id="rId5" xr:uid="{BBD6FBC9-7169-4E92-BAA1-BF361BDDDD4A}"/>
+    <hyperlink ref="AI17" r:id="rId4" xr:uid="{74647CF7-F191-47A1-BC6E-3E81582314C1}"/>
+    <hyperlink ref="AI14" r:id="rId5" xr:uid="{BBD6FBC9-7169-4E92-BAA1-BF361BDDDD4A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId6"/>
@@ -2733,11 +2973,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C1708F5-F567-4565-A221-ECE07B210A7F}">
-  <dimension ref="A1:AS50"/>
+  <dimension ref="A1:AT51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M17" sqref="M17"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2768,27 +3008,27 @@
     <col min="25" max="25" width="16.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="7" style="8" customWidth="1"/>
     <col min="28" max="30" width="6.42578125" style="8" customWidth="1"/>
-    <col min="31" max="31" width="14.85546875" style="8" customWidth="1"/>
-    <col min="32" max="32" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.28515625" style="8" customWidth="1"/>
     <col min="33" max="33" width="14.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="34" max="35" width="9.140625" style="1"/>
-    <col min="36" max="37" width="9.140625" style="8"/>
-    <col min="38" max="38" width="9.28515625" style="1" customWidth="1"/>
-    <col min="40" max="41" width="9.140625" style="8"/>
-    <col min="42" max="42" width="9.140625" style="1"/>
-    <col min="43" max="43" width="13.7109375" customWidth="1"/>
-    <col min="44" max="44" width="9.140625" style="5"/>
+    <col min="36" max="38" width="9.140625" style="8"/>
+    <col min="39" max="39" width="9.28515625" style="1" customWidth="1"/>
+    <col min="41" max="42" width="9.140625" style="8"/>
+    <col min="43" max="43" width="9.140625" style="1"/>
+    <col min="44" max="44" width="13.7109375" customWidth="1"/>
+    <col min="45" max="45" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>0</v>
@@ -2800,147 +3040,150 @@
         <v>5</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>8</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="J1" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="L1" s="16"/>
       <c r="M1" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="O1" s="39" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="P1" s="27" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="Q1" s="39" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="R1" s="39" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="S1" s="39" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="T1" s="15" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="U1" s="39" t="s">
+        <v>337</v>
+      </c>
+      <c r="V1" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="W1" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="X1" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y1" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z1" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA1" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB1" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC1" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD1" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE1" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="V1" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="W1" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="X1" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y1" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="Z1" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA1" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB1" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AF1" s="39" t="s">
+        <v>347</v>
+      </c>
+      <c r="AG1" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI1" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="AJ1" s="39" t="s">
+        <v>349</v>
+      </c>
+      <c r="AK1" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="AD1" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="AE1" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="AF1" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="AG1" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="AH1" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI1" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="AJ1" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="AK1" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="AL1" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="AM1" s="39" t="s">
-        <v>348</v>
-      </c>
-      <c r="AN1" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="AO1" s="39" t="s">
-        <v>350</v>
-      </c>
-      <c r="AP1" s="47" t="s">
-        <v>199</v>
+      <c r="AL1" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="AM1" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="AN1" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="AO1" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="AP1" s="39" t="s">
+        <v>341</v>
       </c>
       <c r="AQ1" s="47" t="s">
-        <v>200</v>
-      </c>
-      <c r="AR1" s="9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="AR1" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS1" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="17" t="s">
         <v>84</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>85</v>
       </c>
       <c r="D2" s="12">
         <v>1792</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="46"/>
       <c r="J2" s="37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
       <c r="M2" s="12"/>
-      <c r="N2" s="12">
+      <c r="N2" s="70">
         <v>30000</v>
       </c>
       <c r="O2" s="46"/>
@@ -2959,44 +3202,45 @@
       <c r="AB2" s="13"/>
       <c r="AC2" s="13"/>
       <c r="AD2" s="13"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="46"/>
       <c r="AG2" s="13"/>
       <c r="AH2" s="12"/>
       <c r="AI2" s="12"/>
-      <c r="AJ2" s="13"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="12"/>
-      <c r="AN2" s="12"/>
-      <c r="AO2" s="46"/>
-      <c r="AP2" s="12"/>
-      <c r="AQ2" s="11"/>
-    </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AJ2" s="46"/>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="12"/>
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="46"/>
+      <c r="AQ2" s="12"/>
+      <c r="AR2" s="11"/>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>87</v>
-      </c>
       <c r="E3" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I3" s="46"/>
       <c r="J3" s="37" t="s">
         <v>7</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L3" s="14"/>
       <c r="M3" s="12"/>
@@ -3017,47 +3261,48 @@
       <c r="AB3" s="13"/>
       <c r="AC3" s="13"/>
       <c r="AD3" s="13"/>
-      <c r="AE3" s="28"/>
-      <c r="AF3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="46"/>
       <c r="AG3" s="13"/>
       <c r="AH3" s="12"/>
       <c r="AI3" s="12"/>
-      <c r="AJ3" s="13"/>
-      <c r="AK3" s="28"/>
-      <c r="AL3" s="12"/>
-      <c r="AN3" s="12"/>
-      <c r="AO3" s="46"/>
-      <c r="AP3" s="12"/>
-      <c r="AQ3" s="11"/>
-      <c r="AR3" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AJ3" s="46"/>
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="28"/>
+      <c r="AM3" s="12"/>
+      <c r="AO3" s="12"/>
+      <c r="AP3" s="46"/>
+      <c r="AQ3" s="12"/>
+      <c r="AR3" s="11"/>
+      <c r="AS3" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>97</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>98</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>94</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>95</v>
       </c>
       <c r="I4" s="46"/>
       <c r="J4" s="66" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L4" s="14"/>
       <c r="M4" s="12"/>
@@ -3078,41 +3323,42 @@
       <c r="AB4" s="13"/>
       <c r="AC4" s="13"/>
       <c r="AD4" s="13"/>
-      <c r="AE4" s="28"/>
-      <c r="AF4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="46"/>
       <c r="AG4" s="13"/>
       <c r="AH4" s="12"/>
       <c r="AI4" s="12"/>
-      <c r="AJ4" s="13"/>
-      <c r="AK4" s="28"/>
-      <c r="AL4" s="12"/>
-      <c r="AN4" s="12"/>
-      <c r="AO4" s="46"/>
-      <c r="AP4" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="AQ4" s="11"/>
-    </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AJ4" s="46"/>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="28"/>
+      <c r="AM4" s="12"/>
+      <c r="AO4" s="12"/>
+      <c r="AP4" s="46"/>
+      <c r="AQ4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR4" s="11"/>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="46"/>
       <c r="J5" s="37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
@@ -3134,45 +3380,46 @@
       <c r="AB5" s="13"/>
       <c r="AC5" s="13"/>
       <c r="AD5" s="13"/>
-      <c r="AE5" s="28"/>
-      <c r="AF5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="46"/>
       <c r="AG5" s="13"/>
       <c r="AH5" s="12"/>
       <c r="AI5" s="12"/>
-      <c r="AJ5" s="13"/>
-      <c r="AK5" s="28"/>
-      <c r="AL5" s="12"/>
-      <c r="AN5" s="12"/>
-      <c r="AO5" s="46"/>
-      <c r="AP5" s="12"/>
-      <c r="AQ5" s="11"/>
-      <c r="AR5" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AJ5" s="46"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="28"/>
+      <c r="AM5" s="12"/>
+      <c r="AO5" s="12"/>
+      <c r="AP5" s="46"/>
+      <c r="AQ5" s="12"/>
+      <c r="AR5" s="11"/>
+      <c r="AS5" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="17"/>
       <c r="D6" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="46"/>
       <c r="J6" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
       <c r="M6" s="12"/>
-      <c r="N6" s="12">
+      <c r="N6" s="70">
         <v>12000</v>
       </c>
       <c r="O6" s="46"/>
@@ -3191,39 +3438,40 @@
       <c r="AB6" s="13"/>
       <c r="AC6" s="13"/>
       <c r="AD6" s="13"/>
-      <c r="AE6" s="28"/>
-      <c r="AF6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="46"/>
       <c r="AG6" s="13"/>
       <c r="AH6" s="12"/>
       <c r="AI6" s="12"/>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="28"/>
-      <c r="AL6" s="12"/>
-      <c r="AN6" s="12"/>
-      <c r="AO6" s="46"/>
-      <c r="AP6" s="12"/>
-      <c r="AQ6" s="11"/>
-    </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AJ6" s="46"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="28"/>
+      <c r="AM6" s="12"/>
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="46"/>
+      <c r="AQ6" s="12"/>
+      <c r="AR6" s="11"/>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="46"/>
       <c r="J7" s="37" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
@@ -3245,46 +3493,47 @@
       <c r="AB7" s="13"/>
       <c r="AC7" s="13"/>
       <c r="AD7" s="13"/>
-      <c r="AE7" s="28"/>
-      <c r="AF7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="46"/>
       <c r="AG7" s="13"/>
       <c r="AH7" s="12"/>
       <c r="AI7" s="12"/>
-      <c r="AJ7" s="13"/>
-      <c r="AK7" s="28"/>
-      <c r="AL7" s="12"/>
-      <c r="AN7" s="12"/>
-      <c r="AO7" s="46"/>
-      <c r="AP7" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ7" s="11"/>
-    </row>
-    <row r="8" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ7" s="46"/>
+      <c r="AK7" s="13"/>
+      <c r="AL7" s="28"/>
+      <c r="AM7" s="12"/>
+      <c r="AO7" s="12"/>
+      <c r="AP7" s="46"/>
+      <c r="AQ7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR7" s="11"/>
+    </row>
+    <row r="8" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>101</v>
-      </c>
       <c r="E8" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" s="21" t="s">
         <v>107</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>108</v>
       </c>
       <c r="I8" s="21"/>
       <c r="J8" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="K8" s="22" t="s">
         <v>109</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>110</v>
       </c>
       <c r="L8" s="22"/>
       <c r="M8" s="21"/>
@@ -3313,21 +3562,22 @@
       <c r="AJ8" s="21"/>
       <c r="AK8" s="21"/>
       <c r="AL8" s="21"/>
-      <c r="AN8" s="21"/>
+      <c r="AM8" s="21"/>
       <c r="AO8" s="21"/>
-      <c r="AP8" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="AQ8" s="20"/>
-      <c r="AR8" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AP8" s="21"/>
+      <c r="AQ8" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR8" s="20"/>
+      <c r="AS8" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="11"/>
@@ -3356,27 +3606,28 @@
       <c r="AB9" s="13"/>
       <c r="AC9" s="13"/>
       <c r="AD9" s="13"/>
-      <c r="AE9" s="28"/>
-      <c r="AF9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="46"/>
       <c r="AG9" s="13"/>
       <c r="AH9" s="12"/>
       <c r="AI9" s="12"/>
-      <c r="AJ9" s="13"/>
-      <c r="AK9" s="28"/>
-      <c r="AL9" s="12"/>
-      <c r="AN9" s="12"/>
-      <c r="AO9" s="46"/>
-      <c r="AP9" s="12"/>
-      <c r="AQ9" s="11"/>
-      <c r="AR9" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AJ9" s="46"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="28"/>
+      <c r="AM9" s="12"/>
+      <c r="AO9" s="12"/>
+      <c r="AP9" s="46"/>
+      <c r="AQ9" s="12"/>
+      <c r="AR9" s="11"/>
+      <c r="AS9" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="11"/>
@@ -3405,38 +3656,39 @@
       <c r="AB10" s="13"/>
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
-      <c r="AE10" s="28"/>
-      <c r="AF10" s="12"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="46"/>
       <c r="AG10" s="13"/>
       <c r="AH10" s="12"/>
       <c r="AI10" s="12"/>
-      <c r="AJ10" s="13"/>
-      <c r="AK10" s="28"/>
-      <c r="AL10" s="12"/>
-      <c r="AN10" s="12"/>
-      <c r="AO10" s="46"/>
-      <c r="AP10" s="12"/>
-      <c r="AQ10" s="11"/>
-      <c r="AR10" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AJ10" s="46"/>
+      <c r="AK10" s="13"/>
+      <c r="AL10" s="28"/>
+      <c r="AM10" s="12"/>
+      <c r="AO10" s="12"/>
+      <c r="AP10" s="46"/>
+      <c r="AQ10" s="12"/>
+      <c r="AR10" s="11"/>
+      <c r="AS10" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="17"/>
       <c r="D11" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="46"/>
       <c r="J11" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
@@ -3458,42 +3710,43 @@
       <c r="AB11" s="13"/>
       <c r="AC11" s="13"/>
       <c r="AD11" s="13"/>
-      <c r="AE11" s="28"/>
-      <c r="AF11" s="12"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="46"/>
       <c r="AG11" s="13"/>
       <c r="AH11" s="12"/>
       <c r="AI11" s="12"/>
-      <c r="AJ11" s="13"/>
-      <c r="AK11" s="28"/>
-      <c r="AL11" s="12"/>
-      <c r="AN11" s="12"/>
-      <c r="AO11" s="46"/>
-      <c r="AP11" s="12"/>
-      <c r="AQ11" s="11"/>
-      <c r="AR11" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AJ11" s="46"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="28"/>
+      <c r="AM11" s="12"/>
+      <c r="AO11" s="12"/>
+      <c r="AP11" s="46"/>
+      <c r="AQ11" s="12"/>
+      <c r="AR11" s="11"/>
+      <c r="AS11" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I12" s="46"/>
       <c r="J12" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
@@ -3515,22 +3768,23 @@
       <c r="AB12" s="13"/>
       <c r="AC12" s="13"/>
       <c r="AD12" s="13"/>
-      <c r="AE12" s="28"/>
-      <c r="AF12" s="12"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="46"/>
       <c r="AG12" s="13"/>
       <c r="AH12" s="12"/>
       <c r="AI12" s="12"/>
-      <c r="AJ12" s="13"/>
-      <c r="AK12" s="28"/>
-      <c r="AL12" s="12"/>
-      <c r="AN12" s="12"/>
-      <c r="AO12" s="46"/>
-      <c r="AP12" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="AQ12" s="11"/>
-    </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AJ12" s="46"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="28"/>
+      <c r="AM12" s="12"/>
+      <c r="AO12" s="12"/>
+      <c r="AP12" s="46"/>
+      <c r="AQ12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR12" s="11"/>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="17"/>
@@ -3569,49 +3823,50 @@
       <c r="AJ13" s="46"/>
       <c r="AK13" s="46"/>
       <c r="AL13" s="46"/>
-      <c r="AN13" s="46"/>
+      <c r="AM13" s="46"/>
       <c r="AO13" s="46"/>
       <c r="AP13" s="46"/>
-      <c r="AQ13" s="11"/>
-    </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AQ13" s="46"/>
+      <c r="AR13" s="11"/>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" s="46" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="I14" s="46" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="J14" s="37" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="M14" s="46"/>
-      <c r="N14" s="46">
+      <c r="N14" s="70">
         <v>5000</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O14" s="70">
         <v>7200</v>
       </c>
       <c r="P14" s="46"/>
@@ -3637,12 +3892,13 @@
       <c r="AJ14" s="46"/>
       <c r="AK14" s="46"/>
       <c r="AL14" s="46"/>
-      <c r="AN14" s="46"/>
+      <c r="AM14" s="46"/>
       <c r="AO14" s="46"/>
       <c r="AP14" s="46"/>
-      <c r="AQ14" s="11"/>
-    </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AQ14" s="46"/>
+      <c r="AR14" s="11"/>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="17"/>
@@ -3653,15 +3909,15 @@
       <c r="H15" s="46"/>
       <c r="I15" s="46"/>
       <c r="J15" s="37" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="L15" s="14"/>
       <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46">
+      <c r="N15" s="70"/>
+      <c r="O15" s="70">
         <v>3200</v>
       </c>
       <c r="P15" s="46"/>
@@ -3687,12 +3943,13 @@
       <c r="AJ15" s="46"/>
       <c r="AK15" s="46"/>
       <c r="AL15" s="46"/>
-      <c r="AN15" s="46"/>
+      <c r="AM15" s="46"/>
       <c r="AO15" s="46"/>
       <c r="AP15" s="46"/>
-      <c r="AQ15" s="11"/>
-    </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AQ15" s="46"/>
+      <c r="AR15" s="11"/>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="17"/>
@@ -3703,15 +3960,15 @@
       <c r="H16" s="46"/>
       <c r="I16" s="46"/>
       <c r="J16" s="37" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="L16" s="14"/>
       <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46">
+      <c r="N16" s="70"/>
+      <c r="O16" s="70">
         <v>3350</v>
       </c>
       <c r="P16" s="46"/>
@@ -3739,49 +3996,50 @@
       <c r="AJ16" s="46"/>
       <c r="AK16" s="46"/>
       <c r="AL16" s="46"/>
-      <c r="AN16" s="46"/>
+      <c r="AM16" s="46"/>
       <c r="AO16" s="46"/>
       <c r="AP16" s="46"/>
-      <c r="AQ16" s="11"/>
-    </row>
-    <row r="17" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ16" s="46"/>
+      <c r="AR16" s="11"/>
+    </row>
+    <row r="17" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I17" s="46" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="J17" s="37" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="L17" s="14" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="M17" s="12"/>
-      <c r="N17" s="12">
+      <c r="N17" s="70">
         <v>9000</v>
       </c>
-      <c r="O17" s="46">
+      <c r="O17" s="70">
         <v>6000</v>
       </c>
       <c r="P17" s="28"/>
@@ -3803,32 +4061,33 @@
       <c r="AB17" s="13"/>
       <c r="AC17" s="13"/>
       <c r="AD17" s="13"/>
-      <c r="AE17" s="28"/>
-      <c r="AF17" s="12"/>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="46"/>
       <c r="AG17" s="13"/>
       <c r="AH17" s="12"/>
       <c r="AI17" s="12"/>
-      <c r="AJ17" s="13"/>
-      <c r="AK17" s="28"/>
-      <c r="AL17" s="12">
+      <c r="AJ17" s="46"/>
+      <c r="AK17" s="13"/>
+      <c r="AL17" s="28"/>
+      <c r="AM17" s="12">
         <v>880</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>2500</v>
       </c>
-      <c r="AN17" s="12"/>
-      <c r="AO17" s="46">
+      <c r="AO17" s="12"/>
+      <c r="AP17" s="46">
         <v>12</v>
       </c>
-      <c r="AP17" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="AQ17" s="11"/>
-      <c r="AR17" s="37" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="18" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ17" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR17" s="11"/>
+      <c r="AS17" s="37" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="24"/>
       <c r="C18" s="17"/>
@@ -3867,13 +4126,14 @@
       <c r="AJ18" s="46"/>
       <c r="AK18" s="46"/>
       <c r="AL18" s="46"/>
-      <c r="AN18" s="46"/>
+      <c r="AM18" s="46"/>
       <c r="AO18" s="46"/>
       <c r="AP18" s="46"/>
-      <c r="AQ18" s="11"/>
-      <c r="AR18" s="64"/>
-    </row>
-    <row r="19" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ18" s="46"/>
+      <c r="AR18" s="11"/>
+      <c r="AS18" s="64"/>
+    </row>
+    <row r="19" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="24"/>
       <c r="C19" s="17"/>
@@ -3912,37 +4172,38 @@
       <c r="AJ19" s="46"/>
       <c r="AK19" s="46"/>
       <c r="AL19" s="46"/>
-      <c r="AN19" s="46"/>
+      <c r="AM19" s="46"/>
       <c r="AO19" s="46"/>
       <c r="AP19" s="46"/>
-      <c r="AQ19" s="11"/>
-      <c r="AR19" s="64"/>
-    </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AQ19" s="46"/>
+      <c r="AR19" s="11"/>
+      <c r="AS19" s="64"/>
+    </row>
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="11" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I20" s="46"/>
       <c r="J20" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="K20" s="14" t="s">
-        <v>53</v>
       </c>
       <c r="L20" s="14"/>
       <c r="M20" s="12"/>
@@ -3963,46 +4224,47 @@
       <c r="AB20" s="13"/>
       <c r="AC20" s="13"/>
       <c r="AD20" s="13"/>
-      <c r="AE20" s="28"/>
-      <c r="AF20" s="12"/>
+      <c r="AE20" s="12"/>
+      <c r="AF20" s="46"/>
       <c r="AG20" s="13"/>
       <c r="AH20" s="12"/>
       <c r="AI20" s="12"/>
-      <c r="AJ20" s="13"/>
-      <c r="AK20" s="28"/>
-      <c r="AL20" s="12">
+      <c r="AJ20" s="46"/>
+      <c r="AK20" s="13"/>
+      <c r="AL20" s="28"/>
+      <c r="AM20" s="12">
         <v>6000</v>
       </c>
-      <c r="AN20" s="12"/>
-      <c r="AO20" s="46"/>
-      <c r="AP20" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ20" s="11"/>
-    </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AO20" s="12"/>
+      <c r="AP20" s="46"/>
+      <c r="AQ20" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR20" s="11"/>
+    </row>
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I21" s="46"/>
       <c r="J21" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="K21" s="14" t="s">
         <v>56</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>57</v>
       </c>
       <c r="L21" s="14"/>
       <c r="M21" s="12"/>
@@ -4023,158 +4285,168 @@
       <c r="AB21" s="13"/>
       <c r="AC21" s="13"/>
       <c r="AD21" s="13"/>
-      <c r="AE21" s="28"/>
-      <c r="AF21" s="12"/>
+      <c r="AE21" s="12"/>
+      <c r="AF21" s="46"/>
       <c r="AG21" s="13"/>
       <c r="AH21" s="12"/>
       <c r="AI21" s="12"/>
-      <c r="AJ21" s="13"/>
-      <c r="AK21" s="28"/>
-      <c r="AL21" s="12"/>
-      <c r="AN21" s="12"/>
-      <c r="AO21" s="46"/>
-      <c r="AQ21" s="11"/>
-      <c r="AR21" s="37" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="22" spans="1:45" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="45" t="s">
-        <v>60</v>
+      <c r="AJ21" s="46"/>
+      <c r="AK21" s="13"/>
+      <c r="AL21" s="28"/>
+      <c r="AM21" s="12"/>
+      <c r="AO21" s="12"/>
+      <c r="AP21" s="46"/>
+      <c r="AR21" s="11"/>
+      <c r="AS21" s="37" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>360</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>63</v>
+        <v>359</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>51</v>
+      <c r="G22" s="46" t="s">
+        <v>313</v>
+      </c>
+      <c r="H22" s="46" t="s">
+        <v>364</v>
       </c>
       <c r="I22" s="46"/>
       <c r="J22" s="37" t="s">
-        <v>48</v>
+        <v>363</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>185</v>
+        <v>365</v>
       </c>
       <c r="L22" s="14"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
       <c r="O22" s="46"/>
-      <c r="P22" s="28"/>
+      <c r="P22" s="46"/>
       <c r="Q22" s="46"/>
       <c r="R22" s="46"/>
       <c r="S22" s="46"/>
-      <c r="T22" s="12"/>
+      <c r="T22" s="46"/>
       <c r="U22" s="46"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="13"/>
-      <c r="AB22" s="13"/>
-      <c r="AC22" s="13"/>
-      <c r="AD22" s="13"/>
-      <c r="AE22" s="28"/>
-      <c r="AF22" s="12"/>
-      <c r="AG22" s="13"/>
-      <c r="AH22" s="12"/>
-      <c r="AI22" s="12"/>
-      <c r="AJ22" s="13"/>
-      <c r="AK22" s="28"/>
-      <c r="AL22" s="12"/>
-      <c r="AN22" s="12"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="46"/>
+      <c r="X22" s="46"/>
+      <c r="Y22" s="46"/>
+      <c r="Z22" s="46"/>
+      <c r="AA22" s="46"/>
+      <c r="AB22" s="46"/>
+      <c r="AC22" s="46"/>
+      <c r="AD22" s="46"/>
+      <c r="AE22" s="46"/>
+      <c r="AF22" s="46"/>
+      <c r="AG22" s="46"/>
+      <c r="AH22" s="46"/>
+      <c r="AI22" s="46"/>
+      <c r="AJ22" s="46"/>
+      <c r="AK22" s="46"/>
+      <c r="AL22" s="46"/>
+      <c r="AM22" s="46"/>
       <c r="AO22" s="46"/>
-      <c r="AP22" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ22" s="11"/>
-    </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AP22" s="46"/>
+      <c r="AQ22" s="8"/>
+      <c r="AR22" s="11"/>
+      <c r="AS22" s="64"/>
+    </row>
+    <row r="23" spans="1:46" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="45" t="s">
-        <v>186</v>
+        <v>59</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>187</v>
+        <v>62</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43" t="s">
-        <v>51</v>
+      <c r="G23" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="I23" s="46"/>
       <c r="J23" s="37" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>117</v>
+        <v>179</v>
       </c>
       <c r="L23" s="14"/>
-      <c r="M23" s="43" t="s">
-        <v>190</v>
-      </c>
-      <c r="N23" s="43"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
       <c r="O23" s="46"/>
-      <c r="P23" s="43"/>
+      <c r="P23" s="28"/>
       <c r="Q23" s="46"/>
       <c r="R23" s="46"/>
       <c r="S23" s="46"/>
-      <c r="T23" s="43"/>
+      <c r="T23" s="12"/>
       <c r="U23" s="46"/>
-      <c r="V23" s="43"/>
-      <c r="W23" s="43"/>
-      <c r="X23" s="43"/>
-      <c r="Y23" s="43"/>
-      <c r="Z23" s="43"/>
-      <c r="AA23" s="43"/>
-      <c r="AB23" s="43"/>
-      <c r="AC23" s="43"/>
-      <c r="AD23" s="43"/>
-      <c r="AE23" s="43"/>
-      <c r="AF23" s="43"/>
-      <c r="AG23" s="43"/>
-      <c r="AH23" s="43"/>
-      <c r="AI23" s="43"/>
-      <c r="AJ23" s="43"/>
-      <c r="AK23" s="43"/>
-      <c r="AL23" s="43"/>
-      <c r="AN23" s="43"/>
-      <c r="AO23" s="46"/>
-      <c r="AP23" s="43"/>
-      <c r="AQ23" s="11"/>
-    </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="13"/>
+      <c r="AC23" s="13"/>
+      <c r="AD23" s="13"/>
+      <c r="AE23" s="12"/>
+      <c r="AF23" s="46"/>
+      <c r="AG23" s="13"/>
+      <c r="AH23" s="12"/>
+      <c r="AI23" s="12"/>
+      <c r="AJ23" s="46"/>
+      <c r="AK23" s="13"/>
+      <c r="AL23" s="28"/>
+      <c r="AM23" s="12"/>
+      <c r="AO23" s="12"/>
+      <c r="AP23" s="46"/>
+      <c r="AQ23" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR23" s="11"/>
+    </row>
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="45" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="43" t="s">
-        <v>74</v>
-      </c>
+      <c r="G24" s="43"/>
       <c r="H24" s="43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I24" s="46"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="37" t="s">
-        <v>191</v>
+      <c r="J24" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="L24" s="14"/>
+      <c r="M24" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="N24" s="43"/>
       <c r="O24" s="46"/>
@@ -4194,101 +4466,99 @@
       <c r="AC24" s="43"/>
       <c r="AD24" s="43"/>
       <c r="AE24" s="43"/>
-      <c r="AF24" s="43"/>
+      <c r="AF24" s="46"/>
       <c r="AG24" s="43"/>
       <c r="AH24" s="43"/>
       <c r="AI24" s="43"/>
-      <c r="AJ24" s="43"/>
+      <c r="AJ24" s="46"/>
       <c r="AK24" s="43"/>
       <c r="AL24" s="43"/>
-      <c r="AN24" s="43"/>
-      <c r="AO24" s="46"/>
-      <c r="AP24" s="43"/>
-      <c r="AQ24" s="11"/>
-    </row>
-    <row r="25" spans="1:45" ht="30" x14ac:dyDescent="0.25">
+      <c r="AM24" s="43"/>
+      <c r="AO24" s="43"/>
+      <c r="AP24" s="46"/>
+      <c r="AQ24" s="43"/>
+      <c r="AR24" s="11"/>
+    </row>
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="11" t="s">
-        <v>69</v>
-      </c>
+      <c r="C25" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="E25" s="11"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="H25" s="12"/>
+      <c r="G25" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" s="43" t="s">
+        <v>50</v>
+      </c>
       <c r="I25" s="46"/>
-      <c r="J25" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12" t="s">
-        <v>71</v>
-      </c>
+      <c r="J25" s="37"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="N25" s="43"/>
       <c r="O25" s="46"/>
-      <c r="P25" s="28"/>
+      <c r="P25" s="43"/>
       <c r="Q25" s="46"/>
       <c r="R25" s="46"/>
       <c r="S25" s="46"/>
-      <c r="T25" s="12"/>
+      <c r="T25" s="43"/>
       <c r="U25" s="46"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="13"/>
-      <c r="Y25" s="13"/>
-      <c r="Z25" s="13"/>
-      <c r="AA25" s="13"/>
-      <c r="AB25" s="13"/>
-      <c r="AC25" s="13"/>
-      <c r="AD25" s="13"/>
-      <c r="AE25" s="28"/>
-      <c r="AF25" s="12"/>
-      <c r="AG25" s="13"/>
-      <c r="AH25" s="12"/>
-      <c r="AI25" s="12"/>
-      <c r="AJ25" s="13"/>
-      <c r="AK25" s="28"/>
-      <c r="AL25" s="12"/>
-      <c r="AN25" s="12"/>
-      <c r="AO25" s="46"/>
-      <c r="AP25" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ25" s="11"/>
-    </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="V25" s="43"/>
+      <c r="W25" s="43"/>
+      <c r="X25" s="43"/>
+      <c r="Y25" s="43"/>
+      <c r="Z25" s="43"/>
+      <c r="AA25" s="43"/>
+      <c r="AB25" s="43"/>
+      <c r="AC25" s="43"/>
+      <c r="AD25" s="43"/>
+      <c r="AE25" s="43"/>
+      <c r="AF25" s="46"/>
+      <c r="AG25" s="43"/>
+      <c r="AH25" s="43"/>
+      <c r="AI25" s="43"/>
+      <c r="AJ25" s="46"/>
+      <c r="AK25" s="43"/>
+      <c r="AL25" s="43"/>
+      <c r="AM25" s="43"/>
+      <c r="AO25" s="43"/>
+      <c r="AP25" s="46"/>
+      <c r="AQ25" s="43"/>
+      <c r="AR25" s="11"/>
+    </row>
+    <row r="26" spans="1:46" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="11"/>
+        <v>69</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="11" t="s">
+        <v>68</v>
+      </c>
       <c r="F26" s="11"/>
       <c r="G26" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>51</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="H26" s="12"/>
       <c r="I26" s="46"/>
       <c r="J26" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="K26" s="14" t="s">
-        <v>76</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="K26" s="14"/>
       <c r="L26" s="14"/>
       <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
+      <c r="N26" s="12" t="s">
+        <v>70</v>
+      </c>
       <c r="O26" s="46"/>
       <c r="P26" s="28"/>
       <c r="Q26" s="46"/>
@@ -4305,42 +4575,45 @@
       <c r="AB26" s="13"/>
       <c r="AC26" s="13"/>
       <c r="AD26" s="13"/>
-      <c r="AE26" s="28"/>
-      <c r="AF26" s="12"/>
+      <c r="AE26" s="12"/>
+      <c r="AF26" s="46"/>
       <c r="AG26" s="13"/>
       <c r="AH26" s="12"/>
       <c r="AI26" s="12"/>
-      <c r="AJ26" s="13"/>
-      <c r="AK26" s="28"/>
-      <c r="AL26" s="12"/>
-      <c r="AN26" s="12"/>
-      <c r="AO26" s="46"/>
-      <c r="AP26" s="12"/>
-      <c r="AQ26" s="11"/>
-    </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AJ26" s="46"/>
+      <c r="AK26" s="13"/>
+      <c r="AL26" s="28"/>
+      <c r="AM26" s="12"/>
+      <c r="AO26" s="12"/>
+      <c r="AP26" s="46"/>
+      <c r="AQ26" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR26" s="11"/>
+    </row>
+    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="18" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="12" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c r="I27" s="46"/>
       <c r="J27" s="37" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="L27" s="14"/>
       <c r="M27" s="12"/>
@@ -4361,41 +4634,40 @@
       <c r="AB27" s="13"/>
       <c r="AC27" s="13"/>
       <c r="AD27" s="13"/>
-      <c r="AE27" s="28"/>
-      <c r="AF27" s="12"/>
+      <c r="AE27" s="12"/>
+      <c r="AF27" s="46"/>
       <c r="AG27" s="13"/>
       <c r="AH27" s="12"/>
       <c r="AI27" s="12"/>
-      <c r="AJ27" s="13"/>
-      <c r="AK27" s="28"/>
-      <c r="AL27" s="12"/>
-      <c r="AN27" s="12"/>
-      <c r="AO27" s="46"/>
-      <c r="AP27" s="12"/>
-      <c r="AQ27" s="11"/>
-    </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AJ27" s="46"/>
+      <c r="AK27" s="13"/>
+      <c r="AL27" s="28"/>
+      <c r="AM27" s="12"/>
+      <c r="AO27" s="12"/>
+      <c r="AP27" s="46"/>
+      <c r="AQ27" s="12"/>
+      <c r="AR27" s="11"/>
+    </row>
+    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="18" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>65</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="12" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="I28" s="46"/>
       <c r="J28" s="37" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="K28" s="14" t="s">
         <v>123</v>
@@ -4419,222 +4691,227 @@
       <c r="AB28" s="13"/>
       <c r="AC28" s="13"/>
       <c r="AD28" s="13"/>
-      <c r="AE28" s="28"/>
-      <c r="AF28" s="12"/>
+      <c r="AE28" s="12"/>
+      <c r="AF28" s="46"/>
       <c r="AG28" s="13"/>
       <c r="AH28" s="12"/>
       <c r="AI28" s="12"/>
-      <c r="AJ28" s="13"/>
-      <c r="AK28" s="28"/>
-      <c r="AL28" s="12"/>
-      <c r="AN28" s="12"/>
-      <c r="AO28" s="46"/>
-      <c r="AP28" s="12"/>
-      <c r="AQ28" s="11"/>
-    </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AJ28" s="46"/>
+      <c r="AK28" s="13"/>
+      <c r="AL28" s="28"/>
+      <c r="AM28" s="12"/>
+      <c r="AO28" s="12"/>
+      <c r="AP28" s="46"/>
+      <c r="AQ28" s="12"/>
+      <c r="AR28" s="11"/>
+    </row>
+    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
-      <c r="C29" s="61" t="s">
-        <v>326</v>
+      <c r="C29" s="18" t="s">
+        <v>65</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>328</v>
+        <v>63</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>327</v>
+        <v>64</v>
       </c>
       <c r="F29" s="11"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
+      <c r="G29" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="I29" s="46"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="14"/>
+      <c r="J29" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>122</v>
+      </c>
       <c r="L29" s="14"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="46"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
       <c r="O29" s="46"/>
-      <c r="P29" s="46"/>
+      <c r="P29" s="28"/>
       <c r="Q29" s="46"/>
       <c r="R29" s="46"/>
       <c r="S29" s="46"/>
-      <c r="T29" s="46"/>
+      <c r="T29" s="12"/>
       <c r="U29" s="46"/>
-      <c r="V29" s="46"/>
-      <c r="W29" s="46"/>
-      <c r="X29" s="46"/>
-      <c r="Y29" s="46"/>
-      <c r="Z29" s="46"/>
-      <c r="AA29" s="46"/>
-      <c r="AB29" s="46"/>
-      <c r="AC29" s="46"/>
-      <c r="AD29" s="46"/>
-      <c r="AE29" s="46"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="13"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="12"/>
       <c r="AF29" s="46"/>
-      <c r="AG29" s="46"/>
-      <c r="AH29" s="46"/>
-      <c r="AI29" s="46"/>
+      <c r="AG29" s="13"/>
+      <c r="AH29" s="12"/>
+      <c r="AI29" s="12"/>
       <c r="AJ29" s="46"/>
-      <c r="AK29" s="46"/>
-      <c r="AL29" s="46"/>
-      <c r="AN29" s="46"/>
-      <c r="AO29" s="46"/>
+      <c r="AK29" s="13"/>
+      <c r="AL29" s="28"/>
+      <c r="AM29" s="12"/>
+      <c r="AO29" s="12"/>
       <c r="AP29" s="46"/>
-      <c r="AQ29" s="11"/>
-      <c r="AS29" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>309</v>
-      </c>
+      <c r="AQ29" s="12"/>
+      <c r="AR29" s="11"/>
+    </row>
+    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
       <c r="B30" s="11"/>
-      <c r="C30" s="18" t="s">
-        <v>310</v>
+      <c r="C30" s="61" t="s">
+        <v>318</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="F30" s="11"/>
-      <c r="G30" s="40" t="s">
-        <v>313</v>
-      </c>
-      <c r="H30" s="40" t="s">
-        <v>314</v>
-      </c>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
       <c r="I30" s="46"/>
-      <c r="J30" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="K30" s="14" t="s">
-        <v>315</v>
-      </c>
+      <c r="J30" s="37"/>
+      <c r="K30" s="14"/>
       <c r="L30" s="14"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="40"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="46"/>
       <c r="O30" s="46"/>
-      <c r="P30" s="40"/>
+      <c r="P30" s="46"/>
       <c r="Q30" s="46"/>
       <c r="R30" s="46"/>
       <c r="S30" s="46"/>
-      <c r="T30" s="40"/>
+      <c r="T30" s="46"/>
       <c r="U30" s="46"/>
-      <c r="V30" s="40"/>
-      <c r="W30" s="40"/>
-      <c r="X30" s="40"/>
-      <c r="Y30" s="40"/>
-      <c r="Z30" s="40"/>
-      <c r="AA30" s="40"/>
-      <c r="AB30" s="40"/>
-      <c r="AC30" s="40"/>
-      <c r="AD30" s="40"/>
-      <c r="AE30" s="40"/>
-      <c r="AF30" s="40"/>
-      <c r="AG30" s="40"/>
-      <c r="AH30" s="40"/>
-      <c r="AI30" s="40"/>
-      <c r="AJ30" s="40"/>
-      <c r="AK30" s="40"/>
-      <c r="AL30" s="40"/>
-      <c r="AN30" s="40"/>
+      <c r="V30" s="46"/>
+      <c r="W30" s="46"/>
+      <c r="X30" s="46"/>
+      <c r="Y30" s="46"/>
+      <c r="Z30" s="46"/>
+      <c r="AA30" s="46"/>
+      <c r="AB30" s="46"/>
+      <c r="AC30" s="46"/>
+      <c r="AD30" s="46"/>
+      <c r="AE30" s="46"/>
+      <c r="AF30" s="46"/>
+      <c r="AG30" s="46"/>
+      <c r="AH30" s="46"/>
+      <c r="AI30" s="46"/>
+      <c r="AJ30" s="46"/>
+      <c r="AK30" s="46"/>
+      <c r="AL30" s="46"/>
+      <c r="AM30" s="46"/>
       <c r="AO30" s="46"/>
-      <c r="AP30" s="40"/>
-      <c r="AQ30" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="AR30" s="5" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AP30" s="46"/>
+      <c r="AQ30" s="46"/>
+      <c r="AR30" s="11"/>
+      <c r="AT30" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="18" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="F31" s="11"/>
-      <c r="G31" s="46" t="s">
-        <v>321</v>
-      </c>
-      <c r="H31" s="46" t="s">
-        <v>320</v>
+      <c r="G31" s="40" t="s">
+        <v>305</v>
+      </c>
+      <c r="H31" s="40" t="s">
+        <v>306</v>
       </c>
       <c r="I31" s="46"/>
       <c r="J31" s="37" t="s">
-        <v>322</v>
+        <v>66</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="L31" s="14"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
       <c r="O31" s="46"/>
-      <c r="P31" s="46"/>
+      <c r="P31" s="40"/>
       <c r="Q31" s="46"/>
       <c r="R31" s="46"/>
       <c r="S31" s="46"/>
-      <c r="T31" s="46"/>
+      <c r="T31" s="40"/>
       <c r="U31" s="46"/>
-      <c r="V31" s="46"/>
-      <c r="W31" s="46"/>
-      <c r="X31" s="46"/>
-      <c r="Y31" s="46"/>
-      <c r="Z31" s="46"/>
-      <c r="AA31" s="46"/>
-      <c r="AB31" s="46"/>
-      <c r="AC31" s="46"/>
-      <c r="AD31" s="46"/>
-      <c r="AE31" s="46"/>
+      <c r="V31" s="40"/>
+      <c r="W31" s="40"/>
+      <c r="X31" s="40"/>
+      <c r="Y31" s="40"/>
+      <c r="Z31" s="40"/>
+      <c r="AA31" s="40"/>
+      <c r="AB31" s="40"/>
+      <c r="AC31" s="40"/>
+      <c r="AD31" s="40"/>
+      <c r="AE31" s="40"/>
       <c r="AF31" s="46"/>
-      <c r="AG31" s="46"/>
-      <c r="AH31" s="46"/>
-      <c r="AI31" s="46"/>
+      <c r="AG31" s="40"/>
+      <c r="AH31" s="40"/>
+      <c r="AI31" s="40"/>
       <c r="AJ31" s="46"/>
-      <c r="AK31" s="46"/>
-      <c r="AL31" s="46"/>
-      <c r="AN31" s="46"/>
-      <c r="AO31" s="46"/>
+      <c r="AK31" s="40"/>
+      <c r="AL31" s="40"/>
+      <c r="AM31" s="40"/>
+      <c r="AO31" s="40"/>
       <c r="AP31" s="46"/>
-      <c r="AQ31" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="AR31" s="5" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="32" spans="1:45" ht="30" x14ac:dyDescent="0.25">
+      <c r="AQ31" s="40"/>
+      <c r="AR31" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="AS31" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>194</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="B32" s="11"/>
       <c r="C32" s="18" t="s">
-        <v>192</v>
+        <v>310</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="E32" s="11"/>
+        <v>311</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>321</v>
+      </c>
       <c r="F32" s="11"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
+      <c r="G32" s="46" t="s">
+        <v>313</v>
+      </c>
+      <c r="H32" s="46" t="s">
+        <v>312</v>
+      </c>
       <c r="I32" s="46"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="14"/>
+      <c r="J32" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>315</v>
+      </c>
       <c r="L32" s="14"/>
       <c r="M32" s="46"/>
       <c r="N32" s="46"/>
@@ -4662,40 +4939,42 @@
       <c r="AJ32" s="46"/>
       <c r="AK32" s="46"/>
       <c r="AL32" s="46"/>
-      <c r="AN32" s="46"/>
+      <c r="AM32" s="46"/>
       <c r="AO32" s="46"/>
       <c r="AP32" s="46"/>
-      <c r="AQ32" s="11"/>
-    </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
+      <c r="AQ32" s="46"/>
+      <c r="AR32" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="AS32" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:45" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>188</v>
+      </c>
       <c r="C33" s="18" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>198</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="46"/>
-      <c r="H33" s="46" t="s">
-        <v>51</v>
-      </c>
+      <c r="H33" s="46"/>
       <c r="I33" s="46"/>
       <c r="J33" s="37"/>
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
       <c r="M33" s="46"/>
-      <c r="N33" s="46">
-        <v>17000</v>
-      </c>
+      <c r="N33" s="46"/>
       <c r="O33" s="46"/>
-      <c r="P33" s="46">
-        <v>3000</v>
-      </c>
+      <c r="P33" s="46"/>
       <c r="Q33" s="46"/>
       <c r="R33" s="46"/>
       <c r="S33" s="46"/>
@@ -4718,326 +4997,321 @@
       <c r="AJ33" s="46"/>
       <c r="AK33" s="46"/>
       <c r="AL33" s="46"/>
-      <c r="AN33" s="46"/>
+      <c r="AM33" s="46"/>
       <c r="AO33" s="46"/>
       <c r="AP33" s="46"/>
-      <c r="AQ33" s="11"/>
-    </row>
-    <row r="34" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ33" s="46"/>
+      <c r="AR33" s="11"/>
+    </row>
+    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
-      <c r="B34" s="11" t="s">
-        <v>118</v>
-      </c>
+      <c r="B34" s="11"/>
       <c r="C34" s="18" t="s">
-        <v>113</v>
+        <v>190</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>114</v>
+        <v>191</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>115</v>
+        <v>192</v>
       </c>
       <c r="F34" s="11"/>
-      <c r="G34" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>116</v>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46" t="s">
+        <v>50</v>
       </c>
       <c r="I34" s="46"/>
-      <c r="J34" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="K34" s="14" t="s">
-        <v>117</v>
-      </c>
+      <c r="J34" s="37"/>
+      <c r="K34" s="14"/>
       <c r="L34" s="14"/>
-      <c r="M34" s="12">
-        <v>13</v>
-      </c>
-      <c r="N34" s="12"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="70">
+        <v>17000</v>
+      </c>
       <c r="O34" s="46"/>
-      <c r="P34" s="28"/>
+      <c r="P34" s="70">
+        <v>3000</v>
+      </c>
       <c r="Q34" s="46"/>
       <c r="R34" s="46"/>
       <c r="S34" s="46"/>
-      <c r="T34" s="12">
+      <c r="T34" s="46"/>
+      <c r="U34" s="46"/>
+      <c r="V34" s="46"/>
+      <c r="W34" s="46"/>
+      <c r="X34" s="46"/>
+      <c r="Y34" s="46"/>
+      <c r="Z34" s="46"/>
+      <c r="AA34" s="46"/>
+      <c r="AB34" s="46"/>
+      <c r="AC34" s="46"/>
+      <c r="AD34" s="46"/>
+      <c r="AE34" s="46"/>
+      <c r="AF34" s="46"/>
+      <c r="AG34" s="46"/>
+      <c r="AH34" s="46"/>
+      <c r="AI34" s="46"/>
+      <c r="AJ34" s="46"/>
+      <c r="AK34" s="46"/>
+      <c r="AL34" s="46"/>
+      <c r="AM34" s="46"/>
+      <c r="AO34" s="46"/>
+      <c r="AP34" s="46"/>
+      <c r="AQ34" s="46"/>
+      <c r="AR34" s="11"/>
+    </row>
+    <row r="35" spans="1:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" s="11"/>
+      <c r="G35" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="I35" s="46"/>
+      <c r="J35" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="K35" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="L35" s="14"/>
+      <c r="M35" s="12">
+        <v>13</v>
+      </c>
+      <c r="N35" s="12"/>
+      <c r="O35" s="46"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="46"/>
+      <c r="R35" s="46"/>
+      <c r="S35" s="46"/>
+      <c r="T35" s="12">
         <v>15</v>
       </c>
-      <c r="U34" s="46">
+      <c r="U35" s="46">
         <v>15</v>
       </c>
-      <c r="V34" s="13"/>
-      <c r="W34" s="13"/>
-      <c r="X34" s="13"/>
-      <c r="Y34" s="13"/>
-      <c r="Z34" s="13"/>
-      <c r="AA34" s="13"/>
-      <c r="AB34" s="13"/>
-      <c r="AC34" s="13"/>
-      <c r="AD34" s="13"/>
-      <c r="AE34" s="28"/>
-      <c r="AF34" s="12"/>
-      <c r="AG34" s="13"/>
-      <c r="AH34" s="12"/>
-      <c r="AI34" s="12"/>
-      <c r="AJ34" s="13"/>
-      <c r="AK34" s="28"/>
-      <c r="AL34" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="AN34" s="12">
+      <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="13"/>
+      <c r="Z35" s="13"/>
+      <c r="AA35" s="13"/>
+      <c r="AB35" s="13"/>
+      <c r="AC35" s="13"/>
+      <c r="AD35" s="13"/>
+      <c r="AE35" s="12"/>
+      <c r="AF35" s="46"/>
+      <c r="AG35" s="13"/>
+      <c r="AH35" s="12"/>
+      <c r="AI35" s="12"/>
+      <c r="AJ35" s="46"/>
+      <c r="AK35" s="13"/>
+      <c r="AL35" s="28"/>
+      <c r="AM35" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="AO35" s="12">
         <v>4</v>
       </c>
-      <c r="AO34" s="46">
+      <c r="AP35" s="46">
         <v>4</v>
       </c>
-      <c r="AP34" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="AQ34" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="AR34" s="25" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" spans="1:44" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29" t="s">
+      <c r="AQ35" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR35" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS35" s="25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:45" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="29"/>
+      <c r="B36" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="F36" s="29"/>
+      <c r="G36" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="H36" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="I36" s="32"/>
+      <c r="J36" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="C35" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="D35" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="E35" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="F35" s="29"/>
-      <c r="G35" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="H35" s="32" t="s">
+      <c r="K36" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="I35" s="32"/>
-      <c r="J35" s="68" t="s">
-        <v>137</v>
-      </c>
-      <c r="K35" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="L35" s="33"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="32"/>
-      <c r="R35" s="32"/>
-      <c r="S35" s="32"/>
-      <c r="T35" s="32"/>
-      <c r="U35" s="32"/>
-      <c r="V35" s="32">
+      <c r="L36" s="33"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="32"/>
+      <c r="U36" s="32"/>
+      <c r="V36" s="32">
         <v>4</v>
       </c>
-      <c r="W35" s="32">
+      <c r="W36" s="32">
         <v>0</v>
       </c>
-      <c r="X35" s="32">
+      <c r="X36" s="32">
         <v>29</v>
       </c>
-      <c r="Y35" s="32">
+      <c r="Y36" s="32">
         <v>33</v>
       </c>
-      <c r="Z35" s="32">
+      <c r="Z36" s="32">
         <v>5</v>
       </c>
-      <c r="AA35" s="32">
+      <c r="AA36" s="32">
         <v>2</v>
       </c>
-      <c r="AB35" s="32"/>
-      <c r="AC35" s="32"/>
-      <c r="AD35" s="32">
+      <c r="AB36" s="32"/>
+      <c r="AC36" s="32"/>
+      <c r="AD36" s="32">
         <v>40</v>
       </c>
-      <c r="AE35" s="32"/>
-      <c r="AF35" s="32">
+      <c r="AE36" s="72">
         <v>4395</v>
       </c>
-      <c r="AG35" s="32">
+      <c r="AF36" s="32"/>
+      <c r="AG36" s="32">
         <v>1</v>
       </c>
-      <c r="AH35" s="32">
+      <c r="AH36" s="32">
         <v>2541</v>
       </c>
-      <c r="AI35" s="32">
+      <c r="AI36" s="32">
         <v>7500</v>
       </c>
-      <c r="AJ35" s="32">
+      <c r="AJ36" s="32"/>
+      <c r="AK36" s="32">
         <v>21</v>
       </c>
-      <c r="AK35" s="32"/>
-      <c r="AL35" s="32"/>
-      <c r="AN35" s="32"/>
-      <c r="AO35" s="32"/>
-      <c r="AP35" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="AQ35" s="34"/>
-      <c r="AR35" s="35"/>
-    </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="I36" s="46"/>
-      <c r="J36" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="K36" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="L36" s="14"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="46"/>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="46"/>
-      <c r="R36" s="46"/>
-      <c r="S36" s="46"/>
-      <c r="T36" s="12"/>
-      <c r="U36" s="46"/>
-      <c r="V36" s="13"/>
-      <c r="W36" s="13"/>
-      <c r="X36" s="13"/>
-      <c r="Y36" s="13"/>
-      <c r="Z36" s="13"/>
-      <c r="AA36" s="13"/>
-      <c r="AB36" s="13"/>
-      <c r="AC36" s="13"/>
-      <c r="AD36" s="13"/>
-      <c r="AE36" s="28"/>
-      <c r="AF36" s="12"/>
-      <c r="AG36" s="13"/>
-      <c r="AH36" s="12"/>
-      <c r="AI36" s="12"/>
-      <c r="AJ36" s="13"/>
-      <c r="AK36" s="28"/>
-      <c r="AL36" s="12"/>
-      <c r="AN36" s="12"/>
-      <c r="AO36" s="46"/>
-      <c r="AP36" s="12"/>
-      <c r="AQ36" s="23"/>
-      <c r="AR36" s="26"/>
-    </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AL36" s="32"/>
+      <c r="AM36" s="32"/>
+      <c r="AO36" s="32"/>
+      <c r="AP36" s="32"/>
+      <c r="AQ36" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="AR36" s="34"/>
+      <c r="AS36" s="35"/>
+    </row>
+    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="18" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>177</v>
+        <v>129</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
+      <c r="G37" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>115</v>
+      </c>
       <c r="I37" s="46"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="14"/>
+      <c r="J37" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="K37" s="14" t="s">
+        <v>116</v>
+      </c>
       <c r="L37" s="14"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
       <c r="O37" s="46"/>
-      <c r="P37" s="40"/>
+      <c r="P37" s="28"/>
       <c r="Q37" s="46"/>
       <c r="R37" s="46"/>
       <c r="S37" s="46"/>
-      <c r="T37" s="40"/>
+      <c r="T37" s="12"/>
       <c r="U37" s="46"/>
-      <c r="V37" s="40"/>
-      <c r="W37" s="40"/>
-      <c r="X37" s="40"/>
-      <c r="Y37" s="40"/>
-      <c r="Z37" s="40"/>
-      <c r="AA37" s="40"/>
-      <c r="AB37" s="40"/>
-      <c r="AC37" s="40"/>
-      <c r="AD37" s="40"/>
-      <c r="AE37" s="40"/>
-      <c r="AF37" s="40"/>
-      <c r="AG37" s="40"/>
-      <c r="AH37" s="40"/>
-      <c r="AI37" s="40"/>
-      <c r="AJ37" s="40"/>
-      <c r="AK37" s="40"/>
-      <c r="AL37" s="40"/>
-      <c r="AN37" s="40"/>
-      <c r="AO37" s="46"/>
-      <c r="AP37" s="40"/>
-      <c r="AQ37" s="23"/>
-      <c r="AR37" s="26"/>
-    </row>
-    <row r="38" spans="1:44" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V37" s="13"/>
+      <c r="W37" s="13"/>
+      <c r="X37" s="13"/>
+      <c r="Y37" s="13"/>
+      <c r="Z37" s="13"/>
+      <c r="AA37" s="13"/>
+      <c r="AB37" s="13"/>
+      <c r="AC37" s="13"/>
+      <c r="AD37" s="13"/>
+      <c r="AE37" s="12"/>
+      <c r="AF37" s="46"/>
+      <c r="AG37" s="13"/>
+      <c r="AH37" s="12"/>
+      <c r="AI37" s="12"/>
+      <c r="AJ37" s="46"/>
+      <c r="AK37" s="13"/>
+      <c r="AL37" s="28"/>
+      <c r="AM37" s="12"/>
+      <c r="AO37" s="12"/>
+      <c r="AP37" s="46"/>
+      <c r="AQ37" s="12"/>
+      <c r="AR37" s="23"/>
+      <c r="AS37" s="26"/>
+    </row>
+    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
-      <c r="B38" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="C38" s="42" t="s">
+      <c r="B38" s="11"/>
+      <c r="C38" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="D38" s="19" t="s">
         <v>174</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>181</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="H38" s="40" t="s">
-        <v>13</v>
-      </c>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
       <c r="I38" s="46"/>
-      <c r="J38" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="K38" s="14" t="s">
-        <v>182</v>
-      </c>
+      <c r="J38" s="37"/>
+      <c r="K38" s="14"/>
       <c r="L38" s="14"/>
       <c r="M38" s="40"/>
-      <c r="N38" s="1">
-        <v>40000</v>
-      </c>
-      <c r="P38" s="40">
-        <v>8000</v>
-      </c>
+      <c r="N38" s="40"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="40"/>
       <c r="Q38" s="46"/>
       <c r="R38" s="46"/>
       <c r="S38" s="46"/>
-      <c r="T38" s="40">
-        <v>110</v>
-      </c>
-      <c r="U38" s="46">
-        <v>110</v>
-      </c>
+      <c r="T38" s="40"/>
+      <c r="U38" s="46"/>
       <c r="V38" s="40"/>
       <c r="W38" s="40"/>
       <c r="X38" s="40"/>
@@ -5047,56 +5321,67 @@
       <c r="AB38" s="40"/>
       <c r="AC38" s="40"/>
       <c r="AD38" s="40"/>
-      <c r="AE38" s="40">
-        <v>200000</v>
-      </c>
-      <c r="AF38" s="40"/>
+      <c r="AE38" s="40"/>
+      <c r="AF38" s="46"/>
       <c r="AG38" s="40"/>
       <c r="AH38" s="40"/>
       <c r="AI38" s="40"/>
-      <c r="AJ38" s="40"/>
+      <c r="AJ38" s="46"/>
       <c r="AK38" s="40"/>
-      <c r="AL38" s="40">
-        <v>6500</v>
-      </c>
-      <c r="AN38" s="40"/>
-      <c r="AO38" s="46"/>
-      <c r="AP38" s="40"/>
-      <c r="AQ38" s="23"/>
-      <c r="AR38" s="26"/>
-    </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AL38" s="40"/>
+      <c r="AM38" s="40"/>
+      <c r="AO38" s="40"/>
+      <c r="AP38" s="46"/>
+      <c r="AQ38" s="40"/>
+      <c r="AR38" s="23"/>
+      <c r="AS38" s="26"/>
+    </row>
+    <row r="39" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
+      <c r="B39" s="11" t="s">
+        <v>173</v>
+      </c>
       <c r="C39" s="42" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="40" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H39" s="40" t="s">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="I39" s="46"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="14"/>
+      <c r="J39" s="37" t="s">
+        <v>343</v>
+      </c>
+      <c r="K39" s="14" t="s">
+        <v>342</v>
+      </c>
       <c r="L39" s="14"/>
       <c r="M39" s="40"/>
-      <c r="N39" s="40">
-        <v>28000</v>
-      </c>
-      <c r="O39" s="46"/>
-      <c r="P39" s="40"/>
+      <c r="N39" s="70">
+        <v>40000</v>
+      </c>
+      <c r="O39" s="70">
+        <v>55000</v>
+      </c>
+      <c r="P39" s="70">
+        <v>8000</v>
+      </c>
       <c r="Q39" s="46"/>
       <c r="R39" s="46"/>
       <c r="S39" s="46"/>
-      <c r="T39" s="40"/>
-      <c r="U39" s="46"/>
+      <c r="T39" s="40">
+        <v>110</v>
+      </c>
+      <c r="U39" s="46">
+        <v>110</v>
+      </c>
       <c r="V39" s="40"/>
       <c r="W39" s="40"/>
       <c r="X39" s="40"/>
@@ -5106,134 +5391,141 @@
       <c r="AB39" s="40"/>
       <c r="AC39" s="40"/>
       <c r="AD39" s="40"/>
-      <c r="AE39" s="40"/>
-      <c r="AF39" s="40">
-        <v>7000</v>
+      <c r="AE39" s="71"/>
+      <c r="AF39" s="71">
+        <v>10000</v>
       </c>
       <c r="AG39" s="40"/>
       <c r="AH39" s="40"/>
       <c r="AI39" s="40"/>
-      <c r="AJ39" s="40"/>
+      <c r="AJ39" s="73">
+        <v>15000</v>
+      </c>
       <c r="AK39" s="40"/>
       <c r="AL39" s="40"/>
-      <c r="AN39" s="40"/>
-      <c r="AO39" s="46"/>
-      <c r="AP39" s="40"/>
-      <c r="AQ39" s="23"/>
-      <c r="AR39" s="26"/>
-    </row>
-    <row r="40" spans="1:44" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="AM39" s="40">
+        <v>6500</v>
+      </c>
+      <c r="AO39" s="40"/>
+      <c r="AP39" s="46">
+        <v>150</v>
+      </c>
+      <c r="AQ39" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR39" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="AS39" s="26" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="E40" s="11"/>
       <c r="F40" s="11"/>
-      <c r="G40" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>13</v>
+      <c r="G40" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="H40" s="40" t="s">
+        <v>344</v>
       </c>
       <c r="I40" s="46"/>
-      <c r="J40" s="37" t="s">
-        <v>26</v>
-      </c>
+      <c r="J40" s="37"/>
       <c r="K40" s="14" t="s">
-        <v>125</v>
+        <v>345</v>
       </c>
       <c r="L40" s="14"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12">
-        <v>20000</v>
-      </c>
-      <c r="O40" s="46"/>
-      <c r="P40" s="28"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="70">
+        <v>26000</v>
+      </c>
+      <c r="O40" s="70">
+        <v>64000</v>
+      </c>
+      <c r="P40" s="40"/>
       <c r="Q40" s="46"/>
       <c r="R40" s="46"/>
       <c r="S40" s="46"/>
-      <c r="T40" s="12"/>
+      <c r="T40" s="40"/>
       <c r="U40" s="46"/>
-      <c r="V40" s="13"/>
-      <c r="W40" s="13"/>
-      <c r="X40" s="13"/>
-      <c r="Y40" s="13"/>
-      <c r="Z40" s="13"/>
-      <c r="AA40" s="13"/>
-      <c r="AB40" s="13"/>
-      <c r="AC40" s="13"/>
-      <c r="AD40" s="13"/>
-      <c r="AE40" s="28"/>
-      <c r="AF40" s="12">
-        <v>2000</v>
-      </c>
-      <c r="AG40" s="13"/>
-      <c r="AH40" s="12"/>
-      <c r="AI40" s="12"/>
-      <c r="AJ40" s="13"/>
-      <c r="AK40" s="28"/>
-      <c r="AL40" s="12"/>
-      <c r="AN40" s="12"/>
-      <c r="AO40" s="46"/>
-      <c r="AP40" s="12"/>
-      <c r="AQ40" s="11"/>
-    </row>
-    <row r="41" spans="1:44" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>155</v>
+      <c r="V40" s="40"/>
+      <c r="W40" s="40"/>
+      <c r="X40" s="40"/>
+      <c r="Y40" s="40"/>
+      <c r="Z40" s="40"/>
+      <c r="AA40" s="40"/>
+      <c r="AB40" s="40"/>
+      <c r="AC40" s="40"/>
+      <c r="AD40" s="40"/>
+      <c r="AE40" s="71">
+        <v>7000</v>
+      </c>
+      <c r="AF40" s="46"/>
+      <c r="AG40" s="40"/>
+      <c r="AH40" s="40"/>
+      <c r="AI40" s="40"/>
+      <c r="AJ40" s="46"/>
+      <c r="AK40" s="40"/>
+      <c r="AL40" s="40"/>
+      <c r="AM40" s="40"/>
+      <c r="AO40" s="40"/>
+      <c r="AP40" s="46"/>
+      <c r="AQ40" s="40"/>
+      <c r="AR40" s="23"/>
+      <c r="AS40" s="26" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="41" spans="1:45" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="F41" s="11"/>
-      <c r="G41" s="28" t="s">
+      <c r="G41" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H41" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="I41" s="19"/>
+      <c r="I41" s="46"/>
       <c r="J41" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="K41" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="L41" s="38"/>
+        <v>25</v>
+      </c>
+      <c r="K41" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="L41" s="14"/>
       <c r="M41" s="12"/>
-      <c r="N41" s="12">
-        <v>50700</v>
+      <c r="N41" s="70">
+        <v>20000</v>
       </c>
       <c r="O41" s="46"/>
-      <c r="P41" s="28">
-        <v>14390</v>
-      </c>
+      <c r="P41" s="28"/>
       <c r="Q41" s="46"/>
       <c r="R41" s="46"/>
       <c r="S41" s="46"/>
-      <c r="T41" s="12">
-        <v>252</v>
-      </c>
-      <c r="U41" s="46">
-        <v>252</v>
-      </c>
+      <c r="T41" s="12"/>
+      <c r="U41" s="46"/>
       <c r="V41" s="13"/>
       <c r="W41" s="13"/>
       <c r="X41" s="13"/>
@@ -5243,90 +5535,160 @@
       <c r="AB41" s="13"/>
       <c r="AC41" s="13"/>
       <c r="AD41" s="13"/>
-      <c r="AE41" s="28">
-        <v>73000</v>
-      </c>
-      <c r="AF41" s="12"/>
+      <c r="AE41" s="71">
+        <v>2000</v>
+      </c>
+      <c r="AF41" s="46"/>
       <c r="AG41" s="13"/>
       <c r="AH41" s="12"/>
-      <c r="AI41" s="12">
+      <c r="AI41" s="12"/>
+      <c r="AJ41" s="46"/>
+      <c r="AK41" s="13"/>
+      <c r="AL41" s="28"/>
+      <c r="AM41" s="12"/>
+      <c r="AO41" s="12"/>
+      <c r="AP41" s="46"/>
+      <c r="AQ41" s="12"/>
+      <c r="AR41" s="11"/>
+    </row>
+    <row r="42" spans="1:45" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F42" s="11"/>
+      <c r="G42" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="I42" s="19"/>
+      <c r="J42" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="K42" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="L42" s="38"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="70">
+        <v>50700</v>
+      </c>
+      <c r="O42" s="46"/>
+      <c r="P42" s="70">
+        <v>14390</v>
+      </c>
+      <c r="Q42" s="46"/>
+      <c r="R42" s="46"/>
+      <c r="S42" s="46"/>
+      <c r="T42" s="12">
+        <v>252</v>
+      </c>
+      <c r="U42" s="46">
+        <v>252</v>
+      </c>
+      <c r="V42" s="13"/>
+      <c r="W42" s="13"/>
+      <c r="X42" s="13"/>
+      <c r="Y42" s="13"/>
+      <c r="Z42" s="13"/>
+      <c r="AA42" s="13"/>
+      <c r="AB42" s="13"/>
+      <c r="AC42" s="13"/>
+      <c r="AD42" s="13"/>
+      <c r="AE42" s="12"/>
+      <c r="AF42" s="46"/>
+      <c r="AG42" s="13"/>
+      <c r="AH42" s="12"/>
+      <c r="AI42" s="12">
         <v>6000</v>
       </c>
-      <c r="AJ41" s="13"/>
-      <c r="AK41" s="28">
+      <c r="AJ42" s="46"/>
+      <c r="AK42" s="13"/>
+      <c r="AL42" s="28">
         <v>15000</v>
       </c>
-      <c r="AL41" s="12">
+      <c r="AM42" s="12">
         <v>25000</v>
       </c>
-      <c r="AN41" s="12"/>
-      <c r="AO41" s="46"/>
-      <c r="AP41" s="12"/>
-      <c r="AQ41" s="11"/>
-    </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="J42" s="4" t="s">
+      <c r="AO42" s="12"/>
+      <c r="AP42" s="46"/>
+      <c r="AQ42" s="12"/>
+      <c r="AR42" s="11"/>
+    </row>
+    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="J43" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="J44" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AQ44" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="J45" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="J46" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="J43" s="4" t="s">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="J47" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="AP43" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="J44" s="4" t="s">
+    </row>
+    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="J48" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="J45" s="4" t="s">
+    <row r="49" spans="4:43" x14ac:dyDescent="0.25">
+      <c r="J49" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="J46" s="4" t="s">
+    <row r="50" spans="4:43" x14ac:dyDescent="0.25">
+      <c r="D50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="J50" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="N50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="AE50" s="8"/>
+      <c r="AH50" s="8"/>
+      <c r="AI50" s="8"/>
+      <c r="AM50" s="8"/>
+      <c r="AQ50" s="8"/>
+    </row>
+    <row r="51" spans="4:43" x14ac:dyDescent="0.25">
+      <c r="J51" s="4" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="J47" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="J48" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="49" spans="4:42" x14ac:dyDescent="0.25">
-      <c r="D49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="J49" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="N49" s="8"/>
-      <c r="T49" s="8"/>
-      <c r="AF49" s="8"/>
-      <c r="AH49" s="8"/>
-      <c r="AI49" s="8"/>
-      <c r="AL49" s="8"/>
-      <c r="AP49" s="8"/>
-    </row>
-    <row r="50" spans="4:42" x14ac:dyDescent="0.25">
-      <c r="J50" s="4" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AQ34" r:id="rId1" xr:uid="{AB43767C-640A-454E-8867-6D6B4EA887DD}"/>
-    <hyperlink ref="AQ30" r:id="rId2" xr:uid="{50B6654F-C5A2-470C-9C72-0FB47B53C39C}"/>
-    <hyperlink ref="AQ31" r:id="rId3" xr:uid="{226ECD63-E987-486F-B62A-CB3E93330EC9}"/>
+    <hyperlink ref="AR35" r:id="rId1" xr:uid="{AB43767C-640A-454E-8867-6D6B4EA887DD}"/>
+    <hyperlink ref="AR31" r:id="rId2" xr:uid="{50B6654F-C5A2-470C-9C72-0FB47B53C39C}"/>
+    <hyperlink ref="AR32" r:id="rId3" xr:uid="{226ECD63-E987-486F-B62A-CB3E93330EC9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId4"/>

--- a/war_index.xlsx
+++ b/war_index.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9849BC8-CAB6-4859-A310-31F68B2E1F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6A242D-92F3-4418-AA65-67767398D89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{04375B46-837D-49F2-BE8A-ABE006783F6C}"/>
   </bookViews>
@@ -822,9 +822,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>These are the only examples of victories won over an opponent two or even nearly three times as strong. On War, p.195</t>
-  </si>
-  <si>
     <t>Battle of Narva</t>
   </si>
   <si>
@@ -1155,6 +1152,9 @@
   </si>
   <si>
     <t>These are the only examples of victories won over an opponent two or even nearly three times as strong. On War, p.195, To understand Clausewitz, it is important to mention some types of warfare in which he engaged or influenced him. Many battles fought in a day, within an area of few square miles, with no modern communications. Principles of manouver and formations are rigid. This battle is example of this. Excellent example of an attempted envelopment by foot troops in broad daylight where surprise was not achieved.  Clausewitz lecture, US Naval War College, This is another example (modern times defense side cannot avoid atack, there is no expression like he did not accept the battle, he can retreat for other purposes) , if indeed the commander of allied armies never really intended to attack Frederick the Great. On war p. 246</t>
+  </si>
+  <si>
+    <t>These are the only examples of victories won over an opponent two or even nearly three times as strong. On War, p.195, Effect of victory will be greater in cases where victor is numerically superior , BoL is exception to this rule, p.261</t>
   </si>
 </sst>
 </file>
@@ -2036,9 +2036,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E47DB03-95DF-4FF7-A62E-6006248C7808}">
   <dimension ref="A1:AL29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH3" sqref="AH3"/>
+      <selection pane="bottomLeft" activeCell="AJ11" sqref="AJ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2183,34 +2183,34 @@
     <row r="2" spans="1:37" s="53" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="48"/>
       <c r="B2" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>260</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>263</v>
-      </c>
-      <c r="C2" s="59" t="s">
-        <v>261</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>264</v>
       </c>
       <c r="F2" s="48"/>
       <c r="G2" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H2" s="48" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I2" s="48"/>
       <c r="J2" s="48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K2" s="48" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L2" s="48"/>
       <c r="M2" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N2" s="48">
         <v>37000</v>
@@ -2218,7 +2218,7 @@
       <c r="O2" s="48"/>
       <c r="P2" s="48"/>
       <c r="Q2" s="52" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="R2" s="48">
         <v>195</v>
@@ -2227,7 +2227,7 @@
         <v>667</v>
       </c>
       <c r="T2" s="48" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="U2" s="48"/>
       <c r="V2" s="48"/>
@@ -2246,26 +2246,26 @@
         <v>18000</v>
       </c>
       <c r="AG2" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AH2" s="48" t="s">
         <v>195</v>
       </c>
       <c r="AI2" s="54" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AJ2" s="48"/>
     </row>
     <row r="3" spans="1:37" s="53" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="48"/>
       <c r="B3" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="C3" s="59" t="s">
         <v>273</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="D3" s="14" t="s">
         <v>274</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>275</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="48"/>
@@ -2303,11 +2303,11 @@
     <row r="4" spans="1:37" s="53" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="48"/>
       <c r="B4" s="48" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C4" s="59"/>
       <c r="D4" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="48"/>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="C5" s="59"/>
       <c r="D5" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="48"/>
@@ -2390,10 +2390,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="59" t="s">
+        <v>278</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>279</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>280</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="48"/>
@@ -2434,10 +2434,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="59" t="s">
+        <v>280</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>281</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>282</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="48"/>
@@ -2501,7 +2501,7 @@
         <v>236</v>
       </c>
       <c r="J8" s="48" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K8" s="48"/>
       <c r="L8" s="48" t="s">
@@ -2511,7 +2511,7 @@
         <v>22000</v>
       </c>
       <c r="N8" s="52" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O8" s="48"/>
       <c r="P8" s="48"/>
@@ -2553,7 +2553,7 @@
         <v>256</v>
       </c>
       <c r="AJ8" s="62" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:37" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2570,7 +2570,7 @@
         <v>11</v>
       </c>
       <c r="K9" s="48" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L9" s="48"/>
       <c r="M9" s="48"/>
@@ -2612,7 +2612,7 @@
         <v>47</v>
       </c>
       <c r="K10" s="48" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="L10" s="48"/>
       <c r="M10" s="48"/>
@@ -2733,7 +2733,7 @@
         <v>254</v>
       </c>
       <c r="AJ11" s="62" t="s">
-        <v>260</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
@@ -2741,10 +2741,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="60" t="s">
+        <v>282</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>283</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>284</v>
       </c>
       <c r="E12" s="4"/>
       <c r="AI12" s="4"/>
@@ -2754,10 +2754,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="60" t="s">
+        <v>284</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>285</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>286</v>
       </c>
       <c r="E13" s="4"/>
       <c r="AI13" s="4"/>
@@ -2770,13 +2770,13 @@
         <v>3</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>7</v>
@@ -2785,7 +2785,7 @@
         <v>245</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M14" s="70">
         <v>50900</v>
@@ -2795,13 +2795,13 @@
         <v>51500</v>
       </c>
       <c r="AI14" s="57" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AJ14" s="58" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AK14" s="62" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
@@ -2812,10 +2812,10 @@
       <c r="E15" s="4"/>
       <c r="H15" s="48"/>
       <c r="J15" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K15" s="74" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L15" s="75"/>
       <c r="M15" s="76"/>
@@ -2840,7 +2840,7 @@
         <v>18</v>
       </c>
       <c r="K16" s="74" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L16" s="75"/>
       <c r="M16" s="76"/>
@@ -2857,13 +2857,13 @@
         <v>3</v>
       </c>
       <c r="C17" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>289</v>
-      </c>
       <c r="E17" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>7</v>
@@ -2875,19 +2875,19 @@
         <v>18</v>
       </c>
       <c r="K17" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="AI17" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="AJ17" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="AK17" t="s">
         <v>298</v>
       </c>
-      <c r="AI17" s="57" t="s">
-        <v>294</v>
-      </c>
-      <c r="AJ17" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>299</v>
-      </c>
       <c r="AL17" s="62" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="2:38" x14ac:dyDescent="0.25">
@@ -2895,10 +2895,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="60" t="s">
+        <v>289</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>290</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>291</v>
       </c>
       <c r="E18" s="4"/>
       <c r="G18" s="8" t="s">
@@ -2909,7 +2909,7 @@
       </c>
       <c r="AI18" s="4"/>
       <c r="AJ18" s="58" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="2:38" x14ac:dyDescent="0.25">
@@ -2977,7 +2977,7 @@
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3077,10 +3077,10 @@
         <v>209</v>
       </c>
       <c r="T1" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="U1" s="39" t="s">
         <v>336</v>
-      </c>
-      <c r="U1" s="39" t="s">
-        <v>337</v>
       </c>
       <c r="V1" s="15" t="s">
         <v>147</v>
@@ -3110,10 +3110,10 @@
         <v>151</v>
       </c>
       <c r="AE1" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="AF1" s="39" t="s">
         <v>346</v>
-      </c>
-      <c r="AF1" s="39" t="s">
-        <v>347</v>
       </c>
       <c r="AG1" s="15" t="s">
         <v>145</v>
@@ -3122,10 +3122,10 @@
         <v>19</v>
       </c>
       <c r="AI1" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="AJ1" s="39" t="s">
         <v>348</v>
-      </c>
-      <c r="AJ1" s="39" t="s">
-        <v>349</v>
       </c>
       <c r="AK1" s="15" t="s">
         <v>144</v>
@@ -3134,16 +3134,16 @@
         <v>167</v>
       </c>
       <c r="AM1" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="AN1" s="39" t="s">
         <v>338</v>
       </c>
-      <c r="AN1" s="39" t="s">
+      <c r="AO1" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="AO1" s="15" t="s">
+      <c r="AP1" s="39" t="s">
         <v>340</v>
-      </c>
-      <c r="AP1" s="39" t="s">
-        <v>341</v>
       </c>
       <c r="AQ1" s="47" t="s">
         <v>193</v>
@@ -3471,7 +3471,7 @@
       <c r="H7" s="12"/>
       <c r="I7" s="46"/>
       <c r="J7" s="37" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
@@ -3831,16 +3831,16 @@
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="C14" s="17" t="s">
         <v>327</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="D14" s="46" t="s">
         <v>328</v>
-      </c>
-      <c r="D14" s="46" t="s">
-        <v>329</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -3848,16 +3848,16 @@
         <v>46</v>
       </c>
       <c r="H14" s="46" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I14" s="46" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J14" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L14" s="10" t="s">
         <v>236</v>
@@ -3909,10 +3909,10 @@
       <c r="H15" s="46"/>
       <c r="I15" s="46"/>
       <c r="J15" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L15" s="14"/>
       <c r="M15" s="46"/>
@@ -3960,10 +3960,10 @@
       <c r="H16" s="46"/>
       <c r="I16" s="46"/>
       <c r="J16" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L16" s="14"/>
       <c r="M16" s="46"/>
@@ -4004,10 +4004,10 @@
     </row>
     <row r="17" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>326</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>327</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>45</v>
@@ -4024,13 +4024,13 @@
         <v>50</v>
       </c>
       <c r="I17" s="46" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J17" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L17" s="14" t="s">
         <v>236</v>
@@ -4303,31 +4303,31 @@
     </row>
     <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>362</v>
-      </c>
       <c r="C22" s="44" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="46" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H22" s="46" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I22" s="46"/>
       <c r="J22" s="37" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L22" s="14"/>
       <c r="M22" s="46"/>
@@ -4768,13 +4768,13 @@
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="61" t="s">
+        <v>317</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="E30" s="11" t="s">
         <v>318</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>320</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>319</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="46"/>
@@ -4815,36 +4815,36 @@
       <c r="AQ30" s="46"/>
       <c r="AR30" s="11"/>
       <c r="AT30" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="D31" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="E31" s="11" t="s">
         <v>303</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>304</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="H31" s="40" t="s">
         <v>305</v>
-      </c>
-      <c r="H31" s="40" t="s">
-        <v>306</v>
       </c>
       <c r="I31" s="46"/>
       <c r="J31" s="37" t="s">
         <v>66</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L31" s="14"/>
       <c r="M31" s="40"/>
@@ -4878,39 +4878,39 @@
       <c r="AP31" s="46"/>
       <c r="AQ31" s="40"/>
       <c r="AR31" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AS31" s="5" t="s">
         <v>308</v>
-      </c>
-      <c r="AS31" s="5" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="32" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D32" s="19" t="s">
         <v>310</v>
       </c>
-      <c r="D32" s="19" t="s">
-        <v>311</v>
-      </c>
       <c r="E32" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="46" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H32" s="46" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I32" s="46"/>
       <c r="J32" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="K32" s="14" t="s">
         <v>314</v>
-      </c>
-      <c r="K32" s="14" t="s">
-        <v>315</v>
       </c>
       <c r="L32" s="14"/>
       <c r="M32" s="46"/>
@@ -4944,10 +4944,10 @@
       <c r="AP32" s="46"/>
       <c r="AQ32" s="46"/>
       <c r="AR32" s="23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AS32" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33" spans="1:45" ht="30" x14ac:dyDescent="0.25">
@@ -5357,10 +5357,10 @@
       </c>
       <c r="I39" s="46"/>
       <c r="J39" s="37" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L39" s="14"/>
       <c r="M39" s="40"/>
@@ -5414,10 +5414,10 @@
         <v>46</v>
       </c>
       <c r="AR39" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="AS39" s="26" t="s">
         <v>350</v>
-      </c>
-      <c r="AS39" s="26" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="40" spans="1:45" x14ac:dyDescent="0.25">
@@ -5435,12 +5435,12 @@
         <v>176</v>
       </c>
       <c r="H40" s="40" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I40" s="46"/>
       <c r="J40" s="37"/>
       <c r="K40" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L40" s="14"/>
       <c r="M40" s="40"/>
@@ -5481,7 +5481,7 @@
       <c r="AQ40" s="40"/>
       <c r="AR40" s="23"/>
       <c r="AS40" s="26" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="41" spans="1:45" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/war_index.xlsx
+++ b/war_index.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6A242D-92F3-4418-AA65-67767398D89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E4C5C4-F0A6-4420-AD13-8099AB83F90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{04375B46-837D-49F2-BE8A-ABE006783F6C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="376">
   <si>
     <t>date</t>
   </si>
@@ -878,9 +878,6 @@
     <t xml:space="preserve">29 August 1756 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Battle of Prague</t>
-  </si>
-  <si>
     <t>6 May 1757</t>
   </si>
   <si>
@@ -894,9 +891,6 @@
   </si>
   <si>
     <t>30 June 1758</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Battle of Zorndorf</t>
   </si>
   <si>
     <t>25 August 1758</t>
@@ -1155,6 +1149,31 @@
   </si>
   <si>
     <t>These are the only examples of victories won over an opponent two or even nearly three times as strong. On War, p.195, Effect of victory will be greater in cases where victor is numerically superior , BoL is exception to this rule, p.261</t>
+  </si>
+  <si>
+    <t>Battle of Zorndorf</t>
+  </si>
+  <si>
+    <t>Battle of Prague</t>
+  </si>
+  <si>
+    <t>Battle of Hochkirch</t>
+  </si>
+  <si>
+    <t>14 October 1758</t>
+  </si>
+  <si>
+    <t>Saxony</t>
+  </si>
+  <si>
+    <t>Lieutenant Field Marshal Leopold Josef Graf Daun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After several weeks of maneuvering for position, an Austrian army of 80,000 commanded by Lieutenant Field Marshal Leopold Josef Graf Daun surprised the Prussian army of 30,000–36,000 commanded by Frederick the Great. The Austrian army overwhelmed the Prussians and forced a general retreat. </t>
+  </si>
+  <si>
+    <t>Unless the enemy is so close as to be in full view (as Frederick the Great was to the Austrians before the battle of Hochkirch)
+knowledge of his position will be incomplete. P.273</t>
   </si>
 </sst>
 </file>
@@ -2034,11 +2053,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E47DB03-95DF-4FF7-A62E-6006248C7808}">
-  <dimension ref="A1:AL29"/>
+  <dimension ref="A1:AL30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AJ11" sqref="AJ11"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2390,10 +2409,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="59" t="s">
+        <v>369</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>278</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>279</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="48"/>
@@ -2434,10 +2453,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="59" t="s">
+        <v>279</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>280</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>281</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="48"/>
@@ -2501,7 +2520,7 @@
         <v>236</v>
       </c>
       <c r="J8" s="48" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K8" s="48"/>
       <c r="L8" s="48" t="s">
@@ -2511,7 +2530,7 @@
         <v>22000</v>
       </c>
       <c r="N8" s="52" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="O8" s="48"/>
       <c r="P8" s="48"/>
@@ -2553,7 +2572,7 @@
         <v>256</v>
       </c>
       <c r="AJ8" s="62" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:37" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2570,7 +2589,7 @@
         <v>11</v>
       </c>
       <c r="K9" s="48" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="L9" s="48"/>
       <c r="M9" s="48"/>
@@ -2612,7 +2631,7 @@
         <v>47</v>
       </c>
       <c r="K10" s="48" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="L10" s="48"/>
       <c r="M10" s="48"/>
@@ -2733,7 +2752,7 @@
         <v>254</v>
       </c>
       <c r="AJ11" s="62" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
@@ -2741,12 +2760,14 @@
         <v>3</v>
       </c>
       <c r="C12" s="60" t="s">
+        <v>281</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>283</v>
-      </c>
       <c r="E12" s="4"/>
+      <c r="G12" s="48"/>
+      <c r="I12" s="48"/>
       <c r="AI12" s="4"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
@@ -2754,80 +2775,87 @@
         <v>3</v>
       </c>
       <c r="C13" s="60" t="s">
-        <v>284</v>
+        <v>368</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E13" s="4"/>
       <c r="AI13" s="4"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
-        <v>2</v>
-      </c>
       <c r="B14" s="48" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>286</v>
+        <v>370</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>294</v>
+        <v>371</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="G14" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="J14" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="48" t="s">
+      <c r="K14" s="48" t="s">
         <v>245</v>
       </c>
-      <c r="J14" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="M14" s="70">
+      <c r="AI14" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="AJ14" s="62" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A15" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="60" t="s">
+        <v>284</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="48" t="s">
+        <v>245</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="M15" s="70">
         <v>50900</v>
       </c>
-      <c r="N14" s="70">
-        <f>N15+N16</f>
+      <c r="N15" s="70">
+        <f>N16+N17</f>
         <v>51500</v>
       </c>
-      <c r="AI14" s="57" t="s">
+      <c r="AI15" s="57" t="s">
+        <v>291</v>
+      </c>
+      <c r="AJ15" s="58" t="s">
         <v>293</v>
       </c>
-      <c r="AJ14" s="58" t="s">
-        <v>295</v>
-      </c>
-      <c r="AK14" s="62" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="H15" s="48"/>
-      <c r="J15" s="4" t="s">
+      <c r="AK15" s="62" t="s">
         <v>354</v>
       </c>
-      <c r="K15" s="74" t="s">
-        <v>353</v>
-      </c>
-      <c r="L15" s="75"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="77">
-        <v>33000</v>
-      </c>
-      <c r="O15" s="76"/>
-      <c r="P15" s="76">
-        <v>8000</v>
-      </c>
-      <c r="AI15" s="57"/>
-      <c r="AJ15" s="58"/>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="56"/>
@@ -2837,134 +2865,159 @@
       <c r="E16" s="4"/>
       <c r="H16" s="48"/>
       <c r="J16" s="4" t="s">
-        <v>18</v>
+        <v>352</v>
       </c>
       <c r="K16" s="74" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L16" s="75"/>
       <c r="M16" s="76"/>
       <c r="N16" s="77">
-        <v>18500</v>
+        <v>33000</v>
       </c>
       <c r="O16" s="76"/>
-      <c r="P16" s="76"/>
+      <c r="P16" s="76">
+        <v>8000</v>
+      </c>
       <c r="AI16" s="57"/>
       <c r="AJ16" s="58"/>
     </row>
-    <row r="17" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B17" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="60" t="s">
-        <v>287</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="48" t="s">
-        <v>245</v>
-      </c>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A17" s="56"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="H17" s="48"/>
       <c r="J17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="AI17" s="57" t="s">
-        <v>293</v>
-      </c>
-      <c r="AJ17" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>298</v>
-      </c>
-      <c r="AL17" s="62" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="18" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="K17" s="74" t="s">
+        <v>350</v>
+      </c>
+      <c r="L17" s="75"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="77">
+        <v>18500</v>
+      </c>
+      <c r="O17" s="76"/>
+      <c r="P17" s="76"/>
+      <c r="AI17" s="57"/>
+      <c r="AJ17" s="58"/>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B18" s="48" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="E18" s="4"/>
       <c r="G18" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="H18" s="48" t="s">
+        <v>245</v>
+      </c>
       <c r="J18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AI18" s="4"/>
-      <c r="AJ18" s="58" t="s">
+      <c r="K18" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="AI18" s="57" t="s">
+        <v>291</v>
+      </c>
+      <c r="AJ18" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="AK18" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="19" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="AL18" s="62" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B19" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="G19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="AI19" s="4"/>
-    </row>
-    <row r="20" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AJ19" s="58" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="AI20" s="4"/>
     </row>
-    <row r="21" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="AI21" s="4"/>
     </row>
-    <row r="22" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="AI22" s="4"/>
     </row>
-    <row r="23" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="AI23" s="4"/>
-      <c r="AL23" s="63"/>
-    </row>
-    <row r="24" spans="2:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="AI24" s="4"/>
-    </row>
-    <row r="25" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AL24" s="63"/>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
       <c r="AI25" s="4"/>
     </row>
-    <row r="26" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AI26" s="4"/>
     </row>
-    <row r="27" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AI27" s="4"/>
     </row>
-    <row r="28" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AI28" s="4"/>
     </row>
-    <row r="29" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AI29" s="4"/>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AI30" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="AI11" r:id="rId1" xr:uid="{AFC4FBD9-B976-494A-B03A-AB1EAB18B51B}"/>
     <hyperlink ref="AI8" r:id="rId2" xr:uid="{D7F4DE6A-482F-4B61-B516-C25DB346BD3B}"/>
     <hyperlink ref="AI2" r:id="rId3" xr:uid="{0B74F9FB-031F-42F1-9C5F-A5A7655A5574}"/>
-    <hyperlink ref="AI17" r:id="rId4" xr:uid="{74647CF7-F191-47A1-BC6E-3E81582314C1}"/>
-    <hyperlink ref="AI14" r:id="rId5" xr:uid="{BBD6FBC9-7169-4E92-BAA1-BF361BDDDD4A}"/>
+    <hyperlink ref="AI18" r:id="rId4" xr:uid="{74647CF7-F191-47A1-BC6E-3E81582314C1}"/>
+    <hyperlink ref="AI15" r:id="rId5" xr:uid="{BBD6FBC9-7169-4E92-BAA1-BF361BDDDD4A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId6"/>
@@ -3077,10 +3130,10 @@
         <v>209</v>
       </c>
       <c r="T1" s="15" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="U1" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="V1" s="15" t="s">
         <v>147</v>
@@ -3110,10 +3163,10 @@
         <v>151</v>
       </c>
       <c r="AE1" s="15" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AF1" s="39" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AG1" s="15" t="s">
         <v>145</v>
@@ -3122,10 +3175,10 @@
         <v>19</v>
       </c>
       <c r="AI1" s="15" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AJ1" s="39" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AK1" s="15" t="s">
         <v>144</v>
@@ -3134,16 +3187,16 @@
         <v>167</v>
       </c>
       <c r="AM1" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="AN1" s="39" t="s">
+        <v>336</v>
+      </c>
+      <c r="AO1" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="AN1" s="39" t="s">
+      <c r="AP1" s="39" t="s">
         <v>338</v>
-      </c>
-      <c r="AO1" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="AP1" s="39" t="s">
-        <v>340</v>
       </c>
       <c r="AQ1" s="47" t="s">
         <v>193</v>
@@ -3471,7 +3524,7 @@
       <c r="H7" s="12"/>
       <c r="I7" s="46"/>
       <c r="J7" s="37" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
@@ -3831,16 +3884,16 @@
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="D14" s="46" t="s">
         <v>326</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>327</v>
-      </c>
-      <c r="D14" s="46" t="s">
-        <v>328</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -3848,16 +3901,16 @@
         <v>46</v>
       </c>
       <c r="H14" s="46" t="s">
+        <v>327</v>
+      </c>
+      <c r="I14" s="46" t="s">
+        <v>331</v>
+      </c>
+      <c r="J14" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="K14" s="10" t="s">
         <v>329</v>
-      </c>
-      <c r="I14" s="46" t="s">
-        <v>333</v>
-      </c>
-      <c r="J14" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>331</v>
       </c>
       <c r="L14" s="10" t="s">
         <v>236</v>
@@ -3909,10 +3962,10 @@
       <c r="H15" s="46"/>
       <c r="I15" s="46"/>
       <c r="J15" s="37" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L15" s="14"/>
       <c r="M15" s="46"/>
@@ -3960,10 +4013,10 @@
       <c r="H16" s="46"/>
       <c r="I16" s="46"/>
       <c r="J16" s="37" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L16" s="14"/>
       <c r="M16" s="46"/>
@@ -4004,10 +4057,10 @@
     </row>
     <row r="17" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>45</v>
@@ -4024,13 +4077,13 @@
         <v>50</v>
       </c>
       <c r="I17" s="46" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J17" s="37" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="L17" s="14" t="s">
         <v>236</v>
@@ -4303,31 +4356,31 @@
     </row>
     <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C22" s="44" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="46" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H22" s="46" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I22" s="46"/>
       <c r="J22" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="K22" s="14" t="s">
         <v>362</v>
-      </c>
-      <c r="K22" s="14" t="s">
-        <v>364</v>
       </c>
       <c r="L22" s="14"/>
       <c r="M22" s="46"/>
@@ -4768,13 +4821,13 @@
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="61" t="s">
+        <v>315</v>
+      </c>
+      <c r="D30" s="19" t="s">
         <v>317</v>
       </c>
-      <c r="D30" s="19" t="s">
-        <v>319</v>
-      </c>
       <c r="E30" s="11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="46"/>
@@ -4815,36 +4868,36 @@
       <c r="AQ30" s="46"/>
       <c r="AR30" s="11"/>
       <c r="AT30" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="E31" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>303</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="40" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H31" s="40" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I31" s="46"/>
       <c r="J31" s="37" t="s">
         <v>66</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L31" s="14"/>
       <c r="M31" s="40"/>
@@ -4878,39 +4931,39 @@
       <c r="AP31" s="46"/>
       <c r="AQ31" s="40"/>
       <c r="AR31" s="23" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AS31" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="18" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="46" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H32" s="46" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I32" s="46"/>
       <c r="J32" s="37" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="L32" s="14"/>
       <c r="M32" s="46"/>
@@ -4944,10 +4997,10 @@
       <c r="AP32" s="46"/>
       <c r="AQ32" s="46"/>
       <c r="AR32" s="23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AS32" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="33" spans="1:45" ht="30" x14ac:dyDescent="0.25">
@@ -5357,10 +5410,10 @@
       </c>
       <c r="I39" s="46"/>
       <c r="J39" s="37" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="L39" s="14"/>
       <c r="M39" s="40"/>
@@ -5414,10 +5467,10 @@
         <v>46</v>
       </c>
       <c r="AR39" s="23" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AS39" s="26" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="40" spans="1:45" x14ac:dyDescent="0.25">
@@ -5435,12 +5488,12 @@
         <v>176</v>
       </c>
       <c r="H40" s="40" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I40" s="46"/>
       <c r="J40" s="37"/>
       <c r="K40" s="14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="L40" s="14"/>
       <c r="M40" s="40"/>
@@ -5481,7 +5534,7 @@
       <c r="AQ40" s="40"/>
       <c r="AR40" s="23"/>
       <c r="AS40" s="26" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="41" spans="1:45" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/war_index.xlsx
+++ b/war_index.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E4C5C4-F0A6-4420-AD13-8099AB83F90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BF89BB-C534-434D-A8AE-FB4133AC6363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{04375B46-837D-49F2-BE8A-ABE006783F6C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{04375B46-837D-49F2-BE8A-ABE006783F6C}"/>
   </bookViews>
   <sheets>
     <sheet name="BC" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="381">
   <si>
     <t>date</t>
   </si>
@@ -1174,6 +1174,21 @@
   <si>
     <t>Unless the enemy is so close as to be in full view (as Frederick the Great was to the Austrians before the battle of Hochkirch)
 knowledge of his position will be incomplete. P.273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battle of Wagram </t>
+  </si>
+  <si>
+    <t>5–6 July 1809</t>
+  </si>
+  <si>
+    <t>Total ManA</t>
+  </si>
+  <si>
+    <t>Total ManB</t>
+  </si>
+  <si>
+    <t>Napoleon1</t>
   </si>
 </sst>
 </file>
@@ -1307,11 +1322,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1319,12 +1331,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1332,9 +1339,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1365,17 +1369,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1391,7 +1386,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -1401,29 +1396,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1434,7 +1414,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1443,17 +1423,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1468,14 +1442,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1838,207 +1806,207 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="19" style="8" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" style="49" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="8" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" style="49" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="11.140625" style="8" customWidth="1"/>
-    <col min="15" max="15" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" style="8" customWidth="1"/>
-    <col min="19" max="20" width="15.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="9.140625" style="8"/>
-    <col min="27" max="28" width="14.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.140625" style="8"/>
-    <col min="30" max="30" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.7109375" style="8" customWidth="1"/>
-    <col min="32" max="32" width="13.7109375" style="4" customWidth="1"/>
-    <col min="33" max="33" width="9.140625" style="8"/>
+    <col min="1" max="1" width="22.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="36" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="36" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="11.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" style="1" customWidth="1"/>
+    <col min="19" max="20" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="9.140625" style="1"/>
+    <col min="27" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.140625" style="1"/>
+    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.7109375" style="1" customWidth="1"/>
+    <col min="32" max="32" width="13.7109375" style="3" customWidth="1"/>
+    <col min="33" max="33" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="34" t="s">
         <v>234</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="34" t="s">
         <v>232</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="N1" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="O1" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="Q1" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="R1" s="39" t="s">
+      <c r="R1" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="S1" s="39" t="s">
+      <c r="S1" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="T1" s="39" t="s">
+      <c r="T1" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="U1" s="39" t="s">
+      <c r="U1" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="V1" s="39" t="s">
+      <c r="V1" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="W1" s="39" t="s">
+      <c r="W1" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="X1" s="39" t="s">
+      <c r="X1" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="Y1" s="39" t="s">
+      <c r="Y1" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="Z1" s="39" t="s">
+      <c r="Z1" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="AA1" s="39" t="s">
+      <c r="AA1" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="AB1" s="39" t="s">
+      <c r="AB1" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="AD1" s="47" t="s">
+      <c r="AD1" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="AE1" s="47" t="s">
+      <c r="AE1" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="AF1" s="50" t="s">
+      <c r="AF1" s="37" t="s">
         <v>237</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AG1" s="5" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="J2" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="K2" s="46" t="s">
+      <c r="K2" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="L2" s="46">
+      <c r="L2" s="8">
         <v>25000</v>
       </c>
-      <c r="M2" s="46">
+      <c r="M2" s="8">
         <v>0</v>
       </c>
-      <c r="N2" s="46">
+      <c r="N2" s="8">
         <v>1000</v>
       </c>
-      <c r="O2" s="46">
+      <c r="O2" s="8">
         <v>0</v>
       </c>
-      <c r="P2" s="46">
+      <c r="P2" s="8">
         <v>600</v>
       </c>
-      <c r="Q2" s="46" t="s">
+      <c r="Q2" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="R2" s="46">
+      <c r="R2" s="8">
         <v>6400</v>
       </c>
-      <c r="S2" s="46">
+      <c r="S2" s="8">
         <v>0</v>
       </c>
-      <c r="T2" s="46">
+      <c r="T2" s="8">
         <v>7</v>
       </c>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AD2" s="46" t="s">
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AD2" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="AE2" s="46" t="s">
+      <c r="AE2" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="AF2" s="51" t="s">
+      <c r="AF2" s="38" t="s">
         <v>238</v>
       </c>
     </row>
@@ -2055,7 +2023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E47DB03-95DF-4FF7-A62E-6006248C7808}">
   <dimension ref="A1:AL30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
@@ -2065,951 +2033,950 @@
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="8" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="25.5703125" style="10" customWidth="1"/>
-    <col min="12" max="12" width="25.5703125" style="49" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" style="8" customWidth="1"/>
-    <col min="14" max="16" width="11.140625" style="8" customWidth="1"/>
-    <col min="17" max="17" width="20" style="8" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" style="8" customWidth="1"/>
-    <col min="19" max="20" width="11.28515625" style="8" customWidth="1"/>
-    <col min="21" max="22" width="15.42578125" style="8" customWidth="1"/>
-    <col min="23" max="24" width="11.140625" style="8" customWidth="1"/>
-    <col min="25" max="28" width="14.5703125" style="8" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" style="8" customWidth="1"/>
-    <col min="30" max="33" width="9.140625" style="8" customWidth="1"/>
-    <col min="34" max="34" width="13.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="25.5703125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="25.5703125" style="36" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" style="1" customWidth="1"/>
+    <col min="14" max="16" width="11.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="20" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" style="1" customWidth="1"/>
+    <col min="19" max="20" width="11.28515625" style="1" customWidth="1"/>
+    <col min="21" max="22" width="15.42578125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="11.140625" style="1" customWidth="1"/>
+    <col min="25" max="28" width="14.5703125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" customWidth="1"/>
+    <col min="30" max="33" width="9.140625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="13.7109375" style="1" customWidth="1"/>
     <col min="35" max="35" width="48.7109375" customWidth="1"/>
-    <col min="36" max="36" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="N1" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="O1" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="Q1" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="R1" s="39" t="s">
+      <c r="R1" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="S1" s="39" t="s">
+      <c r="S1" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="T1" s="39" t="s">
+      <c r="T1" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="U1" s="39" t="s">
+      <c r="U1" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="V1" s="39" t="s">
+      <c r="V1" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="W1" s="39" t="s">
+      <c r="W1" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="X1" s="39" t="s">
+      <c r="X1" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="Y1" s="39" t="s">
+      <c r="Y1" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="Z1" s="39" t="s">
+      <c r="Z1" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="AA1" s="39" t="s">
+      <c r="AA1" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="AB1" s="39" t="s">
+      <c r="AB1" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="AC1" s="39" t="s">
+      <c r="AC1" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="AD1" s="39" t="s">
+      <c r="AD1" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="AE1" s="39" t="s">
+      <c r="AE1" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="AF1" s="39" t="s">
+      <c r="AF1" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="AG1" s="47" t="s">
+      <c r="AG1" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="AH1" s="47" t="s">
+      <c r="AH1" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="AI1" s="50" t="s">
+      <c r="AI1" s="37" t="s">
         <v>237</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="53" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48" t="s">
+    <row r="2" spans="1:37" s="37" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="44" t="s">
         <v>260</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48" t="s">
+      <c r="F2" s="35"/>
+      <c r="G2" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48" t="s">
+      <c r="I2" s="35"/>
+      <c r="J2" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="L2" s="48"/>
-      <c r="M2" s="52" t="s">
+      <c r="L2" s="35"/>
+      <c r="M2" s="39" t="s">
         <v>268</v>
       </c>
-      <c r="N2" s="48">
+      <c r="N2" s="35">
         <v>37000</v>
       </c>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="52" t="s">
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="R2" s="48">
+      <c r="R2" s="35">
         <v>195</v>
       </c>
-      <c r="S2" s="48">
+      <c r="S2" s="35">
         <v>667</v>
       </c>
-      <c r="T2" s="48" t="s">
+      <c r="T2" s="35" t="s">
         <v>270</v>
       </c>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48">
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35">
         <v>1247</v>
       </c>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48">
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35">
         <v>18000</v>
       </c>
-      <c r="AG2" s="48" t="s">
+      <c r="AG2" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="AH2" s="48" t="s">
+      <c r="AH2" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="AI2" s="54" t="s">
+      <c r="AI2" s="40" t="s">
         <v>271</v>
       </c>
-      <c r="AJ2" s="48"/>
-    </row>
-    <row r="3" spans="1:37" s="53" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48" t="s">
+      <c r="AJ2" s="35"/>
+    </row>
+    <row r="3" spans="1:37" s="37" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35" t="s">
         <v>272</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="44" t="s">
         <v>273</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="55"/>
-      <c r="AJ3" s="56"/>
-    </row>
-    <row r="4" spans="1:37" s="53" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="36"/>
+    </row>
+    <row r="4" spans="1:37" s="37" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35" t="s">
         <v>276</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48"/>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="48"/>
-      <c r="AH4" s="48"/>
-      <c r="AI4" s="55"/>
-      <c r="AJ4" s="56"/>
-    </row>
-    <row r="5" spans="1:37" s="53" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="41"/>
+      <c r="AJ4" s="36"/>
+    </row>
+    <row r="5" spans="1:37" s="37" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="35"/>
+      <c r="B5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="14" t="s">
+      <c r="C5" s="44"/>
+      <c r="D5" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="48"/>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="48"/>
-      <c r="AD5" s="48"/>
-      <c r="AE5" s="48"/>
-      <c r="AF5" s="48"/>
-      <c r="AG5" s="48"/>
-      <c r="AH5" s="48"/>
-      <c r="AI5" s="55"/>
-      <c r="AJ5" s="56"/>
-    </row>
-    <row r="6" spans="1:37" s="53" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="41"/>
+      <c r="AJ5" s="36"/>
+    </row>
+    <row r="6" spans="1:37" s="37" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="35"/>
+      <c r="B6" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="44" t="s">
         <v>369</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="48"/>
-      <c r="X6" s="48"/>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="48"/>
-      <c r="AA6" s="48"/>
-      <c r="AB6" s="48"/>
-      <c r="AC6" s="48"/>
-      <c r="AD6" s="48"/>
-      <c r="AE6" s="48"/>
-      <c r="AF6" s="48"/>
-      <c r="AG6" s="48"/>
-      <c r="AH6" s="48"/>
-      <c r="AI6" s="55"/>
-      <c r="AJ6" s="56"/>
-    </row>
-    <row r="7" spans="1:37" s="53" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="35"/>
+      <c r="AD6" s="35"/>
+      <c r="AE6" s="35"/>
+      <c r="AF6" s="35"/>
+      <c r="AG6" s="35"/>
+      <c r="AH6" s="35"/>
+      <c r="AI6" s="41"/>
+      <c r="AJ6" s="36"/>
+    </row>
+    <row r="7" spans="1:37" s="37" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="35"/>
+      <c r="B7" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="48"/>
-      <c r="X7" s="48"/>
-      <c r="Y7" s="48"/>
-      <c r="Z7" s="48"/>
-      <c r="AA7" s="48"/>
-      <c r="AB7" s="48"/>
-      <c r="AC7" s="48"/>
-      <c r="AD7" s="48"/>
-      <c r="AE7" s="48"/>
-      <c r="AF7" s="48"/>
-      <c r="AG7" s="48"/>
-      <c r="AH7" s="48"/>
-      <c r="AI7" s="55"/>
-      <c r="AJ7" s="56"/>
-    </row>
-    <row r="8" spans="1:37" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="35"/>
+      <c r="AE7" s="35"/>
+      <c r="AF7" s="35"/>
+      <c r="AG7" s="35"/>
+      <c r="AH7" s="35"/>
+      <c r="AI7" s="41"/>
+      <c r="AJ7" s="36"/>
+    </row>
+    <row r="8" spans="1:37" s="36" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="48" t="s">
+      <c r="G8" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="48" t="s">
+      <c r="H8" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="I8" s="48" t="s">
+      <c r="I8" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="J8" s="48" t="s">
+      <c r="J8" s="35" t="s">
         <v>363</v>
       </c>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48" t="s">
+      <c r="K8" s="35"/>
+      <c r="L8" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="M8" s="48">
+      <c r="M8" s="35">
         <v>22000</v>
       </c>
-      <c r="N8" s="52" t="s">
+      <c r="N8" s="39" t="s">
         <v>320</v>
       </c>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48">
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35">
         <v>79</v>
       </c>
-      <c r="R8" s="48">
+      <c r="R8" s="35">
         <v>114</v>
       </c>
-      <c r="S8" s="48">
+      <c r="S8" s="35">
         <v>169</v>
       </c>
-      <c r="T8" s="48">
+      <c r="T8" s="35">
         <v>5000</v>
       </c>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="48">
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35">
         <v>379</v>
       </c>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="48"/>
-      <c r="Z8" s="48">
+      <c r="X8" s="35"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="35">
         <v>5000</v>
       </c>
-      <c r="AA8" s="48"/>
-      <c r="AB8" s="48"/>
-      <c r="AC8" s="48"/>
-      <c r="AD8" s="48"/>
-      <c r="AE8" s="48"/>
-      <c r="AF8" s="48"/>
-      <c r="AG8" s="48" t="s">
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="35"/>
+      <c r="AD8" s="35"/>
+      <c r="AE8" s="35"/>
+      <c r="AF8" s="35"/>
+      <c r="AG8" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="AH8" s="48" t="s">
+      <c r="AH8" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="AI8" s="55" t="s">
+      <c r="AI8" s="41" t="s">
         <v>256</v>
       </c>
-      <c r="AJ8" s="62" t="s">
+      <c r="AJ8" s="6" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="9" spans="1:37" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48" t="s">
+    <row r="9" spans="1:37" s="36" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="48" t="s">
+      <c r="K9" s="35" t="s">
         <v>364</v>
       </c>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="48"/>
-      <c r="Y9" s="48"/>
-      <c r="Z9" s="48"/>
-      <c r="AA9" s="48"/>
-      <c r="AB9" s="48"/>
-      <c r="AC9" s="48"/>
-      <c r="AD9" s="48"/>
-      <c r="AE9" s="48"/>
-      <c r="AF9" s="48"/>
-      <c r="AG9" s="48"/>
-      <c r="AH9" s="48"/>
-      <c r="AI9" s="55"/>
-      <c r="AJ9" s="62"/>
-    </row>
-    <row r="10" spans="1:37" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48" t="s">
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="35"/>
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="35"/>
+      <c r="AI9" s="41"/>
+      <c r="AJ9" s="6"/>
+    </row>
+    <row r="10" spans="1:37" s="36" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="K10" s="48" t="s">
+      <c r="K10" s="35" t="s">
         <v>365</v>
       </c>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="48"/>
-      <c r="X10" s="48"/>
-      <c r="Y10" s="48"/>
-      <c r="Z10" s="48"/>
-      <c r="AA10" s="48"/>
-      <c r="AB10" s="48"/>
-      <c r="AC10" s="48"/>
-      <c r="AD10" s="48"/>
-      <c r="AE10" s="48"/>
-      <c r="AF10" s="48"/>
-      <c r="AG10" s="48"/>
-      <c r="AH10" s="48"/>
-      <c r="AI10" s="55"/>
-      <c r="AJ10" s="62"/>
-    </row>
-    <row r="11" spans="1:37" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="35"/>
+      <c r="AB10" s="35"/>
+      <c r="AC10" s="35"/>
+      <c r="AD10" s="35"/>
+      <c r="AE10" s="35"/>
+      <c r="AF10" s="35"/>
+      <c r="AG10" s="35"/>
+      <c r="AH10" s="35"/>
+      <c r="AI10" s="41"/>
+      <c r="AJ10" s="6"/>
+    </row>
+    <row r="11" spans="1:37" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="44" t="s">
         <v>239</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48" t="s">
+      <c r="F11" s="35"/>
+      <c r="G11" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="48" t="s">
+      <c r="H11" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="I11" s="48" t="s">
+      <c r="I11" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="J11" s="48" t="s">
+      <c r="J11" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="48" t="s">
+      <c r="K11" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="L11" s="48" t="s">
+      <c r="L11" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="M11" s="48">
+      <c r="M11" s="35">
         <v>33000</v>
       </c>
-      <c r="N11" s="48">
+      <c r="N11" s="35">
         <v>66000</v>
       </c>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48">
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35">
         <v>0</v>
       </c>
-      <c r="R11" s="48">
+      <c r="R11" s="35">
         <v>250</v>
       </c>
-      <c r="S11" s="48">
+      <c r="S11" s="35">
         <v>1141</v>
       </c>
-      <c r="T11" s="48">
+      <c r="T11" s="35">
         <v>3000</v>
       </c>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="48">
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35">
         <v>5118</v>
       </c>
-      <c r="X11" s="48">
+      <c r="X11" s="35">
         <v>7000</v>
       </c>
-      <c r="Y11" s="48">
+      <c r="Y11" s="35">
         <v>85</v>
       </c>
-      <c r="Z11" s="48">
+      <c r="Z11" s="35">
         <v>12000</v>
       </c>
-      <c r="AA11" s="48">
+      <c r="AA11" s="35">
         <v>0</v>
       </c>
-      <c r="AB11" s="48">
+      <c r="AB11" s="35">
         <v>116</v>
       </c>
-      <c r="AC11" s="48"/>
-      <c r="AD11" s="48"/>
-      <c r="AE11" s="48">
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="35"/>
+      <c r="AE11" s="35">
         <v>6344</v>
       </c>
-      <c r="AF11" s="48">
+      <c r="AF11" s="35">
         <v>22000</v>
       </c>
-      <c r="AG11" s="48" t="s">
+      <c r="AG11" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="AH11" s="48" t="s">
+      <c r="AH11" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="AI11" s="55" t="s">
+      <c r="AI11" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="AJ11" s="62" t="s">
+      <c r="AJ11" s="6" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="45" t="s">
         <v>281</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="G12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="AI12" s="4"/>
+      <c r="E12" s="3"/>
+      <c r="G12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="AI12" s="3"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="45" t="s">
         <v>368</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="AI13" s="4"/>
+      <c r="E13" s="3"/>
+      <c r="AI13" s="3"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="45" t="s">
         <v>370</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="G14" s="48" t="s">
+      <c r="G14" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="J14" s="48" t="s">
+      <c r="J14" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="48" t="s">
+      <c r="K14" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="AI14" s="5" t="s">
+      <c r="AI14" t="s">
         <v>374</v>
       </c>
-      <c r="AJ14" s="62" t="s">
+      <c r="AJ14" s="6" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="45" t="s">
         <v>284</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="48" t="s">
+      <c r="H15" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="M15" s="70">
+      <c r="M15" s="53">
         <v>50900</v>
       </c>
-      <c r="N15" s="70">
+      <c r="N15" s="53">
         <f>N16+N17</f>
         <v>51500</v>
       </c>
-      <c r="AI15" s="57" t="s">
+      <c r="AI15" s="42" t="s">
         <v>291</v>
       </c>
-      <c r="AJ15" s="58" t="s">
+      <c r="AJ15" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="AK15" s="62" t="s">
+      <c r="AK15" s="6" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="H16" s="48"/>
-      <c r="J16" s="4" t="s">
+      <c r="A16" s="36"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="H16" s="35"/>
+      <c r="J16" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="K16" s="74" t="s">
+      <c r="K16" s="57" t="s">
         <v>351</v>
       </c>
-      <c r="L16" s="75"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="77">
+      <c r="L16" s="58"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="60">
         <v>33000</v>
       </c>
-      <c r="O16" s="76"/>
-      <c r="P16" s="76">
+      <c r="O16" s="59"/>
+      <c r="P16" s="59">
         <v>8000</v>
       </c>
-      <c r="AI16" s="57"/>
-      <c r="AJ16" s="58"/>
+      <c r="AI16" s="42"/>
+      <c r="AJ16" s="43"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="H17" s="48"/>
-      <c r="J17" s="4" t="s">
+      <c r="A17" s="36"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="H17" s="35"/>
+      <c r="J17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="74" t="s">
+      <c r="K17" s="57" t="s">
         <v>350</v>
       </c>
-      <c r="L17" s="75"/>
-      <c r="M17" s="76"/>
-      <c r="N17" s="77">
+      <c r="L17" s="58"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60">
         <v>18500</v>
       </c>
-      <c r="O17" s="76"/>
-      <c r="P17" s="76"/>
-      <c r="AI17" s="57"/>
-      <c r="AJ17" s="58"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="AI17" s="42"/>
+      <c r="AJ17" s="43"/>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="48" t="s">
+      <c r="H18" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="K18" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="AI18" s="57" t="s">
+      <c r="AI18" s="42" t="s">
         <v>291</v>
       </c>
-      <c r="AJ18" s="5" t="s">
+      <c r="AJ18" t="s">
         <v>290</v>
       </c>
       <c r="AK18" t="s">
         <v>296</v>
       </c>
-      <c r="AL18" s="62" t="s">
+      <c r="AL18" s="6" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="45" t="s">
         <v>287</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="G19" s="8" t="s">
+      <c r="E19" s="3"/>
+      <c r="G19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AI19" s="4"/>
-      <c r="AJ19" s="58" t="s">
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="43" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="AI20" s="4"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="AI20" s="3"/>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="AI21" s="4"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="AI21" s="3"/>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="AI22" s="4"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="AI22" s="3"/>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="AI23" s="4"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="AI23" s="3"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="AI24" s="4"/>
-      <c r="AL24" s="63"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AL24" s="47"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="AI25" s="4"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="AI25" s="3"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="AI26" s="4"/>
+      <c r="AI26" s="3"/>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="AI27" s="4"/>
+      <c r="AI27" s="3"/>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="AI28" s="4"/>
+      <c r="AI28" s="3"/>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="AI29" s="4"/>
+      <c r="AI29" s="3"/>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="AI30" s="4"/>
+      <c r="AI30" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3026,11 +2993,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C1708F5-F567-4565-A221-ECE07B210A7F}">
-  <dimension ref="A1:AT51"/>
+  <dimension ref="A1:AV52"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V41" sqref="V41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3038,2710 +3005,2851 @@
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.140625" customWidth="1"/>
     <col min="3" max="3" width="32.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="41.5703125" style="4" customWidth="1"/>
-    <col min="11" max="12" width="25.5703125" style="10" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="8" customWidth="1"/>
+    <col min="8" max="9" width="21.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="41.5703125" style="3" customWidth="1"/>
+    <col min="11" max="12" width="25.5703125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" customWidth="1"/>
     <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="7" style="8" customWidth="1"/>
-    <col min="28" max="30" width="6.42578125" style="8" customWidth="1"/>
-    <col min="31" max="31" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.28515625" style="8" customWidth="1"/>
-    <col min="33" max="33" width="14.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="9.140625" style="1"/>
-    <col min="36" max="38" width="9.140625" style="8"/>
-    <col min="39" max="39" width="9.28515625" style="1" customWidth="1"/>
-    <col min="41" max="42" width="9.140625" style="8"/>
-    <col min="43" max="43" width="9.140625" style="1"/>
-    <col min="44" max="44" width="13.7109375" customWidth="1"/>
-    <col min="45" max="45" width="9.140625" style="5"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.28515625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="8.140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="7" style="1" customWidth="1"/>
+    <col min="30" max="32" width="6.42578125" style="1" customWidth="1"/>
+    <col min="33" max="33" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.28515625" style="1" customWidth="1"/>
+    <col min="35" max="35" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="40" width="9.140625" style="1"/>
+    <col min="41" max="41" width="9.28515625" style="1" customWidth="1"/>
+    <col min="43" max="45" width="9.140625" style="1"/>
+    <col min="46" max="46" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:47" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="15" t="s">
+      <c r="L1" s="11"/>
+      <c r="M1" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="O1" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="Q1" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="R1" s="39" t="s">
+      <c r="R1" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="V1" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="S1" s="39" t="s">
+      <c r="W1" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="T1" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="U1" s="39" t="s">
-        <v>334</v>
-      </c>
-      <c r="V1" s="15" t="s">
+      <c r="X1" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="Y1" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="Z1" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="AA1" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="AB1" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="AC1" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AD1" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AE1" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="AD1" s="15" t="s">
+      <c r="AF1" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="AE1" s="15" t="s">
+      <c r="AG1" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="AF1" s="39" t="s">
+      <c r="AH1" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="AG1" s="15" t="s">
+      <c r="AI1" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="AH1" s="15" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AI1" s="15" t="s">
+      <c r="AK1" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="AJ1" s="39" t="s">
+      <c r="AL1" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="AK1" s="15" t="s">
+      <c r="AM1" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="AL1" s="27" t="s">
+      <c r="AN1" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="AM1" s="15" t="s">
+      <c r="AO1" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="AN1" s="39" t="s">
+      <c r="AP1" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="AO1" s="15" t="s">
+      <c r="AQ1" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="AP1" s="39" t="s">
+      <c r="AR1" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="AQ1" s="47" t="s">
+      <c r="AS1" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="AR1" s="47" t="s">
+      <c r="AT1" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="AS1" s="9" t="s">
+      <c r="AU1" s="5" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="8">
         <v>1792</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="37" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="70">
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="53">
         <v>30000</v>
       </c>
-      <c r="O2" s="46"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12"/>
-      <c r="AJ2" s="46"/>
-      <c r="AK2" s="13"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="12"/>
-      <c r="AO2" s="12"/>
-      <c r="AP2" s="46"/>
-      <c r="AQ2" s="12"/>
-      <c r="AR2" s="11"/>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="18" t="s">
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="8"/>
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="7"/>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="I3" s="46"/>
-      <c r="J3" s="37" t="s">
+      <c r="I3" s="8"/>
+      <c r="J3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="12"/>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="46"/>
-      <c r="AK3" s="13"/>
-      <c r="AL3" s="28"/>
-      <c r="AM3" s="12"/>
-      <c r="AO3" s="12"/>
-      <c r="AP3" s="46"/>
-      <c r="AQ3" s="12"/>
-      <c r="AR3" s="11"/>
-      <c r="AS3" s="5" t="s">
+      <c r="L3" s="9"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8"/>
+      <c r="AQ3" s="8"/>
+      <c r="AR3" s="8"/>
+      <c r="AS3" s="8"/>
+      <c r="AT3" s="7"/>
+      <c r="AU3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="18" t="s">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12" t="s">
+      <c r="F4" s="7"/>
+      <c r="G4" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="I4" s="46"/>
-      <c r="J4" s="66" t="s">
+      <c r="I4" s="8"/>
+      <c r="J4" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="L4" s="14"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="46"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="46"/>
-      <c r="AK4" s="13"/>
-      <c r="AL4" s="28"/>
-      <c r="AM4" s="12"/>
-      <c r="AO4" s="12"/>
-      <c r="AP4" s="46"/>
-      <c r="AQ4" s="19" t="s">
+      <c r="L4" s="9"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
+      <c r="AQ4" s="8"/>
+      <c r="AR4" s="8"/>
+      <c r="AS4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="AR4" s="11"/>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11" t="s">
+      <c r="AT4" s="7"/>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12" t="s">
+      <c r="F5" s="7"/>
+      <c r="G5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="37" t="s">
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="46"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="46"/>
-      <c r="AK5" s="13"/>
-      <c r="AL5" s="28"/>
-      <c r="AM5" s="12"/>
-      <c r="AO5" s="12"/>
-      <c r="AP5" s="46"/>
-      <c r="AQ5" s="12"/>
-      <c r="AR5" s="11"/>
-      <c r="AS5" s="6" t="s">
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="8"/>
+      <c r="AN5" s="8"/>
+      <c r="AO5" s="8"/>
+      <c r="AQ5" s="8"/>
+      <c r="AR5" s="8"/>
+      <c r="AS5" s="8"/>
+      <c r="AT5" s="7"/>
+      <c r="AU5" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="12" t="s">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12" t="s">
+      <c r="F6" s="7"/>
+      <c r="G6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="37" t="s">
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="70">
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="53">
         <v>12000</v>
       </c>
-      <c r="O6" s="46"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="46"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="12"/>
-      <c r="AI6" s="12"/>
-      <c r="AJ6" s="46"/>
-      <c r="AK6" s="13"/>
-      <c r="AL6" s="28"/>
-      <c r="AM6" s="12"/>
-      <c r="AO6" s="12"/>
-      <c r="AP6" s="46"/>
-      <c r="AQ6" s="12"/>
-      <c r="AR6" s="11"/>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="18" t="s">
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="8"/>
+      <c r="AQ6" s="8"/>
+      <c r="AR6" s="8"/>
+      <c r="AS6" s="8"/>
+      <c r="AT6" s="7"/>
+    </row>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12" t="s">
+      <c r="F7" s="7"/>
+      <c r="G7" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="37" t="s">
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="46"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="46"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="46"/>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="12"/>
-      <c r="AI7" s="12"/>
-      <c r="AJ7" s="46"/>
-      <c r="AK7" s="13"/>
-      <c r="AL7" s="28"/>
-      <c r="AM7" s="12"/>
-      <c r="AO7" s="12"/>
-      <c r="AP7" s="46"/>
-      <c r="AQ7" s="12" t="s">
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="8"/>
+      <c r="AM7" s="8"/>
+      <c r="AN7" s="8"/>
+      <c r="AO7" s="8"/>
+      <c r="AQ7" s="8"/>
+      <c r="AR7" s="8"/>
+      <c r="AS7" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AR7" s="11"/>
-    </row>
-    <row r="8" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20" t="s">
+      <c r="AT7" s="7"/>
+    </row>
+    <row r="8" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21" t="s">
+      <c r="F8" s="15"/>
+      <c r="G8" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="67" t="s">
+      <c r="I8" s="16"/>
+      <c r="J8" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="K8" s="22" t="s">
+      <c r="K8" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="21"/>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="21"/>
-      <c r="AE8" s="21"/>
-      <c r="AF8" s="21"/>
-      <c r="AG8" s="21"/>
-      <c r="AH8" s="21"/>
-      <c r="AI8" s="21"/>
-      <c r="AJ8" s="21"/>
-      <c r="AK8" s="21"/>
-      <c r="AL8" s="21"/>
-      <c r="AM8" s="21"/>
-      <c r="AO8" s="21"/>
-      <c r="AP8" s="21"/>
-      <c r="AQ8" s="20" t="s">
+      <c r="L8" s="17"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="16"/>
+      <c r="AF8" s="16"/>
+      <c r="AG8" s="16"/>
+      <c r="AH8" s="16"/>
+      <c r="AI8" s="16"/>
+      <c r="AJ8" s="16"/>
+      <c r="AK8" s="16"/>
+      <c r="AL8" s="16"/>
+      <c r="AM8" s="16"/>
+      <c r="AN8" s="16"/>
+      <c r="AO8" s="16"/>
+      <c r="AQ8" s="16"/>
+      <c r="AR8" s="16"/>
+      <c r="AS8" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="AR8" s="20"/>
-      <c r="AS8" s="7" t="s">
+      <c r="AT8" s="15"/>
+      <c r="AU8" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="17" t="s">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="46"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="46"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="12"/>
-      <c r="AF9" s="46"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="12"/>
-      <c r="AI9" s="12"/>
-      <c r="AJ9" s="46"/>
-      <c r="AK9" s="13"/>
-      <c r="AL9" s="28"/>
-      <c r="AM9" s="12"/>
-      <c r="AO9" s="12"/>
-      <c r="AP9" s="46"/>
-      <c r="AQ9" s="12"/>
-      <c r="AR9" s="11"/>
-      <c r="AS9" s="4" t="s">
+      <c r="D9" s="8"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="8"/>
+      <c r="AO9" s="8"/>
+      <c r="AQ9" s="8"/>
+      <c r="AR9" s="8"/>
+      <c r="AS9" s="8"/>
+      <c r="AT9" s="7"/>
+      <c r="AU9" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="17" t="s">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="46"/>
-      <c r="S10" s="46"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="46"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="12"/>
-      <c r="AF10" s="46"/>
-      <c r="AG10" s="13"/>
-      <c r="AH10" s="12"/>
-      <c r="AI10" s="12"/>
-      <c r="AJ10" s="46"/>
-      <c r="AK10" s="13"/>
-      <c r="AL10" s="28"/>
-      <c r="AM10" s="12"/>
-      <c r="AO10" s="12"/>
-      <c r="AP10" s="46"/>
-      <c r="AQ10" s="12"/>
-      <c r="AR10" s="11"/>
-      <c r="AS10" s="4" t="s">
+      <c r="D10" s="8"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="8"/>
+      <c r="AN10" s="8"/>
+      <c r="AO10" s="8"/>
+      <c r="AQ10" s="8"/>
+      <c r="AR10" s="8"/>
+      <c r="AS10" s="8"/>
+      <c r="AT10" s="7"/>
+      <c r="AU10" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="12" t="s">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12" t="s">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="37" t="s">
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="46"/>
-      <c r="S11" s="46"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="46"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="12"/>
-      <c r="AF11" s="46"/>
-      <c r="AG11" s="13"/>
-      <c r="AH11" s="12"/>
-      <c r="AI11" s="12"/>
-      <c r="AJ11" s="46"/>
-      <c r="AK11" s="13"/>
-      <c r="AL11" s="28"/>
-      <c r="AM11" s="12"/>
-      <c r="AO11" s="12"/>
-      <c r="AP11" s="46"/>
-      <c r="AQ11" s="12"/>
-      <c r="AR11" s="11"/>
-      <c r="AS11" s="4" t="s">
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8"/>
+      <c r="AM11" s="8"/>
+      <c r="AN11" s="8"/>
+      <c r="AO11" s="8"/>
+      <c r="AQ11" s="8"/>
+      <c r="AR11" s="8"/>
+      <c r="AS11" s="8"/>
+      <c r="AT11" s="7"/>
+      <c r="AU11" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="17" t="s">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12" t="s">
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="46"/>
-      <c r="J12" s="37" t="s">
+      <c r="I12" s="8"/>
+      <c r="J12" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="46"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="12"/>
-      <c r="AF12" s="46"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="12"/>
-      <c r="AI12" s="12"/>
-      <c r="AJ12" s="46"/>
-      <c r="AK12" s="13"/>
-      <c r="AL12" s="28"/>
-      <c r="AM12" s="12"/>
-      <c r="AO12" s="12"/>
-      <c r="AP12" s="46"/>
-      <c r="AQ12" s="12" t="s">
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="8"/>
+      <c r="AM12" s="8"/>
+      <c r="AN12" s="8"/>
+      <c r="AO12" s="8"/>
+      <c r="AQ12" s="8"/>
+      <c r="AR12" s="8"/>
+      <c r="AS12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="AR12" s="11"/>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="46"/>
-      <c r="W13" s="46"/>
-      <c r="X13" s="46"/>
-      <c r="Y13" s="46"/>
-      <c r="Z13" s="46"/>
-      <c r="AA13" s="46"/>
-      <c r="AB13" s="46"/>
-      <c r="AC13" s="46"/>
-      <c r="AD13" s="46"/>
-      <c r="AE13" s="46"/>
-      <c r="AF13" s="46"/>
-      <c r="AG13" s="46"/>
-      <c r="AH13" s="46"/>
-      <c r="AI13" s="46"/>
-      <c r="AJ13" s="46"/>
-      <c r="AK13" s="46"/>
-      <c r="AL13" s="46"/>
-      <c r="AM13" s="46"/>
-      <c r="AO13" s="46"/>
-      <c r="AP13" s="46"/>
-      <c r="AQ13" s="46"/>
-      <c r="AR13" s="11"/>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="AT12" s="7"/>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="8"/>
+      <c r="AL13" s="8"/>
+      <c r="AM13" s="8"/>
+      <c r="AN13" s="8"/>
+      <c r="AO13" s="8"/>
+      <c r="AQ13" s="8"/>
+      <c r="AR13" s="8"/>
+      <c r="AS13" s="8"/>
+      <c r="AT13" s="7"/>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="46" t="s">
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="46" t="s">
+      <c r="H14" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="I14" s="46" t="s">
+      <c r="I14" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="J14" s="37" t="s">
+      <c r="J14" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="L14" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="M14" s="46"/>
-      <c r="N14" s="70">
+      <c r="M14" s="8"/>
+      <c r="N14" s="53">
         <v>5000</v>
       </c>
-      <c r="O14" s="70">
+      <c r="O14" s="53">
         <v>7200</v>
       </c>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="46"/>
-      <c r="U14" s="46"/>
-      <c r="V14" s="46"/>
-      <c r="W14" s="46"/>
-      <c r="X14" s="46"/>
-      <c r="Y14" s="46"/>
-      <c r="Z14" s="46"/>
-      <c r="AA14" s="46"/>
-      <c r="AB14" s="46"/>
-      <c r="AC14" s="46"/>
-      <c r="AD14" s="46"/>
-      <c r="AE14" s="46"/>
-      <c r="AF14" s="46"/>
-      <c r="AG14" s="46"/>
-      <c r="AH14" s="46"/>
-      <c r="AI14" s="46"/>
-      <c r="AJ14" s="46"/>
-      <c r="AK14" s="46"/>
-      <c r="AL14" s="46"/>
-      <c r="AM14" s="46"/>
-      <c r="AO14" s="46"/>
-      <c r="AP14" s="46"/>
-      <c r="AQ14" s="46"/>
-      <c r="AR14" s="11"/>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="37" t="s">
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="8"/>
+      <c r="AM14" s="8"/>
+      <c r="AN14" s="8"/>
+      <c r="AO14" s="8"/>
+      <c r="AQ14" s="8"/>
+      <c r="AR14" s="8"/>
+      <c r="AS14" s="8"/>
+      <c r="AT14" s="7"/>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="L15" s="14"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70">
+      <c r="L15" s="9"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53">
         <v>3200</v>
       </c>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="46"/>
-      <c r="U15" s="46"/>
-      <c r="V15" s="46"/>
-      <c r="W15" s="46"/>
-      <c r="X15" s="46"/>
-      <c r="Y15" s="46"/>
-      <c r="Z15" s="46"/>
-      <c r="AA15" s="46"/>
-      <c r="AB15" s="46"/>
-      <c r="AC15" s="46"/>
-      <c r="AD15" s="46"/>
-      <c r="AE15" s="46"/>
-      <c r="AF15" s="46"/>
-      <c r="AG15" s="46"/>
-      <c r="AH15" s="46"/>
-      <c r="AI15" s="46"/>
-      <c r="AJ15" s="46"/>
-      <c r="AK15" s="46"/>
-      <c r="AL15" s="46"/>
-      <c r="AM15" s="46"/>
-      <c r="AO15" s="46"/>
-      <c r="AP15" s="46"/>
-      <c r="AQ15" s="46"/>
-      <c r="AR15" s="11"/>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="37" t="s">
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="8"/>
+      <c r="AK15" s="8"/>
+      <c r="AL15" s="8"/>
+      <c r="AM15" s="8"/>
+      <c r="AN15" s="8"/>
+      <c r="AO15" s="8"/>
+      <c r="AQ15" s="8"/>
+      <c r="AR15" s="8"/>
+      <c r="AS15" s="8"/>
+      <c r="AT15" s="7"/>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="L16" s="14"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70">
+      <c r="L16" s="9"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53">
         <v>3350</v>
       </c>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46">
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8">
         <v>624</v>
       </c>
-      <c r="R16" s="46"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="46"/>
-      <c r="U16" s="46"/>
-      <c r="V16" s="46"/>
-      <c r="W16" s="46"/>
-      <c r="X16" s="46"/>
-      <c r="Y16" s="46"/>
-      <c r="Z16" s="46"/>
-      <c r="AA16" s="46"/>
-      <c r="AB16" s="46"/>
-      <c r="AC16" s="46"/>
-      <c r="AD16" s="46"/>
-      <c r="AE16" s="46"/>
-      <c r="AF16" s="46"/>
-      <c r="AG16" s="46"/>
-      <c r="AH16" s="46"/>
-      <c r="AI16" s="46"/>
-      <c r="AJ16" s="46"/>
-      <c r="AK16" s="46"/>
-      <c r="AL16" s="46"/>
-      <c r="AM16" s="46"/>
-      <c r="AO16" s="46"/>
-      <c r="AP16" s="46"/>
-      <c r="AQ16" s="46"/>
-      <c r="AR16" s="11"/>
-    </row>
-    <row r="17" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="8"/>
+      <c r="AL16" s="8"/>
+      <c r="AM16" s="8"/>
+      <c r="AN16" s="8"/>
+      <c r="AO16" s="8"/>
+      <c r="AQ16" s="8"/>
+      <c r="AR16" s="8"/>
+      <c r="AS16" s="8"/>
+      <c r="AT16" s="7"/>
+    </row>
+    <row r="17" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="41" t="s">
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="46" t="s">
+      <c r="I17" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="J17" s="37" t="s">
+      <c r="J17" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="L17" s="14" t="s">
+      <c r="L17" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="M17" s="12"/>
-      <c r="N17" s="70">
+      <c r="M17" s="8"/>
+      <c r="N17" s="53">
         <v>9000</v>
       </c>
-      <c r="O17" s="70">
+      <c r="O17" s="53">
         <v>6000</v>
       </c>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
-      <c r="S17" s="46"/>
-      <c r="T17" s="12">
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8">
         <v>18</v>
       </c>
-      <c r="U17" s="46">
+      <c r="S17" s="8">
         <v>12</v>
       </c>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="12"/>
-      <c r="AF17" s="46"/>
-      <c r="AG17" s="13"/>
-      <c r="AH17" s="12"/>
-      <c r="AI17" s="12"/>
-      <c r="AJ17" s="46"/>
-      <c r="AK17" s="13"/>
-      <c r="AL17" s="28"/>
-      <c r="AM17" s="12">
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="8"/>
+      <c r="AK17" s="8"/>
+      <c r="AL17" s="8"/>
+      <c r="AM17" s="8"/>
+      <c r="AN17" s="8"/>
+      <c r="AO17" s="8">
         <v>880</v>
       </c>
-      <c r="AN17">
+      <c r="AP17">
         <v>2500</v>
       </c>
-      <c r="AO17" s="12"/>
-      <c r="AP17" s="46">
+      <c r="AQ17" s="8"/>
+      <c r="AR17" s="8">
         <v>12</v>
       </c>
-      <c r="AQ17" s="12" t="s">
+      <c r="AS17" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AR17" s="11"/>
-      <c r="AS17" s="37" t="s">
+      <c r="AT17" s="7"/>
+      <c r="AU17" s="29" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="18" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="46"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="46"/>
-      <c r="U18" s="46"/>
-      <c r="V18" s="46"/>
-      <c r="W18" s="46"/>
-      <c r="X18" s="46"/>
-      <c r="Y18" s="46"/>
-      <c r="Z18" s="46"/>
-      <c r="AA18" s="46"/>
-      <c r="AB18" s="46"/>
-      <c r="AC18" s="46"/>
-      <c r="AD18" s="46"/>
-      <c r="AE18" s="46"/>
-      <c r="AF18" s="46"/>
-      <c r="AG18" s="46"/>
-      <c r="AH18" s="46"/>
-      <c r="AI18" s="46"/>
-      <c r="AJ18" s="46"/>
-      <c r="AK18" s="46"/>
-      <c r="AL18" s="46"/>
-      <c r="AM18" s="46"/>
-      <c r="AO18" s="46"/>
-      <c r="AP18" s="46"/>
-      <c r="AQ18" s="46"/>
-      <c r="AR18" s="11"/>
-      <c r="AS18" s="64"/>
-    </row>
-    <row r="19" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="46"/>
-      <c r="T19" s="46"/>
-      <c r="U19" s="46"/>
-      <c r="V19" s="46"/>
-      <c r="W19" s="46"/>
-      <c r="X19" s="46"/>
-      <c r="Y19" s="46"/>
-      <c r="Z19" s="46"/>
-      <c r="AA19" s="46"/>
-      <c r="AB19" s="46"/>
-      <c r="AC19" s="46"/>
-      <c r="AD19" s="46"/>
-      <c r="AE19" s="46"/>
-      <c r="AF19" s="46"/>
-      <c r="AG19" s="46"/>
-      <c r="AH19" s="46"/>
-      <c r="AI19" s="46"/>
-      <c r="AJ19" s="46"/>
-      <c r="AK19" s="46"/>
-      <c r="AL19" s="46"/>
-      <c r="AM19" s="46"/>
-      <c r="AO19" s="46"/>
-      <c r="AP19" s="46"/>
-      <c r="AQ19" s="46"/>
-      <c r="AR19" s="11"/>
-      <c r="AS19" s="64"/>
-    </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11" t="s">
+    <row r="18" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="8"/>
+      <c r="AL18" s="8"/>
+      <c r="AM18" s="8"/>
+      <c r="AN18" s="8"/>
+      <c r="AO18" s="8"/>
+      <c r="AQ18" s="8"/>
+      <c r="AR18" s="8"/>
+      <c r="AS18" s="8"/>
+      <c r="AT18" s="7"/>
+      <c r="AU18" s="3"/>
+    </row>
+    <row r="19" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="8"/>
+      <c r="AK19" s="8"/>
+      <c r="AL19" s="8"/>
+      <c r="AM19" s="8"/>
+      <c r="AN19" s="8"/>
+      <c r="AO19" s="8"/>
+      <c r="AQ19" s="8"/>
+      <c r="AR19" s="8"/>
+      <c r="AS19" s="8"/>
+      <c r="AT19" s="7"/>
+      <c r="AU19" s="3"/>
+    </row>
+    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12" t="s">
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="46"/>
-      <c r="J20" s="37" t="s">
+      <c r="I20" s="8"/>
+      <c r="J20" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="K20" s="14" t="s">
+      <c r="K20" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="L20" s="14"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="46"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="46"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="13"/>
-      <c r="AB20" s="13"/>
-      <c r="AC20" s="13"/>
-      <c r="AD20" s="13"/>
-      <c r="AE20" s="12"/>
-      <c r="AF20" s="46"/>
-      <c r="AG20" s="13"/>
-      <c r="AH20" s="12"/>
-      <c r="AI20" s="12"/>
-      <c r="AJ20" s="46"/>
-      <c r="AK20" s="13"/>
-      <c r="AL20" s="28"/>
-      <c r="AM20" s="12">
+      <c r="L20" s="9"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="8"/>
+      <c r="AL20" s="8"/>
+      <c r="AM20" s="8"/>
+      <c r="AN20" s="8"/>
+      <c r="AO20" s="8">
         <v>6000</v>
       </c>
-      <c r="AO20" s="12"/>
-      <c r="AP20" s="46"/>
-      <c r="AQ20" s="12" t="s">
+      <c r="AQ20" s="8"/>
+      <c r="AR20" s="8"/>
+      <c r="AS20" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AR20" s="11"/>
-    </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="44" t="s">
+      <c r="AT20" s="7"/>
+    </row>
+    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="41" t="s">
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="46"/>
-      <c r="J21" s="37" t="s">
+      <c r="I21" s="8"/>
+      <c r="J21" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="K21" s="14" t="s">
+      <c r="K21" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="L21" s="14"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="13"/>
-      <c r="AB21" s="13"/>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="13"/>
-      <c r="AE21" s="12"/>
-      <c r="AF21" s="46"/>
-      <c r="AG21" s="13"/>
-      <c r="AH21" s="12"/>
-      <c r="AI21" s="12"/>
-      <c r="AJ21" s="46"/>
-      <c r="AK21" s="13"/>
-      <c r="AL21" s="28"/>
-      <c r="AM21" s="12"/>
-      <c r="AO21" s="12"/>
-      <c r="AP21" s="46"/>
-      <c r="AR21" s="11"/>
-      <c r="AS21" s="37" t="s">
+      <c r="L21" s="9"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="8"/>
+      <c r="AL21" s="8"/>
+      <c r="AM21" s="8"/>
+      <c r="AN21" s="8"/>
+      <c r="AO21" s="8"/>
+      <c r="AQ21" s="8"/>
+      <c r="AR21" s="8"/>
+      <c r="AT21" s="7"/>
+      <c r="AU21" s="29" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="32" t="s">
         <v>357</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="46" t="s">
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="H22" s="46" t="s">
+      <c r="H22" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="I22" s="46"/>
-      <c r="J22" s="37" t="s">
+      <c r="I22" s="8"/>
+      <c r="J22" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="K22" s="14" t="s">
+      <c r="K22" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="L22" s="14"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="46"/>
-      <c r="T22" s="46"/>
-      <c r="U22" s="46"/>
-      <c r="V22" s="46"/>
-      <c r="W22" s="46"/>
-      <c r="X22" s="46"/>
-      <c r="Y22" s="46"/>
-      <c r="Z22" s="46"/>
-      <c r="AA22" s="46"/>
-      <c r="AB22" s="46"/>
-      <c r="AC22" s="46"/>
-      <c r="AD22" s="46"/>
-      <c r="AE22" s="46"/>
-      <c r="AF22" s="46"/>
-      <c r="AG22" s="46"/>
-      <c r="AH22" s="46"/>
-      <c r="AI22" s="46"/>
-      <c r="AJ22" s="46"/>
-      <c r="AK22" s="46"/>
-      <c r="AL22" s="46"/>
-      <c r="AM22" s="46"/>
-      <c r="AO22" s="46"/>
-      <c r="AP22" s="46"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="8"/>
+      <c r="AL22" s="8"/>
+      <c r="AM22" s="8"/>
+      <c r="AN22" s="8"/>
+      <c r="AO22" s="8"/>
       <c r="AQ22" s="8"/>
-      <c r="AR22" s="11"/>
-      <c r="AS22" s="64"/>
-    </row>
-    <row r="23" spans="1:46" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="45" t="s">
+      <c r="AR22" s="8"/>
+      <c r="AT22" s="7"/>
+      <c r="AU22" s="3"/>
+    </row>
+    <row r="23" spans="1:48" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="12" t="s">
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I23" s="46"/>
-      <c r="J23" s="37" t="s">
+      <c r="I23" s="8"/>
+      <c r="J23" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="K23" s="14" t="s">
+      <c r="K23" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="L23" s="14"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="46"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="46"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="13"/>
-      <c r="AB23" s="13"/>
-      <c r="AC23" s="13"/>
-      <c r="AD23" s="13"/>
-      <c r="AE23" s="12"/>
-      <c r="AF23" s="46"/>
-      <c r="AG23" s="13"/>
-      <c r="AH23" s="12"/>
-      <c r="AI23" s="12"/>
-      <c r="AJ23" s="46"/>
-      <c r="AK23" s="13"/>
-      <c r="AL23" s="28"/>
-      <c r="AM23" s="12"/>
-      <c r="AO23" s="12"/>
-      <c r="AP23" s="46"/>
-      <c r="AQ23" s="12" t="s">
+      <c r="L23" s="9"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="8"/>
+      <c r="AL23" s="8"/>
+      <c r="AM23" s="8"/>
+      <c r="AN23" s="8"/>
+      <c r="AO23" s="8"/>
+      <c r="AQ23" s="8"/>
+      <c r="AR23" s="8"/>
+      <c r="AS23" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AR23" s="11"/>
-    </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="45" t="s">
+      <c r="AT23" s="7"/>
+    </row>
+    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43" t="s">
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I24" s="46"/>
-      <c r="J24" s="37" t="s">
+      <c r="I24" s="8"/>
+      <c r="J24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="K24" s="14" t="s">
+      <c r="K24" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="L24" s="14"/>
-      <c r="M24" s="43" t="s">
+      <c r="L24" s="9"/>
+      <c r="M24" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="N24" s="43"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="46"/>
-      <c r="S24" s="46"/>
-      <c r="T24" s="43"/>
-      <c r="U24" s="46"/>
-      <c r="V24" s="43"/>
-      <c r="W24" s="43"/>
-      <c r="X24" s="43"/>
-      <c r="Y24" s="43"/>
-      <c r="Z24" s="43"/>
-      <c r="AA24" s="43"/>
-      <c r="AB24" s="43"/>
-      <c r="AC24" s="43"/>
-      <c r="AD24" s="43"/>
-      <c r="AE24" s="43"/>
-      <c r="AF24" s="46"/>
-      <c r="AG24" s="43"/>
-      <c r="AH24" s="43"/>
-      <c r="AI24" s="43"/>
-      <c r="AJ24" s="46"/>
-      <c r="AK24" s="43"/>
-      <c r="AL24" s="43"/>
-      <c r="AM24" s="43"/>
-      <c r="AO24" s="43"/>
-      <c r="AP24" s="46"/>
-      <c r="AQ24" s="43"/>
-      <c r="AR24" s="11"/>
-    </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="45" t="s">
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="8"/>
+      <c r="AL24" s="8"/>
+      <c r="AM24" s="8"/>
+      <c r="AN24" s="8"/>
+      <c r="AO24" s="8"/>
+      <c r="AQ24" s="8"/>
+      <c r="AR24" s="8"/>
+      <c r="AS24" s="8"/>
+      <c r="AT24" s="7"/>
+    </row>
+    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="43" t="s">
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="H25" s="43" t="s">
+      <c r="H25" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I25" s="46"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="37" t="s">
+      <c r="I25" s="8"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="N25" s="43"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="46"/>
-      <c r="S25" s="46"/>
-      <c r="T25" s="43"/>
-      <c r="U25" s="46"/>
-      <c r="V25" s="43"/>
-      <c r="W25" s="43"/>
-      <c r="X25" s="43"/>
-      <c r="Y25" s="43"/>
-      <c r="Z25" s="43"/>
-      <c r="AA25" s="43"/>
-      <c r="AB25" s="43"/>
-      <c r="AC25" s="43"/>
-      <c r="AD25" s="43"/>
-      <c r="AE25" s="43"/>
-      <c r="AF25" s="46"/>
-      <c r="AG25" s="43"/>
-      <c r="AH25" s="43"/>
-      <c r="AI25" s="43"/>
-      <c r="AJ25" s="46"/>
-      <c r="AK25" s="43"/>
-      <c r="AL25" s="43"/>
-      <c r="AM25" s="43"/>
-      <c r="AO25" s="43"/>
-      <c r="AP25" s="46"/>
-      <c r="AQ25" s="43"/>
-      <c r="AR25" s="11"/>
-    </row>
-    <row r="26" spans="1:46" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="18" t="s">
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="8"/>
+      <c r="AL25" s="8"/>
+      <c r="AM25" s="8"/>
+      <c r="AN25" s="8"/>
+      <c r="AO25" s="8"/>
+      <c r="AQ25" s="8"/>
+      <c r="AR25" s="8"/>
+      <c r="AS25" s="8"/>
+      <c r="AT25" s="7"/>
+    </row>
+    <row r="26" spans="1:48" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="11" t="s">
+      <c r="D26" s="14"/>
+      <c r="E26" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="12" t="s">
+      <c r="F26" s="7"/>
+      <c r="G26" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="37" t="s">
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12" t="s">
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="O26" s="46"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="46"/>
-      <c r="S26" s="46"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="46"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="13"/>
-      <c r="Y26" s="13"/>
-      <c r="Z26" s="13"/>
-      <c r="AA26" s="13"/>
-      <c r="AB26" s="13"/>
-      <c r="AC26" s="13"/>
-      <c r="AD26" s="13"/>
-      <c r="AE26" s="12"/>
-      <c r="AF26" s="46"/>
-      <c r="AG26" s="13"/>
-      <c r="AH26" s="12"/>
-      <c r="AI26" s="12"/>
-      <c r="AJ26" s="46"/>
-      <c r="AK26" s="13"/>
-      <c r="AL26" s="28"/>
-      <c r="AM26" s="12"/>
-      <c r="AO26" s="12"/>
-      <c r="AP26" s="46"/>
-      <c r="AQ26" s="12" t="s">
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="8"/>
+      <c r="AL26" s="8"/>
+      <c r="AM26" s="8"/>
+      <c r="AN26" s="8"/>
+      <c r="AO26" s="8"/>
+      <c r="AQ26" s="8"/>
+      <c r="AR26" s="8"/>
+      <c r="AS26" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AR26" s="11"/>
-    </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="18" t="s">
+      <c r="AT26" s="7"/>
+    </row>
+    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="12" t="s">
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="H27" s="12" t="s">
+      <c r="H27" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I27" s="46"/>
-      <c r="J27" s="37" t="s">
+      <c r="I27" s="8"/>
+      <c r="J27" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="K27" s="14" t="s">
+      <c r="K27" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="L27" s="14"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="46"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="46"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="13"/>
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="13"/>
-      <c r="AB27" s="13"/>
-      <c r="AC27" s="13"/>
-      <c r="AD27" s="13"/>
-      <c r="AE27" s="12"/>
-      <c r="AF27" s="46"/>
-      <c r="AG27" s="13"/>
-      <c r="AH27" s="12"/>
-      <c r="AI27" s="12"/>
-      <c r="AJ27" s="46"/>
-      <c r="AK27" s="13"/>
-      <c r="AL27" s="28"/>
-      <c r="AM27" s="12"/>
-      <c r="AO27" s="12"/>
-      <c r="AP27" s="46"/>
-      <c r="AQ27" s="12"/>
-      <c r="AR27" s="11"/>
-    </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="18" t="s">
+      <c r="L27" s="9"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="8"/>
+      <c r="AJ27" s="8"/>
+      <c r="AK27" s="8"/>
+      <c r="AL27" s="8"/>
+      <c r="AM27" s="8"/>
+      <c r="AN27" s="8"/>
+      <c r="AO27" s="8"/>
+      <c r="AQ27" s="8"/>
+      <c r="AR27" s="8"/>
+      <c r="AS27" s="8"/>
+      <c r="AT27" s="7"/>
+    </row>
+    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="12" t="s">
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="H28" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="I28" s="46"/>
-      <c r="J28" s="37" t="s">
+      <c r="I28" s="8"/>
+      <c r="J28" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="K28" s="14" t="s">
+      <c r="K28" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="L28" s="14"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="46"/>
-      <c r="S28" s="46"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="46"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="13"/>
-      <c r="AA28" s="13"/>
-      <c r="AB28" s="13"/>
-      <c r="AC28" s="13"/>
-      <c r="AD28" s="13"/>
-      <c r="AE28" s="12"/>
-      <c r="AF28" s="46"/>
-      <c r="AG28" s="13"/>
-      <c r="AH28" s="12"/>
-      <c r="AI28" s="12"/>
-      <c r="AJ28" s="46"/>
-      <c r="AK28" s="13"/>
-      <c r="AL28" s="28"/>
-      <c r="AM28" s="12"/>
-      <c r="AO28" s="12"/>
-      <c r="AP28" s="46"/>
-      <c r="AQ28" s="12"/>
-      <c r="AR28" s="11"/>
-    </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="18" t="s">
+      <c r="L28" s="9"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="8"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="8"/>
+      <c r="AJ28" s="8"/>
+      <c r="AK28" s="8"/>
+      <c r="AL28" s="8"/>
+      <c r="AM28" s="8"/>
+      <c r="AN28" s="8"/>
+      <c r="AO28" s="8"/>
+      <c r="AQ28" s="8"/>
+      <c r="AR28" s="8"/>
+      <c r="AS28" s="8"/>
+      <c r="AT28" s="7"/>
+    </row>
+    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="12" t="s">
+      <c r="F29" s="7"/>
+      <c r="G29" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H29" s="12" t="s">
+      <c r="H29" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I29" s="46"/>
-      <c r="J29" s="37" t="s">
+      <c r="I29" s="8"/>
+      <c r="J29" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="K29" s="14" t="s">
+      <c r="K29" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="L29" s="14"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="46"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="46"/>
-      <c r="R29" s="46"/>
-      <c r="S29" s="46"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="46"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="13"/>
-      <c r="AA29" s="13"/>
-      <c r="AB29" s="13"/>
-      <c r="AC29" s="13"/>
-      <c r="AD29" s="13"/>
-      <c r="AE29" s="12"/>
-      <c r="AF29" s="46"/>
-      <c r="AG29" s="13"/>
-      <c r="AH29" s="12"/>
-      <c r="AI29" s="12"/>
-      <c r="AJ29" s="46"/>
-      <c r="AK29" s="13"/>
-      <c r="AL29" s="28"/>
-      <c r="AM29" s="12"/>
-      <c r="AO29" s="12"/>
-      <c r="AP29" s="46"/>
-      <c r="AQ29" s="12"/>
-      <c r="AR29" s="11"/>
-    </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="61" t="s">
+      <c r="L29" s="9"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="8"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="8"/>
+      <c r="AJ29" s="8"/>
+      <c r="AK29" s="8"/>
+      <c r="AL29" s="8"/>
+      <c r="AM29" s="8"/>
+      <c r="AN29" s="8"/>
+      <c r="AO29" s="8"/>
+      <c r="AQ29" s="8"/>
+      <c r="AR29" s="8"/>
+      <c r="AS29" s="8"/>
+      <c r="AT29" s="7"/>
+    </row>
+    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="46" t="s">
         <v>315</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="46"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="46"/>
-      <c r="Q30" s="46"/>
-      <c r="R30" s="46"/>
-      <c r="S30" s="46"/>
-      <c r="T30" s="46"/>
-      <c r="U30" s="46"/>
-      <c r="V30" s="46"/>
-      <c r="W30" s="46"/>
-      <c r="X30" s="46"/>
-      <c r="Y30" s="46"/>
-      <c r="Z30" s="46"/>
-      <c r="AA30" s="46"/>
-      <c r="AB30" s="46"/>
-      <c r="AC30" s="46"/>
-      <c r="AD30" s="46"/>
-      <c r="AE30" s="46"/>
-      <c r="AF30" s="46"/>
-      <c r="AG30" s="46"/>
-      <c r="AH30" s="46"/>
-      <c r="AI30" s="46"/>
-      <c r="AJ30" s="46"/>
-      <c r="AK30" s="46"/>
-      <c r="AL30" s="46"/>
-      <c r="AM30" s="46"/>
-      <c r="AO30" s="46"/>
-      <c r="AP30" s="46"/>
-      <c r="AQ30" s="46"/>
-      <c r="AR30" s="11"/>
-      <c r="AT30" t="s">
+      <c r="F30" s="7"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="8"/>
+      <c r="AJ30" s="8"/>
+      <c r="AK30" s="8"/>
+      <c r="AL30" s="8"/>
+      <c r="AM30" s="8"/>
+      <c r="AN30" s="8"/>
+      <c r="AO30" s="8"/>
+      <c r="AQ30" s="8"/>
+      <c r="AR30" s="8"/>
+      <c r="AS30" s="8"/>
+      <c r="AT30" s="7"/>
+      <c r="AV30" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="18" t="s">
+      <c r="B31" s="7"/>
+      <c r="C31" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="40" t="s">
+      <c r="F31" s="7"/>
+      <c r="G31" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="H31" s="40" t="s">
+      <c r="H31" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="I31" s="46"/>
-      <c r="J31" s="37" t="s">
+      <c r="I31" s="8"/>
+      <c r="J31" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="K31" s="14" t="s">
+      <c r="K31" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="L31" s="14"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="46"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="46"/>
-      <c r="R31" s="46"/>
-      <c r="S31" s="46"/>
-      <c r="T31" s="40"/>
-      <c r="U31" s="46"/>
-      <c r="V31" s="40"/>
-      <c r="W31" s="40"/>
-      <c r="X31" s="40"/>
-      <c r="Y31" s="40"/>
-      <c r="Z31" s="40"/>
-      <c r="AA31" s="40"/>
-      <c r="AB31" s="40"/>
-      <c r="AC31" s="40"/>
-      <c r="AD31" s="40"/>
-      <c r="AE31" s="40"/>
-      <c r="AF31" s="46"/>
-      <c r="AG31" s="40"/>
-      <c r="AH31" s="40"/>
-      <c r="AI31" s="40"/>
-      <c r="AJ31" s="46"/>
-      <c r="AK31" s="40"/>
-      <c r="AL31" s="40"/>
-      <c r="AM31" s="40"/>
-      <c r="AO31" s="40"/>
-      <c r="AP31" s="46"/>
-      <c r="AQ31" s="40"/>
-      <c r="AR31" s="23" t="s">
+      <c r="L31" s="9"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8"/>
+      <c r="AD31" s="8"/>
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="8"/>
+      <c r="AI31" s="8"/>
+      <c r="AJ31" s="8"/>
+      <c r="AK31" s="8"/>
+      <c r="AL31" s="8"/>
+      <c r="AM31" s="8"/>
+      <c r="AN31" s="8"/>
+      <c r="AO31" s="8"/>
+      <c r="AQ31" s="8"/>
+      <c r="AR31" s="8"/>
+      <c r="AS31" s="8"/>
+      <c r="AT31" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="AS31" s="5" t="s">
+      <c r="AU31" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="18" t="s">
+      <c r="B32" s="7"/>
+      <c r="C32" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="46" t="s">
+      <c r="F32" s="7"/>
+      <c r="G32" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="H32" s="46" t="s">
+      <c r="H32" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="I32" s="46"/>
-      <c r="J32" s="37" t="s">
+      <c r="I32" s="8"/>
+      <c r="J32" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="K32" s="14" t="s">
+      <c r="K32" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="L32" s="14"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="46"/>
-      <c r="Q32" s="46"/>
-      <c r="R32" s="46"/>
-      <c r="S32" s="46"/>
-      <c r="T32" s="46"/>
-      <c r="U32" s="46"/>
-      <c r="V32" s="46"/>
-      <c r="W32" s="46"/>
-      <c r="X32" s="46"/>
-      <c r="Y32" s="46"/>
-      <c r="Z32" s="46"/>
-      <c r="AA32" s="46"/>
-      <c r="AB32" s="46"/>
-      <c r="AC32" s="46"/>
-      <c r="AD32" s="46"/>
-      <c r="AE32" s="46"/>
-      <c r="AF32" s="46"/>
-      <c r="AG32" s="46"/>
-      <c r="AH32" s="46"/>
-      <c r="AI32" s="46"/>
-      <c r="AJ32" s="46"/>
-      <c r="AK32" s="46"/>
-      <c r="AL32" s="46"/>
-      <c r="AM32" s="46"/>
-      <c r="AO32" s="46"/>
-      <c r="AP32" s="46"/>
-      <c r="AQ32" s="46"/>
-      <c r="AR32" s="23" t="s">
+      <c r="L32" s="9"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="8"/>
+      <c r="AD32" s="8"/>
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="8"/>
+      <c r="AG32" s="8"/>
+      <c r="AH32" s="8"/>
+      <c r="AI32" s="8"/>
+      <c r="AJ32" s="8"/>
+      <c r="AK32" s="8"/>
+      <c r="AL32" s="8"/>
+      <c r="AM32" s="8"/>
+      <c r="AN32" s="8"/>
+      <c r="AO32" s="8"/>
+      <c r="AQ32" s="8"/>
+      <c r="AR32" s="8"/>
+      <c r="AS32" s="8"/>
+      <c r="AT32" s="18" t="s">
         <v>314</v>
       </c>
-      <c r="AS32" s="5" t="s">
+      <c r="AU32" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="33" spans="1:45" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+    <row r="33" spans="1:47" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="46"/>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="46"/>
-      <c r="R33" s="46"/>
-      <c r="S33" s="46"/>
-      <c r="T33" s="46"/>
-      <c r="U33" s="46"/>
-      <c r="V33" s="46"/>
-      <c r="W33" s="46"/>
-      <c r="X33" s="46"/>
-      <c r="Y33" s="46"/>
-      <c r="Z33" s="46"/>
-      <c r="AA33" s="46"/>
-      <c r="AB33" s="46"/>
-      <c r="AC33" s="46"/>
-      <c r="AD33" s="46"/>
-      <c r="AE33" s="46"/>
-      <c r="AF33" s="46"/>
-      <c r="AG33" s="46"/>
-      <c r="AH33" s="46"/>
-      <c r="AI33" s="46"/>
-      <c r="AJ33" s="46"/>
-      <c r="AK33" s="46"/>
-      <c r="AL33" s="46"/>
-      <c r="AM33" s="46"/>
-      <c r="AO33" s="46"/>
-      <c r="AP33" s="46"/>
-      <c r="AQ33" s="46"/>
-      <c r="AR33" s="11"/>
-    </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="18" t="s">
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="8"/>
+      <c r="AG33" s="8"/>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="8"/>
+      <c r="AJ33" s="8"/>
+      <c r="AK33" s="8"/>
+      <c r="AL33" s="8"/>
+      <c r="AM33" s="8"/>
+      <c r="AN33" s="8"/>
+      <c r="AO33" s="8"/>
+      <c r="AQ33" s="8"/>
+      <c r="AR33" s="8"/>
+      <c r="AS33" s="8"/>
+      <c r="AT33" s="7"/>
+    </row>
+    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46" t="s">
+      <c r="F34" s="7"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I34" s="46"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="46"/>
-      <c r="N34" s="70">
+      <c r="I34" s="8"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="53">
         <v>17000</v>
       </c>
-      <c r="O34" s="46"/>
-      <c r="P34" s="70">
+      <c r="O34" s="8"/>
+      <c r="P34" s="53">
         <v>3000</v>
       </c>
-      <c r="Q34" s="46"/>
-      <c r="R34" s="46"/>
-      <c r="S34" s="46"/>
-      <c r="T34" s="46"/>
-      <c r="U34" s="46"/>
-      <c r="V34" s="46"/>
-      <c r="W34" s="46"/>
-      <c r="X34" s="46"/>
-      <c r="Y34" s="46"/>
-      <c r="Z34" s="46"/>
-      <c r="AA34" s="46"/>
-      <c r="AB34" s="46"/>
-      <c r="AC34" s="46"/>
-      <c r="AD34" s="46"/>
-      <c r="AE34" s="46"/>
-      <c r="AF34" s="46"/>
-      <c r="AG34" s="46"/>
-      <c r="AH34" s="46"/>
-      <c r="AI34" s="46"/>
-      <c r="AJ34" s="46"/>
-      <c r="AK34" s="46"/>
-      <c r="AL34" s="46"/>
-      <c r="AM34" s="46"/>
-      <c r="AO34" s="46"/>
-      <c r="AP34" s="46"/>
-      <c r="AQ34" s="46"/>
-      <c r="AR34" s="11"/>
-    </row>
-    <row r="35" spans="1:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11" t="s">
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="8"/>
+      <c r="AD34" s="8"/>
+      <c r="AE34" s="8"/>
+      <c r="AF34" s="8"/>
+      <c r="AG34" s="8"/>
+      <c r="AH34" s="8"/>
+      <c r="AI34" s="8"/>
+      <c r="AJ34" s="8"/>
+      <c r="AK34" s="8"/>
+      <c r="AL34" s="8"/>
+      <c r="AM34" s="8"/>
+      <c r="AN34" s="8"/>
+      <c r="AO34" s="8"/>
+      <c r="AQ34" s="8"/>
+      <c r="AR34" s="8"/>
+      <c r="AS34" s="8"/>
+      <c r="AT34" s="7"/>
+    </row>
+    <row r="35" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="12" t="s">
+      <c r="F35" s="7"/>
+      <c r="G35" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H35" s="12" t="s">
+      <c r="H35" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="I35" s="46"/>
-      <c r="J35" s="37" t="s">
+      <c r="I35" s="8"/>
+      <c r="J35" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="K35" s="14" t="s">
+      <c r="K35" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="L35" s="14"/>
-      <c r="M35" s="12">
+      <c r="L35" s="9"/>
+      <c r="M35" s="8">
         <v>13</v>
       </c>
-      <c r="N35" s="12"/>
-      <c r="O35" s="46"/>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="46"/>
-      <c r="R35" s="46"/>
-      <c r="S35" s="46"/>
-      <c r="T35" s="12">
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8">
         <v>15</v>
       </c>
-      <c r="U35" s="46">
+      <c r="S35" s="8">
         <v>15</v>
       </c>
-      <c r="V35" s="13"/>
-      <c r="W35" s="13"/>
-      <c r="X35" s="13"/>
-      <c r="Y35" s="13"/>
-      <c r="Z35" s="13"/>
-      <c r="AA35" s="13"/>
-      <c r="AB35" s="13"/>
-      <c r="AC35" s="13"/>
-      <c r="AD35" s="13"/>
-      <c r="AE35" s="12"/>
-      <c r="AF35" s="46"/>
-      <c r="AG35" s="13"/>
-      <c r="AH35" s="12"/>
-      <c r="AI35" s="12"/>
-      <c r="AJ35" s="46"/>
-      <c r="AK35" s="13"/>
-      <c r="AL35" s="28"/>
-      <c r="AM35" s="12" t="s">
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="8"/>
+      <c r="AD35" s="8"/>
+      <c r="AE35" s="8"/>
+      <c r="AF35" s="8"/>
+      <c r="AG35" s="8"/>
+      <c r="AH35" s="8"/>
+      <c r="AI35" s="8"/>
+      <c r="AJ35" s="8"/>
+      <c r="AK35" s="8"/>
+      <c r="AL35" s="8"/>
+      <c r="AM35" s="8"/>
+      <c r="AN35" s="8"/>
+      <c r="AO35" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="AO35" s="12">
+      <c r="AQ35" s="8">
         <v>4</v>
       </c>
-      <c r="AP35" s="46">
+      <c r="AR35" s="8">
         <v>4</v>
       </c>
-      <c r="AQ35" s="12" t="s">
+      <c r="AS35" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="AR35" s="23" t="s">
+      <c r="AT35" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="AS35" s="25" t="s">
+      <c r="AU35" s="20" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:45" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29" t="s">
+    <row r="36" spans="1:47" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="C36" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="D36" s="31" t="s">
+      <c r="D36" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="E36" s="29" t="s">
+      <c r="E36" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="F36" s="29"/>
-      <c r="G36" s="32" t="s">
+      <c r="F36" s="21"/>
+      <c r="G36" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="H36" s="32" t="s">
+      <c r="H36" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="I36" s="32"/>
-      <c r="J36" s="68" t="s">
+      <c r="I36" s="24"/>
+      <c r="J36" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="K36" s="33" t="s">
+      <c r="K36" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="L36" s="33"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="32"/>
-      <c r="T36" s="32"/>
-      <c r="U36" s="32"/>
-      <c r="V36" s="32">
+      <c r="L36" s="25"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="24"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="24"/>
+      <c r="U36" s="24"/>
+      <c r="V36" s="24"/>
+      <c r="W36" s="24"/>
+      <c r="X36" s="24">
         <v>4</v>
       </c>
-      <c r="W36" s="32">
+      <c r="Y36" s="24">
         <v>0</v>
       </c>
-      <c r="X36" s="32">
+      <c r="Z36" s="24">
         <v>29</v>
       </c>
-      <c r="Y36" s="32">
+      <c r="AA36" s="24">
         <v>33</v>
       </c>
-      <c r="Z36" s="32">
+      <c r="AB36" s="24">
         <v>5</v>
       </c>
-      <c r="AA36" s="32">
+      <c r="AC36" s="24">
         <v>2</v>
       </c>
-      <c r="AB36" s="32"/>
-      <c r="AC36" s="32"/>
-      <c r="AD36" s="32">
+      <c r="AD36" s="24"/>
+      <c r="AE36" s="24"/>
+      <c r="AF36" s="24">
         <v>40</v>
       </c>
-      <c r="AE36" s="72">
+      <c r="AG36" s="55">
         <v>4395</v>
       </c>
-      <c r="AF36" s="32"/>
-      <c r="AG36" s="32">
+      <c r="AH36" s="24"/>
+      <c r="AI36" s="24">
         <v>1</v>
       </c>
-      <c r="AH36" s="32">
+      <c r="AJ36" s="24">
         <v>2541</v>
       </c>
-      <c r="AI36" s="32">
+      <c r="AK36" s="24">
         <v>7500</v>
       </c>
-      <c r="AJ36" s="32"/>
-      <c r="AK36" s="32">
+      <c r="AL36" s="24"/>
+      <c r="AM36" s="24">
         <v>21</v>
       </c>
-      <c r="AL36" s="32"/>
-      <c r="AM36" s="32"/>
-      <c r="AO36" s="32"/>
-      <c r="AP36" s="32"/>
-      <c r="AQ36" s="32" t="s">
+      <c r="AN36" s="24"/>
+      <c r="AO36" s="24"/>
+      <c r="AQ36" s="24"/>
+      <c r="AR36" s="24"/>
+      <c r="AS36" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="AR36" s="34"/>
-      <c r="AS36" s="35"/>
-    </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="18" t="s">
+      <c r="AT36" s="26"/>
+      <c r="AU36" s="27"/>
+    </row>
+    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="12" t="s">
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H37" s="12" t="s">
+      <c r="H37" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="I37" s="46"/>
-      <c r="J37" s="37" t="s">
+      <c r="I37" s="8"/>
+      <c r="J37" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="K37" s="14" t="s">
+      <c r="K37" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="L37" s="14"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="46"/>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="46"/>
-      <c r="R37" s="46"/>
-      <c r="S37" s="46"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="46"/>
-      <c r="V37" s="13"/>
-      <c r="W37" s="13"/>
-      <c r="X37" s="13"/>
-      <c r="Y37" s="13"/>
-      <c r="Z37" s="13"/>
-      <c r="AA37" s="13"/>
-      <c r="AB37" s="13"/>
-      <c r="AC37" s="13"/>
-      <c r="AD37" s="13"/>
-      <c r="AE37" s="12"/>
-      <c r="AF37" s="46"/>
-      <c r="AG37" s="13"/>
-      <c r="AH37" s="12"/>
-      <c r="AI37" s="12"/>
-      <c r="AJ37" s="46"/>
-      <c r="AK37" s="13"/>
-      <c r="AL37" s="28"/>
-      <c r="AM37" s="12"/>
-      <c r="AO37" s="12"/>
-      <c r="AP37" s="46"/>
-      <c r="AQ37" s="12"/>
-      <c r="AR37" s="23"/>
-      <c r="AS37" s="26"/>
-    </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="18" t="s">
+      <c r="L37" s="9"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="8"/>
+      <c r="AC37" s="8"/>
+      <c r="AD37" s="8"/>
+      <c r="AE37" s="8"/>
+      <c r="AF37" s="8"/>
+      <c r="AG37" s="8"/>
+      <c r="AH37" s="8"/>
+      <c r="AI37" s="8"/>
+      <c r="AJ37" s="8"/>
+      <c r="AK37" s="8"/>
+      <c r="AL37" s="8"/>
+      <c r="AM37" s="8"/>
+      <c r="AN37" s="8"/>
+      <c r="AO37" s="8"/>
+      <c r="AQ37" s="8"/>
+      <c r="AR37" s="8"/>
+      <c r="AS37" s="8"/>
+      <c r="AT37" s="18"/>
+      <c r="AU37" s="3"/>
+    </row>
+    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="46"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="46"/>
-      <c r="R38" s="46"/>
-      <c r="S38" s="46"/>
-      <c r="T38" s="40"/>
-      <c r="U38" s="46"/>
-      <c r="V38" s="40"/>
-      <c r="W38" s="40"/>
-      <c r="X38" s="40"/>
-      <c r="Y38" s="40"/>
-      <c r="Z38" s="40"/>
-      <c r="AA38" s="40"/>
-      <c r="AB38" s="40"/>
-      <c r="AC38" s="40"/>
-      <c r="AD38" s="40"/>
-      <c r="AE38" s="40"/>
-      <c r="AF38" s="46"/>
-      <c r="AG38" s="40"/>
-      <c r="AH38" s="40"/>
-      <c r="AI38" s="40"/>
-      <c r="AJ38" s="46"/>
-      <c r="AK38" s="40"/>
-      <c r="AL38" s="40"/>
-      <c r="AM38" s="40"/>
-      <c r="AO38" s="40"/>
-      <c r="AP38" s="46"/>
-      <c r="AQ38" s="40"/>
-      <c r="AR38" s="23"/>
-      <c r="AS38" s="26"/>
-    </row>
-    <row r="39" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11" t="s">
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="8"/>
+      <c r="AD38" s="8"/>
+      <c r="AE38" s="8"/>
+      <c r="AF38" s="8"/>
+      <c r="AG38" s="8"/>
+      <c r="AH38" s="8"/>
+      <c r="AI38" s="8"/>
+      <c r="AJ38" s="8"/>
+      <c r="AK38" s="8"/>
+      <c r="AL38" s="8"/>
+      <c r="AM38" s="8"/>
+      <c r="AN38" s="8"/>
+      <c r="AO38" s="8"/>
+      <c r="AQ38" s="8"/>
+      <c r="AR38" s="8"/>
+      <c r="AS38" s="8"/>
+      <c r="AT38" s="18"/>
+      <c r="AU38" s="3"/>
+    </row>
+    <row r="39" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C39" s="42" t="s">
+      <c r="C39" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="40" t="s">
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="H39" s="40" t="s">
+      <c r="H39" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I39" s="46"/>
-      <c r="J39" s="37" t="s">
+      <c r="I39" s="8"/>
+      <c r="J39" s="29" t="s">
         <v>340</v>
       </c>
-      <c r="K39" s="14" t="s">
+      <c r="K39" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="L39" s="14"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="70">
+      <c r="L39" s="9"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="53">
         <v>40000</v>
       </c>
-      <c r="O39" s="70">
+      <c r="O39" s="53">
         <v>55000</v>
       </c>
-      <c r="P39" s="70">
+      <c r="P39" s="53">
         <v>8000</v>
       </c>
-      <c r="Q39" s="46"/>
-      <c r="R39" s="46"/>
-      <c r="S39" s="46"/>
-      <c r="T39" s="40">
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8">
         <v>110</v>
       </c>
-      <c r="U39" s="46">
+      <c r="S39" s="8">
         <v>110</v>
       </c>
-      <c r="V39" s="40"/>
-      <c r="W39" s="40"/>
-      <c r="X39" s="40"/>
-      <c r="Y39" s="40"/>
-      <c r="Z39" s="40"/>
-      <c r="AA39" s="40"/>
-      <c r="AB39" s="40"/>
-      <c r="AC39" s="40"/>
-      <c r="AD39" s="40"/>
-      <c r="AE39" s="71"/>
-      <c r="AF39" s="71">
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="8"/>
+      <c r="AC39" s="8"/>
+      <c r="AD39" s="8"/>
+      <c r="AE39" s="8"/>
+      <c r="AF39" s="8"/>
+      <c r="AG39" s="54"/>
+      <c r="AH39" s="54">
         <v>10000</v>
       </c>
-      <c r="AG39" s="40"/>
-      <c r="AH39" s="40"/>
-      <c r="AI39" s="40"/>
-      <c r="AJ39" s="73">
+      <c r="AI39" s="8"/>
+      <c r="AJ39" s="8"/>
+      <c r="AK39" s="8"/>
+      <c r="AL39" s="56">
         <v>15000</v>
       </c>
-      <c r="AK39" s="40"/>
-      <c r="AL39" s="40"/>
-      <c r="AM39" s="40">
+      <c r="AM39" s="8"/>
+      <c r="AN39" s="8"/>
+      <c r="AO39" s="8">
         <v>6500</v>
       </c>
-      <c r="AO39" s="40"/>
-      <c r="AP39" s="46">
+      <c r="AQ39" s="8"/>
+      <c r="AR39" s="8">
         <v>150</v>
       </c>
-      <c r="AQ39" s="40" t="s">
+      <c r="AS39" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AR39" s="23" t="s">
+      <c r="AT39" s="18" t="s">
         <v>347</v>
       </c>
-      <c r="AS39" s="26" t="s">
+      <c r="AU39" s="3" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="42" t="s">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="40" t="s">
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="H40" s="40" t="s">
+      <c r="H40" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="I40" s="46"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="14" t="s">
+      <c r="I40" s="8"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="L40" s="14"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="70">
+      <c r="L40" s="9"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="53">
         <v>26000</v>
       </c>
-      <c r="O40" s="70">
+      <c r="O40" s="53">
         <v>64000</v>
       </c>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="46"/>
-      <c r="R40" s="46"/>
-      <c r="S40" s="46"/>
-      <c r="T40" s="40"/>
-      <c r="U40" s="46"/>
-      <c r="V40" s="40"/>
-      <c r="W40" s="40"/>
-      <c r="X40" s="40"/>
-      <c r="Y40" s="40"/>
-      <c r="Z40" s="40"/>
-      <c r="AA40" s="40"/>
-      <c r="AB40" s="40"/>
-      <c r="AC40" s="40"/>
-      <c r="AD40" s="40"/>
-      <c r="AE40" s="71">
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="8"/>
+      <c r="AC40" s="8"/>
+      <c r="AD40" s="8"/>
+      <c r="AE40" s="8"/>
+      <c r="AF40" s="8"/>
+      <c r="AG40" s="54">
         <v>7000</v>
       </c>
-      <c r="AF40" s="46"/>
-      <c r="AG40" s="40"/>
-      <c r="AH40" s="40"/>
-      <c r="AI40" s="40"/>
-      <c r="AJ40" s="46"/>
-      <c r="AK40" s="40"/>
-      <c r="AL40" s="40"/>
-      <c r="AM40" s="40"/>
-      <c r="AO40" s="40"/>
-      <c r="AP40" s="46"/>
-      <c r="AQ40" s="40"/>
-      <c r="AR40" s="23"/>
-      <c r="AS40" s="26" t="s">
+      <c r="AH40" s="8"/>
+      <c r="AI40" s="8"/>
+      <c r="AJ40" s="8"/>
+      <c r="AK40" s="8"/>
+      <c r="AL40" s="8"/>
+      <c r="AM40" s="8"/>
+      <c r="AN40" s="8"/>
+      <c r="AO40" s="8"/>
+      <c r="AQ40" s="8"/>
+      <c r="AR40" s="8"/>
+      <c r="AS40" s="8"/>
+      <c r="AT40" s="18"/>
+      <c r="AU40" s="3" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="41" spans="1:45" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="I41" s="8"/>
+      <c r="J41" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L41" s="9"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="53"/>
+      <c r="O41" s="53"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8">
+        <v>172000</v>
+      </c>
+      <c r="U41" s="8">
+        <v>136000</v>
+      </c>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="8"/>
+      <c r="AD41" s="8"/>
+      <c r="AE41" s="8"/>
+      <c r="AF41" s="8"/>
+      <c r="AG41" s="54"/>
+      <c r="AH41" s="8"/>
+      <c r="AI41" s="8"/>
+      <c r="AJ41" s="8"/>
+      <c r="AK41" s="8"/>
+      <c r="AL41" s="8"/>
+      <c r="AM41" s="8"/>
+      <c r="AN41" s="8"/>
+      <c r="AO41" s="8"/>
+      <c r="AQ41" s="8"/>
+      <c r="AR41" s="8"/>
+      <c r="AS41" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT41" s="18"/>
+      <c r="AU41" s="3"/>
+    </row>
+    <row r="42" spans="1:47" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B42" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C42" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D42" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E42" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="11"/>
-      <c r="G41" s="12" t="s">
+      <c r="F42" s="7"/>
+      <c r="G42" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H41" s="12" t="s">
+      <c r="H42" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I41" s="46"/>
-      <c r="J41" s="37" t="s">
+      <c r="I42" s="8"/>
+      <c r="J42" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="K41" s="14" t="s">
+      <c r="K42" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="L41" s="14"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="70">
+      <c r="L42" s="9"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="53">
         <v>20000</v>
       </c>
-      <c r="O41" s="46"/>
-      <c r="P41" s="28"/>
-      <c r="Q41" s="46"/>
-      <c r="R41" s="46"/>
-      <c r="S41" s="46"/>
-      <c r="T41" s="12"/>
-      <c r="U41" s="46"/>
-      <c r="V41" s="13"/>
-      <c r="W41" s="13"/>
-      <c r="X41" s="13"/>
-      <c r="Y41" s="13"/>
-      <c r="Z41" s="13"/>
-      <c r="AA41" s="13"/>
-      <c r="AB41" s="13"/>
-      <c r="AC41" s="13"/>
-      <c r="AD41" s="13"/>
-      <c r="AE41" s="71">
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="8"/>
+      <c r="AC42" s="8"/>
+      <c r="AD42" s="8"/>
+      <c r="AE42" s="8"/>
+      <c r="AF42" s="8"/>
+      <c r="AG42" s="54">
         <v>2000</v>
       </c>
-      <c r="AF41" s="46"/>
-      <c r="AG41" s="13"/>
-      <c r="AH41" s="12"/>
-      <c r="AI41" s="12"/>
-      <c r="AJ41" s="46"/>
-      <c r="AK41" s="13"/>
-      <c r="AL41" s="28"/>
-      <c r="AM41" s="12"/>
-      <c r="AO41" s="12"/>
-      <c r="AP41" s="46"/>
-      <c r="AQ41" s="12"/>
-      <c r="AR41" s="11"/>
-    </row>
-    <row r="42" spans="1:45" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11" t="s">
+      <c r="AH42" s="8"/>
+      <c r="AI42" s="8"/>
+      <c r="AJ42" s="8"/>
+      <c r="AK42" s="8"/>
+      <c r="AL42" s="8"/>
+      <c r="AM42" s="8"/>
+      <c r="AN42" s="8"/>
+      <c r="AO42" s="8"/>
+      <c r="AQ42" s="8"/>
+      <c r="AR42" s="8"/>
+      <c r="AS42" s="8"/>
+      <c r="AT42" s="7"/>
+    </row>
+    <row r="43" spans="1:47" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C43" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D43" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E43" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F42" s="11"/>
-      <c r="G42" s="28" t="s">
+      <c r="F43" s="7"/>
+      <c r="G43" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H42" s="19" t="s">
+      <c r="H43" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="I42" s="19"/>
-      <c r="J42" s="37" t="s">
+      <c r="I43" s="14"/>
+      <c r="J43" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="K42" s="38" t="s">
+      <c r="K43" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="L42" s="38"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="70">
+      <c r="L43" s="30"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="53">
         <v>50700</v>
       </c>
-      <c r="O42" s="46"/>
-      <c r="P42" s="70">
+      <c r="O43" s="8"/>
+      <c r="P43" s="53">
         <v>14390</v>
       </c>
-      <c r="Q42" s="46"/>
-      <c r="R42" s="46"/>
-      <c r="S42" s="46"/>
-      <c r="T42" s="12">
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8">
         <v>252</v>
       </c>
-      <c r="U42" s="46">
+      <c r="S43" s="8">
         <v>252</v>
       </c>
-      <c r="V42" s="13"/>
-      <c r="W42" s="13"/>
-      <c r="X42" s="13"/>
-      <c r="Y42" s="13"/>
-      <c r="Z42" s="13"/>
-      <c r="AA42" s="13"/>
-      <c r="AB42" s="13"/>
-      <c r="AC42" s="13"/>
-      <c r="AD42" s="13"/>
-      <c r="AE42" s="12"/>
-      <c r="AF42" s="46"/>
-      <c r="AG42" s="13"/>
-      <c r="AH42" s="12"/>
-      <c r="AI42" s="12">
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="8"/>
+      <c r="AC43" s="8"/>
+      <c r="AD43" s="8"/>
+      <c r="AE43" s="8"/>
+      <c r="AF43" s="8"/>
+      <c r="AG43" s="8"/>
+      <c r="AH43" s="8"/>
+      <c r="AI43" s="8"/>
+      <c r="AJ43" s="8"/>
+      <c r="AK43" s="8">
         <v>6000</v>
       </c>
-      <c r="AJ42" s="46"/>
-      <c r="AK42" s="13"/>
-      <c r="AL42" s="28">
+      <c r="AL43" s="8"/>
+      <c r="AM43" s="8"/>
+      <c r="AN43" s="8">
         <v>15000</v>
       </c>
-      <c r="AM42" s="12">
+      <c r="AO43" s="8">
         <v>25000</v>
       </c>
-      <c r="AO42" s="12"/>
-      <c r="AP42" s="46"/>
-      <c r="AQ42" s="12"/>
-      <c r="AR42" s="11"/>
-    </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="J43" s="4" t="s">
+      <c r="AQ43" s="8"/>
+      <c r="AR43" s="8"/>
+      <c r="AS43" s="8"/>
+      <c r="AT43" s="7"/>
+    </row>
+    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="J44" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="J44" s="4" t="s">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="J45" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="AQ44" s="1" t="s">
+      <c r="AS45" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="J45" s="4" t="s">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="J46" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="J46" s="4" t="s">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="J47" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="J47" s="4" t="s">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="J48" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="J48" s="4" t="s">
+    <row r="49" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J49" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="49" spans="4:43" x14ac:dyDescent="0.25">
-      <c r="J49" s="4" t="s">
+    <row r="50" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J50" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="50" spans="4:43" x14ac:dyDescent="0.25">
-      <c r="D50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="J50" s="4" t="s">
+    <row r="51" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J51" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="N50" s="8"/>
-      <c r="T50" s="8"/>
-      <c r="AE50" s="8"/>
-      <c r="AH50" s="8"/>
-      <c r="AI50" s="8"/>
-      <c r="AM50" s="8"/>
-      <c r="AQ50" s="8"/>
-    </row>
-    <row r="51" spans="4:43" x14ac:dyDescent="0.25">
-      <c r="J51" s="4" t="s">
+    </row>
+    <row r="52" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J52" s="3" t="s">
         <v>165</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AR35" r:id="rId1" xr:uid="{AB43767C-640A-454E-8867-6D6B4EA887DD}"/>
-    <hyperlink ref="AR31" r:id="rId2" xr:uid="{50B6654F-C5A2-470C-9C72-0FB47B53C39C}"/>
-    <hyperlink ref="AR32" r:id="rId3" xr:uid="{226ECD63-E987-486F-B62A-CB3E93330EC9}"/>
+    <hyperlink ref="AT35" r:id="rId1" xr:uid="{AB43767C-640A-454E-8867-6D6B4EA887DD}"/>
+    <hyperlink ref="AT31" r:id="rId2" xr:uid="{50B6654F-C5A2-470C-9C72-0FB47B53C39C}"/>
+    <hyperlink ref="AT32" r:id="rId3" xr:uid="{226ECD63-E987-486F-B62A-CB3E93330EC9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId4"/>

--- a/war_index.xlsx
+++ b/war_index.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BF89BB-C534-434D-A8AE-FB4133AC6363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3D9269-AE26-41A1-9B52-FA267AEFECD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{04375B46-837D-49F2-BE8A-ABE006783F6C}"/>
   </bookViews>
@@ -1230,7 +1230,7 @@
       <charset val="162"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1270,6 +1270,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1322,7 +1328,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1481,6 +1487,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2995,9 +3007,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C1708F5-F567-4565-A221-ECE07B210A7F}">
   <dimension ref="A1:AV52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V41" sqref="V41"/>
+      <selection pane="bottomLeft" activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5438,10 +5450,10 @@
       <c r="B39" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C39" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="62" t="s">
         <v>177</v>
       </c>
       <c r="E39" s="7"/>
@@ -5522,10 +5534,10 @@
     <row r="40" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="31" t="s">
+      <c r="C40" s="61" t="s">
         <v>172</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="62" t="s">
         <v>177</v>
       </c>
       <c r="E40" s="7"/>

--- a/war_index.xlsx
+++ b/war_index.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3D9269-AE26-41A1-9B52-FA267AEFECD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA605D2-45A7-4A97-8FC9-6E7F603A7939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{04375B46-837D-49F2-BE8A-ABE006783F6C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="382">
   <si>
     <t>date</t>
   </si>
@@ -304,9 +304,6 @@
   </si>
   <si>
     <t>Generals François Kellermann and Charles Dumouriez</t>
-  </si>
-  <si>
-    <t>tactical draw</t>
   </si>
   <si>
     <t>village of Valmy in Champagne-Ardenne.</t>
@@ -1189,6 +1186,12 @@
   </si>
   <si>
     <t>Napoleon1</t>
+  </si>
+  <si>
+    <t>bor</t>
+  </si>
+  <si>
+    <t>tactical draw, first trial between two forms of war, limited-the wars of kings, and unlimited-peoples war. There was practically no fighting, mutual cannonade, before assult to valmy, brunswick said we do not fight here. Fuller, conduct of war, 30</t>
   </si>
 </sst>
 </file>
@@ -1865,118 +1868,118 @@
         <v>22</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H1" s="34" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I1" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="J1" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="J1" s="34" t="s">
-        <v>232</v>
-      </c>
       <c r="K1" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="T1" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="U1" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="W1" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="X1" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="Y1" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Z1" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="AA1" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AB1" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="AB1" s="10" t="s">
-        <v>229</v>
-      </c>
       <c r="AD1" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE1" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="AE1" s="34" t="s">
-        <v>194</v>
-      </c>
       <c r="AF1" s="37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="H2" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>236</v>
-      </c>
       <c r="I2" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L2" s="8">
         <v>25000</v>
@@ -1994,7 +1997,7 @@
         <v>600</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R2" s="8">
         <v>6400</v>
@@ -2013,13 +2016,13 @@
       <c r="Z2" s="8"/>
       <c r="AA2" s="8"/>
       <c r="AD2" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE2" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF2" s="38" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2070,145 +2073,145 @@
   <sheetData>
     <row r="1" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I1" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>253</v>
-      </c>
       <c r="L1" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N1" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="T1" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="O1" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="R1" s="10" t="s">
+      <c r="U1" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="AF1" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="S1" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="W1" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="X1" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="Y1" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="Z1" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="AA1" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="AB1" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="AC1" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="AD1" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="AE1" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="AF1" s="10" t="s">
-        <v>249</v>
-      </c>
       <c r="AG1" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="AH1" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="AH1" s="34" t="s">
-        <v>194</v>
-      </c>
       <c r="AI1" s="37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AJ1" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:37" s="37" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
       <c r="B2" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>259</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>262</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>260</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>263</v>
       </c>
       <c r="F2" s="35"/>
       <c r="G2" s="35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I2" s="35"/>
       <c r="J2" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K2" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L2" s="35"/>
       <c r="M2" s="39" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N2" s="35">
         <v>37000</v>
@@ -2216,7 +2219,7 @@
       <c r="O2" s="35"/>
       <c r="P2" s="35"/>
       <c r="Q2" s="39" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R2" s="35">
         <v>195</v>
@@ -2225,7 +2228,7 @@
         <v>667</v>
       </c>
       <c r="T2" s="35" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="U2" s="35"/>
       <c r="V2" s="35"/>
@@ -2244,26 +2247,26 @@
         <v>18000</v>
       </c>
       <c r="AG2" s="35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AH2" s="35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AI2" s="40" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AJ2" s="35"/>
     </row>
     <row r="3" spans="1:37" s="37" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35"/>
       <c r="B3" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="C3" s="44" t="s">
         <v>272</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="D3" s="9" t="s">
         <v>273</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>274</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="35"/>
@@ -2301,11 +2304,11 @@
     <row r="4" spans="1:37" s="37" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35"/>
       <c r="B4" s="35" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C4" s="44"/>
       <c r="D4" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="35"/>
@@ -2347,7 +2350,7 @@
       </c>
       <c r="C5" s="44"/>
       <c r="D5" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="35"/>
@@ -2388,10 +2391,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="35"/>
@@ -2432,10 +2435,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>279</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>280</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="35"/>
@@ -2478,7 +2481,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>1</v>
@@ -2493,23 +2496,23 @@
         <v>7</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J8" s="35" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K8" s="35"/>
       <c r="L8" s="35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M8" s="35">
         <v>22000</v>
       </c>
       <c r="N8" s="39" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O8" s="35"/>
       <c r="P8" s="35"/>
@@ -2545,13 +2548,13 @@
         <v>7</v>
       </c>
       <c r="AH8" s="35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AI8" s="41" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AJ8" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:37" s="36" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2568,7 +2571,7 @@
         <v>11</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="L9" s="35"/>
       <c r="M9" s="35"/>
@@ -2610,7 +2613,7 @@
         <v>47</v>
       </c>
       <c r="K10" s="35" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L10" s="35"/>
       <c r="M10" s="35"/>
@@ -2646,32 +2649,32 @@
         <v>3</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F11" s="35"/>
       <c r="G11" s="35" t="s">
         <v>7</v>
       </c>
       <c r="H11" s="35" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I11" s="35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J11" s="35" t="s">
         <v>18</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L11" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M11" s="35">
         <v>33000</v>
@@ -2725,13 +2728,13 @@
         <v>7</v>
       </c>
       <c r="AH11" s="35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AI11" s="41" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AJ11" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
@@ -2739,10 +2742,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>282</v>
       </c>
       <c r="E12" s="3"/>
       <c r="G12" s="35"/>
@@ -2754,10 +2757,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E13" s="3"/>
       <c r="AI13" s="3"/>
@@ -2767,31 +2770,31 @@
         <v>3</v>
       </c>
       <c r="C14" s="45" t="s">
+        <v>369</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>371</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>372</v>
       </c>
       <c r="G14" s="35" t="s">
         <v>18</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J14" s="35" t="s">
         <v>7</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AI14" t="s">
+        <v>373</v>
+      </c>
+      <c r="AJ14" s="6" t="s">
         <v>374</v>
-      </c>
-      <c r="AJ14" s="6" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
@@ -2802,22 +2805,22 @@
         <v>3</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H15" s="35" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M15" s="53">
         <v>50900</v>
@@ -2827,13 +2830,13 @@
         <v>51500</v>
       </c>
       <c r="AI15" s="42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AJ15" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AK15" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
@@ -2844,10 +2847,10 @@
       <c r="E16" s="3"/>
       <c r="H16" s="35"/>
       <c r="J16" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K16" s="57" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L16" s="58"/>
       <c r="M16" s="59"/>
@@ -2872,7 +2875,7 @@
         <v>18</v>
       </c>
       <c r="K17" s="57" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L17" s="58"/>
       <c r="M17" s="59"/>
@@ -2889,37 +2892,37 @@
         <v>3</v>
       </c>
       <c r="C18" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>286</v>
-      </c>
       <c r="E18" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H18" s="35" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K18" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="AI18" s="42" t="s">
+        <v>290</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>289</v>
+      </c>
+      <c r="AK18" t="s">
         <v>295</v>
       </c>
-      <c r="AI18" s="42" t="s">
-        <v>291</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>290</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>296</v>
-      </c>
       <c r="AL18" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.25">
@@ -2927,10 +2930,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>288</v>
       </c>
       <c r="E19" s="3"/>
       <c r="G19" s="1" t="s">
@@ -2941,7 +2944,7 @@
       </c>
       <c r="AI19" s="3"/>
       <c r="AJ19" s="43" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.25">
@@ -3007,9 +3010,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C1708F5-F567-4565-A221-ECE07B210A7F}">
   <dimension ref="A1:AV52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AU4" sqref="AU4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3052,10 +3055,10 @@
   <sheetData>
     <row r="1" spans="1:47" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>14</v>
@@ -3076,7 +3079,7 @@
         <v>8</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J1" s="48" t="s">
         <v>23</v>
@@ -3086,109 +3089,109 @@
       </c>
       <c r="L1" s="11"/>
       <c r="M1" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N1" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="O1" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="V1" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="R1" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="V1" s="10" t="s">
+      <c r="W1" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="W1" s="10" t="s">
-        <v>209</v>
-      </c>
       <c r="X1" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y1" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Z1" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="AA1" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AB1" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF1" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="AB1" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC1" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD1" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="AE1" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF1" s="10" t="s">
-        <v>151</v>
-      </c>
       <c r="AG1" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH1" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="AH1" s="10" t="s">
-        <v>344</v>
-      </c>
       <c r="AI1" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AJ1" s="10" t="s">
         <v>19</v>
       </c>
       <c r="AK1" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="AL1" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="AL1" s="10" t="s">
-        <v>346</v>
-      </c>
       <c r="AM1" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AN1" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AO1" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="AP1" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="AP1" s="10" t="s">
+      <c r="AQ1" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="AQ1" s="10" t="s">
+      <c r="AR1" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="AR1" s="10" t="s">
-        <v>338</v>
-      </c>
       <c r="AS1" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="AT1" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="AT1" s="34" t="s">
-        <v>194</v>
-      </c>
       <c r="AU1" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.25">
@@ -3264,7 +3267,7 @@
         <v>86</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="8" t="s">
@@ -3315,34 +3318,34 @@
       <c r="AS3" s="8"/>
       <c r="AT3" s="7"/>
       <c r="AU3" t="s">
-        <v>89</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="8"/>
@@ -3385,13 +3388,13 @@
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="8" t="s">
@@ -3502,7 +3505,7 @@
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>80</v>
@@ -3517,7 +3520,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="29" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
@@ -3561,27 +3564,27 @@
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>100</v>
-      </c>
       <c r="E8" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="16" t="s">
         <v>106</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>107</v>
       </c>
       <c r="I8" s="16"/>
       <c r="J8" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8" s="17" t="s">
         <v>108</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>109</v>
       </c>
       <c r="L8" s="17"/>
       <c r="M8" s="16"/>
@@ -3616,7 +3619,7 @@
       <c r="AQ8" s="16"/>
       <c r="AR8" s="16"/>
       <c r="AS8" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AT8" s="15"/>
       <c r="AU8" s="2" t="s">
@@ -3627,7 +3630,7 @@
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="7"/>
@@ -3679,7 +3682,7 @@
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="7"/>
@@ -3891,16 +3894,16 @@
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="D14" s="8" t="s">
         <v>325</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>326</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -3908,19 +3911,19 @@
         <v>46</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J14" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M14" s="8"/>
       <c r="N14" s="53">
@@ -3971,10 +3974,10 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="29" t="s">
-        <v>311</v>
+        <v>380</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L15" s="9"/>
       <c r="M15" s="8"/>
@@ -4024,10 +4027,10 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L16" s="9"/>
       <c r="M16" s="8"/>
@@ -4070,10 +4073,10 @@
     </row>
     <row r="17" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>45</v>
@@ -4090,16 +4093,16 @@
         <v>50</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J17" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M17" s="8"/>
       <c r="N17" s="53">
@@ -4152,7 +4155,7 @@
       </c>
       <c r="AT17" s="7"/>
       <c r="AU17" s="29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4254,10 +4257,10 @@
     <row r="20" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>49</v>
@@ -4374,36 +4377,36 @@
       <c r="AR21" s="8"/>
       <c r="AT21" s="7"/>
       <c r="AU21" s="29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>359</v>
-      </c>
       <c r="C22" s="32" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="29" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L22" s="9"/>
       <c r="M22" s="8"/>
@@ -4462,7 +4465,7 @@
         <v>47</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L23" s="9"/>
       <c r="M23" s="8"/>
@@ -4505,10 +4508,10 @@
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>180</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>181</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -4521,11 +4524,11 @@
         <v>18</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L24" s="9"/>
       <c r="M24" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
@@ -4564,10 +4567,10 @@
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>182</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>183</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
@@ -4582,7 +4585,7 @@
       <c r="K25" s="52"/>
       <c r="L25" s="52"/>
       <c r="M25" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
@@ -4750,14 +4753,14 @@
         <v>38</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="29" t="s">
         <v>77</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L28" s="9"/>
       <c r="M28" s="8"/>
@@ -4818,7 +4821,7 @@
         <v>66</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L29" s="9"/>
       <c r="M29" s="8"/>
@@ -4859,13 +4862,13 @@
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="46" t="s">
+        <v>314</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="8"/>
@@ -4908,36 +4911,36 @@
       <c r="AS30" s="8"/>
       <c r="AT30" s="7"/>
       <c r="AV30" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="31" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="D31" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="E31" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="H31" s="8" t="s">
         <v>302</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>303</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="29" t="s">
         <v>66</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L31" s="9"/>
       <c r="M31" s="8"/>
@@ -4973,39 +4976,39 @@
       <c r="AR31" s="8"/>
       <c r="AS31" s="8"/>
       <c r="AT31" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="AU31" t="s">
         <v>305</v>
-      </c>
-      <c r="AU31" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="32" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="D32" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="D32" s="14" t="s">
-        <v>308</v>
-      </c>
       <c r="E32" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="K32" s="9" t="s">
         <v>311</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>312</v>
       </c>
       <c r="L32" s="9"/>
       <c r="M32" s="8"/>
@@ -5041,24 +5044,24 @@
       <c r="AR32" s="8"/>
       <c r="AS32" s="8"/>
       <c r="AT32" s="18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AU32" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="33" spans="1:47" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C33" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D33" s="14" t="s">
         <v>186</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>187</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
@@ -5106,13 +5109,13 @@
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D34" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="E34" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="8"/>
@@ -5164,30 +5167,30 @@
     <row r="35" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="E35" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="8" t="s">
         <v>38</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L35" s="9"/>
       <c r="M35" s="8">
@@ -5225,7 +5228,7 @@
       <c r="AM35" s="8"/>
       <c r="AN35" s="8"/>
       <c r="AO35" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AQ35" s="8">
         <v>4</v>
@@ -5234,42 +5237,42 @@
         <v>4</v>
       </c>
       <c r="AS35" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AT35" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AU35" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:47" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21"/>
       <c r="B36" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C36" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="E36" s="21" t="s">
         <v>133</v>
-      </c>
-      <c r="E36" s="21" t="s">
-        <v>134</v>
       </c>
       <c r="F36" s="21"/>
       <c r="G36" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="H36" s="24" t="s">
         <v>137</v>
-      </c>
-      <c r="H36" s="24" t="s">
-        <v>138</v>
       </c>
       <c r="I36" s="24"/>
       <c r="J36" s="51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K36" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L36" s="25"/>
       <c r="M36" s="24"/>
@@ -5328,7 +5331,7 @@
       <c r="AQ36" s="24"/>
       <c r="AR36" s="24"/>
       <c r="AS36" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AT36" s="26"/>
       <c r="AU36" s="27"/>
@@ -5337,10 +5340,10 @@
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" s="14" t="s">
         <v>128</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>129</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
@@ -5348,14 +5351,14 @@
         <v>38</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L37" s="9"/>
       <c r="M37" s="8"/>
@@ -5397,10 +5400,10 @@
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
@@ -5448,28 +5451,28 @@
     <row r="39" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C39" s="61" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D39" s="62" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>12</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L39" s="9"/>
       <c r="M39" s="8"/>
@@ -5525,33 +5528,33 @@
         <v>46</v>
       </c>
       <c r="AT39" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="AU39" s="3" t="s">
         <v>347</v>
-      </c>
-      <c r="AU39" s="3" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="40" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="61" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D40" s="62" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="29"/>
       <c r="K40" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L40" s="9"/>
       <c r="M40" s="8"/>
@@ -5594,32 +5597,32 @@
       <c r="AS40" s="8"/>
       <c r="AT40" s="18"/>
       <c r="AU40" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="41" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="D41" s="14" t="s">
         <v>376</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>377</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="29" t="s">
         <v>18</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L41" s="9"/>
       <c r="M41" s="8"/>
@@ -5668,7 +5671,7 @@
         <v>16</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>15</v>
@@ -5691,7 +5694,7 @@
         <v>25</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L42" s="9"/>
       <c r="M42" s="8"/>
@@ -5735,30 +5738,30 @@
     <row r="43" spans="1:47" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C43" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="E43" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I43" s="14"/>
       <c r="J43" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="K43" s="30" t="s">
         <v>156</v>
-      </c>
-      <c r="K43" s="30" t="s">
-        <v>157</v>
       </c>
       <c r="L43" s="30"/>
       <c r="M43" s="8"/>
@@ -5811,50 +5814,50 @@
     </row>
     <row r="44" spans="1:47" x14ac:dyDescent="0.25">
       <c r="J44" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:47" x14ac:dyDescent="0.25">
       <c r="J45" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AS45" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:47" x14ac:dyDescent="0.25">
       <c r="J46" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:47" x14ac:dyDescent="0.25">
       <c r="J47" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:47" x14ac:dyDescent="0.25">
       <c r="J48" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J49" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J50" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J51" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J52" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
